--- a/scripts/output/201912/全家/全家整体资产配置.xlsx
+++ b/scripts/output/201912/全家/全家整体资产配置.xlsx
@@ -621,16 +621,16 @@
         <v>90010</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>1.6525</v>
+        <v>1.6515</v>
       </c>
       <c r="D4" s="10" t="n">
-        <v>2280.92</v>
+        <v>2352.23</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>3801.35</v>
+        <v>3784.74</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>-83.36</v>
+        <v>-99.97</v>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
@@ -668,16 +668,16 @@
         <v>519671</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>1.4264</v>
+        <v>1.4266</v>
       </c>
       <c r="D5" s="10" t="n">
-        <v>2540.22</v>
+        <v>2620.53</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>3750.12</v>
+        <v>3731.63</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>11.67</v>
+        <v>-6.82</v>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
@@ -721,10 +721,10 @@
         <v>2260.14</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3268.16</v>
+        <v>3244.66</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>221.22</v>
+        <v>197.72</v>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
@@ -762,16 +762,16 @@
         <v>3318</v>
       </c>
       <c r="C7" s="9" t="n">
-        <v>0.9336</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="D7" s="10" t="n">
-        <v>3390.61</v>
+        <v>3509.02</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>3214.05</v>
+        <v>3212.16</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>-59.95</v>
+        <v>-61.84</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
@@ -809,16 +809,16 @@
         <v>70023</v>
       </c>
       <c r="C8" s="9" t="n">
-        <v>1.7965</v>
+        <v>1.7987</v>
       </c>
       <c r="D8" s="10" t="n">
-        <v>1314.93</v>
+        <v>1363.37</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2528.76</v>
+        <v>2531.51</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>76.48</v>
+        <v>79.23</v>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
@@ -856,16 +856,16 @@
         <v>530015</v>
       </c>
       <c r="C9" s="9" t="n">
-        <v>2.1218</v>
+        <v>2.1233</v>
       </c>
       <c r="D9" s="10" t="n">
-        <v>973.88</v>
+        <v>1017.99</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>2194.01</v>
+        <v>2197.74</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>32.48</v>
+        <v>36.21</v>
       </c>
       <c r="G9" s="11" t="inlineStr">
         <is>
@@ -903,16 +903,16 @@
         <v>968</v>
       </c>
       <c r="C10" s="9" t="n">
-        <v>0.9605</v>
+        <v>0.9587</v>
       </c>
       <c r="D10" s="10" t="n">
-        <v>887.74</v>
+        <v>980.46</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>921.64</v>
+        <v>922.91</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>-18.29</v>
+        <v>-17.02</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
@@ -956,10 +956,10 @@
         <v>550.4</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>515.9400000000001</v>
+        <v>513.63</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>-24.95</v>
+        <v>-27.26</v>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
@@ -1003,10 +1003,10 @@
         <v>531.87</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>400.39</v>
+        <v>402.04</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>43.61</v>
+        <v>45.26</v>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
         <v>247.91</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>321.79</v>
+        <v>320.3</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>8.529999999999999</v>
+        <v>7.04</v>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         <v>60.61</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>87.34999999999999</v>
+        <v>86.91</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>-5.36</v>
+        <v>-5.8</v>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         <v>16731.88</v>
       </c>
       <c r="E18" s="20" t="n">
-        <v>9159.030000000001</v>
+        <v>9179.110000000001</v>
       </c>
       <c r="F18" s="20" t="n">
         <v>-2840.97</v>
@@ -1332,7 +1332,7 @@
         <v>2700</v>
       </c>
       <c r="E19" s="25" t="n">
-        <v>7848.9</v>
+        <v>7830</v>
       </c>
       <c r="F19" s="25" t="n">
         <v>1539</v>
@@ -1379,7 +1379,7 @@
         <v>9100</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>35590.1</v>
+        <v>35599.2</v>
       </c>
       <c r="F20" s="25" t="n">
         <v>4222.4</v>
@@ -1426,7 +1426,7 @@
         <v>38800</v>
       </c>
       <c r="E21" s="25" t="n">
-        <v>206804</v>
+        <v>206450.92</v>
       </c>
       <c r="F21" s="25" t="n">
         <v>-10514.8</v>
@@ -1473,7 +1473,7 @@
         <v>33800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>24640.2</v>
+        <v>24687.52</v>
       </c>
       <c r="F22" s="25" t="n">
         <v>-5002.4</v>
@@ -1520,7 +1520,7 @@
         <v>32700</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>29757</v>
+        <v>29688.33</v>
       </c>
       <c r="F23" s="25" t="n">
         <v>4152.9</v>
@@ -1567,7 +1567,7 @@
         <v>34100</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>25779.6</v>
+        <v>25707.99</v>
       </c>
       <c r="F24" s="25" t="n">
         <v>-3853.3</v>
@@ -1614,7 +1614,7 @@
         <v>4500</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>14746.5</v>
+        <v>15075.9</v>
       </c>
       <c r="F25" s="25" t="n">
         <v>1894.5</v>
@@ -1661,7 +1661,7 @@
         <v>9200</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>14839.6</v>
+        <v>14825.8</v>
       </c>
       <c r="F26" s="25" t="n">
         <v>1968.8</v>
@@ -1708,7 +1708,7 @@
         <v>14400</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>19008</v>
+        <v>19078.56</v>
       </c>
       <c r="F27" s="25" t="n">
         <v>705.6</v>
@@ -1755,7 +1755,7 @@
         <v>4157.52</v>
       </c>
       <c r="E28" s="30" t="n">
-        <v>8090.53</v>
+        <v>8081.8</v>
       </c>
       <c r="F28" s="30" t="n">
         <v>86.53</v>
@@ -1802,7 +1802,7 @@
         <v>9722</v>
       </c>
       <c r="E29" s="30" t="n">
-        <v>5321.82</v>
+        <v>5333.49</v>
       </c>
       <c r="F29" s="30" t="n">
         <v>-14.18</v>
@@ -1849,7 +1849,7 @@
         <v>4943.96</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>4646.83</v>
+        <v>4653.75</v>
       </c>
       <c r="F30" s="30" t="n">
         <v>-22.17</v>
@@ -1896,7 +1896,7 @@
         <v>7379.54</v>
       </c>
       <c r="E31" s="30" t="n">
-        <v>4043.99</v>
+        <v>4036.61</v>
       </c>
       <c r="F31" s="30" t="n">
         <v>41.99</v>
@@ -1943,7 +1943,7 @@
         <v>3665.01</v>
       </c>
       <c r="E32" s="30" t="n">
-        <v>4016.85</v>
+        <v>4002.19</v>
       </c>
       <c r="F32" s="30" t="n">
         <v>14.85</v>
@@ -1990,7 +1990,7 @@
         <v>4550.55</v>
       </c>
       <c r="E33" s="30" t="n">
-        <v>3451.14</v>
+        <v>3447.5</v>
       </c>
       <c r="F33" s="30" t="n">
         <v>116.14</v>
@@ -2037,7 +2037,7 @@
         <v>400.63</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>695.17</v>
+        <v>694.61</v>
       </c>
       <c r="F34" s="30" t="n">
         <v>28.17</v>
@@ -2084,7 +2084,7 @@
         <v>736.3</v>
       </c>
       <c r="E35" s="30" t="n">
-        <v>694.48</v>
+        <v>693.59</v>
       </c>
       <c r="F35" s="30" t="n">
         <v>27.48</v>
@@ -2131,7 +2131,7 @@
         <v>473.85</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>463.14</v>
+        <v>461.86</v>
       </c>
       <c r="F36" s="30" t="n">
         <v>-3.76</v>
@@ -2178,7 +2178,7 @@
         <v>5299.96</v>
       </c>
       <c r="E37" s="30" t="n">
-        <v>1934.49</v>
+        <v>1907.99</v>
       </c>
       <c r="F37" s="30" t="n">
         <v>-66.51000000000001</v>
@@ -2225,7 +2225,7 @@
         <v>576.8</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>751.5700000000001</v>
+        <v>746.38</v>
       </c>
       <c r="F38" s="30" t="n">
         <v>84.56999999999999</v>
@@ -2272,7 +2272,7 @@
         <v>459.67</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>679.12</v>
+        <v>672.5</v>
       </c>
       <c r="F39" s="30" t="n">
         <v>12.12</v>
@@ -2319,7 +2319,7 @@
         <v>611.75</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>722.48</v>
+        <v>726.76</v>
       </c>
       <c r="F40" s="30" t="n">
         <v>55.48</v>
@@ -2366,7 +2366,7 @@
         <v>1046.73</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>2036.94</v>
+        <v>2034.74</v>
       </c>
       <c r="F41" s="30" t="n">
         <v>36.94</v>
@@ -2413,7 +2413,7 @@
         <v>1825.9</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>2001.19</v>
+        <v>1993.88</v>
       </c>
       <c r="F42" s="30" t="n">
         <v>1.19</v>
@@ -2460,7 +2460,7 @@
         <v>1059.17</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>1055.99</v>
+        <v>1052.81</v>
       </c>
       <c r="F43" s="30" t="n">
         <v>55.99</v>
@@ -2507,7 +2507,7 @@
         <v>1812.7</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>993.36</v>
+        <v>991.55</v>
       </c>
       <c r="F44" s="30" t="n">
         <v>-6.64</v>
@@ -2554,7 +2554,7 @@
         <v>1227.03</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>930.58</v>
+        <v>929.6</v>
       </c>
       <c r="F45" s="30" t="n">
         <v>-69.42</v>
@@ -2601,7 +2601,7 @@
         <v>1834.47</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>2234.2</v>
+        <v>2274.93</v>
       </c>
       <c r="F46" s="30" t="n">
         <v>234.2</v>
@@ -2648,7 +2648,7 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E47" s="30" t="n">
-        <v>1172.47</v>
+        <v>1164.37</v>
       </c>
       <c r="F47" s="30" t="n">
         <v>172.47</v>
@@ -2695,7 +2695,7 @@
         <v>689.02</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>1017.96</v>
+        <v>1008.04</v>
       </c>
       <c r="F48" s="30" t="n">
         <v>17.96</v>
@@ -2742,7 +2742,7 @@
         <v>4757.9</v>
       </c>
       <c r="E49" s="30" t="n">
-        <v>1736.63</v>
+        <v>1712.84</v>
       </c>
       <c r="F49" s="30" t="n">
         <v>-263.37</v>
@@ -2789,7 +2789,7 @@
         <v>953.96</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>1126.63</v>
+        <v>1133.3</v>
       </c>
       <c r="F50" s="30" t="n">
         <v>126.63</v>
@@ -2836,7 +2836,7 @@
         <v>595.47</v>
       </c>
       <c r="E51" s="30" t="n">
-        <v>1002.18</v>
+        <v>1002.77</v>
       </c>
       <c r="F51" s="30" t="n">
         <v>2.18</v>
@@ -2883,7 +2883,7 @@
         <v>65064.33</v>
       </c>
       <c r="E52" s="35" t="n">
-        <v>71310.5</v>
+        <v>71050.25</v>
       </c>
       <c r="F52" s="35" t="n">
         <v>4990.5</v>
@@ -2930,7 +2930,7 @@
         <v>63490</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>59674.25</v>
+        <v>59763.14</v>
       </c>
       <c r="F53" s="35" t="n">
         <v>1474.25</v>
@@ -2977,7 +2977,7 @@
         <v>32370.29</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>37167.56</v>
+        <v>37128.72</v>
       </c>
       <c r="F54" s="35" t="n">
         <v>5167.56</v>
@@ -3024,7 +3024,7 @@
         <v>20086.63</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>33805.79</v>
+        <v>33825.88</v>
       </c>
       <c r="F55" s="35" t="n">
         <v>1805.79</v>
@@ -3071,7 +3071,7 @@
         <v>41014.88</v>
       </c>
       <c r="E56" s="35" t="n">
-        <v>33763.44</v>
+        <v>33907</v>
       </c>
       <c r="F56" s="35" t="n">
         <v>3203.44</v>
@@ -3118,7 +3118,7 @@
         <v>20716.63</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>24466.34</v>
+        <v>24611.36</v>
       </c>
       <c r="F57" s="35" t="n">
         <v>1866.34</v>
@@ -3165,7 +3165,7 @@
         <v>14624.61</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>23487.12</v>
+        <v>23472.5</v>
       </c>
       <c r="F58" s="35" t="n">
         <v>4287.12</v>
@@ -3212,7 +3212,7 @@
         <v>21163.93</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>22956.51</v>
+        <v>22857.04</v>
       </c>
       <c r="F59" s="35" t="n">
         <v>3756.51</v>
@@ -3259,7 +3259,7 @@
         <v>16778.47</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>21862.34</v>
+        <v>21711.34</v>
       </c>
       <c r="F60" s="35" t="n">
         <v>2662.34</v>
@@ -3306,7 +3306,7 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>15257.22</v>
+        <v>15238.17</v>
       </c>
       <c r="F61" s="35" t="n">
         <v>2457.22</v>
@@ -3353,7 +3353,7 @@
         <v>37267.45</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>13602.61</v>
+        <v>13416.28</v>
       </c>
       <c r="F62" s="35" t="n">
         <v>-5597.39</v>
@@ -3400,7 +3400,7 @@
         <v>6798.52</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>10044.13</v>
+        <v>9946.23</v>
       </c>
       <c r="F63" s="35" t="n">
         <v>144.13</v>
@@ -3447,7 +3447,7 @@
         <v>5609.79</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>7556.38</v>
+        <v>7545.17</v>
       </c>
       <c r="F64" s="35" t="n">
         <v>2411.26</v>
@@ -3494,7 +3494,7 @@
         <v>13403.92</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>7337.3</v>
+        <v>7353.39</v>
       </c>
       <c r="F65" s="35" t="n">
         <v>937.3</v>
@@ -3541,7 +3541,7 @@
         <v>5328.62</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>7236.79</v>
+        <v>7236.27</v>
       </c>
       <c r="F66" s="35" t="n">
         <v>836.79</v>
@@ -3588,7 +3588,7 @@
         <v>7778.64</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>6723.07</v>
+        <v>6718.41</v>
       </c>
       <c r="F67" s="35" t="n">
         <v>-276.93</v>
@@ -3635,7 +3635,7 @@
         <v>3299.64</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>6421.09</v>
+        <v>6414.17</v>
       </c>
       <c r="F68" s="35" t="n">
         <v>21.09</v>
@@ -3682,7 +3682,7 @@
         <v>7852.99</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>5955.7</v>
+        <v>5949.43</v>
       </c>
       <c r="F69" s="35" t="n">
         <v>-444.3</v>
@@ -3776,7 +3776,7 @@
         <v>171152.16</v>
       </c>
       <c r="E71" s="30" t="n">
-        <v>176081.34</v>
+        <v>176098.46</v>
       </c>
       <c r="F71" s="30" t="n">
         <v>41.34</v>
@@ -4011,7 +4011,7 @@
         <v>76964.17</v>
       </c>
       <c r="E76" s="30" t="n">
-        <v>99129.85000000001</v>
+        <v>99052.89</v>
       </c>
       <c r="F76" s="30" t="n">
         <v>-110.15</v>
@@ -4058,7 +4058,7 @@
         <v>140577.44</v>
       </c>
       <c r="E77" s="30" t="n">
-        <v>151669</v>
+        <v>151683.06</v>
       </c>
       <c r="F77" s="30" t="n">
         <v>-51</v>
@@ -4099,16 +4099,16 @@
         <v>519671</v>
       </c>
       <c r="C78" s="9" t="n">
-        <v>1.4262</v>
+        <v>1.4263</v>
       </c>
       <c r="D78" s="10" t="n">
-        <v>1013.26</v>
+        <v>1029.32</v>
       </c>
       <c r="E78" s="10" t="n">
-        <v>1472.99</v>
+        <v>1465.75</v>
       </c>
       <c r="F78" s="10" t="n">
-        <v>4.88</v>
+        <v>-2.36</v>
       </c>
       <c r="G78" s="11" t="inlineStr">
         <is>
@@ -4146,16 +4146,16 @@
         <v>90010</v>
       </c>
       <c r="C79" s="9" t="n">
-        <v>1.6528</v>
+        <v>1.6522</v>
       </c>
       <c r="D79" s="10" t="n">
-        <v>859.89</v>
+        <v>874.15</v>
       </c>
       <c r="E79" s="10" t="n">
-        <v>1412.66</v>
+        <v>1406.51</v>
       </c>
       <c r="F79" s="10" t="n">
-        <v>-31.65</v>
+        <v>-37.8</v>
       </c>
       <c r="G79" s="11" t="inlineStr">
         <is>
@@ -4199,10 +4199,10 @@
         <v>898.04</v>
       </c>
       <c r="E80" s="10" t="n">
-        <v>1298.57</v>
+        <v>1289.23</v>
       </c>
       <c r="F80" s="10" t="n">
-        <v>87.59999999999999</v>
+        <v>78.26000000000001</v>
       </c>
       <c r="G80" s="11" t="inlineStr">
         <is>
@@ -4240,16 +4240,16 @@
         <v>3318</v>
       </c>
       <c r="C81" s="9" t="n">
-        <v>0.9331</v>
+        <v>0.9328</v>
       </c>
       <c r="D81" s="10" t="n">
-        <v>1312.53</v>
+        <v>1336.21</v>
       </c>
       <c r="E81" s="10" t="n">
-        <v>1223.87</v>
+        <v>1223.17</v>
       </c>
       <c r="F81" s="10" t="n">
-        <v>-22.56</v>
+        <v>-23.26</v>
       </c>
       <c r="G81" s="11" t="inlineStr">
         <is>
@@ -4287,16 +4287,16 @@
         <v>70023</v>
       </c>
       <c r="C82" s="9" t="n">
-        <v>1.7954</v>
+        <v>1.7966</v>
       </c>
       <c r="D82" s="10" t="n">
-        <v>482.9</v>
+        <v>492.58</v>
       </c>
       <c r="E82" s="10" t="n">
-        <v>913.62</v>
+        <v>914.62</v>
       </c>
       <c r="F82" s="10" t="n">
-        <v>28.64</v>
+        <v>29.64</v>
       </c>
       <c r="G82" s="11" t="inlineStr">
         <is>
@@ -4334,16 +4334,16 @@
         <v>530015</v>
       </c>
       <c r="C83" s="9" t="n">
-        <v>2.1198</v>
+        <v>2.1207</v>
       </c>
       <c r="D83" s="10" t="n">
-        <v>389.84</v>
+        <v>398.66</v>
       </c>
       <c r="E83" s="10" t="n">
-        <v>859.1799999999999</v>
+        <v>860.67</v>
       </c>
       <c r="F83" s="10" t="n">
-        <v>13.74</v>
+        <v>15.23</v>
       </c>
       <c r="G83" s="11" t="inlineStr">
         <is>
@@ -4381,16 +4381,16 @@
         <v>968</v>
       </c>
       <c r="C84" s="9" t="n">
-        <v>0.9608</v>
+        <v>0.9599</v>
       </c>
       <c r="D84" s="10" t="n">
-        <v>354.88</v>
+        <v>373.42</v>
       </c>
       <c r="E84" s="10" t="n">
-        <v>351</v>
+        <v>351.5</v>
       </c>
       <c r="F84" s="10" t="n">
-        <v>-7.43</v>
+        <v>-6.93</v>
       </c>
       <c r="G84" s="11" t="inlineStr">
         <is>
@@ -4434,10 +4434,10 @@
         <v>214.89</v>
       </c>
       <c r="E85" s="10" t="n">
-        <v>201.44</v>
+        <v>200.54</v>
       </c>
       <c r="F85" s="10" t="n">
-        <v>-9.779999999999999</v>
+        <v>-10.68</v>
       </c>
       <c r="G85" s="11" t="inlineStr">
         <is>
@@ -4481,10 +4481,10 @@
         <v>212.74</v>
       </c>
       <c r="E86" s="10" t="n">
-        <v>160.15</v>
+        <v>160.81</v>
       </c>
       <c r="F86" s="10" t="n">
-        <v>17.45</v>
+        <v>18.11</v>
       </c>
       <c r="G86" s="11" t="inlineStr">
         <is>
@@ -4528,10 +4528,10 @@
         <v>62.09</v>
       </c>
       <c r="E87" s="10" t="n">
-        <v>80.59</v>
+        <v>80.22</v>
       </c>
       <c r="F87" s="10" t="n">
-        <v>0.55</v>
+        <v>0.18</v>
       </c>
       <c r="G87" s="11" t="inlineStr">
         <is>
@@ -4575,10 +4575,10 @@
         <v>24.24</v>
       </c>
       <c r="E88" s="10" t="n">
-        <v>34.93</v>
+        <v>34.76</v>
       </c>
       <c r="F88" s="10" t="n">
-        <v>-2.15</v>
+        <v>-2.32</v>
       </c>
       <c r="G88" s="11" t="inlineStr">
         <is>
@@ -4663,16 +4663,16 @@
         <v>90010</v>
       </c>
       <c r="C90" s="9" t="n">
-        <v>1.6581</v>
+        <v>1.6569</v>
       </c>
       <c r="D90" s="10" t="n">
-        <v>917.91</v>
+        <v>946.4299999999999</v>
       </c>
       <c r="E90" s="10" t="n">
-        <v>1529.49</v>
+        <v>1522.81</v>
       </c>
       <c r="F90" s="10" t="n">
-        <v>-38.69</v>
+        <v>-45.37</v>
       </c>
       <c r="G90" s="11" t="inlineStr">
         <is>
@@ -4710,16 +4710,16 @@
         <v>519671</v>
       </c>
       <c r="C91" s="9" t="n">
-        <v>1.4245</v>
+        <v>1.4248</v>
       </c>
       <c r="D91" s="10" t="n">
-        <v>993.53</v>
+        <v>1025.65</v>
       </c>
       <c r="E91" s="10" t="n">
-        <v>1467.77</v>
+        <v>1460.53</v>
       </c>
       <c r="F91" s="10" t="n">
-        <v>6.43</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="G91" s="11" t="inlineStr">
         <is>
@@ -4763,10 +4763,10 @@
         <v>915.97</v>
       </c>
       <c r="E92" s="10" t="n">
-        <v>1324.49</v>
+        <v>1314.97</v>
       </c>
       <c r="F92" s="10" t="n">
-        <v>86.65000000000001</v>
+        <v>77.13</v>
       </c>
       <c r="G92" s="11" t="inlineStr">
         <is>
@@ -4804,16 +4804,16 @@
         <v>3318</v>
       </c>
       <c r="C93" s="9" t="n">
-        <v>0.9339</v>
+        <v>0.9334</v>
       </c>
       <c r="D93" s="10" t="n">
-        <v>1320.32</v>
+        <v>1367.69</v>
       </c>
       <c r="E93" s="10" t="n">
-        <v>1252.72</v>
+        <v>1251.98</v>
       </c>
       <c r="F93" s="10" t="n">
-        <v>-23.83</v>
+        <v>-24.57</v>
       </c>
       <c r="G93" s="11" t="inlineStr">
         <is>
@@ -4851,16 +4851,16 @@
         <v>70023</v>
       </c>
       <c r="C94" s="9" t="n">
-        <v>1.7969</v>
+        <v>1.7992</v>
       </c>
       <c r="D94" s="10" t="n">
-        <v>509.62</v>
+        <v>528.99</v>
       </c>
       <c r="E94" s="10" t="n">
-        <v>981.17</v>
+        <v>982.23</v>
       </c>
       <c r="F94" s="10" t="n">
-        <v>29.43</v>
+        <v>30.49</v>
       </c>
       <c r="G94" s="11" t="inlineStr">
         <is>
@@ -4898,16 +4898,16 @@
         <v>530015</v>
       </c>
       <c r="C95" s="9" t="n">
-        <v>2.1207</v>
+        <v>2.1224</v>
       </c>
       <c r="D95" s="10" t="n">
-        <v>372.65</v>
+        <v>390.29</v>
       </c>
       <c r="E95" s="10" t="n">
-        <v>841.1799999999999</v>
+        <v>842.6</v>
       </c>
       <c r="F95" s="10" t="n">
-        <v>12.81</v>
+        <v>14.23</v>
       </c>
       <c r="G95" s="11" t="inlineStr">
         <is>
@@ -4945,16 +4945,16 @@
         <v>968</v>
       </c>
       <c r="C96" s="9" t="n">
-        <v>0.9605</v>
+        <v>0.9586</v>
       </c>
       <c r="D96" s="10" t="n">
-        <v>355.1</v>
+        <v>392.19</v>
       </c>
       <c r="E96" s="10" t="n">
-        <v>368.66</v>
+        <v>369.17</v>
       </c>
       <c r="F96" s="10" t="n">
-        <v>-7.3</v>
+        <v>-6.79</v>
       </c>
       <c r="G96" s="11" t="inlineStr">
         <is>
@@ -4998,10 +4998,10 @@
         <v>227.52</v>
       </c>
       <c r="E97" s="10" t="n">
-        <v>213.28</v>
+        <v>212.32</v>
       </c>
       <c r="F97" s="10" t="n">
-        <v>-10.23</v>
+        <v>-11.19</v>
       </c>
       <c r="G97" s="11" t="inlineStr">
         <is>
@@ -5045,10 +5045,10 @@
         <v>142.1</v>
       </c>
       <c r="E98" s="10" t="n">
-        <v>184.45</v>
+        <v>183.59</v>
       </c>
       <c r="F98" s="10" t="n">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="G98" s="11" t="inlineStr">
         <is>
@@ -5092,10 +5092,10 @@
         <v>212.74</v>
       </c>
       <c r="E99" s="10" t="n">
-        <v>160.15</v>
+        <v>160.81</v>
       </c>
       <c r="F99" s="10" t="n">
-        <v>17.45</v>
+        <v>18.11</v>
       </c>
       <c r="G99" s="11" t="inlineStr">
         <is>
@@ -5139,10 +5139,10 @@
         <v>24.24</v>
       </c>
       <c r="E100" s="10" t="n">
-        <v>34.93</v>
+        <v>34.76</v>
       </c>
       <c r="F100" s="10" t="n">
-        <v>-2.15</v>
+        <v>-2.32</v>
       </c>
       <c r="G100" s="11" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>9697.57</v>
       </c>
       <c r="E102" s="35" t="n">
-        <v>10490.83</v>
+        <v>10483.07</v>
       </c>
       <c r="F102" s="35" t="n">
         <v>290.83</v>
@@ -5280,7 +5280,7 @@
         <v>8677.6</v>
       </c>
       <c r="E103" s="35" t="n">
-        <v>9510.639999999999</v>
+        <v>9475.940000000001</v>
       </c>
       <c r="F103" s="35" t="n">
         <v>710.64</v>
@@ -5327,7 +5327,7 @@
         <v>6096.21</v>
       </c>
       <c r="E104" s="35" t="n">
-        <v>5729.82</v>
+        <v>5738.36</v>
       </c>
       <c r="F104" s="35" t="n">
         <v>529.8200000000001</v>
@@ -5374,7 +5374,7 @@
         <v>6750.28</v>
       </c>
       <c r="E105" s="35" t="n">
-        <v>5556.83</v>
+        <v>5580.46</v>
       </c>
       <c r="F105" s="35" t="n">
         <v>756.83</v>
@@ -5421,7 +5421,7 @@
         <v>2760.12</v>
       </c>
       <c r="E106" s="35" t="n">
-        <v>4432.75</v>
+        <v>4429.99</v>
       </c>
       <c r="F106" s="35" t="n">
         <v>832.75</v>
@@ -5468,7 +5468,7 @@
         <v>4423.48</v>
       </c>
       <c r="E107" s="35" t="n">
-        <v>3354.76</v>
+        <v>3351.23</v>
       </c>
       <c r="F107" s="35" t="n">
         <v>154.76</v>
@@ -5515,7 +5515,7 @@
         <v>1981.84</v>
       </c>
       <c r="E108" s="35" t="n">
-        <v>3335.43</v>
+        <v>3337.42</v>
       </c>
       <c r="F108" s="35" t="n">
         <v>144.43</v>
@@ -5562,7 +5562,7 @@
         <v>2046.97</v>
       </c>
       <c r="E109" s="35" t="n">
-        <v>3277.19</v>
+        <v>3273.11</v>
       </c>
       <c r="F109" s="35" t="n">
         <v>565.08</v>
@@ -5609,7 +5609,7 @@
         <v>5949.77</v>
       </c>
       <c r="E110" s="35" t="n">
-        <v>3256.9</v>
+        <v>3264.04</v>
       </c>
       <c r="F110" s="35" t="n">
         <v>56.9</v>
@@ -5656,7 +5656,7 @@
         <v>1884.74</v>
       </c>
       <c r="E111" s="35" t="n">
-        <v>2225.87</v>
+        <v>2239.07</v>
       </c>
       <c r="F111" s="35" t="n">
         <v>225.87</v>
@@ -5703,7 +5703,7 @@
         <v>1213.09</v>
       </c>
       <c r="E112" s="35" t="n">
-        <v>2104.95</v>
+        <v>2103.26</v>
       </c>
       <c r="F112" s="35" t="n">
         <v>504.95</v>
@@ -5750,7 +5750,7 @@
         <v>1630.08</v>
       </c>
       <c r="E113" s="35" t="n">
-        <v>1871.65</v>
+        <v>1869.7</v>
       </c>
       <c r="F113" s="35" t="n">
         <v>271.65</v>
@@ -5797,7 +5797,7 @@
         <v>1407.29</v>
       </c>
       <c r="E114" s="35" t="n">
-        <v>1833.69</v>
+        <v>1821.03</v>
       </c>
       <c r="F114" s="35" t="n">
         <v>233.69</v>
@@ -5844,7 +5844,7 @@
         <v>1338.46</v>
       </c>
       <c r="E115" s="35" t="n">
-        <v>1334.44</v>
+        <v>1330.43</v>
       </c>
       <c r="F115" s="35" t="n">
         <v>134.44</v>
@@ -5891,7 +5891,7 @@
         <v>3350.7</v>
       </c>
       <c r="E116" s="35" t="n">
-        <v>1223</v>
+        <v>1206.25</v>
       </c>
       <c r="F116" s="35" t="n">
         <v>-377</v>
@@ -5938,7 +5938,7 @@
         <v>1495.03</v>
       </c>
       <c r="E117" s="35" t="n">
-        <v>1188.99</v>
+        <v>1191.09</v>
       </c>
       <c r="F117" s="35" t="n">
         <v>-11.01</v>
@@ -5985,7 +5985,7 @@
         <v>900.35</v>
       </c>
       <c r="E118" s="35" t="n">
-        <v>976.6</v>
+        <v>972.38</v>
       </c>
       <c r="F118" s="35" t="n">
         <v>176.6</v>
@@ -6032,7 +6032,7 @@
         <v>733.79</v>
       </c>
       <c r="E119" s="35" t="n">
-        <v>893.6799999999999</v>
+        <v>909.97</v>
       </c>
       <c r="F119" s="35" t="n">
         <v>93.68000000000001</v>
@@ -6079,7 +6079,7 @@
         <v>496.13</v>
       </c>
       <c r="E120" s="35" t="n">
-        <v>484.91</v>
+        <v>483.58</v>
       </c>
       <c r="F120" s="35" t="n">
         <v>84.91</v>
@@ -6126,7 +6126,7 @@
         <v>333.04</v>
       </c>
       <c r="E121" s="35" t="n">
-        <v>452.3</v>
+        <v>452.27</v>
       </c>
       <c r="F121" s="35" t="n">
         <v>52.3</v>
@@ -6173,7 +6173,7 @@
         <v>325.61</v>
       </c>
       <c r="E122" s="35" t="n">
-        <v>420.03</v>
+        <v>419.71</v>
       </c>
       <c r="F122" s="35" t="n">
         <v>20.03</v>
@@ -6220,7 +6220,7 @@
         <v>275.49</v>
       </c>
       <c r="E123" s="35" t="n">
-        <v>407</v>
+        <v>403.04</v>
       </c>
       <c r="F123" s="35" t="n">
         <v>7</v>
@@ -6267,7 +6267,7 @@
         <v>206.23</v>
       </c>
       <c r="E124" s="35" t="n">
-        <v>401.32</v>
+        <v>400.89</v>
       </c>
       <c r="F124" s="35" t="n">
         <v>1.32</v>
@@ -6314,7 +6314,7 @@
         <v>275.96</v>
       </c>
       <c r="E125" s="35" t="n">
-        <v>238.51</v>
+        <v>238.35</v>
       </c>
       <c r="F125" s="35" t="n">
         <v>9.75</v>

--- a/scripts/output/201912/全家/全家整体资产配置.xlsx
+++ b/scripts/output/201912/全家/全家整体资产配置.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="资产配置情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="000000" numFmtId="164"/>
-    <numFmt formatCode="0.0000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -87,67 +87,67 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -448,16 +448,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="30"/>
-    <col customWidth="1" max="2" min="2" width="9"/>
-    <col customWidth="1" max="3" min="3" width="9"/>
-    <col customWidth="1" max="4" min="4" width="9"/>
-    <col customWidth="1" max="5" min="5" width="9"/>
-    <col customWidth="1" max="6" min="6" width="9"/>
-    <col customWidth="1" max="7" min="7" width="9"/>
-    <col customWidth="1" max="8" min="8" width="11.25"/>
-    <col customWidth="1" max="9" min="9" width="11.25"/>
-    <col customWidth="1" max="11" min="11" width="15.75"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="7" max="7"/>
+    <col width="11.25" customWidth="1" min="8" max="8"/>
+    <col width="11.25" customWidth="1" min="9" max="9"/>
+    <col width="15.75" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -627,7 +627,7 @@
         <v>2352.23</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>3784.74</v>
+        <v>3805.91</v>
       </c>
       <c r="F4" s="10" t="n">
         <v>-99.97</v>
@@ -674,7 +674,7 @@
         <v>2620.53</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>3731.63</v>
+        <v>3752.6</v>
       </c>
       <c r="F5" s="10" t="n">
         <v>-6.82</v>
@@ -721,7 +721,7 @@
         <v>2260.14</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3244.66</v>
+        <v>3315.63</v>
       </c>
       <c r="F6" s="10" t="n">
         <v>197.72</v>
@@ -768,7 +768,7 @@
         <v>3509.02</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>3212.16</v>
+        <v>3254.97</v>
       </c>
       <c r="F7" s="10" t="n">
         <v>-61.84</v>
@@ -815,7 +815,7 @@
         <v>1363.37</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2531.51</v>
+        <v>2557.55</v>
       </c>
       <c r="F8" s="10" t="n">
         <v>79.23</v>
@@ -862,7 +862,7 @@
         <v>1017.99</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>2197.74</v>
+        <v>2215.55</v>
       </c>
       <c r="F9" s="10" t="n">
         <v>36.21</v>
@@ -909,7 +909,7 @@
         <v>980.46</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>922.91</v>
+        <v>940.0700000000001</v>
       </c>
       <c r="F10" s="10" t="n">
         <v>-17.02</v>
@@ -956,7 +956,7 @@
         <v>550.4</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>513.63</v>
+        <v>519.14</v>
       </c>
       <c r="F11" s="10" t="n">
         <v>-27.26</v>
@@ -1003,7 +1003,7 @@
         <v>531.87</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>402.04</v>
+        <v>409.06</v>
       </c>
       <c r="F12" s="10" t="n">
         <v>45.26</v>
@@ -1050,7 +1050,7 @@
         <v>247.91</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>320.3</v>
+        <v>325.26</v>
       </c>
       <c r="F13" s="10" t="n">
         <v>7.04</v>
@@ -1097,7 +1097,7 @@
         <v>60.61</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>86.91</v>
+        <v>82.12</v>
       </c>
       <c r="F14" s="10" t="n">
         <v>-5.8</v>
@@ -1285,7 +1285,7 @@
         <v>16731.88</v>
       </c>
       <c r="E18" s="20" t="n">
-        <v>9179.110000000001</v>
+        <v>9338.059999999999</v>
       </c>
       <c r="F18" s="20" t="n">
         <v>-2840.97</v>
@@ -1332,7 +1332,7 @@
         <v>2700</v>
       </c>
       <c r="E19" s="25" t="n">
-        <v>7830</v>
+        <v>7935.3</v>
       </c>
       <c r="F19" s="25" t="n">
         <v>1539</v>
@@ -1379,7 +1379,7 @@
         <v>9100</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>35599.2</v>
+        <v>36045.1</v>
       </c>
       <c r="F20" s="25" t="n">
         <v>4222.4</v>
@@ -1426,7 +1426,7 @@
         <v>38800</v>
       </c>
       <c r="E21" s="25" t="n">
-        <v>206450.92</v>
+        <v>210233.92</v>
       </c>
       <c r="F21" s="25" t="n">
         <v>-10514.8</v>
@@ -1473,7 +1473,7 @@
         <v>33800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>24687.52</v>
+        <v>25137.06</v>
       </c>
       <c r="F22" s="25" t="n">
         <v>-5002.4</v>
@@ -1520,7 +1520,7 @@
         <v>32700</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>29688.33</v>
+        <v>30280.2</v>
       </c>
       <c r="F23" s="25" t="n">
         <v>4152.9</v>
@@ -1567,7 +1567,7 @@
         <v>34100</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>25707.99</v>
+        <v>26379.76</v>
       </c>
       <c r="F24" s="25" t="n">
         <v>-3853.3</v>
@@ -1614,7 +1614,7 @@
         <v>4500</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>15075.9</v>
+        <v>14872.5</v>
       </c>
       <c r="F25" s="25" t="n">
         <v>1894.5</v>
@@ -1661,7 +1661,7 @@
         <v>9200</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>14825.8</v>
+        <v>15294.08</v>
       </c>
       <c r="F26" s="25" t="n">
         <v>1968.8</v>
@@ -1708,7 +1708,7 @@
         <v>14400</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>19078.56</v>
+        <v>19396.8</v>
       </c>
       <c r="F27" s="25" t="n">
         <v>705.6</v>
@@ -1755,7 +1755,7 @@
         <v>4157.52</v>
       </c>
       <c r="E28" s="30" t="n">
-        <v>8081.8</v>
+        <v>8205.700000000001</v>
       </c>
       <c r="F28" s="30" t="n">
         <v>86.53</v>
@@ -1802,7 +1802,7 @@
         <v>9722</v>
       </c>
       <c r="E29" s="30" t="n">
-        <v>5333.49</v>
+        <v>5425.85</v>
       </c>
       <c r="F29" s="30" t="n">
         <v>-14.18</v>
@@ -1849,7 +1849,7 @@
         <v>4943.96</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>4653.75</v>
+        <v>4740.27</v>
       </c>
       <c r="F30" s="30" t="n">
         <v>-22.17</v>
@@ -1896,7 +1896,7 @@
         <v>7379.54</v>
       </c>
       <c r="E31" s="30" t="n">
-        <v>4036.61</v>
+        <v>4103.02</v>
       </c>
       <c r="F31" s="30" t="n">
         <v>41.99</v>
@@ -1943,7 +1943,7 @@
         <v>3665.01</v>
       </c>
       <c r="E32" s="30" t="n">
-        <v>4002.19</v>
+        <v>4027.85</v>
       </c>
       <c r="F32" s="30" t="n">
         <v>14.85</v>
@@ -1990,7 +1990,7 @@
         <v>4550.55</v>
       </c>
       <c r="E33" s="30" t="n">
-        <v>3447.5</v>
+        <v>3532.59</v>
       </c>
       <c r="F33" s="30" t="n">
         <v>116.14</v>
@@ -2037,7 +2037,7 @@
         <v>400.63</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>694.61</v>
+        <v>715.3200000000001</v>
       </c>
       <c r="F34" s="30" t="n">
         <v>28.17</v>
@@ -2084,7 +2084,7 @@
         <v>736.3</v>
       </c>
       <c r="E35" s="30" t="n">
-        <v>693.59</v>
+        <v>713.4</v>
       </c>
       <c r="F35" s="30" t="n">
         <v>27.48</v>
@@ -2131,7 +2131,7 @@
         <v>473.85</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>461.86</v>
+        <v>470.63</v>
       </c>
       <c r="F36" s="30" t="n">
         <v>-3.76</v>
@@ -2178,7 +2178,7 @@
         <v>5299.96</v>
       </c>
       <c r="E37" s="30" t="n">
-        <v>1907.99</v>
+        <v>1950.39</v>
       </c>
       <c r="F37" s="30" t="n">
         <v>-66.51000000000001</v>
@@ -2225,7 +2225,7 @@
         <v>576.8</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>746.38</v>
+        <v>753.3</v>
       </c>
       <c r="F38" s="30" t="n">
         <v>84.56999999999999</v>
@@ -2272,7 +2272,7 @@
         <v>459.67</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>672.5</v>
+        <v>682.89</v>
       </c>
       <c r="F39" s="30" t="n">
         <v>12.12</v>
@@ -2319,7 +2319,7 @@
         <v>611.75</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>726.76</v>
+        <v>732.88</v>
       </c>
       <c r="F40" s="30" t="n">
         <v>55.48</v>
@@ -2366,7 +2366,7 @@
         <v>1046.73</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>2034.74</v>
+        <v>2065.93</v>
       </c>
       <c r="F41" s="30" t="n">
         <v>36.94</v>
@@ -2413,7 +2413,7 @@
         <v>1825.9</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>1993.88</v>
+        <v>2006.66</v>
       </c>
       <c r="F42" s="30" t="n">
         <v>1.19</v>
@@ -2460,7 +2460,7 @@
         <v>1059.17</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>1052.81</v>
+        <v>1065.53</v>
       </c>
       <c r="F43" s="30" t="n">
         <v>55.99</v>
@@ -2507,7 +2507,7 @@
         <v>1812.7</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>991.55</v>
+        <v>1007.86</v>
       </c>
       <c r="F44" s="30" t="n">
         <v>-6.64</v>
@@ -2554,7 +2554,7 @@
         <v>1227.03</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>929.6</v>
+        <v>952.54</v>
       </c>
       <c r="F45" s="30" t="n">
         <v>-69.42</v>
@@ -2601,7 +2601,7 @@
         <v>1834.47</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>2274.93</v>
+        <v>2245.21</v>
       </c>
       <c r="F46" s="30" t="n">
         <v>234.2</v>
@@ -2648,7 +2648,7 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E47" s="30" t="n">
-        <v>1164.37</v>
+        <v>1175.16</v>
       </c>
       <c r="F47" s="30" t="n">
         <v>172.47</v>
@@ -2695,7 +2695,7 @@
         <v>689.02</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>1008.04</v>
+        <v>1023.61</v>
       </c>
       <c r="F48" s="30" t="n">
         <v>17.96</v>
@@ -2742,7 +2742,7 @@
         <v>4757.9</v>
       </c>
       <c r="E49" s="30" t="n">
-        <v>1712.84</v>
+        <v>1750.91</v>
       </c>
       <c r="F49" s="30" t="n">
         <v>-263.37</v>
@@ -2789,7 +2789,7 @@
         <v>953.96</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>1133.3</v>
+        <v>1142.84</v>
       </c>
       <c r="F50" s="30" t="n">
         <v>126.63</v>
@@ -2836,7 +2836,7 @@
         <v>595.47</v>
       </c>
       <c r="E51" s="30" t="n">
-        <v>1002.77</v>
+        <v>1009.32</v>
       </c>
       <c r="F51" s="30" t="n">
         <v>2.18</v>
@@ -2883,7 +2883,7 @@
         <v>65064.33</v>
       </c>
       <c r="E52" s="35" t="n">
-        <v>71050.25</v>
+        <v>71505.7</v>
       </c>
       <c r="F52" s="35" t="n">
         <v>4990.5</v>
@@ -2930,7 +2930,7 @@
         <v>63490</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>59763.14</v>
+        <v>60874.21</v>
       </c>
       <c r="F53" s="35" t="n">
         <v>1474.25</v>
@@ -2977,7 +2977,7 @@
         <v>32370.29</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>37128.72</v>
+        <v>37436.24</v>
       </c>
       <c r="F54" s="35" t="n">
         <v>5167.56</v>
@@ -3024,7 +3024,7 @@
         <v>20086.63</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>33825.88</v>
+        <v>34046.84</v>
       </c>
       <c r="F55" s="35" t="n">
         <v>1805.79</v>
@@ -3071,7 +3071,7 @@
         <v>41014.88</v>
       </c>
       <c r="E56" s="35" t="n">
-        <v>33907</v>
+        <v>34436.09</v>
       </c>
       <c r="F56" s="35" t="n">
         <v>3203.44</v>
@@ -3118,7 +3118,7 @@
         <v>20716.63</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>24611.36</v>
+        <v>24818.52</v>
       </c>
       <c r="F57" s="35" t="n">
         <v>1866.34</v>
@@ -3165,7 +3165,7 @@
         <v>14624.61</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>23472.5</v>
+        <v>23794.24</v>
       </c>
       <c r="F58" s="35" t="n">
         <v>4287.12</v>
@@ -3212,7 +3212,7 @@
         <v>21163.93</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>22857.04</v>
+        <v>23064.45</v>
       </c>
       <c r="F59" s="35" t="n">
         <v>3756.51</v>
@@ -3259,7 +3259,7 @@
         <v>16778.47</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>21711.34</v>
+        <v>21912.68</v>
       </c>
       <c r="F60" s="35" t="n">
         <v>2662.34</v>
@@ -3306,7 +3306,7 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>15238.17</v>
+        <v>15466.88</v>
       </c>
       <c r="F61" s="35" t="n">
         <v>2457.22</v>
@@ -3353,7 +3353,7 @@
         <v>37267.45</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>13416.28</v>
+        <v>13714.42</v>
       </c>
       <c r="F62" s="35" t="n">
         <v>-5597.39</v>
@@ -3400,7 +3400,7 @@
         <v>6798.52</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>9946.23</v>
+        <v>10099.88</v>
       </c>
       <c r="F63" s="35" t="n">
         <v>144.13</v>
@@ -3447,7 +3447,7 @@
         <v>5609.79</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>7545.17</v>
+        <v>7567.61</v>
       </c>
       <c r="F64" s="35" t="n">
         <v>2411.26</v>
@@ -3494,7 +3494,7 @@
         <v>13403.92</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>7353.39</v>
+        <v>7480.73</v>
       </c>
       <c r="F65" s="35" t="n">
         <v>937.3</v>
@@ -3541,7 +3541,7 @@
         <v>5328.62</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>7236.27</v>
+        <v>7272.5</v>
       </c>
       <c r="F66" s="35" t="n">
         <v>836.79</v>
@@ -3588,7 +3588,7 @@
         <v>7778.64</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>6718.41</v>
+        <v>6830.42</v>
       </c>
       <c r="F67" s="35" t="n">
         <v>-276.93</v>
@@ -3635,7 +3635,7 @@
         <v>3299.64</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>6414.17</v>
+        <v>6512.5</v>
       </c>
       <c r="F68" s="35" t="n">
         <v>21.09</v>
@@ -3682,7 +3682,7 @@
         <v>7852.99</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>5949.43</v>
+        <v>6096.28</v>
       </c>
       <c r="F69" s="35" t="n">
         <v>-444.3</v>
@@ -3729,7 +3729,7 @@
         <v>3580.2</v>
       </c>
       <c r="E70" s="35" t="n">
-        <v>3337.82</v>
+        <v>3392.96</v>
       </c>
       <c r="F70" s="35" t="n">
         <v>-162.18</v>
@@ -3776,7 +3776,7 @@
         <v>171152.16</v>
       </c>
       <c r="E71" s="30" t="n">
-        <v>176098.46</v>
+        <v>176132.69</v>
       </c>
       <c r="F71" s="30" t="n">
         <v>41.34</v>
@@ -3823,7 +3823,7 @@
         <v>11598.58</v>
       </c>
       <c r="E72" s="30" t="n">
-        <v>16991.92</v>
+        <v>17189.1</v>
       </c>
       <c r="F72" s="30" t="n">
         <v>-8.08</v>
@@ -3964,7 +3964,7 @@
         <v>59685.02</v>
       </c>
       <c r="E75" s="30" t="n">
-        <v>74009.42</v>
+        <v>74188.48</v>
       </c>
       <c r="F75" s="30" t="n">
         <v>-230.58</v>
@@ -4011,7 +4011,7 @@
         <v>76964.17</v>
       </c>
       <c r="E76" s="30" t="n">
-        <v>99052.89</v>
+        <v>99360.74000000001</v>
       </c>
       <c r="F76" s="30" t="n">
         <v>-110.15</v>
@@ -4058,7 +4058,7 @@
         <v>140577.44</v>
       </c>
       <c r="E77" s="30" t="n">
-        <v>151683.06</v>
+        <v>151697.12</v>
       </c>
       <c r="F77" s="30" t="n">
         <v>-51</v>
@@ -4105,7 +4105,7 @@
         <v>1029.32</v>
       </c>
       <c r="E78" s="10" t="n">
-        <v>1465.75</v>
+        <v>1473.99</v>
       </c>
       <c r="F78" s="10" t="n">
         <v>-2.36</v>
@@ -4152,7 +4152,7 @@
         <v>874.15</v>
       </c>
       <c r="E79" s="10" t="n">
-        <v>1406.51</v>
+        <v>1414.37</v>
       </c>
       <c r="F79" s="10" t="n">
         <v>-37.8</v>
@@ -4199,7 +4199,7 @@
         <v>898.04</v>
       </c>
       <c r="E80" s="10" t="n">
-        <v>1289.23</v>
+        <v>1317.42</v>
       </c>
       <c r="F80" s="10" t="n">
         <v>78.26000000000001</v>
@@ -4246,7 +4246,7 @@
         <v>1336.21</v>
       </c>
       <c r="E81" s="10" t="n">
-        <v>1223.17</v>
+        <v>1239.47</v>
       </c>
       <c r="F81" s="10" t="n">
         <v>-23.26</v>
@@ -4293,7 +4293,7 @@
         <v>492.58</v>
       </c>
       <c r="E82" s="10" t="n">
-        <v>914.62</v>
+        <v>924.03</v>
       </c>
       <c r="F82" s="10" t="n">
         <v>29.64</v>
@@ -4340,7 +4340,7 @@
         <v>398.66</v>
       </c>
       <c r="E83" s="10" t="n">
-        <v>860.67</v>
+        <v>867.64</v>
       </c>
       <c r="F83" s="10" t="n">
         <v>15.23</v>
@@ -4387,7 +4387,7 @@
         <v>373.42</v>
       </c>
       <c r="E84" s="10" t="n">
-        <v>351.5</v>
+        <v>358.04</v>
       </c>
       <c r="F84" s="10" t="n">
         <v>-6.93</v>
@@ -4434,7 +4434,7 @@
         <v>214.89</v>
       </c>
       <c r="E85" s="10" t="n">
-        <v>200.54</v>
+        <v>202.68</v>
       </c>
       <c r="F85" s="10" t="n">
         <v>-10.68</v>
@@ -4481,7 +4481,7 @@
         <v>212.74</v>
       </c>
       <c r="E86" s="10" t="n">
-        <v>160.81</v>
+        <v>163.62</v>
       </c>
       <c r="F86" s="10" t="n">
         <v>18.11</v>
@@ -4528,7 +4528,7 @@
         <v>62.09</v>
       </c>
       <c r="E87" s="10" t="n">
-        <v>80.22</v>
+        <v>81.45999999999999</v>
       </c>
       <c r="F87" s="10" t="n">
         <v>0.18</v>
@@ -4575,7 +4575,7 @@
         <v>24.24</v>
       </c>
       <c r="E88" s="10" t="n">
-        <v>34.76</v>
+        <v>32.84</v>
       </c>
       <c r="F88" s="10" t="n">
         <v>-2.32</v>
@@ -4669,7 +4669,7 @@
         <v>946.4299999999999</v>
       </c>
       <c r="E90" s="10" t="n">
-        <v>1522.81</v>
+        <v>1531.32</v>
       </c>
       <c r="F90" s="10" t="n">
         <v>-45.37</v>
@@ -4716,7 +4716,7 @@
         <v>1025.65</v>
       </c>
       <c r="E91" s="10" t="n">
-        <v>1460.53</v>
+        <v>1468.73</v>
       </c>
       <c r="F91" s="10" t="n">
         <v>-0.8100000000000001</v>
@@ -4763,7 +4763,7 @@
         <v>915.97</v>
       </c>
       <c r="E92" s="10" t="n">
-        <v>1314.97</v>
+        <v>1343.73</v>
       </c>
       <c r="F92" s="10" t="n">
         <v>77.13</v>
@@ -4810,7 +4810,7 @@
         <v>1367.69</v>
       </c>
       <c r="E93" s="10" t="n">
-        <v>1251.98</v>
+        <v>1268.67</v>
       </c>
       <c r="F93" s="10" t="n">
         <v>-24.57</v>
@@ -4857,7 +4857,7 @@
         <v>528.99</v>
       </c>
       <c r="E94" s="10" t="n">
-        <v>982.23</v>
+        <v>992.33</v>
       </c>
       <c r="F94" s="10" t="n">
         <v>30.49</v>
@@ -4904,7 +4904,7 @@
         <v>390.29</v>
       </c>
       <c r="E95" s="10" t="n">
-        <v>842.6</v>
+        <v>849.4299999999999</v>
       </c>
       <c r="F95" s="10" t="n">
         <v>14.23</v>
@@ -4951,7 +4951,7 @@
         <v>392.19</v>
       </c>
       <c r="E96" s="10" t="n">
-        <v>369.17</v>
+        <v>376.03</v>
       </c>
       <c r="F96" s="10" t="n">
         <v>-6.79</v>
@@ -4998,7 +4998,7 @@
         <v>227.52</v>
       </c>
       <c r="E97" s="10" t="n">
-        <v>212.32</v>
+        <v>214.6</v>
       </c>
       <c r="F97" s="10" t="n">
         <v>-11.19</v>
@@ -5045,7 +5045,7 @@
         <v>142.1</v>
       </c>
       <c r="E98" s="10" t="n">
-        <v>183.59</v>
+        <v>186.44</v>
       </c>
       <c r="F98" s="10" t="n">
         <v>1.14</v>
@@ -5092,7 +5092,7 @@
         <v>212.74</v>
       </c>
       <c r="E99" s="10" t="n">
-        <v>160.81</v>
+        <v>163.62</v>
       </c>
       <c r="F99" s="10" t="n">
         <v>18.11</v>
@@ -5139,7 +5139,7 @@
         <v>24.24</v>
       </c>
       <c r="E100" s="10" t="n">
-        <v>34.76</v>
+        <v>32.84</v>
       </c>
       <c r="F100" s="10" t="n">
         <v>-2.32</v>
@@ -5233,7 +5233,7 @@
         <v>9697.57</v>
       </c>
       <c r="E102" s="35" t="n">
-        <v>10483.07</v>
+        <v>10658.6</v>
       </c>
       <c r="F102" s="35" t="n">
         <v>290.83</v>
@@ -5280,7 +5280,7 @@
         <v>8677.6</v>
       </c>
       <c r="E103" s="35" t="n">
-        <v>9475.940000000001</v>
+        <v>9536.68</v>
       </c>
       <c r="F103" s="35" t="n">
         <v>710.64</v>
@@ -5327,7 +5327,7 @@
         <v>6096.21</v>
       </c>
       <c r="E104" s="35" t="n">
-        <v>5738.36</v>
+        <v>5845.05</v>
       </c>
       <c r="F104" s="35" t="n">
         <v>529.8200000000001</v>
@@ -5374,7 +5374,7 @@
         <v>6750.28</v>
       </c>
       <c r="E105" s="35" t="n">
-        <v>5580.46</v>
+        <v>5667.54</v>
       </c>
       <c r="F105" s="35" t="n">
         <v>756.83</v>
@@ -5421,7 +5421,7 @@
         <v>2760.12</v>
       </c>
       <c r="E106" s="35" t="n">
-        <v>4429.99</v>
+        <v>4490.72</v>
       </c>
       <c r="F106" s="35" t="n">
         <v>832.75</v>
@@ -5468,7 +5468,7 @@
         <v>4423.48</v>
       </c>
       <c r="E107" s="35" t="n">
-        <v>3351.23</v>
+        <v>3433.95</v>
       </c>
       <c r="F107" s="35" t="n">
         <v>154.76</v>
@@ -5515,7 +5515,7 @@
         <v>1981.84</v>
       </c>
       <c r="E108" s="35" t="n">
-        <v>3337.42</v>
+        <v>3359.22</v>
       </c>
       <c r="F108" s="35" t="n">
         <v>144.43</v>
@@ -5562,7 +5562,7 @@
         <v>2046.97</v>
       </c>
       <c r="E109" s="35" t="n">
-        <v>3273.11</v>
+        <v>3322.23</v>
       </c>
       <c r="F109" s="35" t="n">
         <v>565.08</v>
@@ -5609,7 +5609,7 @@
         <v>5949.77</v>
       </c>
       <c r="E110" s="35" t="n">
-        <v>3264.04</v>
+        <v>3320.57</v>
       </c>
       <c r="F110" s="35" t="n">
         <v>56.9</v>
@@ -5656,7 +5656,7 @@
         <v>1884.74</v>
       </c>
       <c r="E111" s="35" t="n">
-        <v>2239.07</v>
+        <v>2257.92</v>
       </c>
       <c r="F111" s="35" t="n">
         <v>225.87</v>
@@ -5703,7 +5703,7 @@
         <v>1213.09</v>
       </c>
       <c r="E112" s="35" t="n">
-        <v>2103.26</v>
+        <v>2165.97</v>
       </c>
       <c r="F112" s="35" t="n">
         <v>504.95</v>
@@ -5750,7 +5750,7 @@
         <v>1630.08</v>
       </c>
       <c r="E113" s="35" t="n">
-        <v>1869.7</v>
+        <v>1885.19</v>
       </c>
       <c r="F113" s="35" t="n">
         <v>271.65</v>
@@ -5797,7 +5797,7 @@
         <v>1407.29</v>
       </c>
       <c r="E114" s="35" t="n">
-        <v>1821.03</v>
+        <v>1837.92</v>
       </c>
       <c r="F114" s="35" t="n">
         <v>233.69</v>
@@ -5844,7 +5844,7 @@
         <v>1338.46</v>
       </c>
       <c r="E115" s="35" t="n">
-        <v>1330.43</v>
+        <v>1346.49</v>
       </c>
       <c r="F115" s="35" t="n">
         <v>134.44</v>
@@ -5891,7 +5891,7 @@
         <v>3350.7</v>
       </c>
       <c r="E116" s="35" t="n">
-        <v>1206.25</v>
+        <v>1233.06</v>
       </c>
       <c r="F116" s="35" t="n">
         <v>-377</v>
@@ -5938,7 +5938,7 @@
         <v>1495.03</v>
       </c>
       <c r="E117" s="35" t="n">
-        <v>1191.09</v>
+        <v>1212.17</v>
       </c>
       <c r="F117" s="35" t="n">
         <v>-11.01</v>
@@ -5985,7 +5985,7 @@
         <v>900.35</v>
       </c>
       <c r="E118" s="35" t="n">
-        <v>972.38</v>
+        <v>981.2</v>
       </c>
       <c r="F118" s="35" t="n">
         <v>176.6</v>
@@ -6032,7 +6032,7 @@
         <v>733.79</v>
       </c>
       <c r="E119" s="35" t="n">
-        <v>909.97</v>
+        <v>898.09</v>
       </c>
       <c r="F119" s="35" t="n">
         <v>93.68000000000001</v>
@@ -6079,7 +6079,7 @@
         <v>496.13</v>
       </c>
       <c r="E120" s="35" t="n">
-        <v>483.58</v>
+        <v>492.76</v>
       </c>
       <c r="F120" s="35" t="n">
         <v>84.91</v>
@@ -6126,7 +6126,7 @@
         <v>333.04</v>
       </c>
       <c r="E121" s="35" t="n">
-        <v>452.27</v>
+        <v>454.53</v>
       </c>
       <c r="F121" s="35" t="n">
         <v>52.3</v>
@@ -6173,7 +6173,7 @@
         <v>325.61</v>
       </c>
       <c r="E122" s="35" t="n">
-        <v>419.71</v>
+        <v>425.25</v>
       </c>
       <c r="F122" s="35" t="n">
         <v>20.03</v>
@@ -6220,7 +6220,7 @@
         <v>275.49</v>
       </c>
       <c r="E123" s="35" t="n">
-        <v>403.04</v>
+        <v>409.27</v>
       </c>
       <c r="F123" s="35" t="n">
         <v>7</v>
@@ -6267,7 +6267,7 @@
         <v>206.23</v>
       </c>
       <c r="E124" s="35" t="n">
-        <v>400.89</v>
+        <v>407.04</v>
       </c>
       <c r="F124" s="35" t="n">
         <v>1.32</v>
@@ -6314,7 +6314,7 @@
         <v>275.96</v>
       </c>
       <c r="E125" s="35" t="n">
-        <v>238.35</v>
+        <v>242.32</v>
       </c>
       <c r="F125" s="35" t="n">
         <v>9.75</v>
@@ -6346,6 +6346,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/scripts/output/201912/全家/全家整体资产配置.xlsx
+++ b/scripts/output/201912/全家/全家整体资产配置.xlsx
@@ -627,7 +627,7 @@
         <v>2352.23</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>3805.91</v>
+        <v>3822.37</v>
       </c>
       <c r="F4" s="10" t="n">
         <v>-99.97</v>
@@ -674,7 +674,7 @@
         <v>2620.53</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>3752.6</v>
+        <v>3763.08</v>
       </c>
       <c r="F5" s="10" t="n">
         <v>-6.82</v>
@@ -721,7 +721,7 @@
         <v>2260.14</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3315.63</v>
+        <v>3311.56</v>
       </c>
       <c r="F6" s="10" t="n">
         <v>197.72</v>
@@ -768,7 +768,7 @@
         <v>3509.02</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>3254.97</v>
+        <v>3267.25</v>
       </c>
       <c r="F7" s="10" t="n">
         <v>-61.84</v>
@@ -815,7 +815,7 @@
         <v>1363.37</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2557.55</v>
+        <v>2566</v>
       </c>
       <c r="F8" s="10" t="n">
         <v>79.23</v>
@@ -862,7 +862,7 @@
         <v>1017.99</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>2215.55</v>
+        <v>2222.88</v>
       </c>
       <c r="F9" s="10" t="n">
         <v>36.21</v>
@@ -909,7 +909,7 @@
         <v>980.46</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>940.0700000000001</v>
+        <v>936.54</v>
       </c>
       <c r="F10" s="10" t="n">
         <v>-17.02</v>
@@ -956,7 +956,7 @@
         <v>550.4</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>519.14</v>
+        <v>524.2</v>
       </c>
       <c r="F11" s="10" t="n">
         <v>-27.26</v>
@@ -1003,7 +1003,7 @@
         <v>531.87</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>409.06</v>
+        <v>404.7</v>
       </c>
       <c r="F12" s="10" t="n">
         <v>45.26</v>
@@ -1097,7 +1097,7 @@
         <v>60.61</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>82.12</v>
+        <v>82.27</v>
       </c>
       <c r="F14" s="10" t="n">
         <v>-5.8</v>
@@ -1285,7 +1285,7 @@
         <v>16731.88</v>
       </c>
       <c r="E18" s="20" t="n">
-        <v>9338.059999999999</v>
+        <v>9343.08</v>
       </c>
       <c r="F18" s="20" t="n">
         <v>-2840.97</v>
@@ -1332,7 +1332,7 @@
         <v>2700</v>
       </c>
       <c r="E19" s="25" t="n">
-        <v>7935.3</v>
+        <v>7916.4</v>
       </c>
       <c r="F19" s="25" t="n">
         <v>1539</v>
@@ -1379,7 +1379,7 @@
         <v>9100</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>36045.1</v>
+        <v>35978.67</v>
       </c>
       <c r="F20" s="25" t="n">
         <v>4222.4</v>
@@ -1426,7 +1426,7 @@
         <v>38800</v>
       </c>
       <c r="E21" s="25" t="n">
-        <v>210233.92</v>
+        <v>210885.76</v>
       </c>
       <c r="F21" s="25" t="n">
         <v>-10514.8</v>
@@ -1473,7 +1473,7 @@
         <v>33800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>25137.06</v>
+        <v>25150.58</v>
       </c>
       <c r="F22" s="25" t="n">
         <v>-5002.4</v>
@@ -1520,7 +1520,7 @@
         <v>32700</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>30280.2</v>
+        <v>30231.15</v>
       </c>
       <c r="F23" s="25" t="n">
         <v>4152.9</v>
@@ -1567,7 +1567,7 @@
         <v>34100</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>26379.76</v>
+        <v>26482.06</v>
       </c>
       <c r="F24" s="25" t="n">
         <v>-3853.3</v>
@@ -1614,7 +1614,7 @@
         <v>4500</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>14872.5</v>
+        <v>14770.35</v>
       </c>
       <c r="F25" s="25" t="n">
         <v>1894.5</v>
@@ -1661,7 +1661,7 @@
         <v>9200</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>15294.08</v>
+        <v>15243.48</v>
       </c>
       <c r="F26" s="25" t="n">
         <v>1968.8</v>
@@ -1708,7 +1708,7 @@
         <v>14400</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>19396.8</v>
+        <v>19105.92</v>
       </c>
       <c r="F27" s="25" t="n">
         <v>705.6</v>
@@ -1755,7 +1755,7 @@
         <v>4157.52</v>
       </c>
       <c r="E28" s="30" t="n">
-        <v>8205.700000000001</v>
+        <v>8228.98</v>
       </c>
       <c r="F28" s="30" t="n">
         <v>86.53</v>
@@ -1802,7 +1802,7 @@
         <v>9722</v>
       </c>
       <c r="E29" s="30" t="n">
-        <v>5425.85</v>
+        <v>5428.76</v>
       </c>
       <c r="F29" s="30" t="n">
         <v>-14.18</v>
@@ -1849,7 +1849,7 @@
         <v>4943.96</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>4740.27</v>
+        <v>4722.47</v>
       </c>
       <c r="F30" s="30" t="n">
         <v>-22.17</v>
@@ -1896,7 +1896,7 @@
         <v>7379.54</v>
       </c>
       <c r="E31" s="30" t="n">
-        <v>4103.02</v>
+        <v>4117.78</v>
       </c>
       <c r="F31" s="30" t="n">
         <v>41.99</v>
@@ -1943,7 +1943,7 @@
         <v>3665.01</v>
       </c>
       <c r="E32" s="30" t="n">
-        <v>4027.85</v>
+        <v>4049.84</v>
       </c>
       <c r="F32" s="30" t="n">
         <v>14.85</v>
@@ -1990,7 +1990,7 @@
         <v>4550.55</v>
       </c>
       <c r="E33" s="30" t="n">
-        <v>3532.59</v>
+        <v>3545.79</v>
       </c>
       <c r="F33" s="30" t="n">
         <v>116.14</v>
@@ -2037,7 +2037,7 @@
         <v>400.63</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>715.3200000000001</v>
+        <v>713.04</v>
       </c>
       <c r="F34" s="30" t="n">
         <v>28.17</v>
@@ -2084,7 +2084,7 @@
         <v>736.3</v>
       </c>
       <c r="E35" s="30" t="n">
-        <v>713.4</v>
+        <v>711.12</v>
       </c>
       <c r="F35" s="30" t="n">
         <v>27.48</v>
@@ -2131,7 +2131,7 @@
         <v>473.85</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>470.63</v>
+        <v>469.87</v>
       </c>
       <c r="F36" s="30" t="n">
         <v>-3.76</v>
@@ -2178,7 +2178,7 @@
         <v>5299.96</v>
       </c>
       <c r="E37" s="30" t="n">
-        <v>1950.39</v>
+        <v>2008.68</v>
       </c>
       <c r="F37" s="30" t="n">
         <v>-66.51000000000001</v>
@@ -2225,7 +2225,7 @@
         <v>576.8</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>753.3</v>
+        <v>759.65</v>
       </c>
       <c r="F38" s="30" t="n">
         <v>84.56999999999999</v>
@@ -2272,7 +2272,7 @@
         <v>459.67</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>682.89</v>
+        <v>682.79</v>
       </c>
       <c r="F39" s="30" t="n">
         <v>12.12</v>
@@ -2319,7 +2319,7 @@
         <v>611.75</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>732.88</v>
+        <v>738.99</v>
       </c>
       <c r="F40" s="30" t="n">
         <v>55.48</v>
@@ -2366,7 +2366,7 @@
         <v>1046.73</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>2065.93</v>
+        <v>2071.79</v>
       </c>
       <c r="F41" s="30" t="n">
         <v>36.94</v>
@@ -2413,7 +2413,7 @@
         <v>1825.9</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>2006.66</v>
+        <v>2017.62</v>
       </c>
       <c r="F42" s="30" t="n">
         <v>1.19</v>
@@ -2460,7 +2460,7 @@
         <v>1059.17</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>1065.53</v>
+        <v>1063.41</v>
       </c>
       <c r="F43" s="30" t="n">
         <v>55.99</v>
@@ -2507,7 +2507,7 @@
         <v>1812.7</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>1007.86</v>
+        <v>1011.49</v>
       </c>
       <c r="F44" s="30" t="n">
         <v>-6.64</v>
@@ -2554,7 +2554,7 @@
         <v>1227.03</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>952.54</v>
+        <v>956.1</v>
       </c>
       <c r="F45" s="30" t="n">
         <v>-69.42</v>
@@ -2601,7 +2601,7 @@
         <v>1834.47</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>2245.21</v>
+        <v>2229.61</v>
       </c>
       <c r="F46" s="30" t="n">
         <v>234.2</v>
@@ -2648,7 +2648,7 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E47" s="30" t="n">
-        <v>1175.16</v>
+        <v>1185.06</v>
       </c>
       <c r="F47" s="30" t="n">
         <v>172.47</v>
@@ -2695,7 +2695,7 @@
         <v>689.02</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>1023.61</v>
+        <v>1023.47</v>
       </c>
       <c r="F48" s="30" t="n">
         <v>17.96</v>
@@ -2742,7 +2742,7 @@
         <v>4757.9</v>
       </c>
       <c r="E49" s="30" t="n">
-        <v>1750.91</v>
+        <v>1803.24</v>
       </c>
       <c r="F49" s="30" t="n">
         <v>-263.37</v>
@@ -2789,7 +2789,7 @@
         <v>953.96</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>1142.84</v>
+        <v>1152.38</v>
       </c>
       <c r="F50" s="30" t="n">
         <v>126.63</v>
@@ -2836,7 +2836,7 @@
         <v>595.47</v>
       </c>
       <c r="E51" s="30" t="n">
-        <v>1009.32</v>
+        <v>1008.13</v>
       </c>
       <c r="F51" s="30" t="n">
         <v>2.18</v>
@@ -2883,7 +2883,7 @@
         <v>65064.33</v>
       </c>
       <c r="E52" s="35" t="n">
-        <v>71505.7</v>
+        <v>71896.08</v>
       </c>
       <c r="F52" s="35" t="n">
         <v>4990.5</v>
@@ -2930,7 +2930,7 @@
         <v>63490</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>60874.21</v>
+        <v>60645.65</v>
       </c>
       <c r="F53" s="35" t="n">
         <v>1474.25</v>
@@ -2977,7 +2977,7 @@
         <v>32370.29</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>37436.24</v>
+        <v>37462.14</v>
       </c>
       <c r="F54" s="35" t="n">
         <v>5167.56</v>
@@ -3024,7 +3024,7 @@
         <v>20086.63</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>34046.84</v>
+        <v>34006.66</v>
       </c>
       <c r="F55" s="35" t="n">
         <v>1805.79</v>
@@ -3071,7 +3071,7 @@
         <v>41014.88</v>
       </c>
       <c r="E56" s="35" t="n">
-        <v>34436.09</v>
+        <v>33952.12</v>
       </c>
       <c r="F56" s="35" t="n">
         <v>3203.44</v>
@@ -3118,7 +3118,7 @@
         <v>20716.63</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>24818.52</v>
+        <v>25025.69</v>
       </c>
       <c r="F57" s="35" t="n">
         <v>1866.34</v>
@@ -3165,7 +3165,7 @@
         <v>14624.61</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>23794.24</v>
+        <v>23750.37</v>
       </c>
       <c r="F58" s="35" t="n">
         <v>4287.12</v>
@@ -3212,7 +3212,7 @@
         <v>21163.93</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>23064.45</v>
+        <v>23085.61</v>
       </c>
       <c r="F59" s="35" t="n">
         <v>3756.51</v>
@@ -3259,7 +3259,7 @@
         <v>16778.47</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>21912.68</v>
+        <v>22097.24</v>
       </c>
       <c r="F60" s="35" t="n">
         <v>2662.34</v>
@@ -3306,7 +3306,7 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>15466.88</v>
+        <v>15533.59</v>
       </c>
       <c r="F61" s="35" t="n">
         <v>2457.22</v>
@@ -3353,7 +3353,7 @@
         <v>37267.45</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>13714.42</v>
+        <v>14124.36</v>
       </c>
       <c r="F62" s="35" t="n">
         <v>-5597.39</v>
@@ -3400,7 +3400,7 @@
         <v>6798.52</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>10099.88</v>
+        <v>10098.52</v>
       </c>
       <c r="F63" s="35" t="n">
         <v>144.13</v>
@@ -3447,7 +3447,7 @@
         <v>5609.79</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>7567.61</v>
+        <v>7556.39</v>
       </c>
       <c r="F64" s="35" t="n">
         <v>2411.26</v>
@@ -3494,7 +3494,7 @@
         <v>13403.92</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>7480.73</v>
+        <v>7484.75</v>
       </c>
       <c r="F65" s="35" t="n">
         <v>937.3</v>
@@ -3541,7 +3541,7 @@
         <v>5328.62</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>7272.5</v>
+        <v>7289.55</v>
       </c>
       <c r="F66" s="35" t="n">
         <v>836.79</v>
@@ -3588,7 +3588,7 @@
         <v>7778.64</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>6830.42</v>
+        <v>6848.31</v>
       </c>
       <c r="F67" s="35" t="n">
         <v>-276.93</v>
@@ -3635,7 +3635,7 @@
         <v>3299.64</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>6512.5</v>
+        <v>6530.98</v>
       </c>
       <c r="F68" s="35" t="n">
         <v>21.09</v>
@@ -3682,7 +3682,7 @@
         <v>7852.99</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>6096.28</v>
+        <v>6119.05</v>
       </c>
       <c r="F69" s="35" t="n">
         <v>-444.3</v>
@@ -3729,7 +3729,7 @@
         <v>3580.2</v>
       </c>
       <c r="E70" s="35" t="n">
-        <v>3392.96</v>
+        <v>3405.84</v>
       </c>
       <c r="F70" s="35" t="n">
         <v>-162.18</v>
@@ -3776,7 +3776,7 @@
         <v>171152.16</v>
       </c>
       <c r="E71" s="30" t="n">
-        <v>176132.69</v>
+        <v>176184.03</v>
       </c>
       <c r="F71" s="30" t="n">
         <v>41.34</v>
@@ -3823,7 +3823,7 @@
         <v>11598.58</v>
       </c>
       <c r="E72" s="30" t="n">
-        <v>17189.1</v>
+        <v>17258.69</v>
       </c>
       <c r="F72" s="30" t="n">
         <v>-8.08</v>
@@ -3870,7 +3870,7 @@
         <v>128864.36</v>
       </c>
       <c r="E73" s="30" t="n">
-        <v>138658.05</v>
+        <v>138786.92</v>
       </c>
       <c r="F73" s="30" t="n">
         <v>18.05</v>
@@ -3917,7 +3917,7 @@
         <v>132719.84</v>
       </c>
       <c r="E74" s="30" t="n">
-        <v>143071.99</v>
+        <v>143204.71</v>
       </c>
       <c r="F74" s="30" t="n">
         <v>-48.01</v>
@@ -3964,7 +3964,7 @@
         <v>59685.02</v>
       </c>
       <c r="E75" s="30" t="n">
-        <v>74188.48</v>
+        <v>74248.16</v>
       </c>
       <c r="F75" s="30" t="n">
         <v>-230.58</v>
@@ -4011,7 +4011,7 @@
         <v>76964.17</v>
       </c>
       <c r="E76" s="30" t="n">
-        <v>99360.74000000001</v>
+        <v>99437.71000000001</v>
       </c>
       <c r="F76" s="30" t="n">
         <v>-110.15</v>
@@ -4058,7 +4058,7 @@
         <v>140577.44</v>
       </c>
       <c r="E77" s="30" t="n">
-        <v>151697.12</v>
+        <v>151739.29</v>
       </c>
       <c r="F77" s="30" t="n">
         <v>-51</v>
@@ -4105,7 +4105,7 @@
         <v>1029.32</v>
       </c>
       <c r="E78" s="10" t="n">
-        <v>1473.99</v>
+        <v>1478.1</v>
       </c>
       <c r="F78" s="10" t="n">
         <v>-2.36</v>
@@ -4152,7 +4152,7 @@
         <v>874.15</v>
       </c>
       <c r="E79" s="10" t="n">
-        <v>1414.37</v>
+        <v>1420.49</v>
       </c>
       <c r="F79" s="10" t="n">
         <v>-37.8</v>
@@ -4199,7 +4199,7 @@
         <v>898.04</v>
       </c>
       <c r="E80" s="10" t="n">
-        <v>1317.42</v>
+        <v>1315.81</v>
       </c>
       <c r="F80" s="10" t="n">
         <v>78.26000000000001</v>
@@ -4246,7 +4246,7 @@
         <v>1336.21</v>
       </c>
       <c r="E81" s="10" t="n">
-        <v>1239.47</v>
+        <v>1244.15</v>
       </c>
       <c r="F81" s="10" t="n">
         <v>-23.26</v>
@@ -4293,7 +4293,7 @@
         <v>492.58</v>
       </c>
       <c r="E82" s="10" t="n">
-        <v>924.03</v>
+        <v>927.08</v>
       </c>
       <c r="F82" s="10" t="n">
         <v>29.64</v>
@@ -4340,7 +4340,7 @@
         <v>398.66</v>
       </c>
       <c r="E83" s="10" t="n">
-        <v>867.64</v>
+        <v>870.51</v>
       </c>
       <c r="F83" s="10" t="n">
         <v>15.23</v>
@@ -4387,7 +4387,7 @@
         <v>373.42</v>
       </c>
       <c r="E84" s="10" t="n">
-        <v>358.04</v>
+        <v>356.69</v>
       </c>
       <c r="F84" s="10" t="n">
         <v>-6.93</v>
@@ -4434,7 +4434,7 @@
         <v>214.89</v>
       </c>
       <c r="E85" s="10" t="n">
-        <v>202.68</v>
+        <v>204.66</v>
       </c>
       <c r="F85" s="10" t="n">
         <v>-10.68</v>
@@ -4481,7 +4481,7 @@
         <v>212.74</v>
       </c>
       <c r="E86" s="10" t="n">
-        <v>163.62</v>
+        <v>161.87</v>
       </c>
       <c r="F86" s="10" t="n">
         <v>18.11</v>
@@ -4575,7 +4575,7 @@
         <v>24.24</v>
       </c>
       <c r="E88" s="10" t="n">
-        <v>32.84</v>
+        <v>32.9</v>
       </c>
       <c r="F88" s="10" t="n">
         <v>-2.32</v>
@@ -4669,7 +4669,7 @@
         <v>946.4299999999999</v>
       </c>
       <c r="E90" s="10" t="n">
-        <v>1531.32</v>
+        <v>1537.95</v>
       </c>
       <c r="F90" s="10" t="n">
         <v>-45.37</v>
@@ -4716,7 +4716,7 @@
         <v>1025.65</v>
       </c>
       <c r="E91" s="10" t="n">
-        <v>1468.73</v>
+        <v>1472.83</v>
       </c>
       <c r="F91" s="10" t="n">
         <v>-0.8100000000000001</v>
@@ -4763,7 +4763,7 @@
         <v>915.97</v>
       </c>
       <c r="E92" s="10" t="n">
-        <v>1343.73</v>
+        <v>1342.08</v>
       </c>
       <c r="F92" s="10" t="n">
         <v>77.13</v>
@@ -4810,7 +4810,7 @@
         <v>1367.69</v>
       </c>
       <c r="E93" s="10" t="n">
-        <v>1268.67</v>
+        <v>1273.46</v>
       </c>
       <c r="F93" s="10" t="n">
         <v>-24.57</v>
@@ -4857,7 +4857,7 @@
         <v>528.99</v>
       </c>
       <c r="E94" s="10" t="n">
-        <v>992.33</v>
+        <v>995.61</v>
       </c>
       <c r="F94" s="10" t="n">
         <v>30.49</v>
@@ -4904,7 +4904,7 @@
         <v>390.29</v>
       </c>
       <c r="E95" s="10" t="n">
-        <v>849.4299999999999</v>
+        <v>852.24</v>
       </c>
       <c r="F95" s="10" t="n">
         <v>14.23</v>
@@ -4951,7 +4951,7 @@
         <v>392.19</v>
       </c>
       <c r="E96" s="10" t="n">
-        <v>376.03</v>
+        <v>374.62</v>
       </c>
       <c r="F96" s="10" t="n">
         <v>-6.79</v>
@@ -4998,7 +4998,7 @@
         <v>227.52</v>
       </c>
       <c r="E97" s="10" t="n">
-        <v>214.6</v>
+        <v>216.69</v>
       </c>
       <c r="F97" s="10" t="n">
         <v>-11.19</v>
@@ -5092,7 +5092,7 @@
         <v>212.74</v>
       </c>
       <c r="E99" s="10" t="n">
-        <v>163.62</v>
+        <v>161.87</v>
       </c>
       <c r="F99" s="10" t="n">
         <v>18.11</v>
@@ -5139,7 +5139,7 @@
         <v>24.24</v>
       </c>
       <c r="E100" s="10" t="n">
-        <v>32.84</v>
+        <v>32.9</v>
       </c>
       <c r="F100" s="10" t="n">
         <v>-2.32</v>
@@ -5233,7 +5233,7 @@
         <v>9697.57</v>
       </c>
       <c r="E102" s="35" t="n">
-        <v>10658.6</v>
+        <v>10686.72</v>
       </c>
       <c r="F102" s="35" t="n">
         <v>290.83</v>
@@ -5280,7 +5280,7 @@
         <v>8677.6</v>
       </c>
       <c r="E103" s="35" t="n">
-        <v>9536.68</v>
+        <v>9588.75</v>
       </c>
       <c r="F103" s="35" t="n">
         <v>710.64</v>
@@ -5327,7 +5327,7 @@
         <v>6096.21</v>
       </c>
       <c r="E104" s="35" t="n">
-        <v>5845.05</v>
+        <v>5823.1</v>
       </c>
       <c r="F104" s="35" t="n">
         <v>529.8200000000001</v>
@@ -5374,7 +5374,7 @@
         <v>6750.28</v>
       </c>
       <c r="E105" s="35" t="n">
-        <v>5667.54</v>
+        <v>5587.88</v>
       </c>
       <c r="F105" s="35" t="n">
         <v>756.83</v>
@@ -5421,7 +5421,7 @@
         <v>2760.12</v>
       </c>
       <c r="E106" s="35" t="n">
-        <v>4490.72</v>
+        <v>4482.43</v>
       </c>
       <c r="F106" s="35" t="n">
         <v>832.75</v>
@@ -5468,7 +5468,7 @@
         <v>4423.48</v>
       </c>
       <c r="E107" s="35" t="n">
-        <v>3433.95</v>
+        <v>3446.78</v>
       </c>
       <c r="F107" s="35" t="n">
         <v>154.76</v>
@@ -5515,7 +5515,7 @@
         <v>1981.84</v>
       </c>
       <c r="E108" s="35" t="n">
-        <v>3359.22</v>
+        <v>3355.26</v>
       </c>
       <c r="F108" s="35" t="n">
         <v>144.43</v>
@@ -5562,7 +5562,7 @@
         <v>2046.97</v>
       </c>
       <c r="E109" s="35" t="n">
-        <v>3322.23</v>
+        <v>3336.56</v>
       </c>
       <c r="F109" s="35" t="n">
         <v>565.08</v>
@@ -5609,7 +5609,7 @@
         <v>5949.77</v>
       </c>
       <c r="E110" s="35" t="n">
-        <v>3320.57</v>
+        <v>3322.35</v>
       </c>
       <c r="F110" s="35" t="n">
         <v>56.9</v>
@@ -5656,7 +5656,7 @@
         <v>1884.74</v>
       </c>
       <c r="E111" s="35" t="n">
-        <v>2257.92</v>
+        <v>2276.77</v>
       </c>
       <c r="F111" s="35" t="n">
         <v>225.87</v>
@@ -5703,7 +5703,7 @@
         <v>1213.09</v>
       </c>
       <c r="E112" s="35" t="n">
-        <v>2165.97</v>
+        <v>2159.06</v>
       </c>
       <c r="F112" s="35" t="n">
         <v>504.95</v>
@@ -5750,7 +5750,7 @@
         <v>1630.08</v>
       </c>
       <c r="E113" s="35" t="n">
-        <v>1885.19</v>
+        <v>1886.49</v>
       </c>
       <c r="F113" s="35" t="n">
         <v>271.65</v>
@@ -5797,7 +5797,7 @@
         <v>1407.29</v>
       </c>
       <c r="E114" s="35" t="n">
-        <v>1837.92</v>
+        <v>1853.4</v>
       </c>
       <c r="F114" s="35" t="n">
         <v>233.69</v>
@@ -5844,7 +5844,7 @@
         <v>1338.46</v>
       </c>
       <c r="E115" s="35" t="n">
-        <v>1346.49</v>
+        <v>1343.81</v>
       </c>
       <c r="F115" s="35" t="n">
         <v>134.44</v>
@@ -5891,7 +5891,7 @@
         <v>3350.7</v>
       </c>
       <c r="E116" s="35" t="n">
-        <v>1233.06</v>
+        <v>1269.92</v>
       </c>
       <c r="F116" s="35" t="n">
         <v>-377</v>
@@ -5938,7 +5938,7 @@
         <v>1495.03</v>
       </c>
       <c r="E117" s="35" t="n">
-        <v>1212.17</v>
+        <v>1216.36</v>
       </c>
       <c r="F117" s="35" t="n">
         <v>-11.01</v>
@@ -5985,7 +5985,7 @@
         <v>900.35</v>
       </c>
       <c r="E118" s="35" t="n">
-        <v>981.2</v>
+        <v>982.1</v>
       </c>
       <c r="F118" s="35" t="n">
         <v>176.6</v>
@@ -6032,7 +6032,7 @@
         <v>733.79</v>
       </c>
       <c r="E119" s="35" t="n">
-        <v>898.09</v>
+        <v>891.85</v>
       </c>
       <c r="F119" s="35" t="n">
         <v>93.68000000000001</v>
@@ -6079,7 +6079,7 @@
         <v>496.13</v>
       </c>
       <c r="E120" s="35" t="n">
-        <v>492.76</v>
+        <v>491.96</v>
       </c>
       <c r="F120" s="35" t="n">
         <v>84.91</v>
@@ -6126,7 +6126,7 @@
         <v>333.04</v>
       </c>
       <c r="E121" s="35" t="n">
-        <v>454.53</v>
+        <v>455.6</v>
       </c>
       <c r="F121" s="35" t="n">
         <v>52.3</v>
@@ -6173,7 +6173,7 @@
         <v>325.61</v>
       </c>
       <c r="E122" s="35" t="n">
-        <v>425.25</v>
+        <v>424.6</v>
       </c>
       <c r="F122" s="35" t="n">
         <v>20.03</v>
@@ -6220,7 +6220,7 @@
         <v>275.49</v>
       </c>
       <c r="E123" s="35" t="n">
-        <v>409.27</v>
+        <v>409.21</v>
       </c>
       <c r="F123" s="35" t="n">
         <v>7</v>
@@ -6267,7 +6267,7 @@
         <v>206.23</v>
       </c>
       <c r="E124" s="35" t="n">
-        <v>407.04</v>
+        <v>408.19</v>
       </c>
       <c r="F124" s="35" t="n">
         <v>1.32</v>
@@ -6314,7 +6314,7 @@
         <v>275.96</v>
       </c>
       <c r="E125" s="35" t="n">
-        <v>242.32</v>
+        <v>242.96</v>
       </c>
       <c r="F125" s="35" t="n">
         <v>9.75</v>

--- a/scripts/output/201912/全家/全家整体资产配置.xlsx
+++ b/scripts/output/201912/全家/全家整体资产配置.xlsx
@@ -457,7 +457,7 @@
     <col customWidth="1" max="7" min="7" width="9"/>
     <col customWidth="1" max="8" min="8" width="11.25"/>
     <col customWidth="1" max="9" min="9" width="11.25"/>
-    <col customWidth="1" max="11" min="11" width="15.75"/>
+    <col customWidth="1" max="11" min="11" width="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -627,7 +627,7 @@
         <v>2352.23</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>3784.74</v>
+        <v>3820.02</v>
       </c>
       <c r="F4" s="10" t="n">
         <v>-99.97</v>
@@ -674,7 +674,7 @@
         <v>2620.53</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>3731.63</v>
+        <v>3755.22</v>
       </c>
       <c r="F5" s="10" t="n">
         <v>-6.82</v>
@@ -721,7 +721,7 @@
         <v>2260.14</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3244.66</v>
+        <v>3297.09</v>
       </c>
       <c r="F6" s="10" t="n">
         <v>197.72</v>
@@ -768,7 +768,7 @@
         <v>3509.02</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>3212.16</v>
+        <v>3279.88</v>
       </c>
       <c r="F7" s="10" t="n">
         <v>-61.84</v>
@@ -815,7 +815,7 @@
         <v>1363.37</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2531.51</v>
+        <v>2564.5</v>
       </c>
       <c r="F8" s="10" t="n">
         <v>79.23</v>
@@ -862,7 +862,7 @@
         <v>1017.99</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>2197.74</v>
+        <v>2220.03</v>
       </c>
       <c r="F9" s="10" t="n">
         <v>36.21</v>
@@ -909,7 +909,7 @@
         <v>980.46</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>922.91</v>
+        <v>941.24</v>
       </c>
       <c r="F10" s="10" t="n">
         <v>-17.02</v>
@@ -956,7 +956,7 @@
         <v>550.4</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>513.63</v>
+        <v>523.65</v>
       </c>
       <c r="F11" s="10" t="n">
         <v>-27.26</v>
@@ -1003,7 +1003,7 @@
         <v>531.87</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>402.04</v>
+        <v>408.1</v>
       </c>
       <c r="F12" s="10" t="n">
         <v>45.26</v>
@@ -1050,7 +1050,7 @@
         <v>247.91</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>320.3</v>
+        <v>326</v>
       </c>
       <c r="F13" s="10" t="n">
         <v>7.04</v>
@@ -1097,7 +1097,7 @@
         <v>60.61</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>86.91</v>
+        <v>82.09</v>
       </c>
       <c r="F14" s="10" t="n">
         <v>-5.8</v>
@@ -1285,7 +1285,7 @@
         <v>16731.88</v>
       </c>
       <c r="E18" s="20" t="n">
-        <v>9179.110000000001</v>
+        <v>9368.18</v>
       </c>
       <c r="F18" s="20" t="n">
         <v>-2840.97</v>
@@ -1332,7 +1332,7 @@
         <v>2700</v>
       </c>
       <c r="E19" s="25" t="n">
-        <v>7830</v>
+        <v>7927.2</v>
       </c>
       <c r="F19" s="25" t="n">
         <v>1539</v>
@@ -1379,7 +1379,7 @@
         <v>9100</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>35599.2</v>
+        <v>36029.63</v>
       </c>
       <c r="F20" s="25" t="n">
         <v>4222.4</v>
@@ -1426,7 +1426,7 @@
         <v>38800</v>
       </c>
       <c r="E21" s="25" t="n">
-        <v>206450.92</v>
+        <v>211960.52</v>
       </c>
       <c r="F21" s="25" t="n">
         <v>-10514.8</v>
@@ -1473,7 +1473,7 @@
         <v>33800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>24687.52</v>
+        <v>25221.56</v>
       </c>
       <c r="F22" s="25" t="n">
         <v>-5002.4</v>
@@ -1520,7 +1520,7 @@
         <v>32700</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>29688.33</v>
+        <v>30172.29</v>
       </c>
       <c r="F23" s="25" t="n">
         <v>4152.9</v>
@@ -1567,7 +1567,7 @@
         <v>34100</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>25707.99</v>
+        <v>26710.53</v>
       </c>
       <c r="F24" s="25" t="n">
         <v>-3853.3</v>
@@ -1614,7 +1614,7 @@
         <v>4500</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>15075.9</v>
+        <v>14817.6</v>
       </c>
       <c r="F25" s="25" t="n">
         <v>1894.5</v>
@@ -1661,7 +1661,7 @@
         <v>9200</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>14825.8</v>
+        <v>15356.64</v>
       </c>
       <c r="F26" s="25" t="n">
         <v>1968.8</v>
@@ -1708,7 +1708,7 @@
         <v>14400</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>19078.56</v>
+        <v>19267.2</v>
       </c>
       <c r="F27" s="25" t="n">
         <v>705.6</v>
@@ -1755,7 +1755,7 @@
         <v>4157.52</v>
       </c>
       <c r="E28" s="30" t="n">
-        <v>8081.8</v>
+        <v>8261.41</v>
       </c>
       <c r="F28" s="30" t="n">
         <v>86.53</v>
@@ -1802,7 +1802,7 @@
         <v>9722</v>
       </c>
       <c r="E29" s="30" t="n">
-        <v>5333.49</v>
+        <v>5443.35</v>
       </c>
       <c r="F29" s="30" t="n">
         <v>-14.18</v>
@@ -1849,7 +1849,7 @@
         <v>4943.96</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>4653.75</v>
+        <v>4746.2</v>
       </c>
       <c r="F30" s="30" t="n">
         <v>-22.17</v>
@@ -1896,7 +1896,7 @@
         <v>7379.54</v>
       </c>
       <c r="E31" s="30" t="n">
-        <v>4036.61</v>
+        <v>4139.92</v>
       </c>
       <c r="F31" s="30" t="n">
         <v>41.99</v>
@@ -1943,7 +1943,7 @@
         <v>3665.01</v>
       </c>
       <c r="E32" s="30" t="n">
-        <v>4002.19</v>
+        <v>4046.17</v>
       </c>
       <c r="F32" s="30" t="n">
         <v>14.85</v>
@@ -1990,7 +1990,7 @@
         <v>4550.55</v>
       </c>
       <c r="E33" s="30" t="n">
-        <v>3447.5</v>
+        <v>3574.46</v>
       </c>
       <c r="F33" s="30" t="n">
         <v>116.14</v>
@@ -2037,7 +2037,7 @@
         <v>400.63</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>694.61</v>
+        <v>718.05</v>
       </c>
       <c r="F34" s="30" t="n">
         <v>28.17</v>
@@ -2084,7 +2084,7 @@
         <v>736.3</v>
       </c>
       <c r="E35" s="30" t="n">
-        <v>693.59</v>
+        <v>716.05</v>
       </c>
       <c r="F35" s="30" t="n">
         <v>27.48</v>
@@ -2131,7 +2131,7 @@
         <v>473.85</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>461.86</v>
+        <v>469.06</v>
       </c>
       <c r="F36" s="30" t="n">
         <v>-3.76</v>
@@ -2178,7 +2178,7 @@
         <v>5299.96</v>
       </c>
       <c r="E37" s="30" t="n">
-        <v>1907.99</v>
+        <v>2019.28</v>
       </c>
       <c r="F37" s="30" t="n">
         <v>-66.51000000000001</v>
@@ -2225,7 +2225,7 @@
         <v>576.8</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>746.38</v>
+        <v>753.88</v>
       </c>
       <c r="F38" s="30" t="n">
         <v>84.56999999999999</v>
@@ -2272,7 +2272,7 @@
         <v>459.67</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>672.5</v>
+        <v>681.37</v>
       </c>
       <c r="F39" s="30" t="n">
         <v>12.12</v>
@@ -2319,7 +2319,7 @@
         <v>611.75</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>726.76</v>
+        <v>732.88</v>
       </c>
       <c r="F40" s="30" t="n">
         <v>55.48</v>
@@ -2366,7 +2366,7 @@
         <v>1046.73</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>2034.74</v>
+        <v>2079.96</v>
       </c>
       <c r="F41" s="30" t="n">
         <v>36.94</v>
@@ -2413,7 +2413,7 @@
         <v>1825.9</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>1993.88</v>
+        <v>2015.79</v>
       </c>
       <c r="F42" s="30" t="n">
         <v>1.19</v>
@@ -2460,7 +2460,7 @@
         <v>1059.17</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>1052.81</v>
+        <v>1065.53</v>
       </c>
       <c r="F43" s="30" t="n">
         <v>55.99</v>
@@ -2507,7 +2507,7 @@
         <v>1812.7</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>991.55</v>
+        <v>1016.92</v>
       </c>
       <c r="F44" s="30" t="n">
         <v>-6.64</v>
@@ -2554,7 +2554,7 @@
         <v>1227.03</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>929.6</v>
+        <v>963.83</v>
       </c>
       <c r="F45" s="30" t="n">
         <v>-69.42</v>
@@ -2601,7 +2601,7 @@
         <v>1834.47</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>2274.93</v>
+        <v>2236.4</v>
       </c>
       <c r="F46" s="30" t="n">
         <v>234.2</v>
@@ -2648,7 +2648,7 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E47" s="30" t="n">
-        <v>1164.37</v>
+        <v>1176.06</v>
       </c>
       <c r="F47" s="30" t="n">
         <v>172.47</v>
@@ -2695,7 +2695,7 @@
         <v>689.02</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>1008.04</v>
+        <v>1021.33</v>
       </c>
       <c r="F48" s="30" t="n">
         <v>17.96</v>
@@ -2742,7 +2742,7 @@
         <v>4757.9</v>
       </c>
       <c r="E49" s="30" t="n">
-        <v>1712.84</v>
+        <v>1812.76</v>
       </c>
       <c r="F49" s="30" t="n">
         <v>-263.37</v>
@@ -2789,7 +2789,7 @@
         <v>953.96</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>1133.3</v>
+        <v>1142.84</v>
       </c>
       <c r="F50" s="30" t="n">
         <v>126.63</v>
@@ -2836,7 +2836,7 @@
         <v>595.47</v>
       </c>
       <c r="E51" s="30" t="n">
-        <v>1002.77</v>
+        <v>1015.28</v>
       </c>
       <c r="F51" s="30" t="n">
         <v>2.18</v>
@@ -2883,7 +2883,7 @@
         <v>65064.33</v>
       </c>
       <c r="E52" s="35" t="n">
-        <v>71050.25</v>
+        <v>71831.02</v>
       </c>
       <c r="F52" s="35" t="n">
         <v>4990.5</v>
@@ -2930,7 +2930,7 @@
         <v>63490</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>59763.14</v>
+        <v>60950.4</v>
       </c>
       <c r="F53" s="35" t="n">
         <v>1474.25</v>
@@ -2977,7 +2977,7 @@
         <v>32370.29</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>37128.72</v>
+        <v>37779.37</v>
       </c>
       <c r="F54" s="35" t="n">
         <v>5167.56</v>
@@ -3024,7 +3024,7 @@
         <v>20086.63</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>33825.88</v>
+        <v>34247.7</v>
       </c>
       <c r="F55" s="35" t="n">
         <v>1805.79</v>
@@ -3071,7 +3071,7 @@
         <v>41014.88</v>
       </c>
       <c r="E56" s="35" t="n">
-        <v>33907</v>
+        <v>34218.71</v>
       </c>
       <c r="F56" s="35" t="n">
         <v>3203.44</v>
@@ -3118,7 +3118,7 @@
         <v>20716.63</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>24611.36</v>
+        <v>24818.52</v>
       </c>
       <c r="F57" s="35" t="n">
         <v>1866.34</v>
@@ -3165,7 +3165,7 @@
         <v>14624.61</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>23472.5</v>
+        <v>23764.99</v>
       </c>
       <c r="F58" s="35" t="n">
         <v>4287.12</v>
@@ -3212,7 +3212,7 @@
         <v>21163.93</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>22857.04</v>
+        <v>23026.36</v>
       </c>
       <c r="F59" s="35" t="n">
         <v>3756.51</v>
@@ -3259,7 +3259,7 @@
         <v>16778.47</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>21711.34</v>
+        <v>21929.46</v>
       </c>
       <c r="F60" s="35" t="n">
         <v>2662.34</v>
@@ -3306,7 +3306,7 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>15238.17</v>
+        <v>15590.77</v>
       </c>
       <c r="F61" s="35" t="n">
         <v>2457.22</v>
@@ -3353,7 +3353,7 @@
         <v>37267.45</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>13416.28</v>
+        <v>14198.9</v>
       </c>
       <c r="F62" s="35" t="n">
         <v>-5597.39</v>
@@ -3400,7 +3400,7 @@
         <v>6798.52</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>9946.23</v>
+        <v>10077.45</v>
       </c>
       <c r="F63" s="35" t="n">
         <v>144.13</v>
@@ -3447,7 +3447,7 @@
         <v>5609.79</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>7545.17</v>
+        <v>7556.39</v>
       </c>
       <c r="F64" s="35" t="n">
         <v>2411.26</v>
@@ -3494,7 +3494,7 @@
         <v>13403.92</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>7353.39</v>
+        <v>7504.85</v>
       </c>
       <c r="F65" s="35" t="n">
         <v>937.3</v>
@@ -3541,7 +3541,7 @@
         <v>5328.62</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>7236.27</v>
+        <v>7306.6</v>
       </c>
       <c r="F66" s="35" t="n">
         <v>836.79</v>
@@ -3588,7 +3588,7 @@
         <v>7778.64</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>6718.41</v>
+        <v>6877.87</v>
       </c>
       <c r="F67" s="35" t="n">
         <v>-276.93</v>
@@ -3635,7 +3635,7 @@
         <v>3299.64</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>6414.17</v>
+        <v>6556.71</v>
       </c>
       <c r="F68" s="35" t="n">
         <v>21.09</v>
@@ -3682,7 +3682,7 @@
         <v>7852.99</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>5949.43</v>
+        <v>6168.52</v>
       </c>
       <c r="F69" s="35" t="n">
         <v>-444.3</v>
@@ -3729,7 +3729,7 @@
         <v>3580.2</v>
       </c>
       <c r="E70" s="35" t="n">
-        <v>3337.82</v>
+        <v>3419.09</v>
       </c>
       <c r="F70" s="35" t="n">
         <v>-162.18</v>
@@ -3776,7 +3776,7 @@
         <v>171152.16</v>
       </c>
       <c r="E71" s="30" t="n">
-        <v>176098.46</v>
+        <v>176201.15</v>
       </c>
       <c r="F71" s="30" t="n">
         <v>41.34</v>
@@ -3803,7 +3803,7 @@
       </c>
       <c r="K71" s="31" t="inlineStr">
         <is>
-          <t>我要稳稳的幸福</t>
+          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
@@ -3823,7 +3823,7 @@
         <v>11598.58</v>
       </c>
       <c r="E72" s="30" t="n">
-        <v>16991.92</v>
+        <v>17339.88</v>
       </c>
       <c r="F72" s="30" t="n">
         <v>-8.08</v>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="K72" s="31" t="inlineStr">
         <is>
-          <t>我要稳稳的幸福</t>
+          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
@@ -3870,7 +3870,7 @@
         <v>128864.36</v>
       </c>
       <c r="E73" s="30" t="n">
-        <v>138658.05</v>
+        <v>138786.92</v>
       </c>
       <c r="F73" s="30" t="n">
         <v>18.05</v>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="K73" s="31" t="inlineStr">
         <is>
-          <t>我要稳稳的幸福</t>
+          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
@@ -3917,7 +3917,7 @@
         <v>132719.84</v>
       </c>
       <c r="E74" s="30" t="n">
-        <v>143071.99</v>
+        <v>143204.71</v>
       </c>
       <c r="F74" s="30" t="n">
         <v>-48.01</v>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="K74" s="31" t="inlineStr">
         <is>
-          <t>我要稳稳的幸福</t>
+          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
@@ -3964,7 +3964,7 @@
         <v>59685.02</v>
       </c>
       <c r="E75" s="30" t="n">
-        <v>74009.42</v>
+        <v>74307.85000000001</v>
       </c>
       <c r="F75" s="30" t="n">
         <v>-230.58</v>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="K75" s="31" t="inlineStr">
         <is>
-          <t>我要稳稳的幸福</t>
+          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
         <v>76964.17</v>
       </c>
       <c r="E76" s="30" t="n">
-        <v>99052.89</v>
+        <v>99514.67</v>
       </c>
       <c r="F76" s="30" t="n">
         <v>-110.15</v>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="K76" s="31" t="inlineStr">
         <is>
-          <t>我要稳稳的幸福</t>
+          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
@@ -4058,7 +4058,7 @@
         <v>140577.44</v>
       </c>
       <c r="E77" s="30" t="n">
-        <v>151683.06</v>
+        <v>151753.35</v>
       </c>
       <c r="F77" s="30" t="n">
         <v>-51</v>
@@ -4085,7 +4085,7 @@
       </c>
       <c r="K77" s="31" t="inlineStr">
         <is>
-          <t>我要稳稳的幸福</t>
+          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
@@ -4105,7 +4105,7 @@
         <v>1029.32</v>
       </c>
       <c r="E78" s="10" t="n">
-        <v>1465.75</v>
+        <v>1475.02</v>
       </c>
       <c r="F78" s="10" t="n">
         <v>-2.36</v>
@@ -4152,7 +4152,7 @@
         <v>874.15</v>
       </c>
       <c r="E79" s="10" t="n">
-        <v>1406.51</v>
+        <v>1419.62</v>
       </c>
       <c r="F79" s="10" t="n">
         <v>-37.8</v>
@@ -4199,7 +4199,7 @@
         <v>898.04</v>
       </c>
       <c r="E80" s="10" t="n">
-        <v>1289.23</v>
+        <v>1310.06</v>
       </c>
       <c r="F80" s="10" t="n">
         <v>78.26000000000001</v>
@@ -4246,7 +4246,7 @@
         <v>1336.21</v>
       </c>
       <c r="E81" s="10" t="n">
-        <v>1223.17</v>
+        <v>1248.96</v>
       </c>
       <c r="F81" s="10" t="n">
         <v>-23.26</v>
@@ -4293,7 +4293,7 @@
         <v>492.58</v>
       </c>
       <c r="E82" s="10" t="n">
-        <v>914.62</v>
+        <v>926.54</v>
       </c>
       <c r="F82" s="10" t="n">
         <v>29.64</v>
@@ -4340,7 +4340,7 @@
         <v>398.66</v>
       </c>
       <c r="E83" s="10" t="n">
-        <v>860.67</v>
+        <v>869.4</v>
       </c>
       <c r="F83" s="10" t="n">
         <v>15.23</v>
@@ -4387,7 +4387,7 @@
         <v>373.42</v>
       </c>
       <c r="E84" s="10" t="n">
-        <v>351.5</v>
+        <v>358.48</v>
       </c>
       <c r="F84" s="10" t="n">
         <v>-6.93</v>
@@ -4434,7 +4434,7 @@
         <v>214.89</v>
       </c>
       <c r="E85" s="10" t="n">
-        <v>200.54</v>
+        <v>204.45</v>
       </c>
       <c r="F85" s="10" t="n">
         <v>-10.68</v>
@@ -4481,7 +4481,7 @@
         <v>212.74</v>
       </c>
       <c r="E86" s="10" t="n">
-        <v>160.81</v>
+        <v>163.24</v>
       </c>
       <c r="F86" s="10" t="n">
         <v>18.11</v>
@@ -4528,7 +4528,7 @@
         <v>62.09</v>
       </c>
       <c r="E87" s="10" t="n">
-        <v>80.22</v>
+        <v>81.65000000000001</v>
       </c>
       <c r="F87" s="10" t="n">
         <v>0.18</v>
@@ -4575,7 +4575,7 @@
         <v>24.24</v>
       </c>
       <c r="E88" s="10" t="n">
-        <v>34.76</v>
+        <v>32.83</v>
       </c>
       <c r="F88" s="10" t="n">
         <v>-2.32</v>
@@ -4669,7 +4669,7 @@
         <v>946.4299999999999</v>
       </c>
       <c r="E90" s="10" t="n">
-        <v>1522.81</v>
+        <v>1537</v>
       </c>
       <c r="F90" s="10" t="n">
         <v>-45.37</v>
@@ -4716,7 +4716,7 @@
         <v>1025.65</v>
       </c>
       <c r="E91" s="10" t="n">
-        <v>1460.53</v>
+        <v>1469.76</v>
       </c>
       <c r="F91" s="10" t="n">
         <v>-0.8100000000000001</v>
@@ -4763,7 +4763,7 @@
         <v>915.97</v>
       </c>
       <c r="E92" s="10" t="n">
-        <v>1314.97</v>
+        <v>1336.22</v>
       </c>
       <c r="F92" s="10" t="n">
         <v>77.13</v>
@@ -4810,7 +4810,7 @@
         <v>1367.69</v>
       </c>
       <c r="E93" s="10" t="n">
-        <v>1251.98</v>
+        <v>1278.38</v>
       </c>
       <c r="F93" s="10" t="n">
         <v>-24.57</v>
@@ -4857,7 +4857,7 @@
         <v>528.99</v>
       </c>
       <c r="E94" s="10" t="n">
-        <v>982.23</v>
+        <v>995.03</v>
       </c>
       <c r="F94" s="10" t="n">
         <v>30.49</v>
@@ -4904,7 +4904,7 @@
         <v>390.29</v>
       </c>
       <c r="E95" s="10" t="n">
-        <v>842.6</v>
+        <v>851.14</v>
       </c>
       <c r="F95" s="10" t="n">
         <v>14.23</v>
@@ -4951,7 +4951,7 @@
         <v>392.19</v>
       </c>
       <c r="E96" s="10" t="n">
-        <v>369.17</v>
+        <v>376.5</v>
       </c>
       <c r="F96" s="10" t="n">
         <v>-6.79</v>
@@ -4998,7 +4998,7 @@
         <v>227.52</v>
       </c>
       <c r="E97" s="10" t="n">
-        <v>212.32</v>
+        <v>216.46</v>
       </c>
       <c r="F97" s="10" t="n">
         <v>-11.19</v>
@@ -5045,7 +5045,7 @@
         <v>142.1</v>
       </c>
       <c r="E98" s="10" t="n">
-        <v>183.59</v>
+        <v>186.86</v>
       </c>
       <c r="F98" s="10" t="n">
         <v>1.14</v>
@@ -5092,7 +5092,7 @@
         <v>212.74</v>
       </c>
       <c r="E99" s="10" t="n">
-        <v>160.81</v>
+        <v>163.24</v>
       </c>
       <c r="F99" s="10" t="n">
         <v>18.11</v>
@@ -5139,7 +5139,7 @@
         <v>24.24</v>
       </c>
       <c r="E100" s="10" t="n">
-        <v>34.76</v>
+        <v>32.83</v>
       </c>
       <c r="F100" s="10" t="n">
         <v>-2.32</v>
@@ -5233,7 +5233,7 @@
         <v>9697.57</v>
       </c>
       <c r="E102" s="35" t="n">
-        <v>10483.07</v>
+        <v>10733.27</v>
       </c>
       <c r="F102" s="35" t="n">
         <v>290.83</v>
@@ -5280,7 +5280,7 @@
         <v>8677.6</v>
       </c>
       <c r="E103" s="35" t="n">
-        <v>9475.940000000001</v>
+        <v>9580.07</v>
       </c>
       <c r="F103" s="35" t="n">
         <v>710.64</v>
@@ -5327,7 +5327,7 @@
         <v>6096.21</v>
       </c>
       <c r="E104" s="35" t="n">
-        <v>5738.36</v>
+        <v>5852.36</v>
       </c>
       <c r="F104" s="35" t="n">
         <v>529.8200000000001</v>
@@ -5374,7 +5374,7 @@
         <v>6750.28</v>
       </c>
       <c r="E105" s="35" t="n">
-        <v>5580.46</v>
+        <v>5631.76</v>
       </c>
       <c r="F105" s="35" t="n">
         <v>756.83</v>
@@ -5421,7 +5421,7 @@
         <v>2760.12</v>
       </c>
       <c r="E106" s="35" t="n">
-        <v>4429.99</v>
+        <v>4485.19</v>
       </c>
       <c r="F106" s="35" t="n">
         <v>832.75</v>
@@ -5468,7 +5468,7 @@
         <v>4423.48</v>
       </c>
       <c r="E107" s="35" t="n">
-        <v>3351.23</v>
+        <v>3474.64</v>
       </c>
       <c r="F107" s="35" t="n">
         <v>154.76</v>
@@ -5515,7 +5515,7 @@
         <v>1981.84</v>
       </c>
       <c r="E108" s="35" t="n">
-        <v>3337.42</v>
+        <v>3379.04</v>
       </c>
       <c r="F108" s="35" t="n">
         <v>144.43</v>
@@ -5562,7 +5562,7 @@
         <v>2046.97</v>
       </c>
       <c r="E109" s="35" t="n">
-        <v>3273.11</v>
+        <v>3348.84</v>
       </c>
       <c r="F109" s="35" t="n">
         <v>565.08</v>
@@ -5609,7 +5609,7 @@
         <v>5949.77</v>
       </c>
       <c r="E110" s="35" t="n">
-        <v>3264.04</v>
+        <v>3331.28</v>
       </c>
       <c r="F110" s="35" t="n">
         <v>56.9</v>
@@ -5656,7 +5656,7 @@
         <v>1884.74</v>
       </c>
       <c r="E111" s="35" t="n">
-        <v>2239.07</v>
+        <v>2257.92</v>
       </c>
       <c r="F111" s="35" t="n">
         <v>225.87</v>
@@ -5703,7 +5703,7 @@
         <v>1213.09</v>
       </c>
       <c r="E112" s="35" t="n">
-        <v>2103.26</v>
+        <v>2174.22</v>
       </c>
       <c r="F112" s="35" t="n">
         <v>504.95</v>
@@ -5750,7 +5750,7 @@
         <v>1630.08</v>
       </c>
       <c r="E113" s="35" t="n">
-        <v>1869.7</v>
+        <v>1902.47</v>
       </c>
       <c r="F113" s="35" t="n">
         <v>271.65</v>
@@ -5797,7 +5797,7 @@
         <v>1407.29</v>
       </c>
       <c r="E114" s="35" t="n">
-        <v>1821.03</v>
+        <v>1839.33</v>
       </c>
       <c r="F114" s="35" t="n">
         <v>233.69</v>
@@ -5844,7 +5844,7 @@
         <v>1338.46</v>
       </c>
       <c r="E115" s="35" t="n">
-        <v>1330.43</v>
+        <v>1346.49</v>
       </c>
       <c r="F115" s="35" t="n">
         <v>134.44</v>
@@ -5891,7 +5891,7 @@
         <v>3350.7</v>
       </c>
       <c r="E116" s="35" t="n">
-        <v>1206.25</v>
+        <v>1276.62</v>
       </c>
       <c r="F116" s="35" t="n">
         <v>-377</v>
@@ -5938,7 +5938,7 @@
         <v>1495.03</v>
       </c>
       <c r="E117" s="35" t="n">
-        <v>1191.09</v>
+        <v>1223.53</v>
       </c>
       <c r="F117" s="35" t="n">
         <v>-11.01</v>
@@ -5985,7 +5985,7 @@
         <v>900.35</v>
       </c>
       <c r="E118" s="35" t="n">
-        <v>972.38</v>
+        <v>979.58</v>
       </c>
       <c r="F118" s="35" t="n">
         <v>176.6</v>
@@ -6032,7 +6032,7 @@
         <v>733.79</v>
       </c>
       <c r="E119" s="35" t="n">
-        <v>909.97</v>
+        <v>894.5599999999999</v>
       </c>
       <c r="F119" s="35" t="n">
         <v>93.68000000000001</v>
@@ -6079,7 +6079,7 @@
         <v>496.13</v>
       </c>
       <c r="E120" s="35" t="n">
-        <v>483.58</v>
+        <v>491.12</v>
       </c>
       <c r="F120" s="35" t="n">
         <v>84.91</v>
@@ -6126,7 +6126,7 @@
         <v>333.04</v>
       </c>
       <c r="E121" s="35" t="n">
-        <v>452.27</v>
+        <v>456.66</v>
       </c>
       <c r="F121" s="35" t="n">
         <v>52.3</v>
@@ -6173,7 +6173,7 @@
         <v>325.61</v>
       </c>
       <c r="E122" s="35" t="n">
-        <v>419.71</v>
+        <v>424.92</v>
       </c>
       <c r="F122" s="35" t="n">
         <v>20.03</v>
@@ -6220,7 +6220,7 @@
         <v>275.49</v>
       </c>
       <c r="E123" s="35" t="n">
-        <v>403.04</v>
+        <v>408.36</v>
       </c>
       <c r="F123" s="35" t="n">
         <v>7</v>
@@ -6267,7 +6267,7 @@
         <v>206.23</v>
       </c>
       <c r="E124" s="35" t="n">
-        <v>400.89</v>
+        <v>409.8</v>
       </c>
       <c r="F124" s="35" t="n">
         <v>1.32</v>
@@ -6314,7 +6314,7 @@
         <v>275.96</v>
       </c>
       <c r="E125" s="35" t="n">
-        <v>238.35</v>
+        <v>244</v>
       </c>
       <c r="F125" s="35" t="n">
         <v>9.75</v>

--- a/scripts/output/201912/全家/全家整体资产配置.xlsx
+++ b/scripts/output/201912/全家/全家整体资产配置.xlsx
@@ -1636,7 +1636,7 @@
       </c>
       <c r="J25" s="26" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>611</t>
         </is>
       </c>
       <c r="K25" s="26" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="J37" s="31" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K37" s="31" t="inlineStr">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="J46" s="31" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>611</t>
         </is>
       </c>
       <c r="K46" s="31" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="J49" s="31" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K49" s="31" t="inlineStr">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="J51" s="31" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K51" s="31" t="inlineStr">
@@ -2999,7 +2999,7 @@
       </c>
       <c r="J54" s="36" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K54" s="36" t="inlineStr">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="J55" s="36" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K55" s="36" t="inlineStr">
@@ -3234,7 +3234,7 @@
       </c>
       <c r="J59" s="36" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>147</t>
         </is>
       </c>
       <c r="K59" s="36" t="inlineStr">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="J62" s="36" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K62" s="36" t="inlineStr">
@@ -3469,7 +3469,7 @@
       </c>
       <c r="J64" s="36" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>521</t>
         </is>
       </c>
       <c r="K64" s="36" t="inlineStr">
@@ -3563,7 +3563,7 @@
       </c>
       <c r="J66" s="36" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K66" s="36" t="inlineStr">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="J71" s="31" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K71" s="31" t="inlineStr">
@@ -3830,7 +3830,7 @@
       </c>
       <c r="G72" s="31" t="inlineStr">
         <is>
-          <t>主动型</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="H72" s="31" t="inlineStr">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="J72" s="31" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>411</t>
         </is>
       </c>
       <c r="K72" s="31" t="inlineStr">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="J73" s="31" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K73" s="31" t="inlineStr">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="J74" s="31" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K74" s="31" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="G75" s="31" t="inlineStr">
         <is>
-          <t>主动型</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="H75" s="31" t="inlineStr">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="J75" s="31" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>412</t>
         </is>
       </c>
       <c r="K75" s="31" t="inlineStr">
@@ -4018,7 +4018,7 @@
       </c>
       <c r="G76" s="31" t="inlineStr">
         <is>
-          <t>主动型</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="H76" s="31" t="inlineStr">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="J76" s="31" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>412</t>
         </is>
       </c>
       <c r="K76" s="31" t="inlineStr">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="J77" s="31" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K77" s="31" t="inlineStr">
@@ -5537,7 +5537,7 @@
       </c>
       <c r="J108" s="36" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K108" s="36" t="inlineStr">
@@ -5772,7 +5772,7 @@
       </c>
       <c r="J113" s="36" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K113" s="36" t="inlineStr">
@@ -5913,7 +5913,7 @@
       </c>
       <c r="J116" s="36" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K116" s="36" t="inlineStr">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="J118" s="36" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>147</t>
         </is>
       </c>
       <c r="K118" s="36" t="inlineStr">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="J119" s="36" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>611</t>
         </is>
       </c>
       <c r="K119" s="36" t="inlineStr">
@@ -6148,7 +6148,7 @@
       </c>
       <c r="J121" s="36" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K121" s="36" t="inlineStr">

--- a/scripts/output/201912/全家/全家整体资产配置.xlsx
+++ b/scripts/output/201912/全家/全家整体资产配置.xlsx
@@ -574,16 +574,16 @@
         <v>999998</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.1254</v>
+        <v>1.1374</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>100000</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>112542</v>
+        <v>113742</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>12542</v>
+        <v>13742</v>
       </c>
       <c r="G3" s="6" t="inlineStr">
         <is>

--- a/scripts/output/201912/全家/全家整体资产配置.xlsx
+++ b/scripts/output/201912/全家/全家整体资产配置.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="资产配置情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="000000" numFmtId="164"/>
-    <numFmt formatCode="0.0000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -87,67 +87,67 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K125"/>
+  <dimension ref="A1:K128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,16 +448,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="30"/>
-    <col customWidth="1" max="2" min="2" width="9"/>
-    <col customWidth="1" max="3" min="3" width="9"/>
-    <col customWidth="1" max="4" min="4" width="9"/>
-    <col customWidth="1" max="5" min="5" width="9"/>
-    <col customWidth="1" max="6" min="6" width="9"/>
-    <col customWidth="1" max="7" min="7" width="9"/>
-    <col customWidth="1" max="8" min="8" width="11.25"/>
-    <col customWidth="1" max="9" min="9" width="11.25"/>
-    <col customWidth="1" max="11" min="11" width="15"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="7" max="7"/>
+    <col width="11.25" customWidth="1" min="8" max="8"/>
+    <col width="11.25" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -621,16 +621,16 @@
         <v>90010</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>1.6515</v>
+        <v>1.6508</v>
       </c>
       <c r="D4" s="10" t="n">
-        <v>2352.23</v>
+        <v>2422.08</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>3820.02</v>
+        <v>3933.46</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>-99.97</v>
+        <v>-64.81999999999999</v>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
@@ -668,16 +668,16 @@
         <v>519671</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>1.4266</v>
+        <v>1.4268</v>
       </c>
       <c r="D5" s="10" t="n">
-        <v>2620.53</v>
+        <v>2699.6</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>3755.22</v>
+        <v>3868.53</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>-6.82</v>
+        <v>16.63</v>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
@@ -708,42 +708,42 @@
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B6" s="8" t="n">
-        <v>501021</v>
+        <v>3318</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>1.3481</v>
+        <v>0.9331</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>2260.14</v>
+        <v>3620.67</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3297.09</v>
+        <v>3384.24</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>197.72</v>
+        <v>5.75</v>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H6" s="11" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I6" s="11" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="J6" s="11" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K6" s="11" t="inlineStr">
@@ -755,42 +755,42 @@
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B7" s="8" t="n">
-        <v>3318</v>
+        <v>501021</v>
       </c>
       <c r="C7" s="9" t="n">
-        <v>0.9330000000000001</v>
+        <v>1.3481</v>
       </c>
       <c r="D7" s="10" t="n">
-        <v>3509.02</v>
+        <v>2260.14</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>3279.88</v>
+        <v>3325.8</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>-61.84</v>
+        <v>250.15</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H7" s="11" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I7" s="11" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="J7" s="11" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K7" s="11" t="inlineStr">
@@ -818,7 +818,7 @@
         <v>2564.5</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>79.23</v>
+        <v>112.22</v>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
@@ -856,16 +856,16 @@
         <v>530015</v>
       </c>
       <c r="C9" s="9" t="n">
-        <v>2.1233</v>
+        <v>2.1257</v>
       </c>
       <c r="D9" s="10" t="n">
-        <v>1017.99</v>
+        <v>1059.44</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>2220.03</v>
+        <v>2310.43</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>36.21</v>
+        <v>58.37</v>
       </c>
       <c r="G9" s="11" t="inlineStr">
         <is>
@@ -903,16 +903,16 @@
         <v>968</v>
       </c>
       <c r="C10" s="9" t="n">
-        <v>0.9587</v>
+        <v>0.9589</v>
       </c>
       <c r="D10" s="10" t="n">
-        <v>980.46</v>
+        <v>1067.42</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>941.24</v>
+        <v>1024.72</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>-17.02</v>
+        <v>1.21</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>523.65</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>-27.26</v>
+        <v>-17.24</v>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>408.1</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>45.26</v>
+        <v>51.32</v>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>326</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>7.04</v>
+        <v>12.74</v>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
@@ -1084,23 +1084,23 @@
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B14" s="8" t="n">
-        <v>310398</v>
+        <v>1594</v>
       </c>
       <c r="C14" s="9" t="n">
-        <v>1.5296</v>
+        <v>1.214</v>
       </c>
       <c r="D14" s="10" t="n">
-        <v>60.61</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>82.09</v>
+        <v>104.96</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>-5.8</v>
+        <v>-0.1</v>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
@@ -1109,17 +1109,17 @@
       </c>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I14" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="J14" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K14" s="11" t="inlineStr">
@@ -1131,258 +1131,258 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
+          <t>申万菱信沪深300价值指数</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="n">
+        <v>310398</v>
+      </c>
+      <c r="C15" s="9" t="n">
+        <v>1.4374</v>
+      </c>
+      <c r="D15" s="10" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="E15" s="10" t="n">
+        <v>87.36</v>
+      </c>
+      <c r="F15" s="10" t="n">
+        <v>-5.35</v>
+      </c>
+      <c r="G15" s="11" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H15" s="11" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="I15" s="11" t="inlineStr">
+        <is>
+          <t>300价值</t>
+        </is>
+      </c>
+      <c r="J15" s="11" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="K15" s="11" t="inlineStr">
+        <is>
+          <t>螺丝钉定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
           <t>大成景安短融债券E</t>
         </is>
       </c>
-      <c r="B15" s="8" t="n">
+      <c r="B16" s="8" t="n">
         <v>2086</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C16" s="9" t="n">
         <v>1.2256</v>
       </c>
-      <c r="D15" s="10" t="n">
+      <c r="D16" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E15" s="10" t="n">
+      <c r="E16" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F15" s="10" t="n">
+      <c r="F16" s="10" t="n">
         <v>0.91</v>
       </c>
-      <c r="G15" s="11" t="inlineStr">
+      <c r="G16" s="11" t="inlineStr">
         <is>
           <t>现金</t>
         </is>
       </c>
-      <c r="H15" s="11" t="inlineStr">
+      <c r="H16" s="11" t="inlineStr">
         <is>
           <t>低风险理财</t>
         </is>
       </c>
-      <c r="I15" s="11" t="inlineStr">
+      <c r="I16" s="11" t="inlineStr">
         <is>
           <t>货币基金</t>
         </is>
       </c>
-      <c r="J15" s="11" t="inlineStr">
+      <c r="J16" s="11" t="inlineStr">
         <is>
           <t>999</t>
         </is>
       </c>
-      <c r="K15" s="11" t="inlineStr">
+      <c r="K16" s="11" t="inlineStr">
         <is>
           <t>螺丝钉定投</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="12" t="inlineStr">
-        <is>
-          <t>住房公积金</t>
-        </is>
-      </c>
-      <c r="B16" s="13" t="n">
-        <v>999989</v>
-      </c>
-      <c r="C16" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="15" t="n">
-        <v>322553.75</v>
-      </c>
-      <c r="E16" s="15" t="n">
-        <v>322553.75</v>
-      </c>
-      <c r="F16" s="15" t="n">
-        <v>7027.67</v>
-      </c>
-      <c r="G16" s="16" t="inlineStr">
-        <is>
-          <t>冻结资金</t>
-        </is>
-      </c>
-      <c r="H16" s="16" t="inlineStr">
-        <is>
-          <t>有息资金</t>
-        </is>
-      </c>
-      <c r="I16" s="16" t="inlineStr">
-        <is>
-          <t>住房公积金</t>
-        </is>
-      </c>
-      <c r="J16" s="16" t="inlineStr">
-        <is>
-          <t>989</t>
-        </is>
-      </c>
-      <c r="K16" s="16" t="inlineStr">
-        <is>
-          <t>冻结资金</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="12" t="inlineStr">
         <is>
-          <t>无息外借款</t>
+          <t>住房公积金</t>
         </is>
       </c>
       <c r="B17" s="13" t="n">
-        <v>999988</v>
+        <v>999989</v>
       </c>
       <c r="C17" s="14" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="15" t="n">
+        <v>322553.75</v>
+      </c>
+      <c r="E17" s="15" t="n">
+        <v>322553.75</v>
+      </c>
+      <c r="F17" s="15" t="n">
+        <v>7027.67</v>
+      </c>
+      <c r="G17" s="16" t="inlineStr">
+        <is>
+          <t>冻结资金</t>
+        </is>
+      </c>
+      <c r="H17" s="16" t="inlineStr">
+        <is>
+          <t>有息资金</t>
+        </is>
+      </c>
+      <c r="I17" s="16" t="inlineStr">
+        <is>
+          <t>住房公积金</t>
+        </is>
+      </c>
+      <c r="J17" s="16" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="K17" s="16" t="inlineStr">
+        <is>
+          <t>冻结资金</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="12" t="inlineStr">
+        <is>
+          <t>无息外借款</t>
+        </is>
+      </c>
+      <c r="B18" s="13" t="n">
+        <v>999988</v>
+      </c>
+      <c r="C18" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="15" t="n">
         <v>15000</v>
       </c>
-      <c r="E17" s="15" t="n">
+      <c r="E18" s="15" t="n">
         <v>15000</v>
       </c>
-      <c r="F17" s="15" t="n">
+      <c r="F18" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="G17" s="16" t="inlineStr">
+      <c r="G18" s="16" t="inlineStr">
         <is>
           <t>冻结资金</t>
         </is>
       </c>
-      <c r="H17" s="16" t="inlineStr">
+      <c r="H18" s="16" t="inlineStr">
         <is>
           <t>无息资金</t>
         </is>
       </c>
-      <c r="I17" s="16" t="inlineStr">
+      <c r="I18" s="16" t="inlineStr">
         <is>
           <t>无息外借款</t>
         </is>
       </c>
-      <c r="J17" s="16" t="inlineStr">
+      <c r="J18" s="16" t="inlineStr">
         <is>
           <t>988</t>
         </is>
       </c>
-      <c r="K17" s="16" t="inlineStr">
+      <c r="K18" s="16" t="inlineStr">
         <is>
           <t>冻结资金</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="17" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="17" t="inlineStr">
         <is>
           <t>广发中证环保ETF联接基金A</t>
         </is>
       </c>
-      <c r="B18" s="18" t="n">
+      <c r="B19" s="18" t="n">
         <v>1064</v>
       </c>
-      <c r="C18" s="19" t="n">
+      <c r="C19" s="19" t="n">
         <v>0.7171999999999999</v>
       </c>
-      <c r="D18" s="20" t="n">
+      <c r="D19" s="20" t="n">
         <v>16731.88</v>
       </c>
-      <c r="E18" s="20" t="n">
+      <c r="E19" s="20" t="n">
         <v>9368.18</v>
       </c>
-      <c r="F18" s="20" t="n">
+      <c r="F19" s="20" t="n">
         <v>-2840.97</v>
       </c>
-      <c r="G18" s="21" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H18" s="21" t="inlineStr">
+      <c r="G19" s="21" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H19" s="21" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="I18" s="21" t="inlineStr">
+      <c r="I19" s="21" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="J18" s="21" t="inlineStr">
+      <c r="J19" s="21" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="K18" s="21" t="inlineStr">
+      <c r="K19" s="21" t="inlineStr">
         <is>
           <t>支付宝</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="22" t="inlineStr">
-        <is>
-          <t>50ETF</t>
-        </is>
-      </c>
-      <c r="B19" s="23" t="n">
-        <v>510050</v>
-      </c>
-      <c r="C19" s="24" t="n">
-        <v>2.337</v>
-      </c>
-      <c r="D19" s="25" t="n">
-        <v>2700</v>
-      </c>
-      <c r="E19" s="25" t="n">
-        <v>7927.2</v>
-      </c>
-      <c r="F19" s="25" t="n">
-        <v>1539</v>
-      </c>
-      <c r="G19" s="26" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H19" s="26" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="I19" s="26" t="inlineStr">
-        <is>
-          <t>上证50</t>
-        </is>
-      </c>
-      <c r="J19" s="26" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="K19" s="26" t="inlineStr">
-        <is>
-          <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>300ETF</t>
+          <t>50ETF</t>
         </is>
       </c>
       <c r="B20" s="23" t="n">
-        <v>510300</v>
+        <v>510050</v>
       </c>
       <c r="C20" s="24" t="n">
-        <v>3.447</v>
+        <v>2.337</v>
       </c>
       <c r="D20" s="25" t="n">
-        <v>9100</v>
+        <v>2700</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>36029.63</v>
+        <v>7927.2</v>
       </c>
       <c r="F20" s="25" t="n">
-        <v>4222.4</v>
+        <v>1539</v>
       </c>
       <c r="G20" s="26" t="inlineStr">
         <is>
@@ -1396,12 +1396,12 @@
       </c>
       <c r="I20" s="26" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="J20" s="26" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K20" s="26" t="inlineStr">
@@ -1413,23 +1413,23 @@
     <row r="21">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>500ETF</t>
+          <t>300ETF</t>
         </is>
       </c>
       <c r="B21" s="23" t="n">
-        <v>510500</v>
+        <v>510300</v>
       </c>
       <c r="C21" s="24" t="n">
-        <v>5.601</v>
+        <v>3.447</v>
       </c>
       <c r="D21" s="25" t="n">
-        <v>38800</v>
+        <v>9100</v>
       </c>
       <c r="E21" s="25" t="n">
-        <v>211960.52</v>
+        <v>36029.63</v>
       </c>
       <c r="F21" s="25" t="n">
-        <v>-10514.8</v>
+        <v>4222.4</v>
       </c>
       <c r="G21" s="26" t="inlineStr">
         <is>
@@ -1438,17 +1438,17 @@
       </c>
       <c r="H21" s="26" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I21" s="26" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="J21" s="26" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K21" s="26" t="inlineStr">
@@ -1460,23 +1460,23 @@
     <row r="22">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>环保ETF</t>
+          <t>500ETF</t>
         </is>
       </c>
       <c r="B22" s="23" t="n">
-        <v>512580</v>
+        <v>510500</v>
       </c>
       <c r="C22" s="24" t="n">
-        <v>0.877</v>
+        <v>5.601</v>
       </c>
       <c r="D22" s="25" t="n">
-        <v>33800</v>
+        <v>38800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>25221.56</v>
+        <v>211960.52</v>
       </c>
       <c r="F22" s="25" t="n">
-        <v>-5002.4</v>
+        <v>-10514.8</v>
       </c>
       <c r="G22" s="26" t="inlineStr">
         <is>
@@ -1485,17 +1485,17 @@
       </c>
       <c r="H22" s="26" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I22" s="26" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J22" s="26" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K22" s="26" t="inlineStr">
@@ -1507,23 +1507,23 @@
     <row r="23">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>证券ETF</t>
+          <t>环保ETF</t>
         </is>
       </c>
       <c r="B23" s="23" t="n">
-        <v>512880</v>
+        <v>512580</v>
       </c>
       <c r="C23" s="24" t="n">
-        <v>0.783</v>
+        <v>0.877</v>
       </c>
       <c r="D23" s="25" t="n">
-        <v>32700</v>
+        <v>33800</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>30172.29</v>
+        <v>25221.56</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>4152.9</v>
+        <v>-5002.4</v>
       </c>
       <c r="G23" s="26" t="inlineStr">
         <is>
@@ -1537,12 +1537,12 @@
       </c>
       <c r="I23" s="26" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J23" s="26" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K23" s="26" t="inlineStr">
@@ -1554,23 +1554,23 @@
     <row r="24">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>证券ETF</t>
         </is>
       </c>
       <c r="B24" s="23" t="n">
-        <v>512980</v>
+        <v>512880</v>
       </c>
       <c r="C24" s="24" t="n">
-        <v>0.869</v>
+        <v>0.783</v>
       </c>
       <c r="D24" s="25" t="n">
-        <v>34100</v>
+        <v>32700</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>26710.53</v>
+        <v>30172.29</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>-3853.3</v>
+        <v>4152.9</v>
       </c>
       <c r="G24" s="26" t="inlineStr">
         <is>
@@ -1584,12 +1584,12 @@
       </c>
       <c r="I24" s="26" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>证券公司</t>
         </is>
       </c>
       <c r="J24" s="26" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>145</t>
         </is>
       </c>
       <c r="K24" s="26" t="inlineStr">
@@ -1601,42 +1601,42 @@
     <row r="25">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="B25" s="23" t="n">
-        <v>518880</v>
+        <v>512980</v>
       </c>
       <c r="C25" s="24" t="n">
-        <v>2.856</v>
+        <v>0.869</v>
       </c>
       <c r="D25" s="25" t="n">
-        <v>4500</v>
+        <v>34100</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>14817.6</v>
+        <v>26710.53</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>1894.5</v>
+        <v>-3853.3</v>
       </c>
       <c r="G25" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H25" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I25" s="26" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J25" s="26" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K25" s="26" t="inlineStr">
@@ -1648,42 +1648,42 @@
     <row r="26">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="B26" s="23" t="n">
-        <v>159915</v>
+        <v>518880</v>
       </c>
       <c r="C26" s="24" t="n">
-        <v>1.399</v>
+        <v>2.856</v>
       </c>
       <c r="D26" s="25" t="n">
-        <v>9200</v>
+        <v>4500</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>15356.64</v>
+        <v>14817.6</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>1968.8</v>
+        <v>1894.5</v>
       </c>
       <c r="G26" s="26" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H26" s="26" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I26" s="26" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="J26" s="26" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>611</t>
         </is>
       </c>
       <c r="K26" s="26" t="inlineStr">
@@ -1695,117 +1695,117 @@
     <row r="27">
       <c r="A27" s="22" t="inlineStr">
         <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="B27" s="23" t="n">
+        <v>159915</v>
+      </c>
+      <c r="C27" s="24" t="n">
+        <v>1.399</v>
+      </c>
+      <c r="D27" s="25" t="n">
+        <v>9200</v>
+      </c>
+      <c r="E27" s="25" t="n">
+        <v>15356.64</v>
+      </c>
+      <c r="F27" s="25" t="n">
+        <v>1968.8</v>
+      </c>
+      <c r="G27" s="26" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H27" s="26" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="I27" s="26" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="J27" s="26" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="K27" s="26" t="inlineStr">
+        <is>
+          <t>股票账户</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="22" t="inlineStr">
+        <is>
           <t>广发医药</t>
         </is>
       </c>
-      <c r="B27" s="23" t="n">
+      <c r="B28" s="23" t="n">
         <v>159938</v>
       </c>
-      <c r="C27" s="24" t="n">
+      <c r="C28" s="24" t="n">
         <v>1.271</v>
       </c>
-      <c r="D27" s="25" t="n">
+      <c r="D28" s="25" t="n">
         <v>14400</v>
       </c>
-      <c r="E27" s="25" t="n">
+      <c r="E28" s="25" t="n">
         <v>19267.2</v>
       </c>
-      <c r="F27" s="25" t="n">
+      <c r="F28" s="25" t="n">
         <v>705.6</v>
       </c>
-      <c r="G27" s="26" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H27" s="26" t="inlineStr">
+      <c r="G28" s="26" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H28" s="26" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="I27" s="26" t="inlineStr">
+      <c r="I28" s="26" t="inlineStr">
         <is>
           <t>全指医药</t>
         </is>
       </c>
-      <c r="J27" s="26" t="inlineStr">
+      <c r="J28" s="26" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="K27" s="26" t="inlineStr">
+      <c r="K28" s="26" t="inlineStr">
         <is>
           <t>股票账户</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="27" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="B28" s="28" t="n">
-        <v>478</v>
-      </c>
-      <c r="C28" s="29" t="n">
-        <v>1.9252</v>
-      </c>
-      <c r="D28" s="30" t="n">
-        <v>4157.52</v>
-      </c>
-      <c r="E28" s="30" t="n">
-        <v>8261.41</v>
-      </c>
-      <c r="F28" s="30" t="n">
-        <v>86.53</v>
-      </c>
-      <c r="G28" s="31" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H28" s="31" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="I28" s="31" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="J28" s="31" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="K28" s="31" t="inlineStr">
-        <is>
-          <t>且慢补充 150 份</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="27" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B29" s="28" t="n">
-        <v>1064</v>
+        <v>478</v>
       </c>
       <c r="C29" s="29" t="n">
-        <v>0.5489000000000001</v>
+        <v>1.9252</v>
       </c>
       <c r="D29" s="30" t="n">
-        <v>9722</v>
+        <v>4157.52</v>
       </c>
       <c r="E29" s="30" t="n">
-        <v>5443.35</v>
+        <v>8261.41</v>
       </c>
       <c r="F29" s="30" t="n">
-        <v>-14.18</v>
+        <v>86.53</v>
       </c>
       <c r="G29" s="31" t="inlineStr">
         <is>
@@ -1814,17 +1814,17 @@
       </c>
       <c r="H29" s="31" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I29" s="31" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J29" s="31" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K29" s="31" t="inlineStr">
@@ -1836,23 +1836,23 @@
     <row r="30">
       <c r="A30" s="27" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B30" s="28" t="n">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="C30" s="29" t="n">
-        <v>0.9444</v>
+        <v>0.5489000000000001</v>
       </c>
       <c r="D30" s="30" t="n">
-        <v>4943.96</v>
+        <v>9722</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>4746.2</v>
+        <v>5443.35</v>
       </c>
       <c r="F30" s="30" t="n">
-        <v>-22.17</v>
+        <v>-14.18</v>
       </c>
       <c r="G30" s="31" t="inlineStr">
         <is>
@@ -1866,12 +1866,12 @@
       </c>
       <c r="I30" s="31" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J30" s="31" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K30" s="31" t="inlineStr">
@@ -1883,23 +1883,23 @@
     <row r="31">
       <c r="A31" s="27" t="inlineStr">
         <is>
-          <t>华夏中证500ETF联接A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B31" s="28" t="n">
-        <v>1052</v>
+        <v>968</v>
       </c>
       <c r="C31" s="29" t="n">
-        <v>0.5423</v>
+        <v>0.9444</v>
       </c>
       <c r="D31" s="30" t="n">
-        <v>7379.54</v>
+        <v>4943.96</v>
       </c>
       <c r="E31" s="30" t="n">
-        <v>4139.92</v>
+        <v>4746.2</v>
       </c>
       <c r="F31" s="30" t="n">
-        <v>41.99</v>
+        <v>-22.17</v>
       </c>
       <c r="G31" s="31" t="inlineStr">
         <is>
@@ -1908,17 +1908,17 @@
       </c>
       <c r="H31" s="31" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I31" s="31" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J31" s="31" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K31" s="31" t="inlineStr">
@@ -1930,23 +1930,23 @@
     <row r="32">
       <c r="A32" s="27" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>华夏中证500ETF联接A</t>
         </is>
       </c>
       <c r="B32" s="28" t="n">
-        <v>100032</v>
+        <v>1052</v>
       </c>
       <c r="C32" s="29" t="n">
-        <v>1.0919</v>
+        <v>0.5423</v>
       </c>
       <c r="D32" s="30" t="n">
-        <v>3665.01</v>
+        <v>7379.54</v>
       </c>
       <c r="E32" s="30" t="n">
-        <v>4046.17</v>
+        <v>4139.92</v>
       </c>
       <c r="F32" s="30" t="n">
-        <v>14.85</v>
+        <v>41.99</v>
       </c>
       <c r="G32" s="31" t="inlineStr">
         <is>
@@ -1955,17 +1955,17 @@
       </c>
       <c r="H32" s="31" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I32" s="31" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J32" s="31" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K32" s="31" t="inlineStr">
@@ -1977,23 +1977,23 @@
     <row r="33">
       <c r="A33" s="27" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B33" s="28" t="n">
-        <v>4752</v>
+        <v>100032</v>
       </c>
       <c r="C33" s="29" t="n">
-        <v>0.7329</v>
+        <v>1.0919</v>
       </c>
       <c r="D33" s="30" t="n">
-        <v>4550.55</v>
+        <v>3665.01</v>
       </c>
       <c r="E33" s="30" t="n">
-        <v>3574.46</v>
+        <v>4046.17</v>
       </c>
       <c r="F33" s="30" t="n">
-        <v>116.14</v>
+        <v>14.85</v>
       </c>
       <c r="G33" s="31" t="inlineStr">
         <is>
@@ -2002,17 +2002,17 @@
       </c>
       <c r="H33" s="31" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I33" s="31" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J33" s="31" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K33" s="31" t="inlineStr">
@@ -2024,23 +2024,23 @@
     <row r="34">
       <c r="A34" s="27" t="inlineStr">
         <is>
-          <t>易方达创业板ETF联接A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B34" s="28" t="n">
-        <v>110026</v>
+        <v>4752</v>
       </c>
       <c r="C34" s="29" t="n">
-        <v>1.6649</v>
+        <v>0.7329</v>
       </c>
       <c r="D34" s="30" t="n">
-        <v>400.63</v>
+        <v>4550.55</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>718.05</v>
+        <v>3574.46</v>
       </c>
       <c r="F34" s="30" t="n">
-        <v>28.17</v>
+        <v>116.14</v>
       </c>
       <c r="G34" s="31" t="inlineStr">
         <is>
@@ -2049,17 +2049,17 @@
       </c>
       <c r="H34" s="31" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I34" s="31" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J34" s="31" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K34" s="31" t="inlineStr">
@@ -2071,23 +2071,23 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>广发创业板ETF联接A</t>
+          <t>易方达创业板ETF联接A</t>
         </is>
       </c>
       <c r="B35" s="28" t="n">
-        <v>3765</v>
+        <v>110026</v>
       </c>
       <c r="C35" s="29" t="n">
-        <v>0.9059</v>
+        <v>1.6649</v>
       </c>
       <c r="D35" s="30" t="n">
-        <v>736.3</v>
+        <v>400.63</v>
       </c>
       <c r="E35" s="30" t="n">
-        <v>716.05</v>
+        <v>718.05</v>
       </c>
       <c r="F35" s="30" t="n">
-        <v>27.48</v>
+        <v>28.17</v>
       </c>
       <c r="G35" s="31" t="inlineStr">
         <is>
@@ -2118,23 +2118,23 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>易方达证券公司分级</t>
+          <t>广发创业板ETF联接A</t>
         </is>
       </c>
       <c r="B36" s="28" t="n">
-        <v>502010</v>
+        <v>3765</v>
       </c>
       <c r="C36" s="29" t="n">
-        <v>0.9853</v>
+        <v>0.9059</v>
       </c>
       <c r="D36" s="30" t="n">
-        <v>473.85</v>
+        <v>736.3</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>469.06</v>
+        <v>716.05</v>
       </c>
       <c r="F36" s="30" t="n">
-        <v>-3.76</v>
+        <v>27.48</v>
       </c>
       <c r="G36" s="31" t="inlineStr">
         <is>
@@ -2143,17 +2143,17 @@
       </c>
       <c r="H36" s="31" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I36" s="31" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="J36" s="31" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K36" s="31" t="inlineStr">
@@ -2165,42 +2165,42 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>华宝标普石油指数</t>
+          <t>易方达证券公司分级</t>
         </is>
       </c>
       <c r="B37" s="28" t="n">
-        <v>162411</v>
+        <v>502010</v>
       </c>
       <c r="C37" s="29" t="n">
-        <v>0.3775</v>
+        <v>0.9853</v>
       </c>
       <c r="D37" s="30" t="n">
-        <v>5299.96</v>
+        <v>473.85</v>
       </c>
       <c r="E37" s="30" t="n">
-        <v>2019.28</v>
+        <v>469.06</v>
       </c>
       <c r="F37" s="30" t="n">
-        <v>-66.51000000000001</v>
+        <v>-3.76</v>
       </c>
       <c r="G37" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H37" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I37" s="31" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>证券公司</t>
         </is>
       </c>
       <c r="J37" s="31" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>145</t>
         </is>
       </c>
       <c r="K37" s="31" t="inlineStr">
@@ -2212,42 +2212,42 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华宝标普石油指数</t>
         </is>
       </c>
       <c r="B38" s="28" t="n">
-        <v>164906</v>
+        <v>162411</v>
       </c>
       <c r="C38" s="29" t="n">
-        <v>1.1564</v>
+        <v>0.3775</v>
       </c>
       <c r="D38" s="30" t="n">
-        <v>576.8</v>
+        <v>5299.96</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>753.88</v>
+        <v>2029.88</v>
       </c>
       <c r="F38" s="30" t="n">
-        <v>84.56999999999999</v>
+        <v>-66.51000000000001</v>
       </c>
       <c r="G38" s="31" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H38" s="31" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I38" s="31" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J38" s="31" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K38" s="31" t="inlineStr">
@@ -2259,23 +2259,23 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B39" s="28" t="n">
-        <v>71</v>
+        <v>164906</v>
       </c>
       <c r="C39" s="29" t="n">
-        <v>1.451</v>
+        <v>1.1564</v>
       </c>
       <c r="D39" s="30" t="n">
-        <v>459.67</v>
+        <v>576.8</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>681.37</v>
+        <v>753.88</v>
       </c>
       <c r="F39" s="30" t="n">
-        <v>12.12</v>
+        <v>84.56999999999999</v>
       </c>
       <c r="G39" s="31" t="inlineStr">
         <is>
@@ -2284,17 +2284,17 @@
       </c>
       <c r="H39" s="31" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I39" s="31" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J39" s="31" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K39" s="31" t="inlineStr">
@@ -2306,42 +2306,42 @@
     <row r="40">
       <c r="A40" s="27" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B40" s="28" t="n">
-        <v>614</v>
+        <v>71</v>
       </c>
       <c r="C40" s="29" t="n">
-        <v>1.0903</v>
+        <v>1.451</v>
       </c>
       <c r="D40" s="30" t="n">
-        <v>611.75</v>
+        <v>459.67</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>732.88</v>
+        <v>681.37</v>
       </c>
       <c r="F40" s="30" t="n">
-        <v>55.48</v>
+        <v>12.12</v>
       </c>
       <c r="G40" s="31" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H40" s="31" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I40" s="31" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J40" s="31" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K40" s="31" t="inlineStr">
@@ -2353,70 +2353,70 @@
     <row r="41">
       <c r="A41" s="27" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B41" s="28" t="n">
-        <v>478</v>
+        <v>614</v>
       </c>
       <c r="C41" s="29" t="n">
-        <v>1.9107</v>
+        <v>1.0903</v>
       </c>
       <c r="D41" s="30" t="n">
-        <v>1046.73</v>
+        <v>611.75</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>2079.96</v>
+        <v>732.88</v>
       </c>
       <c r="F41" s="30" t="n">
-        <v>36.94</v>
+        <v>55.48</v>
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H41" s="31" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="I41" s="31" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="J41" s="31" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>321</t>
         </is>
       </c>
       <c r="K41" s="31" t="inlineStr">
         <is>
-          <t>且慢 S 定投</t>
+          <t>且慢补充 150 份</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="27" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B42" s="28" t="n">
-        <v>100032</v>
+        <v>478</v>
       </c>
       <c r="C42" s="29" t="n">
-        <v>1.0954</v>
+        <v>1.9107</v>
       </c>
       <c r="D42" s="30" t="n">
-        <v>1825.9</v>
+        <v>1046.73</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>2015.79</v>
+        <v>2079.96</v>
       </c>
       <c r="F42" s="30" t="n">
-        <v>1.19</v>
+        <v>36.94</v>
       </c>
       <c r="G42" s="31" t="inlineStr">
         <is>
@@ -2425,17 +2425,17 @@
       </c>
       <c r="H42" s="31" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I42" s="31" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J42" s="31" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K42" s="31" t="inlineStr">
@@ -2447,23 +2447,23 @@
     <row r="43">
       <c r="A43" s="27" t="inlineStr">
         <is>
-          <t>华夏上证50ETF联接A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B43" s="28" t="n">
-        <v>1051</v>
+        <v>100032</v>
       </c>
       <c r="C43" s="29" t="n">
-        <v>0.9441000000000001</v>
+        <v>1.0954</v>
       </c>
       <c r="D43" s="30" t="n">
-        <v>1059.17</v>
+        <v>1825.9</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>1065.53</v>
+        <v>2015.79</v>
       </c>
       <c r="F43" s="30" t="n">
-        <v>55.99</v>
+        <v>1.19</v>
       </c>
       <c r="G43" s="31" t="inlineStr">
         <is>
@@ -2472,17 +2472,17 @@
       </c>
       <c r="H43" s="31" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I43" s="31" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J43" s="31" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K43" s="31" t="inlineStr">
@@ -2494,23 +2494,23 @@
     <row r="44">
       <c r="A44" s="27" t="inlineStr">
         <is>
-          <t>华夏中证500ETF联接A</t>
+          <t>华夏上证50ETF联接A</t>
         </is>
       </c>
       <c r="B44" s="28" t="n">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C44" s="29" t="n">
-        <v>0.5517</v>
+        <v>0.9441000000000001</v>
       </c>
       <c r="D44" s="30" t="n">
-        <v>1812.7</v>
+        <v>1059.17</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>1016.92</v>
+        <v>1065.53</v>
       </c>
       <c r="F44" s="30" t="n">
-        <v>-6.64</v>
+        <v>55.99</v>
       </c>
       <c r="G44" s="31" t="inlineStr">
         <is>
@@ -2519,17 +2519,17 @@
       </c>
       <c r="H44" s="31" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I44" s="31" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="J44" s="31" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K44" s="31" t="inlineStr">
@@ -2541,23 +2541,23 @@
     <row r="45">
       <c r="A45" s="27" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>华夏中证500ETF联接A</t>
         </is>
       </c>
       <c r="B45" s="28" t="n">
-        <v>4752</v>
+        <v>1052</v>
       </c>
       <c r="C45" s="29" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.5517</v>
       </c>
       <c r="D45" s="30" t="n">
-        <v>1227.03</v>
+        <v>1812.7</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>963.83</v>
+        <v>1016.92</v>
       </c>
       <c r="F45" s="30" t="n">
-        <v>-69.42</v>
+        <v>-6.64</v>
       </c>
       <c r="G45" s="31" t="inlineStr">
         <is>
@@ -2566,17 +2566,17 @@
       </c>
       <c r="H45" s="31" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I45" s="31" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J45" s="31" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K45" s="31" t="inlineStr">
@@ -2588,42 +2588,42 @@
     <row r="46">
       <c r="A46" s="27" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B46" s="28" t="n">
-        <v>216</v>
+        <v>4752</v>
       </c>
       <c r="C46" s="29" t="n">
-        <v>1.0902</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="D46" s="30" t="n">
-        <v>1834.47</v>
+        <v>1227.03</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>2236.4</v>
+        <v>963.83</v>
       </c>
       <c r="F46" s="30" t="n">
-        <v>234.2</v>
+        <v>-69.42</v>
       </c>
       <c r="G46" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H46" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I46" s="31" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J46" s="31" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K46" s="31" t="inlineStr">
@@ -2635,42 +2635,42 @@
     <row r="47">
       <c r="A47" s="27" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华安黄金易ETF联接A</t>
         </is>
       </c>
       <c r="B47" s="28" t="n">
-        <v>164906</v>
+        <v>216</v>
       </c>
       <c r="C47" s="29" t="n">
-        <v>1.1113</v>
+        <v>1.0902</v>
       </c>
       <c r="D47" s="30" t="n">
-        <v>899.8200000000001</v>
+        <v>1834.47</v>
       </c>
       <c r="E47" s="30" t="n">
-        <v>1176.06</v>
+        <v>2236.4</v>
       </c>
       <c r="F47" s="30" t="n">
-        <v>172.47</v>
+        <v>234.2</v>
       </c>
       <c r="G47" s="31" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H47" s="31" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I47" s="31" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="J47" s="31" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>611</t>
         </is>
       </c>
       <c r="K47" s="31" t="inlineStr">
@@ -2682,23 +2682,23 @@
     <row r="48">
       <c r="A48" s="27" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B48" s="28" t="n">
-        <v>71</v>
+        <v>164906</v>
       </c>
       <c r="C48" s="29" t="n">
-        <v>1.4513</v>
+        <v>1.1113</v>
       </c>
       <c r="D48" s="30" t="n">
-        <v>689.02</v>
+        <v>899.8200000000001</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>1021.33</v>
+        <v>1176.06</v>
       </c>
       <c r="F48" s="30" t="n">
-        <v>17.96</v>
+        <v>172.47</v>
       </c>
       <c r="G48" s="31" t="inlineStr">
         <is>
@@ -2707,17 +2707,17 @@
       </c>
       <c r="H48" s="31" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I48" s="31" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J48" s="31" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K48" s="31" t="inlineStr">
@@ -2729,42 +2729,42 @@
     <row r="49">
       <c r="A49" s="27" t="inlineStr">
         <is>
-          <t>华宝标普石油指数</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B49" s="28" t="n">
-        <v>162411</v>
+        <v>71</v>
       </c>
       <c r="C49" s="29" t="n">
-        <v>0.4204</v>
+        <v>1.4513</v>
       </c>
       <c r="D49" s="30" t="n">
-        <v>4757.9</v>
+        <v>689.02</v>
       </c>
       <c r="E49" s="30" t="n">
-        <v>1812.76</v>
+        <v>1021.33</v>
       </c>
       <c r="F49" s="30" t="n">
-        <v>-263.37</v>
+        <v>17.96</v>
       </c>
       <c r="G49" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H49" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I49" s="31" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J49" s="31" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K49" s="31" t="inlineStr">
@@ -2776,42 +2776,42 @@
     <row r="50">
       <c r="A50" s="27" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>华宝标普石油指数</t>
         </is>
       </c>
       <c r="B50" s="28" t="n">
-        <v>614</v>
+        <v>162411</v>
       </c>
       <c r="C50" s="29" t="n">
-        <v>1.0483</v>
+        <v>0.4204</v>
       </c>
       <c r="D50" s="30" t="n">
-        <v>953.96</v>
+        <v>4757.9</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>1142.84</v>
+        <v>1822.28</v>
       </c>
       <c r="F50" s="30" t="n">
-        <v>126.63</v>
+        <v>-263.37</v>
       </c>
       <c r="G50" s="31" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H50" s="31" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I50" s="31" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J50" s="31" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K50" s="31" t="inlineStr">
@@ -2823,117 +2823,117 @@
     <row r="51">
       <c r="A51" s="27" t="inlineStr">
         <is>
+          <t>华安德国30(DAX)联接</t>
+        </is>
+      </c>
+      <c r="B51" s="28" t="n">
+        <v>614</v>
+      </c>
+      <c r="C51" s="29" t="n">
+        <v>1.0483</v>
+      </c>
+      <c r="D51" s="30" t="n">
+        <v>953.96</v>
+      </c>
+      <c r="E51" s="30" t="n">
+        <v>1142.84</v>
+      </c>
+      <c r="F51" s="30" t="n">
+        <v>126.63</v>
+      </c>
+      <c r="G51" s="31" t="inlineStr">
+        <is>
+          <t>海外成熟</t>
+        </is>
+      </c>
+      <c r="H51" s="31" t="inlineStr">
+        <is>
+          <t>德国</t>
+        </is>
+      </c>
+      <c r="I51" s="31" t="inlineStr">
+        <is>
+          <t>德国30</t>
+        </is>
+      </c>
+      <c r="J51" s="31" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="K51" s="31" t="inlineStr">
+        <is>
+          <t>且慢 S 定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="27" t="inlineStr">
+        <is>
           <t>易方达安心债券A</t>
         </is>
       </c>
-      <c r="B51" s="28" t="n">
+      <c r="B52" s="28" t="n">
         <v>110027</v>
       </c>
-      <c r="C51" s="29" t="n">
+      <c r="C52" s="29" t="n">
         <v>1.6793</v>
       </c>
-      <c r="D51" s="30" t="n">
+      <c r="D52" s="30" t="n">
         <v>595.47</v>
       </c>
-      <c r="E51" s="30" t="n">
+      <c r="E52" s="30" t="n">
         <v>1015.28</v>
       </c>
-      <c r="F51" s="30" t="n">
+      <c r="F52" s="30" t="n">
         <v>2.18</v>
       </c>
-      <c r="G51" s="31" t="inlineStr">
+      <c r="G52" s="31" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="H51" s="31" t="inlineStr">
+      <c r="H52" s="31" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="I51" s="31" t="inlineStr">
+      <c r="I52" s="31" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="J51" s="31" t="inlineStr">
+      <c r="J52" s="31" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="K51" s="31" t="inlineStr">
+      <c r="K52" s="31" t="inlineStr">
         <is>
           <t>且慢 S 定投</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="32" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强</t>
-        </is>
-      </c>
-      <c r="B52" s="33" t="n">
-        <v>100032</v>
-      </c>
-      <c r="C52" s="34" t="n">
-        <v>1.0193</v>
-      </c>
-      <c r="D52" s="35" t="n">
-        <v>65064.33</v>
-      </c>
-      <c r="E52" s="35" t="n">
-        <v>71831.02</v>
-      </c>
-      <c r="F52" s="35" t="n">
-        <v>4990.5</v>
-      </c>
-      <c r="G52" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H52" s="36" t="inlineStr">
-        <is>
-          <t>红利价值</t>
-        </is>
-      </c>
-      <c r="I52" s="36" t="inlineStr">
-        <is>
-          <t>中证红利</t>
-        </is>
-      </c>
-      <c r="J52" s="36" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="K52" s="36" t="inlineStr">
-        <is>
-          <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="32" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B53" s="33" t="n">
-        <v>968</v>
+        <v>100032</v>
       </c>
       <c r="C53" s="34" t="n">
-        <v>0.9167</v>
+        <v>1.0193</v>
       </c>
       <c r="D53" s="35" t="n">
-        <v>63490</v>
+        <v>65064.33</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>60950.4</v>
+        <v>71831.02</v>
       </c>
       <c r="F53" s="35" t="n">
-        <v>1474.25</v>
+        <v>4990.5</v>
       </c>
       <c r="G53" s="36" t="inlineStr">
         <is>
@@ -2942,17 +2942,17 @@
       </c>
       <c r="H53" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I53" s="36" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J53" s="36" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K53" s="36" t="inlineStr">
@@ -2964,42 +2964,42 @@
     <row r="54">
       <c r="A54" s="32" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B54" s="33" t="n">
-        <v>340001</v>
+        <v>968</v>
       </c>
       <c r="C54" s="34" t="n">
-        <v>0.9886</v>
+        <v>0.9167</v>
       </c>
       <c r="D54" s="35" t="n">
-        <v>32370.29</v>
+        <v>63490</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>37779.37</v>
+        <v>60950.4</v>
       </c>
       <c r="F54" s="35" t="n">
-        <v>5167.56</v>
+        <v>1474.25</v>
       </c>
       <c r="G54" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H54" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I54" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J54" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K54" s="36" t="inlineStr">
@@ -3011,23 +3011,23 @@
     <row r="55">
       <c r="A55" s="32" t="inlineStr">
         <is>
-          <t>易方达安心回报债券A</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B55" s="33" t="n">
-        <v>110027</v>
+        <v>340001</v>
       </c>
       <c r="C55" s="34" t="n">
-        <v>1.5931</v>
+        <v>0.9886</v>
       </c>
       <c r="D55" s="35" t="n">
-        <v>20086.63</v>
+        <v>32370.29</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>34247.7</v>
+        <v>37779.37</v>
       </c>
       <c r="F55" s="35" t="n">
-        <v>1805.79</v>
+        <v>5167.56</v>
       </c>
       <c r="G55" s="36" t="inlineStr">
         <is>
@@ -3058,42 +3058,42 @@
     <row r="56">
       <c r="A56" s="32" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>易方达安心回报债券A</t>
         </is>
       </c>
       <c r="B56" s="33" t="n">
-        <v>1180</v>
+        <v>110027</v>
       </c>
       <c r="C56" s="34" t="n">
-        <v>0.7451</v>
+        <v>1.5931</v>
       </c>
       <c r="D56" s="35" t="n">
-        <v>41014.88</v>
+        <v>20086.63</v>
       </c>
       <c r="E56" s="35" t="n">
-        <v>34218.71</v>
+        <v>34247.7</v>
       </c>
       <c r="F56" s="35" t="n">
-        <v>3203.44</v>
+        <v>1805.79</v>
       </c>
       <c r="G56" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H56" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I56" s="36" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J56" s="36" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K56" s="36" t="inlineStr">
@@ -3105,42 +3105,42 @@
     <row r="57">
       <c r="A57" s="32" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B57" s="33" t="n">
-        <v>614</v>
+        <v>1180</v>
       </c>
       <c r="C57" s="34" t="n">
-        <v>1.091</v>
+        <v>0.7451</v>
       </c>
       <c r="D57" s="35" t="n">
-        <v>20716.63</v>
+        <v>41014.88</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>24818.52</v>
+        <v>34218.71</v>
       </c>
       <c r="F57" s="35" t="n">
-        <v>1866.34</v>
+        <v>3203.44</v>
       </c>
       <c r="G57" s="36" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H57" s="36" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I57" s="36" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J57" s="36" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K57" s="36" t="inlineStr">
@@ -3152,42 +3152,42 @@
     <row r="58">
       <c r="A58" s="32" t="inlineStr">
         <is>
-          <t>富国沪深300指数增强</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B58" s="33" t="n">
-        <v>100038</v>
+        <v>614</v>
       </c>
       <c r="C58" s="34" t="n">
-        <v>1.3129</v>
+        <v>1.091</v>
       </c>
       <c r="D58" s="35" t="n">
-        <v>14624.61</v>
+        <v>20716.63</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>23764.99</v>
+        <v>24818.52</v>
       </c>
       <c r="F58" s="35" t="n">
-        <v>4287.12</v>
+        <v>1866.34</v>
       </c>
       <c r="G58" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H58" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="I58" s="36" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="J58" s="36" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>321</t>
         </is>
       </c>
       <c r="K58" s="36" t="inlineStr">
@@ -3199,23 +3199,23 @@
     <row r="59">
       <c r="A59" s="32" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>富国沪深300指数增强</t>
         </is>
       </c>
       <c r="B59" s="33" t="n">
-        <v>1469</v>
+        <v>100038</v>
       </c>
       <c r="C59" s="34" t="n">
-        <v>0.9073</v>
+        <v>1.3129</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>21163.93</v>
+        <v>14624.61</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>23026.36</v>
+        <v>23764.99</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3756.51</v>
+        <v>4287.12</v>
       </c>
       <c r="G59" s="36" t="inlineStr">
         <is>
@@ -3224,17 +3224,17 @@
       </c>
       <c r="H59" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I59" s="36" t="inlineStr">
         <is>
-          <t>金融地产</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="J59" s="36" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K59" s="36" t="inlineStr">
@@ -3246,42 +3246,42 @@
     <row r="60">
       <c r="A60" s="32" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B60" s="33" t="n">
-        <v>164906</v>
+        <v>1469</v>
       </c>
       <c r="C60" s="34" t="n">
-        <v>1.1444</v>
+        <v>0.9073</v>
       </c>
       <c r="D60" s="35" t="n">
-        <v>16778.47</v>
+        <v>21163.93</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>21929.46</v>
+        <v>23026.36</v>
       </c>
       <c r="F60" s="35" t="n">
-        <v>2662.34</v>
+        <v>3756.51</v>
       </c>
       <c r="G60" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H60" s="36" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I60" s="36" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>金融地产</t>
         </is>
       </c>
       <c r="J60" s="36" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>147</t>
         </is>
       </c>
       <c r="K60" s="36" t="inlineStr">
@@ -3293,42 +3293,42 @@
     <row r="61">
       <c r="A61" s="32" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B61" s="33" t="n">
-        <v>161017</v>
+        <v>164906</v>
       </c>
       <c r="C61" s="34" t="n">
-        <v>1.3432</v>
+        <v>1.1444</v>
       </c>
       <c r="D61" s="35" t="n">
-        <v>9529.809999999999</v>
+        <v>16778.47</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>15590.77</v>
+        <v>21929.46</v>
       </c>
       <c r="F61" s="35" t="n">
-        <v>2457.22</v>
+        <v>2662.34</v>
       </c>
       <c r="G61" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H61" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I61" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J61" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K61" s="36" t="inlineStr">
@@ -3340,42 +3340,42 @@
     <row r="62">
       <c r="A62" s="32" t="inlineStr">
         <is>
-          <t>华宝标普油气上游股票</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B62" s="33" t="n">
-        <v>162411</v>
+        <v>161017</v>
       </c>
       <c r="C62" s="34" t="n">
-        <v>0.5152</v>
+        <v>1.3432</v>
       </c>
       <c r="D62" s="35" t="n">
-        <v>37267.45</v>
+        <v>9529.809999999999</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>14198.9</v>
+        <v>15590.77</v>
       </c>
       <c r="F62" s="35" t="n">
-        <v>-5597.39</v>
+        <v>2457.22</v>
       </c>
       <c r="G62" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H62" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I62" s="36" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J62" s="36" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K62" s="36" t="inlineStr">
@@ -3387,42 +3387,42 @@
     <row r="63">
       <c r="A63" s="32" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>华宝标普油气上游股票</t>
         </is>
       </c>
       <c r="B63" s="33" t="n">
-        <v>71</v>
+        <v>162411</v>
       </c>
       <c r="C63" s="34" t="n">
-        <v>1.4562</v>
+        <v>0.5152</v>
       </c>
       <c r="D63" s="35" t="n">
-        <v>6798.52</v>
+        <v>37267.45</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>10077.45</v>
+        <v>14273.43</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>144.13</v>
+        <v>-5597.39</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H63" s="36" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I63" s="36" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J63" s="36" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K63" s="36" t="inlineStr">
@@ -3434,42 +3434,42 @@
     <row r="64">
       <c r="A64" s="32" t="inlineStr">
         <is>
-          <t>华夏收益债券(QDII)A</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B64" s="33" t="n">
-        <v>1061</v>
+        <v>71</v>
       </c>
       <c r="C64" s="34" t="n">
-        <v>0.9172</v>
+        <v>1.4562</v>
       </c>
       <c r="D64" s="35" t="n">
-        <v>5609.79</v>
+        <v>6798.52</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>7556.39</v>
+        <v>10077.45</v>
       </c>
       <c r="F64" s="35" t="n">
-        <v>2411.26</v>
+        <v>144.13</v>
       </c>
       <c r="G64" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H64" s="36" t="inlineStr">
         <is>
-          <t>海外债券</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I64" s="36" t="inlineStr">
         <is>
-          <t>美元债</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J64" s="36" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K64" s="36" t="inlineStr">
@@ -3481,42 +3481,42 @@
     <row r="65">
       <c r="A65" s="32" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>华夏收益债券(QDII)A</t>
         </is>
       </c>
       <c r="B65" s="33" t="n">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C65" s="34" t="n">
-        <v>0.4775</v>
+        <v>0.9172</v>
       </c>
       <c r="D65" s="35" t="n">
-        <v>13403.92</v>
+        <v>5609.79</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>7504.85</v>
+        <v>7556.39</v>
       </c>
       <c r="F65" s="35" t="n">
-        <v>937.3</v>
+        <v>2411.26</v>
       </c>
       <c r="G65" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H65" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>海外债券</t>
         </is>
       </c>
       <c r="I65" s="36" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>美元债</t>
         </is>
       </c>
       <c r="J65" s="36" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>521</t>
         </is>
       </c>
       <c r="K65" s="36" t="inlineStr">
@@ -3528,42 +3528,42 @@
     <row r="66">
       <c r="A66" s="32" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B66" s="33" t="n">
-        <v>519977</v>
+        <v>1064</v>
       </c>
       <c r="C66" s="34" t="n">
-        <v>1.2011</v>
+        <v>0.4775</v>
       </c>
       <c r="D66" s="35" t="n">
-        <v>5328.62</v>
+        <v>13403.92</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>7306.6</v>
+        <v>7504.85</v>
       </c>
       <c r="F66" s="35" t="n">
-        <v>836.79</v>
+        <v>937.3</v>
       </c>
       <c r="G66" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H66" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I66" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J66" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K66" s="36" t="inlineStr">
@@ -3575,42 +3575,42 @@
     <row r="67">
       <c r="A67" s="32" t="inlineStr">
         <is>
-          <t>广发中证500ETF联接C</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B67" s="33" t="n">
-        <v>2903</v>
+        <v>519977</v>
       </c>
       <c r="C67" s="34" t="n">
-        <v>0.9</v>
+        <v>1.2011</v>
       </c>
       <c r="D67" s="35" t="n">
-        <v>7778.64</v>
+        <v>5328.62</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>6877.87</v>
+        <v>7306.6</v>
       </c>
       <c r="F67" s="35" t="n">
-        <v>-276.93</v>
+        <v>836.79</v>
       </c>
       <c r="G67" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H67" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I67" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J67" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K67" s="36" t="inlineStr">
@@ -3622,23 +3622,23 @@
     <row r="68">
       <c r="A68" s="32" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>广发中证500ETF联接C</t>
         </is>
       </c>
       <c r="B68" s="33" t="n">
-        <v>478</v>
+        <v>2903</v>
       </c>
       <c r="C68" s="34" t="n">
-        <v>1.9397</v>
+        <v>0.9</v>
       </c>
       <c r="D68" s="35" t="n">
-        <v>3299.64</v>
+        <v>7778.64</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>6556.71</v>
+        <v>6877.87</v>
       </c>
       <c r="F68" s="35" t="n">
-        <v>21.09</v>
+        <v>-276.93</v>
       </c>
       <c r="G68" s="36" t="inlineStr">
         <is>
@@ -3669,23 +3669,23 @@
     <row r="69">
       <c r="A69" s="32" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B69" s="33" t="n">
-        <v>4752</v>
+        <v>478</v>
       </c>
       <c r="C69" s="34" t="n">
-        <v>0.8149999999999999</v>
+        <v>1.9397</v>
       </c>
       <c r="D69" s="35" t="n">
-        <v>7852.99</v>
+        <v>3299.64</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>6168.52</v>
+        <v>6556.71</v>
       </c>
       <c r="F69" s="35" t="n">
-        <v>-444.3</v>
+        <v>21.09</v>
       </c>
       <c r="G69" s="36" t="inlineStr">
         <is>
@@ -3694,17 +3694,17 @@
       </c>
       <c r="H69" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I69" s="36" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J69" s="36" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K69" s="36" t="inlineStr">
@@ -3716,136 +3716,136 @@
     <row r="70">
       <c r="A70" s="32" t="inlineStr">
         <is>
+          <t>广发中证传媒ETF联接A</t>
+        </is>
+      </c>
+      <c r="B70" s="33" t="n">
+        <v>4752</v>
+      </c>
+      <c r="C70" s="34" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="D70" s="35" t="n">
+        <v>7852.99</v>
+      </c>
+      <c r="E70" s="35" t="n">
+        <v>6168.52</v>
+      </c>
+      <c r="F70" s="35" t="n">
+        <v>-444.3</v>
+      </c>
+      <c r="G70" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H70" s="36" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="I70" s="36" t="inlineStr">
+        <is>
+          <t>中证传媒</t>
+        </is>
+      </c>
+      <c r="J70" s="36" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="K70" s="36" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="32" t="inlineStr">
+        <is>
           <t>创金合信中证1000指数增强C</t>
         </is>
       </c>
-      <c r="B70" s="33" t="n">
+      <c r="B71" s="33" t="n">
         <v>3647</v>
       </c>
-      <c r="C70" s="34" t="n">
+      <c r="C71" s="34" t="n">
         <v>0.9776</v>
       </c>
-      <c r="D70" s="35" t="n">
+      <c r="D71" s="35" t="n">
         <v>3580.2</v>
       </c>
-      <c r="E70" s="35" t="n">
+      <c r="E71" s="35" t="n">
         <v>3419.09</v>
       </c>
-      <c r="F70" s="35" t="n">
+      <c r="F71" s="35" t="n">
         <v>-162.18</v>
       </c>
-      <c r="G70" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H70" s="36" t="inlineStr">
+      <c r="G71" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H71" s="36" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="I70" s="36" t="inlineStr">
+      <c r="I71" s="36" t="inlineStr">
         <is>
           <t>中证1000</t>
         </is>
       </c>
-      <c r="J70" s="36" t="inlineStr">
+      <c r="J71" s="36" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="K70" s="36" t="inlineStr">
+      <c r="K71" s="36" t="inlineStr">
         <is>
           <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="27" t="inlineStr">
-        <is>
-          <t>交银稳鑫短债债券A</t>
-        </is>
-      </c>
-      <c r="B71" s="28" t="n">
-        <v>6793</v>
-      </c>
-      <c r="C71" s="29" t="n">
-        <v>1.0286</v>
-      </c>
-      <c r="D71" s="30" t="n">
-        <v>171152.16</v>
-      </c>
-      <c r="E71" s="30" t="n">
-        <v>176201.15</v>
-      </c>
-      <c r="F71" s="30" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="G71" s="31" t="inlineStr">
-        <is>
-          <t>债券</t>
-        </is>
-      </c>
-      <c r="H71" s="31" t="inlineStr">
-        <is>
-          <t>国内债券</t>
-        </is>
-      </c>
-      <c r="I71" s="31" t="inlineStr">
-        <is>
-          <t>可转债</t>
-        </is>
-      </c>
-      <c r="J71" s="31" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="K71" s="31" t="inlineStr">
-        <is>
-          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="27" t="inlineStr">
         <is>
-          <t>交银主题优选</t>
+          <t>交银稳鑫短债债券A</t>
         </is>
       </c>
       <c r="B72" s="28" t="n">
-        <v>519700</v>
+        <v>6793</v>
       </c>
       <c r="C72" s="29" t="n">
-        <v>1.4657</v>
+        <v>1.0286</v>
       </c>
       <c r="D72" s="30" t="n">
-        <v>11598.58</v>
+        <v>171152.16</v>
       </c>
       <c r="E72" s="30" t="n">
-        <v>17339.88</v>
+        <v>176201.15</v>
       </c>
       <c r="F72" s="30" t="n">
-        <v>-8.08</v>
+        <v>41.34</v>
       </c>
       <c r="G72" s="31" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H72" s="31" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I72" s="31" t="inlineStr">
         <is>
-          <t>偏股</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J72" s="31" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K72" s="31" t="inlineStr">
@@ -3857,42 +3857,42 @@
     <row r="73">
       <c r="A73" s="27" t="inlineStr">
         <is>
-          <t>交银纯债A/B</t>
+          <t>交银主题优选</t>
         </is>
       </c>
       <c r="B73" s="28" t="n">
-        <v>519718</v>
+        <v>519700</v>
       </c>
       <c r="C73" s="29" t="n">
-        <v>1.0759</v>
+        <v>1.4657</v>
       </c>
       <c r="D73" s="30" t="n">
-        <v>128864.36</v>
+        <v>11598.58</v>
       </c>
       <c r="E73" s="30" t="n">
-        <v>138786.92</v>
+        <v>17339.88</v>
       </c>
       <c r="F73" s="30" t="n">
-        <v>18.05</v>
+        <v>-8.08</v>
       </c>
       <c r="G73" s="31" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="H73" s="31" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>股债混合</t>
         </is>
       </c>
       <c r="I73" s="31" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>偏股</t>
         </is>
       </c>
       <c r="J73" s="31" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>411</t>
         </is>
       </c>
       <c r="K73" s="31" t="inlineStr">
@@ -3904,23 +3904,23 @@
     <row r="74">
       <c r="A74" s="27" t="inlineStr">
         <is>
-          <t>交银双轮动A/B</t>
+          <t>交银纯债A/B</t>
         </is>
       </c>
       <c r="B74" s="28" t="n">
-        <v>519723</v>
+        <v>519718</v>
       </c>
       <c r="C74" s="29" t="n">
-        <v>1.0784</v>
+        <v>1.0759</v>
       </c>
       <c r="D74" s="30" t="n">
-        <v>132719.84</v>
+        <v>128864.36</v>
       </c>
       <c r="E74" s="30" t="n">
-        <v>143204.71</v>
+        <v>138786.92</v>
       </c>
       <c r="F74" s="30" t="n">
-        <v>-48.01</v>
+        <v>18.05</v>
       </c>
       <c r="G74" s="31" t="inlineStr">
         <is>
@@ -3951,42 +3951,42 @@
     <row r="75">
       <c r="A75" s="27" t="inlineStr">
         <is>
-          <t>交银新回报灵活配置混合A</t>
+          <t>交银双轮动A/B</t>
         </is>
       </c>
       <c r="B75" s="28" t="n">
-        <v>519752</v>
+        <v>519723</v>
       </c>
       <c r="C75" s="29" t="n">
-        <v>1.2439</v>
+        <v>1.0784</v>
       </c>
       <c r="D75" s="30" t="n">
-        <v>59685.02</v>
+        <v>132719.84</v>
       </c>
       <c r="E75" s="30" t="n">
-        <v>74307.85000000001</v>
+        <v>143204.71</v>
       </c>
       <c r="F75" s="30" t="n">
-        <v>-230.58</v>
+        <v>-48.01</v>
       </c>
       <c r="G75" s="31" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H75" s="31" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I75" s="31" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J75" s="31" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K75" s="31" t="inlineStr">
@@ -3998,23 +3998,23 @@
     <row r="76">
       <c r="A76" s="27" t="inlineStr">
         <is>
-          <t>交银多策略回报灵活配置混合A</t>
+          <t>交银新回报灵活配置混合A</t>
         </is>
       </c>
       <c r="B76" s="28" t="n">
-        <v>519755</v>
+        <v>519752</v>
       </c>
       <c r="C76" s="29" t="n">
-        <v>1.2894</v>
+        <v>1.2439</v>
       </c>
       <c r="D76" s="30" t="n">
-        <v>76964.17</v>
+        <v>59685.02</v>
       </c>
       <c r="E76" s="30" t="n">
-        <v>99514.67</v>
+        <v>74307.85000000001</v>
       </c>
       <c r="F76" s="30" t="n">
-        <v>-110.15</v>
+        <v>-230.58</v>
       </c>
       <c r="G76" s="31" t="inlineStr">
         <is>
@@ -4045,117 +4045,117 @@
     <row r="77">
       <c r="A77" s="27" t="inlineStr">
         <is>
+          <t>交银多策略回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="B77" s="28" t="n">
+        <v>519755</v>
+      </c>
+      <c r="C77" s="29" t="n">
+        <v>1.2894</v>
+      </c>
+      <c r="D77" s="30" t="n">
+        <v>76964.17</v>
+      </c>
+      <c r="E77" s="30" t="n">
+        <v>99514.67</v>
+      </c>
+      <c r="F77" s="30" t="n">
+        <v>-110.15</v>
+      </c>
+      <c r="G77" s="31" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="H77" s="31" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="I77" s="31" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="J77" s="31" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="K77" s="31" t="inlineStr">
+        <is>
+          <t>父稳稳的幸福</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="27" t="inlineStr">
+        <is>
           <t>交银裕盈纯债债券A</t>
         </is>
       </c>
-      <c r="B77" s="28" t="n">
+      <c r="B78" s="28" t="n">
         <v>519776</v>
       </c>
-      <c r="C77" s="29" t="n">
+      <c r="C78" s="29" t="n">
         <v>1.0793</v>
       </c>
-      <c r="D77" s="30" t="n">
+      <c r="D78" s="30" t="n">
         <v>140577.44</v>
       </c>
-      <c r="E77" s="30" t="n">
+      <c r="E78" s="30" t="n">
         <v>151753.35</v>
       </c>
-      <c r="F77" s="30" t="n">
+      <c r="F78" s="30" t="n">
         <v>-51</v>
       </c>
-      <c r="G77" s="31" t="inlineStr">
+      <c r="G78" s="31" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="H77" s="31" t="inlineStr">
+      <c r="H78" s="31" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="I77" s="31" t="inlineStr">
+      <c r="I78" s="31" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="J77" s="31" t="inlineStr">
+      <c r="J78" s="31" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="K77" s="31" t="inlineStr">
+      <c r="K78" s="31" t="inlineStr">
         <is>
           <t>父稳稳的幸福</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="7" t="inlineStr">
-        <is>
-          <t>银河沪深300价值指数</t>
-        </is>
-      </c>
-      <c r="B78" s="8" t="n">
-        <v>519671</v>
-      </c>
-      <c r="C78" s="9" t="n">
-        <v>1.4263</v>
-      </c>
-      <c r="D78" s="10" t="n">
-        <v>1029.32</v>
-      </c>
-      <c r="E78" s="10" t="n">
-        <v>1475.02</v>
-      </c>
-      <c r="F78" s="10" t="n">
-        <v>-2.36</v>
-      </c>
-      <c r="G78" s="11" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H78" s="11" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="I78" s="11" t="inlineStr">
-        <is>
-          <t>300价值</t>
-        </is>
-      </c>
-      <c r="J78" s="11" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="K78" s="11" t="inlineStr">
-        <is>
-          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="7" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B79" s="8" t="n">
-        <v>90010</v>
+        <v>519671</v>
       </c>
       <c r="C79" s="9" t="n">
-        <v>1.6522</v>
+        <v>1.4264</v>
       </c>
       <c r="D79" s="10" t="n">
-        <v>874.15</v>
+        <v>1045.13</v>
       </c>
       <c r="E79" s="10" t="n">
-        <v>1419.62</v>
+        <v>1497.67</v>
       </c>
       <c r="F79" s="10" t="n">
-        <v>-37.8</v>
+        <v>6.87</v>
       </c>
       <c r="G79" s="11" t="inlineStr">
         <is>
@@ -4164,17 +4164,17 @@
       </c>
       <c r="H79" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I79" s="11" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J79" s="11" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K79" s="11" t="inlineStr">
@@ -4186,42 +4186,42 @@
     <row r="80">
       <c r="A80" s="7" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B80" s="8" t="n">
-        <v>501021</v>
+        <v>90010</v>
       </c>
       <c r="C80" s="9" t="n">
-        <v>1.3485</v>
+        <v>1.6518</v>
       </c>
       <c r="D80" s="10" t="n">
-        <v>898.04</v>
+        <v>888.12</v>
       </c>
       <c r="E80" s="10" t="n">
-        <v>1310.06</v>
+        <v>1442.31</v>
       </c>
       <c r="F80" s="10" t="n">
-        <v>78.26000000000001</v>
+        <v>-24.71</v>
       </c>
       <c r="G80" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H80" s="11" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I80" s="11" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J80" s="11" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K80" s="11" t="inlineStr">
@@ -4233,42 +4233,42 @@
     <row r="81">
       <c r="A81" s="7" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B81" s="8" t="n">
-        <v>3318</v>
+        <v>501021</v>
       </c>
       <c r="C81" s="9" t="n">
-        <v>0.9328</v>
+        <v>1.3485</v>
       </c>
       <c r="D81" s="10" t="n">
-        <v>1336.21</v>
+        <v>898.04</v>
       </c>
       <c r="E81" s="10" t="n">
-        <v>1248.96</v>
+        <v>1321.47</v>
       </c>
       <c r="F81" s="10" t="n">
-        <v>-23.26</v>
+        <v>99.09</v>
       </c>
       <c r="G81" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H81" s="11" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I81" s="11" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="J81" s="11" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K81" s="11" t="inlineStr">
@@ -4280,23 +4280,23 @@
     <row r="82">
       <c r="A82" s="7" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B82" s="8" t="n">
-        <v>70023</v>
+        <v>3318</v>
       </c>
       <c r="C82" s="9" t="n">
-        <v>1.7966</v>
+        <v>0.9329</v>
       </c>
       <c r="D82" s="10" t="n">
-        <v>492.58</v>
+        <v>1358.53</v>
       </c>
       <c r="E82" s="10" t="n">
-        <v>926.54</v>
+        <v>1269.82</v>
       </c>
       <c r="F82" s="10" t="n">
-        <v>29.64</v>
+        <v>2.49</v>
       </c>
       <c r="G82" s="11" t="inlineStr">
         <is>
@@ -4305,17 +4305,17 @@
       </c>
       <c r="H82" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I82" s="11" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="J82" s="11" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K82" s="11" t="inlineStr">
@@ -4327,23 +4327,23 @@
     <row r="83">
       <c r="A83" s="7" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B83" s="8" t="n">
-        <v>530015</v>
+        <v>70023</v>
       </c>
       <c r="C83" s="9" t="n">
-        <v>2.1207</v>
+        <v>1.7966</v>
       </c>
       <c r="D83" s="10" t="n">
-        <v>398.66</v>
+        <v>492.58</v>
       </c>
       <c r="E83" s="10" t="n">
-        <v>869.4</v>
+        <v>926.54</v>
       </c>
       <c r="F83" s="10" t="n">
-        <v>15.23</v>
+        <v>41.56</v>
       </c>
       <c r="G83" s="11" t="inlineStr">
         <is>
@@ -4357,12 +4357,12 @@
       </c>
       <c r="I83" s="11" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="J83" s="11" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>116</t>
         </is>
       </c>
       <c r="K83" s="11" t="inlineStr">
@@ -4374,23 +4374,23 @@
     <row r="84">
       <c r="A84" s="7" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B84" s="8" t="n">
-        <v>968</v>
+        <v>530015</v>
       </c>
       <c r="C84" s="9" t="n">
-        <v>0.9599</v>
+        <v>2.122</v>
       </c>
       <c r="D84" s="10" t="n">
-        <v>373.42</v>
+        <v>406.95</v>
       </c>
       <c r="E84" s="10" t="n">
-        <v>358.48</v>
+        <v>887.48</v>
       </c>
       <c r="F84" s="10" t="n">
-        <v>-6.93</v>
+        <v>23.93</v>
       </c>
       <c r="G84" s="11" t="inlineStr">
         <is>
@@ -4399,17 +4399,17 @@
       </c>
       <c r="H84" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I84" s="11" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="J84" s="11" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K84" s="11" t="inlineStr">
@@ -4421,23 +4421,23 @@
     <row r="85">
       <c r="A85" s="7" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B85" s="8" t="n">
-        <v>501029</v>
+        <v>968</v>
       </c>
       <c r="C85" s="9" t="n">
-        <v>0.9829</v>
+        <v>0.9599</v>
       </c>
       <c r="D85" s="10" t="n">
-        <v>214.89</v>
+        <v>390.82</v>
       </c>
       <c r="E85" s="10" t="n">
-        <v>204.45</v>
+        <v>375.19</v>
       </c>
       <c r="F85" s="10" t="n">
-        <v>-10.68</v>
+        <v>0.04</v>
       </c>
       <c r="G85" s="11" t="inlineStr">
         <is>
@@ -4446,17 +4446,17 @@
       </c>
       <c r="H85" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I85" s="11" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J85" s="11" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K85" s="11" t="inlineStr">
@@ -4468,23 +4468,23 @@
     <row r="86">
       <c r="A86" s="7" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B86" s="8" t="n">
-        <v>1550</v>
+        <v>501029</v>
       </c>
       <c r="C86" s="9" t="n">
-        <v>0.6708</v>
+        <v>0.9829</v>
       </c>
       <c r="D86" s="10" t="n">
-        <v>212.74</v>
+        <v>214.89</v>
       </c>
       <c r="E86" s="10" t="n">
-        <v>163.24</v>
+        <v>204.45</v>
       </c>
       <c r="F86" s="10" t="n">
-        <v>18.11</v>
+        <v>-6.77</v>
       </c>
       <c r="G86" s="11" t="inlineStr">
         <is>
@@ -4493,17 +4493,17 @@
       </c>
       <c r="H86" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I86" s="11" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="J86" s="11" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>132</t>
         </is>
       </c>
       <c r="K86" s="11" t="inlineStr">
@@ -4515,23 +4515,23 @@
     <row r="87">
       <c r="A87" s="7" t="inlineStr">
         <is>
-          <t>华夏上证50AH优选指数</t>
+          <t>天弘中证医药100A</t>
         </is>
       </c>
       <c r="B87" s="8" t="n">
-        <v>501050</v>
+        <v>1550</v>
       </c>
       <c r="C87" s="9" t="n">
-        <v>1.2891</v>
+        <v>0.6708</v>
       </c>
       <c r="D87" s="10" t="n">
-        <v>62.09</v>
+        <v>212.74</v>
       </c>
       <c r="E87" s="10" t="n">
-        <v>81.65000000000001</v>
+        <v>163.24</v>
       </c>
       <c r="F87" s="10" t="n">
-        <v>0.18</v>
+        <v>20.54</v>
       </c>
       <c r="G87" s="11" t="inlineStr">
         <is>
@@ -4540,17 +4540,17 @@
       </c>
       <c r="H87" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I87" s="11" t="inlineStr">
         <is>
-          <t>50AH</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J87" s="11" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K87" s="11" t="inlineStr">
@@ -4562,23 +4562,23 @@
     <row r="88">
       <c r="A88" s="7" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>华夏上证50AH优选指数</t>
         </is>
       </c>
       <c r="B88" s="8" t="n">
-        <v>310398</v>
+        <v>501050</v>
       </c>
       <c r="C88" s="9" t="n">
-        <v>1.5297</v>
+        <v>1.2891</v>
       </c>
       <c r="D88" s="10" t="n">
-        <v>24.24</v>
+        <v>62.09</v>
       </c>
       <c r="E88" s="10" t="n">
-        <v>32.83</v>
+        <v>81.65000000000001</v>
       </c>
       <c r="F88" s="10" t="n">
-        <v>-2.32</v>
+        <v>1.61</v>
       </c>
       <c r="G88" s="11" t="inlineStr">
         <is>
@@ -4592,12 +4592,12 @@
       </c>
       <c r="I88" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>50AH</t>
         </is>
       </c>
       <c r="J88" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K88" s="11" t="inlineStr">
@@ -4609,42 +4609,42 @@
     <row r="89">
       <c r="A89" s="7" t="inlineStr">
         <is>
-          <t>大成景安短融债券E</t>
+          <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
       <c r="B89" s="8" t="n">
-        <v>2086</v>
+        <v>310398</v>
       </c>
       <c r="C89" s="9" t="n">
-        <v>1.2258</v>
+        <v>1.4372</v>
       </c>
       <c r="D89" s="10" t="n">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="E89" s="10" t="n">
-        <v>0</v>
+        <v>34.94</v>
       </c>
       <c r="F89" s="10" t="n">
-        <v>0.27</v>
+        <v>-2.14</v>
       </c>
       <c r="G89" s="11" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H89" s="11" t="inlineStr">
         <is>
-          <t>低风险理财</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I89" s="11" t="inlineStr">
         <is>
-          <t>货币基金</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J89" s="11" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K89" s="11" t="inlineStr">
@@ -4656,23 +4656,23 @@
     <row r="90">
       <c r="A90" s="7" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B90" s="8" t="n">
-        <v>90010</v>
+        <v>1594</v>
       </c>
       <c r="C90" s="9" t="n">
-        <v>1.6569</v>
+        <v>1.2144</v>
       </c>
       <c r="D90" s="10" t="n">
-        <v>946.4299999999999</v>
+        <v>17.12</v>
       </c>
       <c r="E90" s="10" t="n">
-        <v>1537</v>
+        <v>20.98</v>
       </c>
       <c r="F90" s="10" t="n">
-        <v>-45.37</v>
+        <v>-0.03</v>
       </c>
       <c r="G90" s="11" t="inlineStr">
         <is>
@@ -4681,111 +4681,111 @@
       </c>
       <c r="H90" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I90" s="11" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="J90" s="11" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K90" s="11" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="7" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>大成景安短融债券E</t>
         </is>
       </c>
       <c r="B91" s="8" t="n">
-        <v>519671</v>
+        <v>2086</v>
       </c>
       <c r="C91" s="9" t="n">
-        <v>1.4248</v>
+        <v>1.2258</v>
       </c>
       <c r="D91" s="10" t="n">
-        <v>1025.65</v>
+        <v>0</v>
       </c>
       <c r="E91" s="10" t="n">
-        <v>1469.76</v>
+        <v>0</v>
       </c>
       <c r="F91" s="10" t="n">
-        <v>-0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="G91" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="H91" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>低风险理财</t>
         </is>
       </c>
       <c r="I91" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>货币基金</t>
         </is>
       </c>
       <c r="J91" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>999</t>
         </is>
       </c>
       <c r="K91" s="11" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="7" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B92" s="8" t="n">
-        <v>501021</v>
+        <v>90010</v>
       </c>
       <c r="C92" s="9" t="n">
-        <v>1.3514</v>
+        <v>1.6561</v>
       </c>
       <c r="D92" s="10" t="n">
-        <v>915.97</v>
+        <v>974.37</v>
       </c>
       <c r="E92" s="10" t="n">
-        <v>1336.22</v>
+        <v>1582.38</v>
       </c>
       <c r="F92" s="10" t="n">
-        <v>77.13</v>
+        <v>-31.23</v>
       </c>
       <c r="G92" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H92" s="11" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I92" s="11" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J92" s="11" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K92" s="11" t="inlineStr">
@@ -4797,23 +4797,23 @@
     <row r="93">
       <c r="A93" s="7" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B93" s="8" t="n">
-        <v>3318</v>
+        <v>519671</v>
       </c>
       <c r="C93" s="9" t="n">
-        <v>0.9334</v>
+        <v>1.4251</v>
       </c>
       <c r="D93" s="10" t="n">
-        <v>1367.69</v>
+        <v>1057.28</v>
       </c>
       <c r="E93" s="10" t="n">
-        <v>1278.38</v>
+        <v>1515.08</v>
       </c>
       <c r="F93" s="10" t="n">
-        <v>-24.57</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="G93" s="11" t="inlineStr">
         <is>
@@ -4822,17 +4822,17 @@
       </c>
       <c r="H93" s="11" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I93" s="11" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J93" s="11" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K93" s="11" t="inlineStr">
@@ -4844,42 +4844,42 @@
     <row r="94">
       <c r="A94" s="7" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B94" s="8" t="n">
-        <v>70023</v>
+        <v>501021</v>
       </c>
       <c r="C94" s="9" t="n">
-        <v>1.7992</v>
+        <v>1.3514</v>
       </c>
       <c r="D94" s="10" t="n">
-        <v>528.99</v>
+        <v>915.97</v>
       </c>
       <c r="E94" s="10" t="n">
-        <v>995.03</v>
+        <v>1347.85</v>
       </c>
       <c r="F94" s="10" t="n">
-        <v>30.49</v>
+        <v>98.38</v>
       </c>
       <c r="G94" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H94" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I94" s="11" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="J94" s="11" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K94" s="11" t="inlineStr">
@@ -4891,23 +4891,23 @@
     <row r="95">
       <c r="A95" s="7" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B95" s="8" t="n">
-        <v>530015</v>
+        <v>3318</v>
       </c>
       <c r="C95" s="9" t="n">
-        <v>2.1224</v>
+        <v>0.9334</v>
       </c>
       <c r="D95" s="10" t="n">
-        <v>390.29</v>
+        <v>1412.34</v>
       </c>
       <c r="E95" s="10" t="n">
-        <v>851.14</v>
+        <v>1320.11</v>
       </c>
       <c r="F95" s="10" t="n">
-        <v>14.23</v>
+        <v>1.77</v>
       </c>
       <c r="G95" s="11" t="inlineStr">
         <is>
@@ -4916,17 +4916,17 @@
       </c>
       <c r="H95" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I95" s="11" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="J95" s="11" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K95" s="11" t="inlineStr">
@@ -4938,23 +4938,23 @@
     <row r="96">
       <c r="A96" s="7" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B96" s="8" t="n">
-        <v>968</v>
+        <v>70023</v>
       </c>
       <c r="C96" s="9" t="n">
-        <v>0.9586</v>
+        <v>1.7992</v>
       </c>
       <c r="D96" s="10" t="n">
-        <v>392.19</v>
+        <v>528.99</v>
       </c>
       <c r="E96" s="10" t="n">
-        <v>376.5</v>
+        <v>995.03</v>
       </c>
       <c r="F96" s="10" t="n">
-        <v>-6.79</v>
+        <v>43.29</v>
       </c>
       <c r="G96" s="11" t="inlineStr">
         <is>
@@ -4963,17 +4963,17 @@
       </c>
       <c r="H96" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I96" s="11" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="J96" s="11" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>116</t>
         </is>
       </c>
       <c r="K96" s="11" t="inlineStr">
@@ -4985,23 +4985,23 @@
     <row r="97">
       <c r="A97" s="7" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B97" s="8" t="n">
-        <v>501029</v>
+        <v>530015</v>
       </c>
       <c r="C97" s="9" t="n">
-        <v>0.9824000000000001</v>
+        <v>2.125</v>
       </c>
       <c r="D97" s="10" t="n">
-        <v>227.52</v>
+        <v>406.87</v>
       </c>
       <c r="E97" s="10" t="n">
-        <v>216.46</v>
+        <v>887.3</v>
       </c>
       <c r="F97" s="10" t="n">
-        <v>-11.19</v>
+        <v>22.72</v>
       </c>
       <c r="G97" s="11" t="inlineStr">
         <is>
@@ -5010,17 +5010,17 @@
       </c>
       <c r="H97" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I97" s="11" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="J97" s="11" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K97" s="11" t="inlineStr">
@@ -5032,23 +5032,23 @@
     <row r="98">
       <c r="A98" s="7" t="inlineStr">
         <is>
-          <t>华夏上证50AH优选指数</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B98" s="8" t="n">
-        <v>501050</v>
+        <v>968</v>
       </c>
       <c r="C98" s="9" t="n">
-        <v>1.284</v>
+        <v>0.9588</v>
       </c>
       <c r="D98" s="10" t="n">
-        <v>142.1</v>
+        <v>426.97</v>
       </c>
       <c r="E98" s="10" t="n">
-        <v>186.86</v>
+        <v>409.89</v>
       </c>
       <c r="F98" s="10" t="n">
-        <v>1.14</v>
+        <v>0.5</v>
       </c>
       <c r="G98" s="11" t="inlineStr">
         <is>
@@ -5057,17 +5057,17 @@
       </c>
       <c r="H98" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I98" s="11" t="inlineStr">
         <is>
-          <t>50AH</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J98" s="11" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K98" s="11" t="inlineStr">
@@ -5079,23 +5079,23 @@
     <row r="99">
       <c r="A99" s="7" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B99" s="8" t="n">
-        <v>1550</v>
+        <v>501029</v>
       </c>
       <c r="C99" s="9" t="n">
-        <v>0.6708</v>
+        <v>0.9824000000000001</v>
       </c>
       <c r="D99" s="10" t="n">
-        <v>212.74</v>
+        <v>227.52</v>
       </c>
       <c r="E99" s="10" t="n">
-        <v>163.24</v>
+        <v>216.46</v>
       </c>
       <c r="F99" s="10" t="n">
-        <v>18.11</v>
+        <v>-7.05</v>
       </c>
       <c r="G99" s="11" t="inlineStr">
         <is>
@@ -5104,17 +5104,17 @@
       </c>
       <c r="H99" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I99" s="11" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="J99" s="11" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>132</t>
         </is>
       </c>
       <c r="K99" s="11" t="inlineStr">
@@ -5126,23 +5126,23 @@
     <row r="100">
       <c r="A100" s="7" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>华夏上证50AH优选指数</t>
         </is>
       </c>
       <c r="B100" s="8" t="n">
-        <v>310398</v>
+        <v>501050</v>
       </c>
       <c r="C100" s="9" t="n">
-        <v>1.5297</v>
+        <v>1.284</v>
       </c>
       <c r="D100" s="10" t="n">
-        <v>24.24</v>
+        <v>142.1</v>
       </c>
       <c r="E100" s="10" t="n">
-        <v>32.83</v>
+        <v>186.86</v>
       </c>
       <c r="F100" s="10" t="n">
-        <v>-2.32</v>
+        <v>4.41</v>
       </c>
       <c r="G100" s="11" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="I100" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>50AH</t>
         </is>
       </c>
       <c r="J100" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K100" s="11" t="inlineStr">
@@ -5173,211 +5173,211 @@
     <row r="101">
       <c r="A101" s="7" t="inlineStr">
         <is>
+          <t>天弘中证医药100A</t>
+        </is>
+      </c>
+      <c r="B101" s="8" t="n">
+        <v>1550</v>
+      </c>
+      <c r="C101" s="9" t="n">
+        <v>0.6708</v>
+      </c>
+      <c r="D101" s="10" t="n">
+        <v>212.74</v>
+      </c>
+      <c r="E101" s="10" t="n">
+        <v>163.24</v>
+      </c>
+      <c r="F101" s="10" t="n">
+        <v>20.54</v>
+      </c>
+      <c r="G101" s="11" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H101" s="11" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="I101" s="11" t="inlineStr">
+        <is>
+          <t>全指医药</t>
+        </is>
+      </c>
+      <c r="J101" s="11" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="K101" s="11" t="inlineStr">
+        <is>
+          <t>母螺丝钉</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="7" t="inlineStr">
+        <is>
+          <t>天弘中证银行指数A</t>
+        </is>
+      </c>
+      <c r="B102" s="8" t="n">
+        <v>1594</v>
+      </c>
+      <c r="C102" s="9" t="n">
+        <v>1.2142</v>
+      </c>
+      <c r="D102" s="10" t="n">
+        <v>34.26</v>
+      </c>
+      <c r="E102" s="10" t="n">
+        <v>41.98</v>
+      </c>
+      <c r="F102" s="10" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="G102" s="11" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H102" s="11" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="I102" s="11" t="inlineStr">
+        <is>
+          <t>中证银行</t>
+        </is>
+      </c>
+      <c r="J102" s="11" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="K102" s="11" t="inlineStr">
+        <is>
+          <t>母螺丝钉</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="7" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数</t>
+        </is>
+      </c>
+      <c r="B103" s="8" t="n">
+        <v>310398</v>
+      </c>
+      <c r="C103" s="9" t="n">
+        <v>1.4372</v>
+      </c>
+      <c r="D103" s="10" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E103" s="10" t="n">
+        <v>34.94</v>
+      </c>
+      <c r="F103" s="10" t="n">
+        <v>-2.14</v>
+      </c>
+      <c r="G103" s="11" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H103" s="11" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="I103" s="11" t="inlineStr">
+        <is>
+          <t>300价值</t>
+        </is>
+      </c>
+      <c r="J103" s="11" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="K103" s="11" t="inlineStr">
+        <is>
+          <t>母螺丝钉</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="7" t="inlineStr">
+        <is>
           <t>大成景安短融债券E</t>
         </is>
       </c>
-      <c r="B101" s="8" t="n">
+      <c r="B104" s="8" t="n">
         <v>2086</v>
       </c>
-      <c r="C101" s="9" t="n">
+      <c r="C104" s="9" t="n">
         <v>1.2257</v>
       </c>
-      <c r="D101" s="10" t="n">
+      <c r="D104" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E101" s="10" t="n">
+      <c r="E104" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F101" s="10" t="n">
+      <c r="F104" s="10" t="n">
         <v>0.44</v>
       </c>
-      <c r="G101" s="11" t="inlineStr">
+      <c r="G104" s="11" t="inlineStr">
         <is>
           <t>现金</t>
         </is>
       </c>
-      <c r="H101" s="11" t="inlineStr">
+      <c r="H104" s="11" t="inlineStr">
         <is>
           <t>低风险理财</t>
         </is>
       </c>
-      <c r="I101" s="11" t="inlineStr">
+      <c r="I104" s="11" t="inlineStr">
         <is>
           <t>货币基金</t>
         </is>
       </c>
-      <c r="J101" s="11" t="inlineStr">
+      <c r="J104" s="11" t="inlineStr">
         <is>
           <t>999</t>
         </is>
       </c>
-      <c r="K101" s="11" t="inlineStr">
+      <c r="K104" s="11" t="inlineStr">
         <is>
           <t>母螺丝钉</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="32" t="inlineStr">
-        <is>
-          <t>广发中证500ETF联接A</t>
-        </is>
-      </c>
-      <c r="B102" s="33" t="n">
-        <v>162711</v>
-      </c>
-      <c r="C102" s="34" t="n">
-        <v>1.0519</v>
-      </c>
-      <c r="D102" s="35" t="n">
-        <v>9697.57</v>
-      </c>
-      <c r="E102" s="35" t="n">
-        <v>10733.27</v>
-      </c>
-      <c r="F102" s="35" t="n">
-        <v>290.83</v>
-      </c>
-      <c r="G102" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H102" s="36" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="I102" s="36" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="J102" s="36" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="K102" s="36" t="inlineStr">
-        <is>
-          <t>母天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="32" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强</t>
-        </is>
-      </c>
-      <c r="B103" s="33" t="n">
-        <v>100032</v>
-      </c>
-      <c r="C103" s="34" t="n">
-        <v>1.0142</v>
-      </c>
-      <c r="D103" s="35" t="n">
-        <v>8677.6</v>
-      </c>
-      <c r="E103" s="35" t="n">
-        <v>9580.07</v>
-      </c>
-      <c r="F103" s="35" t="n">
-        <v>710.64</v>
-      </c>
-      <c r="G103" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H103" s="36" t="inlineStr">
-        <is>
-          <t>红利价值</t>
-        </is>
-      </c>
-      <c r="I103" s="36" t="inlineStr">
-        <is>
-          <t>中证红利</t>
-        </is>
-      </c>
-      <c r="J103" s="36" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="K103" s="36" t="inlineStr">
-        <is>
-          <t>母天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="32" t="inlineStr">
-        <is>
-          <t>广发养老指数A</t>
-        </is>
-      </c>
-      <c r="B104" s="33" t="n">
-        <v>968</v>
-      </c>
-      <c r="C104" s="34" t="n">
-        <v>0.853</v>
-      </c>
-      <c r="D104" s="35" t="n">
-        <v>6096.21</v>
-      </c>
-      <c r="E104" s="35" t="n">
-        <v>5852.36</v>
-      </c>
-      <c r="F104" s="35" t="n">
-        <v>529.8200000000001</v>
-      </c>
-      <c r="G104" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H104" s="36" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="I104" s="36" t="inlineStr">
-        <is>
-          <t>养老产业</t>
-        </is>
-      </c>
-      <c r="J104" s="36" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="K104" s="36" t="inlineStr">
-        <is>
-          <t>母天天基金</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="32" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>广发中证500ETF联接A</t>
         </is>
       </c>
       <c r="B105" s="33" t="n">
-        <v>1180</v>
+        <v>162711</v>
       </c>
       <c r="C105" s="34" t="n">
-        <v>0.7111</v>
+        <v>1.0519</v>
       </c>
       <c r="D105" s="35" t="n">
-        <v>6750.28</v>
+        <v>9697.57</v>
       </c>
       <c r="E105" s="35" t="n">
-        <v>5631.76</v>
+        <v>10733.27</v>
       </c>
       <c r="F105" s="35" t="n">
-        <v>756.83</v>
+        <v>290.83</v>
       </c>
       <c r="G105" s="36" t="inlineStr">
         <is>
@@ -5386,17 +5386,17 @@
       </c>
       <c r="H105" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I105" s="36" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J105" s="36" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K105" s="36" t="inlineStr">
@@ -5408,23 +5408,23 @@
     <row r="106">
       <c r="A106" s="32" t="inlineStr">
         <is>
-          <t>富国沪深300指数增强</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B106" s="33" t="n">
-        <v>100038</v>
+        <v>100032</v>
       </c>
       <c r="C106" s="34" t="n">
-        <v>1.3043</v>
+        <v>1.0142</v>
       </c>
       <c r="D106" s="35" t="n">
-        <v>2760.12</v>
+        <v>8677.6</v>
       </c>
       <c r="E106" s="35" t="n">
-        <v>4485.19</v>
+        <v>9580.07</v>
       </c>
       <c r="F106" s="35" t="n">
-        <v>832.75</v>
+        <v>710.64</v>
       </c>
       <c r="G106" s="36" t="inlineStr">
         <is>
@@ -5433,17 +5433,17 @@
       </c>
       <c r="H106" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I106" s="36" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J106" s="36" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K106" s="36" t="inlineStr">
@@ -5455,23 +5455,23 @@
     <row r="107">
       <c r="A107" s="32" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B107" s="33" t="n">
-        <v>4752</v>
+        <v>968</v>
       </c>
       <c r="C107" s="34" t="n">
-        <v>0.7235</v>
+        <v>0.853</v>
       </c>
       <c r="D107" s="35" t="n">
-        <v>4423.48</v>
+        <v>6096.21</v>
       </c>
       <c r="E107" s="35" t="n">
-        <v>3474.64</v>
+        <v>5852.36</v>
       </c>
       <c r="F107" s="35" t="n">
-        <v>154.76</v>
+        <v>529.8200000000001</v>
       </c>
       <c r="G107" s="36" t="inlineStr">
         <is>
@@ -5485,12 +5485,12 @@
       </c>
       <c r="I107" s="36" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J107" s="36" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K107" s="36" t="inlineStr">
@@ -5502,42 +5502,42 @@
     <row r="108">
       <c r="A108" s="32" t="inlineStr">
         <is>
-          <t>易方达安心回报债券A</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B108" s="33" t="n">
-        <v>110027</v>
+        <v>1180</v>
       </c>
       <c r="C108" s="34" t="n">
-        <v>1.6102</v>
+        <v>0.7111</v>
       </c>
       <c r="D108" s="35" t="n">
-        <v>1981.84</v>
+        <v>6750.28</v>
       </c>
       <c r="E108" s="35" t="n">
-        <v>3379.04</v>
+        <v>5631.76</v>
       </c>
       <c r="F108" s="35" t="n">
-        <v>144.43</v>
+        <v>756.83</v>
       </c>
       <c r="G108" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H108" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I108" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J108" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K108" s="36" t="inlineStr">
@@ -5549,23 +5549,23 @@
     <row r="109">
       <c r="A109" s="32" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>富国沪深300指数增强</t>
         </is>
       </c>
       <c r="B109" s="33" t="n">
-        <v>161017</v>
+        <v>100038</v>
       </c>
       <c r="C109" s="34" t="n">
-        <v>1.325</v>
+        <v>1.3043</v>
       </c>
       <c r="D109" s="35" t="n">
-        <v>2046.97</v>
+        <v>2760.12</v>
       </c>
       <c r="E109" s="35" t="n">
-        <v>3348.84</v>
+        <v>4485.19</v>
       </c>
       <c r="F109" s="35" t="n">
-        <v>565.08</v>
+        <v>832.75</v>
       </c>
       <c r="G109" s="36" t="inlineStr">
         <is>
@@ -5574,17 +5574,17 @@
       </c>
       <c r="H109" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I109" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="J109" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K109" s="36" t="inlineStr">
@@ -5596,23 +5596,23 @@
     <row r="110">
       <c r="A110" s="32" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B110" s="33" t="n">
-        <v>1064</v>
+        <v>4752</v>
       </c>
       <c r="C110" s="34" t="n">
-        <v>0.5379</v>
+        <v>0.7235</v>
       </c>
       <c r="D110" s="35" t="n">
-        <v>5949.77</v>
+        <v>4423.48</v>
       </c>
       <c r="E110" s="35" t="n">
-        <v>3331.28</v>
+        <v>3474.64</v>
       </c>
       <c r="F110" s="35" t="n">
-        <v>56.9</v>
+        <v>154.76</v>
       </c>
       <c r="G110" s="36" t="inlineStr">
         <is>
@@ -5626,12 +5626,12 @@
       </c>
       <c r="I110" s="36" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J110" s="36" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K110" s="36" t="inlineStr">
@@ -5643,42 +5643,42 @@
     <row r="111">
       <c r="A111" s="32" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>易方达安心回报债券A</t>
         </is>
       </c>
       <c r="B111" s="33" t="n">
-        <v>614</v>
+        <v>110027</v>
       </c>
       <c r="C111" s="34" t="n">
-        <v>1.0612</v>
+        <v>1.6102</v>
       </c>
       <c r="D111" s="35" t="n">
-        <v>1884.74</v>
+        <v>1981.84</v>
       </c>
       <c r="E111" s="35" t="n">
-        <v>2257.92</v>
+        <v>3379.04</v>
       </c>
       <c r="F111" s="35" t="n">
-        <v>225.87</v>
+        <v>144.43</v>
       </c>
       <c r="G111" s="36" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H111" s="36" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I111" s="36" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J111" s="36" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K111" s="36" t="inlineStr">
@@ -5690,23 +5690,23 @@
     <row r="112">
       <c r="A112" s="32" t="inlineStr">
         <is>
-          <t>易方达创业板ETF联接A</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B112" s="33" t="n">
-        <v>110026</v>
+        <v>161017</v>
       </c>
       <c r="C112" s="34" t="n">
-        <v>1.319</v>
+        <v>1.325</v>
       </c>
       <c r="D112" s="35" t="n">
-        <v>1213.09</v>
+        <v>2046.97</v>
       </c>
       <c r="E112" s="35" t="n">
-        <v>2174.22</v>
+        <v>3348.84</v>
       </c>
       <c r="F112" s="35" t="n">
-        <v>504.95</v>
+        <v>565.08</v>
       </c>
       <c r="G112" s="36" t="inlineStr">
         <is>
@@ -5720,12 +5720,12 @@
       </c>
       <c r="I112" s="36" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J112" s="36" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K112" s="36" t="inlineStr">
@@ -5737,42 +5737,42 @@
     <row r="113">
       <c r="A113" s="32" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B113" s="33" t="n">
-        <v>340001</v>
+        <v>1064</v>
       </c>
       <c r="C113" s="34" t="n">
-        <v>0.9816</v>
+        <v>0.5379</v>
       </c>
       <c r="D113" s="35" t="n">
-        <v>1630.08</v>
+        <v>5949.77</v>
       </c>
       <c r="E113" s="35" t="n">
-        <v>1902.47</v>
+        <v>3331.28</v>
       </c>
       <c r="F113" s="35" t="n">
-        <v>271.65</v>
+        <v>56.9</v>
       </c>
       <c r="G113" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H113" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I113" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J113" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K113" s="36" t="inlineStr">
@@ -5784,42 +5784,42 @@
     <row r="114">
       <c r="A114" s="32" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B114" s="33" t="n">
-        <v>164906</v>
+        <v>614</v>
       </c>
       <c r="C114" s="34" t="n">
-        <v>1.137</v>
+        <v>1.0612</v>
       </c>
       <c r="D114" s="35" t="n">
-        <v>1407.29</v>
+        <v>1884.74</v>
       </c>
       <c r="E114" s="35" t="n">
-        <v>1839.33</v>
+        <v>2257.92</v>
       </c>
       <c r="F114" s="35" t="n">
-        <v>233.69</v>
+        <v>225.87</v>
       </c>
       <c r="G114" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H114" s="36" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="I114" s="36" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="J114" s="36" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>321</t>
         </is>
       </c>
       <c r="K114" s="36" t="inlineStr">
@@ -5831,23 +5831,23 @@
     <row r="115">
       <c r="A115" s="32" t="inlineStr">
         <is>
-          <t>华夏上证50ETF联接A</t>
+          <t>易方达创业板ETF联接A</t>
         </is>
       </c>
       <c r="B115" s="33" t="n">
-        <v>1051</v>
+        <v>110026</v>
       </c>
       <c r="C115" s="34" t="n">
-        <v>0.8966</v>
+        <v>1.319</v>
       </c>
       <c r="D115" s="35" t="n">
-        <v>1338.46</v>
+        <v>1213.09</v>
       </c>
       <c r="E115" s="35" t="n">
-        <v>1346.49</v>
+        <v>2174.22</v>
       </c>
       <c r="F115" s="35" t="n">
-        <v>134.44</v>
+        <v>504.95</v>
       </c>
       <c r="G115" s="36" t="inlineStr">
         <is>
@@ -5856,17 +5856,17 @@
       </c>
       <c r="H115" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I115" s="36" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="J115" s="36" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K115" s="36" t="inlineStr">
@@ -5878,42 +5878,42 @@
     <row r="116">
       <c r="A116" s="32" t="inlineStr">
         <is>
-          <t>华宝标普油气上游股票</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B116" s="33" t="n">
-        <v>162411</v>
+        <v>340001</v>
       </c>
       <c r="C116" s="34" t="n">
-        <v>0.4776</v>
+        <v>0.9816</v>
       </c>
       <c r="D116" s="35" t="n">
-        <v>3350.7</v>
+        <v>1630.08</v>
       </c>
       <c r="E116" s="35" t="n">
-        <v>1276.62</v>
+        <v>1902.47</v>
       </c>
       <c r="F116" s="35" t="n">
-        <v>-377</v>
+        <v>271.65</v>
       </c>
       <c r="G116" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H116" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I116" s="36" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J116" s="36" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K116" s="36" t="inlineStr">
@@ -5925,42 +5925,42 @@
     <row r="117">
       <c r="A117" s="32" t="inlineStr">
         <is>
-          <t>华宝中证1000指数分级</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B117" s="33" t="n">
-        <v>162413</v>
+        <v>164906</v>
       </c>
       <c r="C117" s="34" t="n">
-        <v>0.8027</v>
+        <v>1.137</v>
       </c>
       <c r="D117" s="35" t="n">
-        <v>1495.03</v>
+        <v>1407.29</v>
       </c>
       <c r="E117" s="35" t="n">
-        <v>1223.53</v>
+        <v>1839.33</v>
       </c>
       <c r="F117" s="35" t="n">
-        <v>-11.01</v>
+        <v>233.69</v>
       </c>
       <c r="G117" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H117" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I117" s="36" t="inlineStr">
         <is>
-          <t>中证1000</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J117" s="36" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K117" s="36" t="inlineStr">
@@ -5972,23 +5972,23 @@
     <row r="118">
       <c r="A118" s="32" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>华夏上证50ETF联接A</t>
         </is>
       </c>
       <c r="B118" s="33" t="n">
-        <v>1469</v>
+        <v>1051</v>
       </c>
       <c r="C118" s="34" t="n">
-        <v>0.8885999999999999</v>
+        <v>0.8966</v>
       </c>
       <c r="D118" s="35" t="n">
-        <v>900.35</v>
+        <v>1338.46</v>
       </c>
       <c r="E118" s="35" t="n">
-        <v>979.58</v>
+        <v>1346.49</v>
       </c>
       <c r="F118" s="35" t="n">
-        <v>176.6</v>
+        <v>134.44</v>
       </c>
       <c r="G118" s="36" t="inlineStr">
         <is>
@@ -5997,17 +5997,17 @@
       </c>
       <c r="H118" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I118" s="36" t="inlineStr">
         <is>
-          <t>金融地产</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="J118" s="36" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K118" s="36" t="inlineStr">
@@ -6019,23 +6019,23 @@
     <row r="119">
       <c r="A119" s="32" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>华宝标普油气上游股票</t>
         </is>
       </c>
       <c r="B119" s="33" t="n">
-        <v>216</v>
+        <v>162411</v>
       </c>
       <c r="C119" s="34" t="n">
-        <v>1.0903</v>
+        <v>0.4776</v>
       </c>
       <c r="D119" s="35" t="n">
-        <v>733.79</v>
+        <v>3350.7</v>
       </c>
       <c r="E119" s="35" t="n">
-        <v>894.5599999999999</v>
+        <v>1283.32</v>
       </c>
       <c r="F119" s="35" t="n">
-        <v>93.68000000000001</v>
+        <v>-377</v>
       </c>
       <c r="G119" s="36" t="inlineStr">
         <is>
@@ -6049,12 +6049,12 @@
       </c>
       <c r="I119" s="36" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J119" s="36" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K119" s="36" t="inlineStr">
@@ -6066,23 +6066,23 @@
     <row r="120">
       <c r="A120" s="32" t="inlineStr">
         <is>
-          <t>易方达证券公司分级</t>
+          <t>华宝中证1000指数分级</t>
         </is>
       </c>
       <c r="B120" s="33" t="n">
-        <v>502010</v>
+        <v>162413</v>
       </c>
       <c r="C120" s="34" t="n">
-        <v>0.8063</v>
+        <v>0.8027</v>
       </c>
       <c r="D120" s="35" t="n">
-        <v>496.13</v>
+        <v>1495.03</v>
       </c>
       <c r="E120" s="35" t="n">
-        <v>491.12</v>
+        <v>1223.53</v>
       </c>
       <c r="F120" s="35" t="n">
-        <v>84.91</v>
+        <v>-11.01</v>
       </c>
       <c r="G120" s="36" t="inlineStr">
         <is>
@@ -6091,17 +6091,17 @@
       </c>
       <c r="H120" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I120" s="36" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>中证1000</t>
         </is>
       </c>
       <c r="J120" s="36" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>123</t>
         </is>
       </c>
       <c r="K120" s="36" t="inlineStr">
@@ -6113,42 +6113,42 @@
     <row r="121">
       <c r="A121" s="32" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B121" s="33" t="n">
-        <v>519977</v>
+        <v>1469</v>
       </c>
       <c r="C121" s="34" t="n">
-        <v>1.2011</v>
+        <v>0.8885999999999999</v>
       </c>
       <c r="D121" s="35" t="n">
-        <v>333.04</v>
+        <v>900.35</v>
       </c>
       <c r="E121" s="35" t="n">
-        <v>456.66</v>
+        <v>979.58</v>
       </c>
       <c r="F121" s="35" t="n">
-        <v>52.3</v>
+        <v>176.6</v>
       </c>
       <c r="G121" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H121" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I121" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>金融地产</t>
         </is>
       </c>
       <c r="J121" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>147</t>
         </is>
       </c>
       <c r="K121" s="36" t="inlineStr">
@@ -6160,42 +6160,42 @@
     <row r="122">
       <c r="A122" s="32" t="inlineStr">
         <is>
-          <t>华夏沪深300ETF联接A</t>
+          <t>华安黄金易ETF联接A</t>
         </is>
       </c>
       <c r="B122" s="33" t="n">
-        <v>51</v>
+        <v>216</v>
       </c>
       <c r="C122" s="34" t="n">
-        <v>1.2285</v>
+        <v>1.0903</v>
       </c>
       <c r="D122" s="35" t="n">
-        <v>325.61</v>
+        <v>733.79</v>
       </c>
       <c r="E122" s="35" t="n">
-        <v>424.92</v>
+        <v>894.5599999999999</v>
       </c>
       <c r="F122" s="35" t="n">
-        <v>20.03</v>
+        <v>93.68000000000001</v>
       </c>
       <c r="G122" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H122" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I122" s="36" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="J122" s="36" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>611</t>
         </is>
       </c>
       <c r="K122" s="36" t="inlineStr">
@@ -6207,42 +6207,42 @@
     <row r="123">
       <c r="A123" s="32" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>易方达证券公司分级</t>
         </is>
       </c>
       <c r="B123" s="33" t="n">
-        <v>71</v>
+        <v>502010</v>
       </c>
       <c r="C123" s="34" t="n">
-        <v>1.452</v>
+        <v>0.8063</v>
       </c>
       <c r="D123" s="35" t="n">
-        <v>275.49</v>
+        <v>496.13</v>
       </c>
       <c r="E123" s="35" t="n">
-        <v>408.36</v>
+        <v>491.12</v>
       </c>
       <c r="F123" s="35" t="n">
-        <v>7</v>
+        <v>84.91</v>
       </c>
       <c r="G123" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H123" s="36" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I123" s="36" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>证券公司</t>
         </is>
       </c>
       <c r="J123" s="36" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>145</t>
         </is>
       </c>
       <c r="K123" s="36" t="inlineStr">
@@ -6254,42 +6254,42 @@
     <row r="124">
       <c r="A124" s="32" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B124" s="33" t="n">
-        <v>478</v>
+        <v>519977</v>
       </c>
       <c r="C124" s="34" t="n">
-        <v>1.9396</v>
+        <v>1.2011</v>
       </c>
       <c r="D124" s="35" t="n">
-        <v>206.23</v>
+        <v>333.04</v>
       </c>
       <c r="E124" s="35" t="n">
-        <v>409.8</v>
+        <v>456.66</v>
       </c>
       <c r="F124" s="35" t="n">
-        <v>1.32</v>
+        <v>52.3</v>
       </c>
       <c r="G124" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H124" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I124" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J124" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K124" s="36" t="inlineStr">
@@ -6301,51 +6301,192 @@
     <row r="125">
       <c r="A125" s="32" t="inlineStr">
         <is>
+          <t>华夏沪深300ETF联接A</t>
+        </is>
+      </c>
+      <c r="B125" s="33" t="n">
+        <v>51</v>
+      </c>
+      <c r="C125" s="34" t="n">
+        <v>1.2285</v>
+      </c>
+      <c r="D125" s="35" t="n">
+        <v>325.61</v>
+      </c>
+      <c r="E125" s="35" t="n">
+        <v>424.92</v>
+      </c>
+      <c r="F125" s="35" t="n">
+        <v>20.03</v>
+      </c>
+      <c r="G125" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H125" s="36" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="I125" s="36" t="inlineStr">
+        <is>
+          <t>沪深300</t>
+        </is>
+      </c>
+      <c r="J125" s="36" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="K125" s="36" t="inlineStr">
+        <is>
+          <t>母天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="32" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF联接A</t>
+        </is>
+      </c>
+      <c r="B126" s="33" t="n">
+        <v>71</v>
+      </c>
+      <c r="C126" s="34" t="n">
+        <v>1.452</v>
+      </c>
+      <c r="D126" s="35" t="n">
+        <v>275.49</v>
+      </c>
+      <c r="E126" s="35" t="n">
+        <v>408.36</v>
+      </c>
+      <c r="F126" s="35" t="n">
+        <v>7</v>
+      </c>
+      <c r="G126" s="36" t="inlineStr">
+        <is>
+          <t>海外新兴</t>
+        </is>
+      </c>
+      <c r="H126" s="36" t="inlineStr">
+        <is>
+          <t>香港</t>
+        </is>
+      </c>
+      <c r="I126" s="36" t="inlineStr">
+        <is>
+          <t>恒生</t>
+        </is>
+      </c>
+      <c r="J126" s="36" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="K126" s="36" t="inlineStr">
+        <is>
+          <t>母天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="32" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="B127" s="33" t="n">
+        <v>478</v>
+      </c>
+      <c r="C127" s="34" t="n">
+        <v>1.9396</v>
+      </c>
+      <c r="D127" s="35" t="n">
+        <v>206.23</v>
+      </c>
+      <c r="E127" s="35" t="n">
+        <v>409.8</v>
+      </c>
+      <c r="F127" s="35" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G127" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H127" s="36" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="I127" s="36" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="J127" s="36" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="K127" s="36" t="inlineStr">
+        <is>
+          <t>母天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="32" t="inlineStr">
+        <is>
           <t>广发中证500ETF联接C</t>
         </is>
       </c>
-      <c r="B125" s="33" t="n">
+      <c r="B128" s="33" t="n">
         <v>2903</v>
       </c>
-      <c r="C125" s="34" t="n">
+      <c r="C128" s="34" t="n">
         <v>0.829</v>
       </c>
-      <c r="D125" s="35" t="n">
+      <c r="D128" s="35" t="n">
         <v>275.96</v>
       </c>
-      <c r="E125" s="35" t="n">
+      <c r="E128" s="35" t="n">
         <v>244</v>
       </c>
-      <c r="F125" s="35" t="n">
+      <c r="F128" s="35" t="n">
         <v>9.75</v>
       </c>
-      <c r="G125" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H125" s="36" t="inlineStr">
+      <c r="G128" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H128" s="36" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="I125" s="36" t="inlineStr">
+      <c r="I128" s="36" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="J125" s="36" t="inlineStr">
+      <c r="J128" s="36" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="K125" s="36" t="inlineStr">
+      <c r="K128" s="36" t="inlineStr">
         <is>
           <t>母天天基金</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/scripts/output/201912/全家/全家整体资产配置.xlsx
+++ b/scripts/output/201912/全家/全家整体资产配置.xlsx
@@ -627,7 +627,7 @@
         <v>2352.23</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>3820.02</v>
+        <v>3843.54</v>
       </c>
       <c r="F4" s="10" t="n">
         <v>-99.97</v>
@@ -674,7 +674,7 @@
         <v>2620.53</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>3755.22</v>
+        <v>3778.8</v>
       </c>
       <c r="F5" s="10" t="n">
         <v>-6.82</v>
@@ -721,7 +721,7 @@
         <v>2260.14</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3297.09</v>
+        <v>3325.8</v>
       </c>
       <c r="F6" s="10" t="n">
         <v>197.72</v>
@@ -768,7 +768,7 @@
         <v>3509.02</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>3279.88</v>
+        <v>3271.46</v>
       </c>
       <c r="F7" s="10" t="n">
         <v>-61.84</v>
@@ -815,7 +815,7 @@
         <v>1363.37</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2564.5</v>
+        <v>2559.32</v>
       </c>
       <c r="F8" s="10" t="n">
         <v>79.23</v>
@@ -862,7 +862,7 @@
         <v>1017.99</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>2220.03</v>
+        <v>2220.13</v>
       </c>
       <c r="F9" s="10" t="n">
         <v>36.21</v>
@@ -909,7 +909,7 @@
         <v>980.46</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>941.24</v>
+        <v>936.4400000000001</v>
       </c>
       <c r="F10" s="10" t="n">
         <v>-17.02</v>
@@ -956,7 +956,7 @@
         <v>550.4</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>523.65</v>
+        <v>525.52</v>
       </c>
       <c r="F11" s="10" t="n">
         <v>-27.26</v>
@@ -1003,7 +1003,7 @@
         <v>531.87</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>408.1</v>
+        <v>406.4</v>
       </c>
       <c r="F12" s="10" t="n">
         <v>45.26</v>
@@ -1050,7 +1050,7 @@
         <v>247.91</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>326</v>
+        <v>328.48</v>
       </c>
       <c r="F13" s="10" t="n">
         <v>7.04</v>
@@ -1097,7 +1097,7 @@
         <v>60.61</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>82.09</v>
+        <v>82.62</v>
       </c>
       <c r="F14" s="10" t="n">
         <v>-5.8</v>
@@ -1285,7 +1285,7 @@
         <v>16731.88</v>
       </c>
       <c r="E18" s="20" t="n">
-        <v>9368.18</v>
+        <v>9299.58</v>
       </c>
       <c r="F18" s="20" t="n">
         <v>-2840.97</v>
@@ -1332,7 +1332,7 @@
         <v>2700</v>
       </c>
       <c r="E19" s="25" t="n">
-        <v>7927.2</v>
+        <v>7959.6</v>
       </c>
       <c r="F19" s="25" t="n">
         <v>1539</v>
@@ -1379,7 +1379,7 @@
         <v>9100</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>36029.63</v>
+        <v>35492.73</v>
       </c>
       <c r="F20" s="25" t="n">
         <v>4222.4</v>
@@ -1426,7 +1426,7 @@
         <v>38800</v>
       </c>
       <c r="E21" s="25" t="n">
-        <v>211960.52</v>
+        <v>211110.8</v>
       </c>
       <c r="F21" s="25" t="n">
         <v>-10514.8</v>
@@ -1473,7 +1473,7 @@
         <v>33800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>25221.56</v>
+        <v>25028.9</v>
       </c>
       <c r="F22" s="25" t="n">
         <v>-5002.4</v>
@@ -1520,7 +1520,7 @@
         <v>32700</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>30172.29</v>
+        <v>30208.26</v>
       </c>
       <c r="F23" s="25" t="n">
         <v>4152.9</v>
@@ -1567,7 +1567,7 @@
         <v>34100</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>26710.53</v>
+        <v>26567.31</v>
       </c>
       <c r="F24" s="25" t="n">
         <v>-3853.3</v>
@@ -1614,7 +1614,7 @@
         <v>4500</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>14817.6</v>
+        <v>14786.55</v>
       </c>
       <c r="F25" s="25" t="n">
         <v>1894.5</v>
@@ -1661,7 +1661,7 @@
         <v>9200</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>15356.64</v>
+        <v>15216.8</v>
       </c>
       <c r="F26" s="25" t="n">
         <v>1968.8</v>
@@ -1708,7 +1708,7 @@
         <v>14400</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>19267.2</v>
+        <v>19219.68</v>
       </c>
       <c r="F27" s="25" t="n">
         <v>705.6</v>
@@ -1755,7 +1755,7 @@
         <v>4157.52</v>
       </c>
       <c r="E28" s="30" t="n">
-        <v>8261.41</v>
+        <v>8244.780000000001</v>
       </c>
       <c r="F28" s="30" t="n">
         <v>86.53</v>
@@ -1802,7 +1802,7 @@
         <v>9722</v>
       </c>
       <c r="E29" s="30" t="n">
-        <v>5443.35</v>
+        <v>5403.49</v>
       </c>
       <c r="F29" s="30" t="n">
         <v>-14.18</v>
@@ -1849,7 +1849,7 @@
         <v>4943.96</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>4746.2</v>
+        <v>4721.98</v>
       </c>
       <c r="F30" s="30" t="n">
         <v>-22.17</v>
@@ -1896,7 +1896,7 @@
         <v>7379.54</v>
       </c>
       <c r="E31" s="30" t="n">
-        <v>4139.92</v>
+        <v>4125.16</v>
       </c>
       <c r="F31" s="30" t="n">
         <v>41.99</v>
@@ -1943,7 +1943,7 @@
         <v>3665.01</v>
       </c>
       <c r="E32" s="30" t="n">
-        <v>4046.17</v>
+        <v>4068.16</v>
       </c>
       <c r="F32" s="30" t="n">
         <v>14.85</v>
@@ -1990,7 +1990,7 @@
         <v>4550.55</v>
       </c>
       <c r="E33" s="30" t="n">
-        <v>3574.46</v>
+        <v>3556.25</v>
       </c>
       <c r="F33" s="30" t="n">
         <v>116.14</v>
@@ -2037,7 +2037,7 @@
         <v>400.63</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>718.05</v>
+        <v>711.84</v>
       </c>
       <c r="F34" s="30" t="n">
         <v>28.17</v>
@@ -2084,7 +2084,7 @@
         <v>736.3</v>
       </c>
       <c r="E35" s="30" t="n">
-        <v>716.05</v>
+        <v>710.09</v>
       </c>
       <c r="F35" s="30" t="n">
         <v>27.48</v>
@@ -2131,7 +2131,7 @@
         <v>473.85</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>469.06</v>
+        <v>469.73</v>
       </c>
       <c r="F36" s="30" t="n">
         <v>-3.76</v>
@@ -2178,7 +2178,7 @@
         <v>5299.96</v>
       </c>
       <c r="E37" s="30" t="n">
-        <v>2019.28</v>
+        <v>2029.88</v>
       </c>
       <c r="F37" s="30" t="n">
         <v>-66.51000000000001</v>
@@ -2225,7 +2225,7 @@
         <v>576.8</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>753.88</v>
+        <v>752.72</v>
       </c>
       <c r="F38" s="30" t="n">
         <v>84.56999999999999</v>
@@ -2272,7 +2272,7 @@
         <v>459.67</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>681.37</v>
+        <v>686.5599999999999</v>
       </c>
       <c r="F39" s="30" t="n">
         <v>12.12</v>
@@ -2319,7 +2319,7 @@
         <v>611.75</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>732.88</v>
+        <v>731.65</v>
       </c>
       <c r="F40" s="30" t="n">
         <v>55.48</v>
@@ -2366,7 +2366,7 @@
         <v>1046.73</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>2079.96</v>
+        <v>2075.77</v>
       </c>
       <c r="F41" s="30" t="n">
         <v>36.94</v>
@@ -2413,7 +2413,7 @@
         <v>1825.9</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>2015.79</v>
+        <v>2026.75</v>
       </c>
       <c r="F42" s="30" t="n">
         <v>1.19</v>
@@ -2460,7 +2460,7 @@
         <v>1059.17</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>1065.53</v>
+        <v>1068.7</v>
       </c>
       <c r="F43" s="30" t="n">
         <v>55.99</v>
@@ -2507,7 +2507,7 @@
         <v>1812.7</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>1016.92</v>
+        <v>1013.3</v>
       </c>
       <c r="F44" s="30" t="n">
         <v>-6.64</v>
@@ -2554,7 +2554,7 @@
         <v>1227.03</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>963.83</v>
+        <v>958.92</v>
       </c>
       <c r="F45" s="30" t="n">
         <v>-69.42</v>
@@ -2601,7 +2601,7 @@
         <v>1834.47</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>2236.4</v>
+        <v>2232.18</v>
       </c>
       <c r="F46" s="30" t="n">
         <v>234.2</v>
@@ -2648,7 +2648,7 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E47" s="30" t="n">
-        <v>1176.06</v>
+        <v>1174.27</v>
       </c>
       <c r="F47" s="30" t="n">
         <v>172.47</v>
@@ -2695,7 +2695,7 @@
         <v>689.02</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>1021.33</v>
+        <v>1029.12</v>
       </c>
       <c r="F48" s="30" t="n">
         <v>17.96</v>
@@ -2742,7 +2742,7 @@
         <v>4757.9</v>
       </c>
       <c r="E49" s="30" t="n">
-        <v>1812.76</v>
+        <v>1822.28</v>
       </c>
       <c r="F49" s="30" t="n">
         <v>-263.37</v>
@@ -2789,7 +2789,7 @@
         <v>953.96</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>1142.84</v>
+        <v>1140.94</v>
       </c>
       <c r="F50" s="30" t="n">
         <v>126.63</v>
@@ -2836,7 +2836,7 @@
         <v>595.47</v>
       </c>
       <c r="E51" s="30" t="n">
-        <v>1015.28</v>
+        <v>1016.47</v>
       </c>
       <c r="F51" s="30" t="n">
         <v>2.18</v>
@@ -2883,7 +2883,7 @@
         <v>65064.33</v>
       </c>
       <c r="E52" s="35" t="n">
-        <v>71831.02</v>
+        <v>72221.41</v>
       </c>
       <c r="F52" s="35" t="n">
         <v>4990.5</v>
@@ -2930,7 +2930,7 @@
         <v>63490</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>60950.4</v>
+        <v>60639.3</v>
       </c>
       <c r="F53" s="35" t="n">
         <v>1474.25</v>
@@ -2977,7 +2977,7 @@
         <v>32370.29</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>37779.37</v>
+        <v>37844.11</v>
       </c>
       <c r="F54" s="35" t="n">
         <v>5167.56</v>
@@ -3024,7 +3024,7 @@
         <v>20086.63</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>34247.7</v>
+        <v>34287.88</v>
       </c>
       <c r="F55" s="35" t="n">
         <v>1805.79</v>
@@ -3071,7 +3071,7 @@
         <v>41014.88</v>
       </c>
       <c r="E56" s="35" t="n">
-        <v>34218.71</v>
+        <v>34140.79</v>
       </c>
       <c r="F56" s="35" t="n">
         <v>3203.44</v>
@@ -3118,7 +3118,7 @@
         <v>20716.63</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>24818.52</v>
+        <v>24777.09</v>
       </c>
       <c r="F57" s="35" t="n">
         <v>1866.34</v>
@@ -3165,7 +3165,7 @@
         <v>14624.61</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>23764.99</v>
+        <v>23838.11</v>
       </c>
       <c r="F58" s="35" t="n">
         <v>4287.12</v>
@@ -3212,7 +3212,7 @@
         <v>21163.93</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>23026.36</v>
+        <v>23185.09</v>
       </c>
       <c r="F59" s="35" t="n">
         <v>3756.51</v>
@@ -3259,7 +3259,7 @@
         <v>16778.47</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>21929.46</v>
+        <v>21895.9</v>
       </c>
       <c r="F60" s="35" t="n">
         <v>2662.34</v>
@@ -3306,7 +3306,7 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>15590.77</v>
+        <v>15562.18</v>
       </c>
       <c r="F61" s="35" t="n">
         <v>2457.22</v>
@@ -3353,7 +3353,7 @@
         <v>37267.45</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>14198.9</v>
+        <v>14273.43</v>
       </c>
       <c r="F62" s="35" t="n">
         <v>-5597.39</v>
@@ -3400,7 +3400,7 @@
         <v>6798.52</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>10077.45</v>
+        <v>10154.27</v>
       </c>
       <c r="F63" s="35" t="n">
         <v>144.13</v>
@@ -3447,7 +3447,7 @@
         <v>5609.79</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>7556.39</v>
+        <v>7550.78</v>
       </c>
       <c r="F64" s="35" t="n">
         <v>2411.26</v>
@@ -3494,7 +3494,7 @@
         <v>13403.92</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>7504.85</v>
+        <v>7449.9</v>
       </c>
       <c r="F65" s="35" t="n">
         <v>937.3</v>
@@ -3541,7 +3541,7 @@
         <v>5328.62</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>7306.6</v>
+        <v>7314.06</v>
       </c>
       <c r="F66" s="35" t="n">
         <v>836.79</v>
@@ -3588,7 +3588,7 @@
         <v>7778.64</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>6877.87</v>
+        <v>6851.43</v>
       </c>
       <c r="F67" s="35" t="n">
         <v>-276.93</v>
@@ -3635,7 +3635,7 @@
         <v>3299.64</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>6556.71</v>
+        <v>6543.52</v>
       </c>
       <c r="F68" s="35" t="n">
         <v>21.09</v>
@@ -3682,7 +3682,7 @@
         <v>7852.99</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>6168.52</v>
+        <v>6137.11</v>
       </c>
       <c r="F69" s="35" t="n">
         <v>-444.3</v>
@@ -3729,7 +3729,7 @@
         <v>3580.2</v>
       </c>
       <c r="E70" s="35" t="n">
-        <v>3419.09</v>
+        <v>3415.15</v>
       </c>
       <c r="F70" s="35" t="n">
         <v>-162.18</v>
@@ -3776,7 +3776,7 @@
         <v>171152.16</v>
       </c>
       <c r="E71" s="30" t="n">
-        <v>176201.15</v>
+        <v>176218.26</v>
       </c>
       <c r="F71" s="30" t="n">
         <v>41.34</v>
@@ -3823,7 +3823,7 @@
         <v>11598.58</v>
       </c>
       <c r="E72" s="30" t="n">
-        <v>17339.88</v>
+        <v>17363.07</v>
       </c>
       <c r="F72" s="30" t="n">
         <v>-8.08</v>
@@ -4058,7 +4058,7 @@
         <v>140577.44</v>
       </c>
       <c r="E77" s="30" t="n">
-        <v>151753.35</v>
+        <v>151781.46</v>
       </c>
       <c r="F77" s="30" t="n">
         <v>-51</v>
@@ -4105,7 +4105,7 @@
         <v>1029.32</v>
       </c>
       <c r="E78" s="10" t="n">
-        <v>1475.02</v>
+        <v>1484.28</v>
       </c>
       <c r="F78" s="10" t="n">
         <v>-2.36</v>
@@ -4152,7 +4152,7 @@
         <v>874.15</v>
       </c>
       <c r="E79" s="10" t="n">
-        <v>1419.62</v>
+        <v>1428.36</v>
       </c>
       <c r="F79" s="10" t="n">
         <v>-37.8</v>
@@ -4199,7 +4199,7 @@
         <v>898.04</v>
       </c>
       <c r="E80" s="10" t="n">
-        <v>1310.06</v>
+        <v>1321.47</v>
       </c>
       <c r="F80" s="10" t="n">
         <v>78.26000000000001</v>
@@ -4246,7 +4246,7 @@
         <v>1336.21</v>
       </c>
       <c r="E81" s="10" t="n">
-        <v>1248.96</v>
+        <v>1245.75</v>
       </c>
       <c r="F81" s="10" t="n">
         <v>-23.26</v>
@@ -4293,7 +4293,7 @@
         <v>492.58</v>
       </c>
       <c r="E82" s="10" t="n">
-        <v>926.54</v>
+        <v>924.67</v>
       </c>
       <c r="F82" s="10" t="n">
         <v>29.64</v>
@@ -4340,7 +4340,7 @@
         <v>398.66</v>
       </c>
       <c r="E83" s="10" t="n">
-        <v>869.4</v>
+        <v>869.4400000000001</v>
       </c>
       <c r="F83" s="10" t="n">
         <v>15.23</v>
@@ -4387,7 +4387,7 @@
         <v>373.42</v>
       </c>
       <c r="E84" s="10" t="n">
-        <v>358.48</v>
+        <v>356.65</v>
       </c>
       <c r="F84" s="10" t="n">
         <v>-6.93</v>
@@ -4434,7 +4434,7 @@
         <v>214.89</v>
       </c>
       <c r="E85" s="10" t="n">
-        <v>204.45</v>
+        <v>205.18</v>
       </c>
       <c r="F85" s="10" t="n">
         <v>-10.68</v>
@@ -4481,7 +4481,7 @@
         <v>212.74</v>
       </c>
       <c r="E86" s="10" t="n">
-        <v>163.24</v>
+        <v>162.55</v>
       </c>
       <c r="F86" s="10" t="n">
         <v>18.11</v>
@@ -4528,7 +4528,7 @@
         <v>62.09</v>
       </c>
       <c r="E87" s="10" t="n">
-        <v>81.65000000000001</v>
+        <v>82.27</v>
       </c>
       <c r="F87" s="10" t="n">
         <v>0.18</v>
@@ -4575,7 +4575,7 @@
         <v>24.24</v>
       </c>
       <c r="E88" s="10" t="n">
-        <v>32.83</v>
+        <v>33.04</v>
       </c>
       <c r="F88" s="10" t="n">
         <v>-2.32</v>
@@ -4669,7 +4669,7 @@
         <v>946.4299999999999</v>
       </c>
       <c r="E90" s="10" t="n">
-        <v>1537</v>
+        <v>1546.47</v>
       </c>
       <c r="F90" s="10" t="n">
         <v>-45.37</v>
@@ -4716,7 +4716,7 @@
         <v>1025.65</v>
       </c>
       <c r="E91" s="10" t="n">
-        <v>1469.76</v>
+        <v>1478.99</v>
       </c>
       <c r="F91" s="10" t="n">
         <v>-0.8100000000000001</v>
@@ -4763,7 +4763,7 @@
         <v>915.97</v>
       </c>
       <c r="E92" s="10" t="n">
-        <v>1336.22</v>
+        <v>1347.85</v>
       </c>
       <c r="F92" s="10" t="n">
         <v>77.13</v>
@@ -4810,7 +4810,7 @@
         <v>1367.69</v>
       </c>
       <c r="E93" s="10" t="n">
-        <v>1278.38</v>
+        <v>1275.1</v>
       </c>
       <c r="F93" s="10" t="n">
         <v>-24.57</v>
@@ -4857,7 +4857,7 @@
         <v>528.99</v>
       </c>
       <c r="E94" s="10" t="n">
-        <v>995.03</v>
+        <v>993.02</v>
       </c>
       <c r="F94" s="10" t="n">
         <v>30.49</v>
@@ -4904,7 +4904,7 @@
         <v>390.29</v>
       </c>
       <c r="E95" s="10" t="n">
-        <v>851.14</v>
+        <v>851.1799999999999</v>
       </c>
       <c r="F95" s="10" t="n">
         <v>14.23</v>
@@ -4951,7 +4951,7 @@
         <v>392.19</v>
       </c>
       <c r="E96" s="10" t="n">
-        <v>376.5</v>
+        <v>374.58</v>
       </c>
       <c r="F96" s="10" t="n">
         <v>-6.79</v>
@@ -4998,7 +4998,7 @@
         <v>227.52</v>
       </c>
       <c r="E97" s="10" t="n">
-        <v>216.46</v>
+        <v>217.24</v>
       </c>
       <c r="F97" s="10" t="n">
         <v>-11.19</v>
@@ -5045,7 +5045,7 @@
         <v>142.1</v>
       </c>
       <c r="E98" s="10" t="n">
-        <v>186.86</v>
+        <v>188.28</v>
       </c>
       <c r="F98" s="10" t="n">
         <v>1.14</v>
@@ -5092,7 +5092,7 @@
         <v>212.74</v>
       </c>
       <c r="E99" s="10" t="n">
-        <v>163.24</v>
+        <v>162.55</v>
       </c>
       <c r="F99" s="10" t="n">
         <v>18.11</v>
@@ -5139,7 +5139,7 @@
         <v>24.24</v>
       </c>
       <c r="E100" s="10" t="n">
-        <v>32.83</v>
+        <v>33.04</v>
       </c>
       <c r="F100" s="10" t="n">
         <v>-2.32</v>
@@ -5233,7 +5233,7 @@
         <v>9697.57</v>
       </c>
       <c r="E102" s="35" t="n">
-        <v>10733.27</v>
+        <v>10692.54</v>
       </c>
       <c r="F102" s="35" t="n">
         <v>290.83</v>
@@ -5280,7 +5280,7 @@
         <v>8677.6</v>
       </c>
       <c r="E103" s="35" t="n">
-        <v>9580.07</v>
+        <v>9632.139999999999</v>
       </c>
       <c r="F103" s="35" t="n">
         <v>710.64</v>
@@ -5327,7 +5327,7 @@
         <v>6096.21</v>
       </c>
       <c r="E104" s="35" t="n">
-        <v>5852.36</v>
+        <v>5822.49</v>
       </c>
       <c r="F104" s="35" t="n">
         <v>529.8200000000001</v>
@@ -5374,7 +5374,7 @@
         <v>6750.28</v>
       </c>
       <c r="E105" s="35" t="n">
-        <v>5631.76</v>
+        <v>5618.93</v>
       </c>
       <c r="F105" s="35" t="n">
         <v>756.83</v>
@@ -5421,7 +5421,7 @@
         <v>2760.12</v>
       </c>
       <c r="E106" s="35" t="n">
-        <v>4485.19</v>
+        <v>4499</v>
       </c>
       <c r="F106" s="35" t="n">
         <v>832.75</v>
@@ -5468,7 +5468,7 @@
         <v>4423.48</v>
       </c>
       <c r="E107" s="35" t="n">
-        <v>3474.64</v>
+        <v>3456.95</v>
       </c>
       <c r="F107" s="35" t="n">
         <v>154.76</v>
@@ -5515,7 +5515,7 @@
         <v>1981.84</v>
       </c>
       <c r="E108" s="35" t="n">
-        <v>3379.04</v>
+        <v>3383</v>
       </c>
       <c r="F108" s="35" t="n">
         <v>144.43</v>
@@ -5562,7 +5562,7 @@
         <v>2046.97</v>
       </c>
       <c r="E109" s="35" t="n">
-        <v>3348.84</v>
+        <v>3342.7</v>
       </c>
       <c r="F109" s="35" t="n">
         <v>565.08</v>
@@ -5609,7 +5609,7 @@
         <v>5949.77</v>
       </c>
       <c r="E110" s="35" t="n">
-        <v>3331.28</v>
+        <v>3306.88</v>
       </c>
       <c r="F110" s="35" t="n">
         <v>56.9</v>
@@ -5656,7 +5656,7 @@
         <v>1884.74</v>
       </c>
       <c r="E111" s="35" t="n">
-        <v>2257.92</v>
+        <v>2254.15</v>
       </c>
       <c r="F111" s="35" t="n">
         <v>225.87</v>
@@ -5703,7 +5703,7 @@
         <v>1213.09</v>
       </c>
       <c r="E112" s="35" t="n">
-        <v>2174.22</v>
+        <v>2155.42</v>
       </c>
       <c r="F112" s="35" t="n">
         <v>504.95</v>
@@ -5750,7 +5750,7 @@
         <v>1630.08</v>
       </c>
       <c r="E113" s="35" t="n">
-        <v>1902.47</v>
+        <v>1905.73</v>
       </c>
       <c r="F113" s="35" t="n">
         <v>271.65</v>
@@ -5797,7 +5797,7 @@
         <v>1407.29</v>
       </c>
       <c r="E114" s="35" t="n">
-        <v>1839.33</v>
+        <v>1836.51</v>
       </c>
       <c r="F114" s="35" t="n">
         <v>233.69</v>
@@ -5844,7 +5844,7 @@
         <v>1338.46</v>
       </c>
       <c r="E115" s="35" t="n">
-        <v>1346.49</v>
+        <v>1350.51</v>
       </c>
       <c r="F115" s="35" t="n">
         <v>134.44</v>
@@ -5891,7 +5891,7 @@
         <v>3350.7</v>
       </c>
       <c r="E116" s="35" t="n">
-        <v>1276.62</v>
+        <v>1283.32</v>
       </c>
       <c r="F116" s="35" t="n">
         <v>-377</v>
@@ -5938,7 +5938,7 @@
         <v>1495.03</v>
       </c>
       <c r="E117" s="35" t="n">
-        <v>1223.53</v>
+        <v>1218.9</v>
       </c>
       <c r="F117" s="35" t="n">
         <v>-11.01</v>
@@ -5985,7 +5985,7 @@
         <v>900.35</v>
       </c>
       <c r="E118" s="35" t="n">
-        <v>979.58</v>
+        <v>986.33</v>
       </c>
       <c r="F118" s="35" t="n">
         <v>176.6</v>
@@ -6032,7 +6032,7 @@
         <v>733.79</v>
       </c>
       <c r="E119" s="35" t="n">
-        <v>894.5599999999999</v>
+        <v>892.88</v>
       </c>
       <c r="F119" s="35" t="n">
         <v>93.68000000000001</v>
@@ -6079,7 +6079,7 @@
         <v>496.13</v>
       </c>
       <c r="E120" s="35" t="n">
-        <v>491.12</v>
+        <v>491.81</v>
       </c>
       <c r="F120" s="35" t="n">
         <v>84.91</v>
@@ -6126,7 +6126,7 @@
         <v>333.04</v>
       </c>
       <c r="E121" s="35" t="n">
-        <v>456.66</v>
+        <v>457.13</v>
       </c>
       <c r="F121" s="35" t="n">
         <v>52.3</v>
@@ -6173,7 +6173,7 @@
         <v>325.61</v>
       </c>
       <c r="E122" s="35" t="n">
-        <v>424.92</v>
+        <v>425.25</v>
       </c>
       <c r="F122" s="35" t="n">
         <v>20.03</v>
@@ -6220,7 +6220,7 @@
         <v>275.49</v>
       </c>
       <c r="E123" s="35" t="n">
-        <v>408.36</v>
+        <v>411.47</v>
       </c>
       <c r="F123" s="35" t="n">
         <v>7</v>
@@ -6267,7 +6267,7 @@
         <v>206.23</v>
       </c>
       <c r="E124" s="35" t="n">
-        <v>409.8</v>
+        <v>408.97</v>
       </c>
       <c r="F124" s="35" t="n">
         <v>1.32</v>
@@ -6314,7 +6314,7 @@
         <v>275.96</v>
       </c>
       <c r="E125" s="35" t="n">
-        <v>244</v>
+        <v>243.07</v>
       </c>
       <c r="F125" s="35" t="n">
         <v>9.75</v>

--- a/scripts/output/201912/全家/全家整体资产配置.xlsx
+++ b/scripts/output/201912/全家/全家整体资产配置.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="资产配置情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="000000" numFmtId="164"/>
-    <numFmt formatCode="0.0000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -87,67 +87,67 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K125"/>
+  <dimension ref="A1:K128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,16 +448,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="30"/>
-    <col customWidth="1" max="2" min="2" width="9"/>
-    <col customWidth="1" max="3" min="3" width="9"/>
-    <col customWidth="1" max="4" min="4" width="9"/>
-    <col customWidth="1" max="5" min="5" width="9"/>
-    <col customWidth="1" max="6" min="6" width="9"/>
-    <col customWidth="1" max="7" min="7" width="9"/>
-    <col customWidth="1" max="8" min="8" width="11.25"/>
-    <col customWidth="1" max="9" min="9" width="11.25"/>
-    <col customWidth="1" max="11" min="11" width="15"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="7" max="7"/>
+    <col width="11.25" customWidth="1" min="8" max="8"/>
+    <col width="11.25" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -621,16 +621,16 @@
         <v>90010</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>1.6515</v>
+        <v>1.6508</v>
       </c>
       <c r="D4" s="10" t="n">
-        <v>2352.23</v>
+        <v>2422.08</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>3843.54</v>
+        <v>3962.52</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>-99.97</v>
+        <v>-64.81999999999999</v>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
@@ -668,16 +668,16 @@
         <v>519671</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>1.4266</v>
+        <v>1.4268</v>
       </c>
       <c r="D5" s="10" t="n">
-        <v>2620.53</v>
+        <v>2699.6</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>3778.8</v>
+        <v>3887.42</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>-6.82</v>
+        <v>16.63</v>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
@@ -708,42 +708,42 @@
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B6" s="8" t="n">
-        <v>501021</v>
+        <v>3318</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>1.3481</v>
+        <v>0.9331</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>2260.14</v>
+        <v>3620.67</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3325.8</v>
+        <v>3375.55</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>197.72</v>
+        <v>5.75</v>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H6" s="11" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I6" s="11" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="J6" s="11" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K6" s="11" t="inlineStr">
@@ -755,42 +755,42 @@
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B7" s="8" t="n">
-        <v>3318</v>
+        <v>501021</v>
       </c>
       <c r="C7" s="9" t="n">
-        <v>0.9330000000000001</v>
+        <v>1.3481</v>
       </c>
       <c r="D7" s="10" t="n">
-        <v>3509.02</v>
+        <v>2260.14</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>3271.46</v>
+        <v>3348.17</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>-61.84</v>
+        <v>250.15</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H7" s="11" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I7" s="11" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="J7" s="11" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K7" s="11" t="inlineStr">
@@ -815,10 +815,10 @@
         <v>1363.37</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2559.32</v>
+        <v>2553.05</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>79.23</v>
+        <v>112.22</v>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
@@ -856,16 +856,16 @@
         <v>530015</v>
       </c>
       <c r="C9" s="9" t="n">
-        <v>2.1233</v>
+        <v>2.1257</v>
       </c>
       <c r="D9" s="10" t="n">
-        <v>1017.99</v>
+        <v>1059.44</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>2220.13</v>
+        <v>2306.82</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>36.21</v>
+        <v>58.37</v>
       </c>
       <c r="G9" s="11" t="inlineStr">
         <is>
@@ -903,16 +903,16 @@
         <v>968</v>
       </c>
       <c r="C10" s="9" t="n">
-        <v>0.9587</v>
+        <v>0.9589</v>
       </c>
       <c r="D10" s="10" t="n">
-        <v>980.46</v>
+        <v>1067.42</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>936.4400000000001</v>
+        <v>1019.49</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>-17.02</v>
+        <v>1.21</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>525.52</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>-27.26</v>
+        <v>-17.24</v>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
@@ -1003,10 +1003,10 @@
         <v>531.87</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>406.4</v>
+        <v>406.03</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>45.26</v>
+        <v>51.32</v>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>328.48</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>7.04</v>
+        <v>12.74</v>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
@@ -1084,23 +1084,23 @@
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B14" s="8" t="n">
-        <v>310398</v>
+        <v>1594</v>
       </c>
       <c r="C14" s="9" t="n">
-        <v>1.5296</v>
+        <v>1.214</v>
       </c>
       <c r="D14" s="10" t="n">
-        <v>60.61</v>
+        <v>85.65000000000001</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>82.62</v>
+        <v>104.7</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>-5.8</v>
+        <v>-0.1</v>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
@@ -1109,17 +1109,17 @@
       </c>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I14" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="J14" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K14" s="11" t="inlineStr">
@@ -1131,258 +1131,258 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
+          <t>申万菱信沪深300价值指数</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="n">
+        <v>310398</v>
+      </c>
+      <c r="C15" s="9" t="n">
+        <v>1.4374</v>
+      </c>
+      <c r="D15" s="10" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="E15" s="10" t="n">
+        <v>87.76000000000001</v>
+      </c>
+      <c r="F15" s="10" t="n">
+        <v>-5.35</v>
+      </c>
+      <c r="G15" s="11" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H15" s="11" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="I15" s="11" t="inlineStr">
+        <is>
+          <t>300价值</t>
+        </is>
+      </c>
+      <c r="J15" s="11" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="K15" s="11" t="inlineStr">
+        <is>
+          <t>螺丝钉定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
           <t>大成景安短融债券E</t>
         </is>
       </c>
-      <c r="B15" s="8" t="n">
+      <c r="B16" s="8" t="n">
         <v>2086</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C16" s="9" t="n">
         <v>1.2256</v>
       </c>
-      <c r="D15" s="10" t="n">
+      <c r="D16" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E15" s="10" t="n">
+      <c r="E16" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F15" s="10" t="n">
+      <c r="F16" s="10" t="n">
         <v>0.91</v>
       </c>
-      <c r="G15" s="11" t="inlineStr">
+      <c r="G16" s="11" t="inlineStr">
         <is>
           <t>现金</t>
         </is>
       </c>
-      <c r="H15" s="11" t="inlineStr">
+      <c r="H16" s="11" t="inlineStr">
         <is>
           <t>低风险理财</t>
         </is>
       </c>
-      <c r="I15" s="11" t="inlineStr">
+      <c r="I16" s="11" t="inlineStr">
         <is>
           <t>货币基金</t>
         </is>
       </c>
-      <c r="J15" s="11" t="inlineStr">
+      <c r="J16" s="11" t="inlineStr">
         <is>
           <t>999</t>
         </is>
       </c>
-      <c r="K15" s="11" t="inlineStr">
+      <c r="K16" s="11" t="inlineStr">
         <is>
           <t>螺丝钉定投</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="12" t="inlineStr">
-        <is>
-          <t>住房公积金</t>
-        </is>
-      </c>
-      <c r="B16" s="13" t="n">
-        <v>999989</v>
-      </c>
-      <c r="C16" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="15" t="n">
-        <v>322553.75</v>
-      </c>
-      <c r="E16" s="15" t="n">
-        <v>322553.75</v>
-      </c>
-      <c r="F16" s="15" t="n">
-        <v>7027.67</v>
-      </c>
-      <c r="G16" s="16" t="inlineStr">
-        <is>
-          <t>冻结资金</t>
-        </is>
-      </c>
-      <c r="H16" s="16" t="inlineStr">
-        <is>
-          <t>有息资金</t>
-        </is>
-      </c>
-      <c r="I16" s="16" t="inlineStr">
-        <is>
-          <t>住房公积金</t>
-        </is>
-      </c>
-      <c r="J16" s="16" t="inlineStr">
-        <is>
-          <t>989</t>
-        </is>
-      </c>
-      <c r="K16" s="16" t="inlineStr">
-        <is>
-          <t>冻结资金</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="12" t="inlineStr">
         <is>
-          <t>无息外借款</t>
+          <t>住房公积金</t>
         </is>
       </c>
       <c r="B17" s="13" t="n">
-        <v>999988</v>
+        <v>999989</v>
       </c>
       <c r="C17" s="14" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="15" t="n">
+        <v>322553.75</v>
+      </c>
+      <c r="E17" s="15" t="n">
+        <v>322553.75</v>
+      </c>
+      <c r="F17" s="15" t="n">
+        <v>7027.67</v>
+      </c>
+      <c r="G17" s="16" t="inlineStr">
+        <is>
+          <t>冻结资金</t>
+        </is>
+      </c>
+      <c r="H17" s="16" t="inlineStr">
+        <is>
+          <t>有息资金</t>
+        </is>
+      </c>
+      <c r="I17" s="16" t="inlineStr">
+        <is>
+          <t>住房公积金</t>
+        </is>
+      </c>
+      <c r="J17" s="16" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="K17" s="16" t="inlineStr">
+        <is>
+          <t>冻结资金</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="12" t="inlineStr">
+        <is>
+          <t>无息外借款</t>
+        </is>
+      </c>
+      <c r="B18" s="13" t="n">
+        <v>999988</v>
+      </c>
+      <c r="C18" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="15" t="n">
         <v>15000</v>
       </c>
-      <c r="E17" s="15" t="n">
+      <c r="E18" s="15" t="n">
         <v>15000</v>
       </c>
-      <c r="F17" s="15" t="n">
+      <c r="F18" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="G17" s="16" t="inlineStr">
+      <c r="G18" s="16" t="inlineStr">
         <is>
           <t>冻结资金</t>
         </is>
       </c>
-      <c r="H17" s="16" t="inlineStr">
+      <c r="H18" s="16" t="inlineStr">
         <is>
           <t>无息资金</t>
         </is>
       </c>
-      <c r="I17" s="16" t="inlineStr">
+      <c r="I18" s="16" t="inlineStr">
         <is>
           <t>无息外借款</t>
         </is>
       </c>
-      <c r="J17" s="16" t="inlineStr">
+      <c r="J18" s="16" t="inlineStr">
         <is>
           <t>988</t>
         </is>
       </c>
-      <c r="K17" s="16" t="inlineStr">
+      <c r="K18" s="16" t="inlineStr">
         <is>
           <t>冻结资金</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="17" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="17" t="inlineStr">
         <is>
           <t>广发中证环保ETF联接基金A</t>
         </is>
       </c>
-      <c r="B18" s="18" t="n">
+      <c r="B19" s="18" t="n">
         <v>1064</v>
       </c>
-      <c r="C18" s="19" t="n">
+      <c r="C19" s="19" t="n">
         <v>0.7171999999999999</v>
       </c>
-      <c r="D18" s="20" t="n">
+      <c r="D19" s="20" t="n">
         <v>16731.88</v>
       </c>
-      <c r="E18" s="20" t="n">
+      <c r="E19" s="20" t="n">
         <v>9299.58</v>
       </c>
-      <c r="F18" s="20" t="n">
+      <c r="F19" s="20" t="n">
         <v>-2840.97</v>
       </c>
-      <c r="G18" s="21" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H18" s="21" t="inlineStr">
+      <c r="G19" s="21" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H19" s="21" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="I18" s="21" t="inlineStr">
+      <c r="I19" s="21" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="J18" s="21" t="inlineStr">
+      <c r="J19" s="21" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="K18" s="21" t="inlineStr">
+      <c r="K19" s="21" t="inlineStr">
         <is>
           <t>支付宝</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="22" t="inlineStr">
-        <is>
-          <t>50ETF</t>
-        </is>
-      </c>
-      <c r="B19" s="23" t="n">
-        <v>510050</v>
-      </c>
-      <c r="C19" s="24" t="n">
-        <v>2.337</v>
-      </c>
-      <c r="D19" s="25" t="n">
-        <v>2700</v>
-      </c>
-      <c r="E19" s="25" t="n">
-        <v>7959.6</v>
-      </c>
-      <c r="F19" s="25" t="n">
-        <v>1539</v>
-      </c>
-      <c r="G19" s="26" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H19" s="26" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="I19" s="26" t="inlineStr">
-        <is>
-          <t>上证50</t>
-        </is>
-      </c>
-      <c r="J19" s="26" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="K19" s="26" t="inlineStr">
-        <is>
-          <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>300ETF</t>
+          <t>50ETF</t>
         </is>
       </c>
       <c r="B20" s="23" t="n">
-        <v>510300</v>
+        <v>510050</v>
       </c>
       <c r="C20" s="24" t="n">
-        <v>3.447</v>
+        <v>2.337</v>
       </c>
       <c r="D20" s="25" t="n">
-        <v>9100</v>
+        <v>2700</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>35492.73</v>
+        <v>7959.6</v>
       </c>
       <c r="F20" s="25" t="n">
-        <v>4222.4</v>
+        <v>1539</v>
       </c>
       <c r="G20" s="26" t="inlineStr">
         <is>
@@ -1396,12 +1396,12 @@
       </c>
       <c r="I20" s="26" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="J20" s="26" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K20" s="26" t="inlineStr">
@@ -1413,23 +1413,23 @@
     <row r="21">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>500ETF</t>
+          <t>300ETF</t>
         </is>
       </c>
       <c r="B21" s="23" t="n">
-        <v>510500</v>
+        <v>510300</v>
       </c>
       <c r="C21" s="24" t="n">
-        <v>5.601</v>
+        <v>3.447</v>
       </c>
       <c r="D21" s="25" t="n">
-        <v>38800</v>
+        <v>9100</v>
       </c>
       <c r="E21" s="25" t="n">
-        <v>211110.8</v>
+        <v>35388.08</v>
       </c>
       <c r="F21" s="25" t="n">
-        <v>-10514.8</v>
+        <v>4222.4</v>
       </c>
       <c r="G21" s="26" t="inlineStr">
         <is>
@@ -1438,17 +1438,17 @@
       </c>
       <c r="H21" s="26" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I21" s="26" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="J21" s="26" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K21" s="26" t="inlineStr">
@@ -1460,23 +1460,23 @@
     <row r="22">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>环保ETF</t>
+          <t>500ETF</t>
         </is>
       </c>
       <c r="B22" s="23" t="n">
-        <v>512580</v>
+        <v>510500</v>
       </c>
       <c r="C22" s="24" t="n">
-        <v>0.877</v>
+        <v>5.601</v>
       </c>
       <c r="D22" s="25" t="n">
-        <v>33800</v>
+        <v>38800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>25028.9</v>
+        <v>211110.8</v>
       </c>
       <c r="F22" s="25" t="n">
-        <v>-5002.4</v>
+        <v>-10514.8</v>
       </c>
       <c r="G22" s="26" t="inlineStr">
         <is>
@@ -1485,17 +1485,17 @@
       </c>
       <c r="H22" s="26" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I22" s="26" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J22" s="26" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K22" s="26" t="inlineStr">
@@ -1507,23 +1507,23 @@
     <row r="23">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>证券ETF</t>
+          <t>环保ETF</t>
         </is>
       </c>
       <c r="B23" s="23" t="n">
-        <v>512880</v>
+        <v>512580</v>
       </c>
       <c r="C23" s="24" t="n">
-        <v>0.783</v>
+        <v>0.877</v>
       </c>
       <c r="D23" s="25" t="n">
-        <v>32700</v>
+        <v>33800</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>30208.26</v>
+        <v>24961.3</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>4152.9</v>
+        <v>-5002.4</v>
       </c>
       <c r="G23" s="26" t="inlineStr">
         <is>
@@ -1537,12 +1537,12 @@
       </c>
       <c r="I23" s="26" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J23" s="26" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K23" s="26" t="inlineStr">
@@ -1554,23 +1554,23 @@
     <row r="24">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>证券ETF</t>
         </is>
       </c>
       <c r="B24" s="23" t="n">
-        <v>512980</v>
+        <v>512880</v>
       </c>
       <c r="C24" s="24" t="n">
-        <v>0.869</v>
+        <v>0.783</v>
       </c>
       <c r="D24" s="25" t="n">
-        <v>34100</v>
+        <v>32700</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>26567.31</v>
+        <v>30034.95</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>-3853.3</v>
+        <v>4152.9</v>
       </c>
       <c r="G24" s="26" t="inlineStr">
         <is>
@@ -1584,12 +1584,12 @@
       </c>
       <c r="I24" s="26" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>证券公司</t>
         </is>
       </c>
       <c r="J24" s="26" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>145</t>
         </is>
       </c>
       <c r="K24" s="26" t="inlineStr">
@@ -1601,42 +1601,42 @@
     <row r="25">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="B25" s="23" t="n">
-        <v>518880</v>
+        <v>512980</v>
       </c>
       <c r="C25" s="24" t="n">
-        <v>2.856</v>
+        <v>0.869</v>
       </c>
       <c r="D25" s="25" t="n">
-        <v>4500</v>
+        <v>34100</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>14786.55</v>
+        <v>26403.63</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>1894.5</v>
+        <v>-3853.3</v>
       </c>
       <c r="G25" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H25" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I25" s="26" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J25" s="26" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K25" s="26" t="inlineStr">
@@ -1648,42 +1648,42 @@
     <row r="26">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="B26" s="23" t="n">
-        <v>159915</v>
+        <v>518880</v>
       </c>
       <c r="C26" s="24" t="n">
-        <v>1.399</v>
+        <v>2.856</v>
       </c>
       <c r="D26" s="25" t="n">
-        <v>9200</v>
+        <v>4500</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>15216.8</v>
+        <v>14874.75</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>1968.8</v>
+        <v>1894.5</v>
       </c>
       <c r="G26" s="26" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H26" s="26" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I26" s="26" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="J26" s="26" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>611</t>
         </is>
       </c>
       <c r="K26" s="26" t="inlineStr">
@@ -1695,117 +1695,117 @@
     <row r="27">
       <c r="A27" s="22" t="inlineStr">
         <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="B27" s="23" t="n">
+        <v>159915</v>
+      </c>
+      <c r="C27" s="24" t="n">
+        <v>1.399</v>
+      </c>
+      <c r="D27" s="25" t="n">
+        <v>9200</v>
+      </c>
+      <c r="E27" s="25" t="n">
+        <v>15242.56</v>
+      </c>
+      <c r="F27" s="25" t="n">
+        <v>1968.8</v>
+      </c>
+      <c r="G27" s="26" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H27" s="26" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="I27" s="26" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="J27" s="26" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="K27" s="26" t="inlineStr">
+        <is>
+          <t>股票账户</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="22" t="inlineStr">
+        <is>
           <t>广发医药</t>
         </is>
       </c>
-      <c r="B27" s="23" t="n">
+      <c r="B28" s="23" t="n">
         <v>159938</v>
       </c>
-      <c r="C27" s="24" t="n">
+      <c r="C28" s="24" t="n">
         <v>1.271</v>
       </c>
-      <c r="D27" s="25" t="n">
+      <c r="D28" s="25" t="n">
         <v>14400</v>
       </c>
-      <c r="E27" s="25" t="n">
-        <v>19219.68</v>
-      </c>
-      <c r="F27" s="25" t="n">
+      <c r="E28" s="25" t="n">
+        <v>19190.88</v>
+      </c>
+      <c r="F28" s="25" t="n">
         <v>705.6</v>
       </c>
-      <c r="G27" s="26" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H27" s="26" t="inlineStr">
+      <c r="G28" s="26" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H28" s="26" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="I27" s="26" t="inlineStr">
+      <c r="I28" s="26" t="inlineStr">
         <is>
           <t>全指医药</t>
         </is>
       </c>
-      <c r="J27" s="26" t="inlineStr">
+      <c r="J28" s="26" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="K27" s="26" t="inlineStr">
+      <c r="K28" s="26" t="inlineStr">
         <is>
           <t>股票账户</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="27" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="B28" s="28" t="n">
-        <v>478</v>
-      </c>
-      <c r="C28" s="29" t="n">
-        <v>1.9252</v>
-      </c>
-      <c r="D28" s="30" t="n">
-        <v>4157.52</v>
-      </c>
-      <c r="E28" s="30" t="n">
-        <v>8244.780000000001</v>
-      </c>
-      <c r="F28" s="30" t="n">
-        <v>86.53</v>
-      </c>
-      <c r="G28" s="31" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H28" s="31" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="I28" s="31" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="J28" s="31" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="K28" s="31" t="inlineStr">
-        <is>
-          <t>且慢补充 150 份</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="27" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B29" s="28" t="n">
-        <v>1064</v>
+        <v>478</v>
       </c>
       <c r="C29" s="29" t="n">
-        <v>0.5489000000000001</v>
+        <v>1.9252</v>
       </c>
       <c r="D29" s="30" t="n">
-        <v>9722</v>
+        <v>4157.52</v>
       </c>
       <c r="E29" s="30" t="n">
-        <v>5403.49</v>
+        <v>8244.780000000001</v>
       </c>
       <c r="F29" s="30" t="n">
-        <v>-14.18</v>
+        <v>86.53</v>
       </c>
       <c r="G29" s="31" t="inlineStr">
         <is>
@@ -1814,17 +1814,17 @@
       </c>
       <c r="H29" s="31" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I29" s="31" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J29" s="31" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K29" s="31" t="inlineStr">
@@ -1836,23 +1836,23 @@
     <row r="30">
       <c r="A30" s="27" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B30" s="28" t="n">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="C30" s="29" t="n">
-        <v>0.9444</v>
+        <v>0.5489000000000001</v>
       </c>
       <c r="D30" s="30" t="n">
-        <v>4943.96</v>
+        <v>9722</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>4721.98</v>
+        <v>5403.49</v>
       </c>
       <c r="F30" s="30" t="n">
-        <v>-22.17</v>
+        <v>-14.18</v>
       </c>
       <c r="G30" s="31" t="inlineStr">
         <is>
@@ -1866,12 +1866,12 @@
       </c>
       <c r="I30" s="31" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J30" s="31" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K30" s="31" t="inlineStr">
@@ -1883,23 +1883,23 @@
     <row r="31">
       <c r="A31" s="27" t="inlineStr">
         <is>
-          <t>华夏中证500ETF联接A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B31" s="28" t="n">
-        <v>1052</v>
+        <v>968</v>
       </c>
       <c r="C31" s="29" t="n">
-        <v>0.5423</v>
+        <v>0.9444</v>
       </c>
       <c r="D31" s="30" t="n">
-        <v>7379.54</v>
+        <v>4943.96</v>
       </c>
       <c r="E31" s="30" t="n">
-        <v>4125.16</v>
+        <v>4721.98</v>
       </c>
       <c r="F31" s="30" t="n">
-        <v>41.99</v>
+        <v>-22.17</v>
       </c>
       <c r="G31" s="31" t="inlineStr">
         <is>
@@ -1908,17 +1908,17 @@
       </c>
       <c r="H31" s="31" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I31" s="31" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J31" s="31" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K31" s="31" t="inlineStr">
@@ -1930,23 +1930,23 @@
     <row r="32">
       <c r="A32" s="27" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>华夏中证500ETF联接A</t>
         </is>
       </c>
       <c r="B32" s="28" t="n">
-        <v>100032</v>
+        <v>1052</v>
       </c>
       <c r="C32" s="29" t="n">
-        <v>1.0919</v>
+        <v>0.5423</v>
       </c>
       <c r="D32" s="30" t="n">
-        <v>3665.01</v>
+        <v>7379.54</v>
       </c>
       <c r="E32" s="30" t="n">
-        <v>4068.16</v>
+        <v>4125.16</v>
       </c>
       <c r="F32" s="30" t="n">
-        <v>14.85</v>
+        <v>41.99</v>
       </c>
       <c r="G32" s="31" t="inlineStr">
         <is>
@@ -1955,17 +1955,17 @@
       </c>
       <c r="H32" s="31" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I32" s="31" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J32" s="31" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K32" s="31" t="inlineStr">
@@ -1977,23 +1977,23 @@
     <row r="33">
       <c r="A33" s="27" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B33" s="28" t="n">
-        <v>4752</v>
+        <v>100032</v>
       </c>
       <c r="C33" s="29" t="n">
-        <v>0.7329</v>
+        <v>1.0919</v>
       </c>
       <c r="D33" s="30" t="n">
-        <v>4550.55</v>
+        <v>3665.01</v>
       </c>
       <c r="E33" s="30" t="n">
-        <v>3556.25</v>
+        <v>4071.83</v>
       </c>
       <c r="F33" s="30" t="n">
-        <v>116.14</v>
+        <v>14.85</v>
       </c>
       <c r="G33" s="31" t="inlineStr">
         <is>
@@ -2002,17 +2002,17 @@
       </c>
       <c r="H33" s="31" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I33" s="31" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J33" s="31" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K33" s="31" t="inlineStr">
@@ -2024,23 +2024,23 @@
     <row r="34">
       <c r="A34" s="27" t="inlineStr">
         <is>
-          <t>易方达创业板ETF联接A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B34" s="28" t="n">
-        <v>110026</v>
+        <v>4752</v>
       </c>
       <c r="C34" s="29" t="n">
-        <v>1.6649</v>
+        <v>0.7329</v>
       </c>
       <c r="D34" s="30" t="n">
-        <v>400.63</v>
+        <v>4550.55</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>711.84</v>
+        <v>3556.25</v>
       </c>
       <c r="F34" s="30" t="n">
-        <v>28.17</v>
+        <v>116.14</v>
       </c>
       <c r="G34" s="31" t="inlineStr">
         <is>
@@ -2049,17 +2049,17 @@
       </c>
       <c r="H34" s="31" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I34" s="31" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J34" s="31" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K34" s="31" t="inlineStr">
@@ -2071,23 +2071,23 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>广发创业板ETF联接A</t>
+          <t>易方达创业板ETF联接A</t>
         </is>
       </c>
       <c r="B35" s="28" t="n">
-        <v>3765</v>
+        <v>110026</v>
       </c>
       <c r="C35" s="29" t="n">
-        <v>0.9059</v>
+        <v>1.6649</v>
       </c>
       <c r="D35" s="30" t="n">
-        <v>736.3</v>
+        <v>400.63</v>
       </c>
       <c r="E35" s="30" t="n">
-        <v>710.09</v>
+        <v>712.96</v>
       </c>
       <c r="F35" s="30" t="n">
-        <v>27.48</v>
+        <v>28.17</v>
       </c>
       <c r="G35" s="31" t="inlineStr">
         <is>
@@ -2118,23 +2118,23 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>易方达证券公司分级</t>
+          <t>广发创业板ETF联接A</t>
         </is>
       </c>
       <c r="B36" s="28" t="n">
-        <v>502010</v>
+        <v>3765</v>
       </c>
       <c r="C36" s="29" t="n">
-        <v>0.9853</v>
+        <v>0.9059</v>
       </c>
       <c r="D36" s="30" t="n">
-        <v>473.85</v>
+        <v>736.3</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>469.73</v>
+        <v>710.09</v>
       </c>
       <c r="F36" s="30" t="n">
-        <v>-3.76</v>
+        <v>27.48</v>
       </c>
       <c r="G36" s="31" t="inlineStr">
         <is>
@@ -2143,17 +2143,17 @@
       </c>
       <c r="H36" s="31" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I36" s="31" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="J36" s="31" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K36" s="31" t="inlineStr">
@@ -2165,42 +2165,42 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>华宝标普石油指数</t>
+          <t>易方达证券公司分级</t>
         </is>
       </c>
       <c r="B37" s="28" t="n">
-        <v>162411</v>
+        <v>502010</v>
       </c>
       <c r="C37" s="29" t="n">
-        <v>0.3775</v>
+        <v>0.9853</v>
       </c>
       <c r="D37" s="30" t="n">
-        <v>5299.96</v>
+        <v>473.85</v>
       </c>
       <c r="E37" s="30" t="n">
-        <v>2029.88</v>
+        <v>467.26</v>
       </c>
       <c r="F37" s="30" t="n">
-        <v>-66.51000000000001</v>
+        <v>-3.76</v>
       </c>
       <c r="G37" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H37" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I37" s="31" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>证券公司</t>
         </is>
       </c>
       <c r="J37" s="31" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>145</t>
         </is>
       </c>
       <c r="K37" s="31" t="inlineStr">
@@ -2212,42 +2212,42 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华宝标普石油指数</t>
         </is>
       </c>
       <c r="B38" s="28" t="n">
-        <v>164906</v>
+        <v>162411</v>
       </c>
       <c r="C38" s="29" t="n">
-        <v>1.1564</v>
+        <v>0.3775</v>
       </c>
       <c r="D38" s="30" t="n">
-        <v>576.8</v>
+        <v>5299.96</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>752.72</v>
+        <v>2019.28</v>
       </c>
       <c r="F38" s="30" t="n">
-        <v>84.56999999999999</v>
+        <v>-66.51000000000001</v>
       </c>
       <c r="G38" s="31" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H38" s="31" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I38" s="31" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J38" s="31" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K38" s="31" t="inlineStr">
@@ -2259,23 +2259,23 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B39" s="28" t="n">
-        <v>71</v>
+        <v>164906</v>
       </c>
       <c r="C39" s="29" t="n">
-        <v>1.451</v>
+        <v>1.1564</v>
       </c>
       <c r="D39" s="30" t="n">
-        <v>459.67</v>
+        <v>576.8</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>686.5599999999999</v>
+        <v>752.72</v>
       </c>
       <c r="F39" s="30" t="n">
-        <v>12.12</v>
+        <v>84.56999999999999</v>
       </c>
       <c r="G39" s="31" t="inlineStr">
         <is>
@@ -2284,17 +2284,17 @@
       </c>
       <c r="H39" s="31" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I39" s="31" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J39" s="31" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K39" s="31" t="inlineStr">
@@ -2306,42 +2306,42 @@
     <row r="40">
       <c r="A40" s="27" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B40" s="28" t="n">
-        <v>614</v>
+        <v>71</v>
       </c>
       <c r="C40" s="29" t="n">
-        <v>1.0903</v>
+        <v>1.451</v>
       </c>
       <c r="D40" s="30" t="n">
-        <v>611.75</v>
+        <v>459.67</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>731.65</v>
+        <v>686.5599999999999</v>
       </c>
       <c r="F40" s="30" t="n">
-        <v>55.48</v>
+        <v>12.12</v>
       </c>
       <c r="G40" s="31" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H40" s="31" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I40" s="31" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J40" s="31" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K40" s="31" t="inlineStr">
@@ -2353,70 +2353,70 @@
     <row r="41">
       <c r="A41" s="27" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B41" s="28" t="n">
-        <v>478</v>
+        <v>614</v>
       </c>
       <c r="C41" s="29" t="n">
-        <v>1.9107</v>
+        <v>1.0903</v>
       </c>
       <c r="D41" s="30" t="n">
-        <v>1046.73</v>
+        <v>611.75</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>2075.77</v>
+        <v>731.65</v>
       </c>
       <c r="F41" s="30" t="n">
-        <v>36.94</v>
+        <v>55.48</v>
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H41" s="31" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="I41" s="31" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="J41" s="31" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>321</t>
         </is>
       </c>
       <c r="K41" s="31" t="inlineStr">
         <is>
-          <t>且慢 S 定投</t>
+          <t>且慢补充 150 份</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="27" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B42" s="28" t="n">
-        <v>100032</v>
+        <v>478</v>
       </c>
       <c r="C42" s="29" t="n">
-        <v>1.0954</v>
+        <v>1.9107</v>
       </c>
       <c r="D42" s="30" t="n">
-        <v>1825.9</v>
+        <v>1046.73</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>2026.75</v>
+        <v>2075.77</v>
       </c>
       <c r="F42" s="30" t="n">
-        <v>1.19</v>
+        <v>36.94</v>
       </c>
       <c r="G42" s="31" t="inlineStr">
         <is>
@@ -2425,17 +2425,17 @@
       </c>
       <c r="H42" s="31" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I42" s="31" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J42" s="31" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K42" s="31" t="inlineStr">
@@ -2447,23 +2447,23 @@
     <row r="43">
       <c r="A43" s="27" t="inlineStr">
         <is>
-          <t>华夏上证50ETF联接A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B43" s="28" t="n">
-        <v>1051</v>
+        <v>100032</v>
       </c>
       <c r="C43" s="29" t="n">
-        <v>0.9441000000000001</v>
+        <v>1.0954</v>
       </c>
       <c r="D43" s="30" t="n">
-        <v>1059.17</v>
+        <v>1825.9</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>1068.7</v>
+        <v>2028.57</v>
       </c>
       <c r="F43" s="30" t="n">
-        <v>55.99</v>
+        <v>1.19</v>
       </c>
       <c r="G43" s="31" t="inlineStr">
         <is>
@@ -2472,17 +2472,17 @@
       </c>
       <c r="H43" s="31" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I43" s="31" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J43" s="31" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K43" s="31" t="inlineStr">
@@ -2494,23 +2494,23 @@
     <row r="44">
       <c r="A44" s="27" t="inlineStr">
         <is>
-          <t>华夏中证500ETF联接A</t>
+          <t>华夏上证50ETF联接A</t>
         </is>
       </c>
       <c r="B44" s="28" t="n">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C44" s="29" t="n">
-        <v>0.5517</v>
+        <v>0.9441000000000001</v>
       </c>
       <c r="D44" s="30" t="n">
-        <v>1812.7</v>
+        <v>1059.17</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>1013.3</v>
+        <v>1068.7</v>
       </c>
       <c r="F44" s="30" t="n">
-        <v>-6.64</v>
+        <v>55.99</v>
       </c>
       <c r="G44" s="31" t="inlineStr">
         <is>
@@ -2519,17 +2519,17 @@
       </c>
       <c r="H44" s="31" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I44" s="31" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="J44" s="31" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K44" s="31" t="inlineStr">
@@ -2541,23 +2541,23 @@
     <row r="45">
       <c r="A45" s="27" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>华夏中证500ETF联接A</t>
         </is>
       </c>
       <c r="B45" s="28" t="n">
-        <v>4752</v>
+        <v>1052</v>
       </c>
       <c r="C45" s="29" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.5517</v>
       </c>
       <c r="D45" s="30" t="n">
-        <v>1227.03</v>
+        <v>1812.7</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>958.92</v>
+        <v>1013.3</v>
       </c>
       <c r="F45" s="30" t="n">
-        <v>-69.42</v>
+        <v>-6.64</v>
       </c>
       <c r="G45" s="31" t="inlineStr">
         <is>
@@ -2566,17 +2566,17 @@
       </c>
       <c r="H45" s="31" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I45" s="31" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J45" s="31" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K45" s="31" t="inlineStr">
@@ -2588,42 +2588,42 @@
     <row r="46">
       <c r="A46" s="27" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B46" s="28" t="n">
-        <v>216</v>
+        <v>4752</v>
       </c>
       <c r="C46" s="29" t="n">
-        <v>1.0902</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="D46" s="30" t="n">
-        <v>1834.47</v>
+        <v>1227.03</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>2232.18</v>
+        <v>958.92</v>
       </c>
       <c r="F46" s="30" t="n">
-        <v>234.2</v>
+        <v>-69.42</v>
       </c>
       <c r="G46" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H46" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I46" s="31" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J46" s="31" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K46" s="31" t="inlineStr">
@@ -2635,42 +2635,42 @@
     <row r="47">
       <c r="A47" s="27" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华安黄金易ETF联接A</t>
         </is>
       </c>
       <c r="B47" s="28" t="n">
-        <v>164906</v>
+        <v>216</v>
       </c>
       <c r="C47" s="29" t="n">
-        <v>1.1113</v>
+        <v>1.0902</v>
       </c>
       <c r="D47" s="30" t="n">
-        <v>899.8200000000001</v>
+        <v>1834.47</v>
       </c>
       <c r="E47" s="30" t="n">
-        <v>1174.27</v>
+        <v>2232.18</v>
       </c>
       <c r="F47" s="30" t="n">
-        <v>172.47</v>
+        <v>234.2</v>
       </c>
       <c r="G47" s="31" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H47" s="31" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I47" s="31" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="J47" s="31" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>611</t>
         </is>
       </c>
       <c r="K47" s="31" t="inlineStr">
@@ -2682,23 +2682,23 @@
     <row r="48">
       <c r="A48" s="27" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B48" s="28" t="n">
-        <v>71</v>
+        <v>164906</v>
       </c>
       <c r="C48" s="29" t="n">
-        <v>1.4513</v>
+        <v>1.1113</v>
       </c>
       <c r="D48" s="30" t="n">
-        <v>689.02</v>
+        <v>899.8200000000001</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>1029.12</v>
+        <v>1174.27</v>
       </c>
       <c r="F48" s="30" t="n">
-        <v>17.96</v>
+        <v>172.47</v>
       </c>
       <c r="G48" s="31" t="inlineStr">
         <is>
@@ -2707,17 +2707,17 @@
       </c>
       <c r="H48" s="31" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I48" s="31" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J48" s="31" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K48" s="31" t="inlineStr">
@@ -2729,42 +2729,42 @@
     <row r="49">
       <c r="A49" s="27" t="inlineStr">
         <is>
-          <t>华宝标普石油指数</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B49" s="28" t="n">
-        <v>162411</v>
+        <v>71</v>
       </c>
       <c r="C49" s="29" t="n">
-        <v>0.4204</v>
+        <v>1.4513</v>
       </c>
       <c r="D49" s="30" t="n">
-        <v>4757.9</v>
+        <v>689.02</v>
       </c>
       <c r="E49" s="30" t="n">
-        <v>1822.28</v>
+        <v>1029.12</v>
       </c>
       <c r="F49" s="30" t="n">
-        <v>-263.37</v>
+        <v>17.96</v>
       </c>
       <c r="G49" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H49" s="31" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I49" s="31" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J49" s="31" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K49" s="31" t="inlineStr">
@@ -2776,42 +2776,42 @@
     <row r="50">
       <c r="A50" s="27" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>华宝标普石油指数</t>
         </is>
       </c>
       <c r="B50" s="28" t="n">
-        <v>614</v>
+        <v>162411</v>
       </c>
       <c r="C50" s="29" t="n">
-        <v>1.0483</v>
+        <v>0.4204</v>
       </c>
       <c r="D50" s="30" t="n">
-        <v>953.96</v>
+        <v>4757.9</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>1140.94</v>
+        <v>1812.76</v>
       </c>
       <c r="F50" s="30" t="n">
-        <v>126.63</v>
+        <v>-263.37</v>
       </c>
       <c r="G50" s="31" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H50" s="31" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I50" s="31" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J50" s="31" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K50" s="31" t="inlineStr">
@@ -2823,117 +2823,117 @@
     <row r="51">
       <c r="A51" s="27" t="inlineStr">
         <is>
+          <t>华安德国30(DAX)联接</t>
+        </is>
+      </c>
+      <c r="B51" s="28" t="n">
+        <v>614</v>
+      </c>
+      <c r="C51" s="29" t="n">
+        <v>1.0483</v>
+      </c>
+      <c r="D51" s="30" t="n">
+        <v>953.96</v>
+      </c>
+      <c r="E51" s="30" t="n">
+        <v>1140.94</v>
+      </c>
+      <c r="F51" s="30" t="n">
+        <v>126.63</v>
+      </c>
+      <c r="G51" s="31" t="inlineStr">
+        <is>
+          <t>海外成熟</t>
+        </is>
+      </c>
+      <c r="H51" s="31" t="inlineStr">
+        <is>
+          <t>德国</t>
+        </is>
+      </c>
+      <c r="I51" s="31" t="inlineStr">
+        <is>
+          <t>德国30</t>
+        </is>
+      </c>
+      <c r="J51" s="31" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="K51" s="31" t="inlineStr">
+        <is>
+          <t>且慢 S 定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="27" t="inlineStr">
+        <is>
           <t>易方达安心债券A</t>
         </is>
       </c>
-      <c r="B51" s="28" t="n">
+      <c r="B52" s="28" t="n">
         <v>110027</v>
       </c>
-      <c r="C51" s="29" t="n">
+      <c r="C52" s="29" t="n">
         <v>1.6793</v>
       </c>
-      <c r="D51" s="30" t="n">
+      <c r="D52" s="30" t="n">
         <v>595.47</v>
       </c>
-      <c r="E51" s="30" t="n">
-        <v>1016.47</v>
-      </c>
-      <c r="F51" s="30" t="n">
+      <c r="E52" s="30" t="n">
+        <v>1017.66</v>
+      </c>
+      <c r="F52" s="30" t="n">
         <v>2.18</v>
       </c>
-      <c r="G51" s="31" t="inlineStr">
+      <c r="G52" s="31" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="H51" s="31" t="inlineStr">
+      <c r="H52" s="31" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="I51" s="31" t="inlineStr">
+      <c r="I52" s="31" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="J51" s="31" t="inlineStr">
+      <c r="J52" s="31" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="K51" s="31" t="inlineStr">
+      <c r="K52" s="31" t="inlineStr">
         <is>
           <t>且慢 S 定投</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="32" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强</t>
-        </is>
-      </c>
-      <c r="B52" s="33" t="n">
-        <v>100032</v>
-      </c>
-      <c r="C52" s="34" t="n">
-        <v>1.0193</v>
-      </c>
-      <c r="D52" s="35" t="n">
-        <v>65064.33</v>
-      </c>
-      <c r="E52" s="35" t="n">
-        <v>72221.41</v>
-      </c>
-      <c r="F52" s="35" t="n">
-        <v>4990.5</v>
-      </c>
-      <c r="G52" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H52" s="36" t="inlineStr">
-        <is>
-          <t>红利价值</t>
-        </is>
-      </c>
-      <c r="I52" s="36" t="inlineStr">
-        <is>
-          <t>中证红利</t>
-        </is>
-      </c>
-      <c r="J52" s="36" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="K52" s="36" t="inlineStr">
-        <is>
-          <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="32" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B53" s="33" t="n">
-        <v>968</v>
+        <v>100032</v>
       </c>
       <c r="C53" s="34" t="n">
-        <v>0.9167</v>
+        <v>1.0193</v>
       </c>
       <c r="D53" s="35" t="n">
-        <v>63490</v>
+        <v>65064.33</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>60639.3</v>
+        <v>72286.47</v>
       </c>
       <c r="F53" s="35" t="n">
-        <v>1474.25</v>
+        <v>4990.5</v>
       </c>
       <c r="G53" s="36" t="inlineStr">
         <is>
@@ -2942,17 +2942,17 @@
       </c>
       <c r="H53" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I53" s="36" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J53" s="36" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K53" s="36" t="inlineStr">
@@ -2964,42 +2964,42 @@
     <row r="54">
       <c r="A54" s="32" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B54" s="33" t="n">
-        <v>340001</v>
+        <v>968</v>
       </c>
       <c r="C54" s="34" t="n">
-        <v>0.9886</v>
+        <v>0.9167</v>
       </c>
       <c r="D54" s="35" t="n">
-        <v>32370.29</v>
+        <v>63490</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>37844.11</v>
+        <v>60639.3</v>
       </c>
       <c r="F54" s="35" t="n">
-        <v>5167.56</v>
+        <v>1474.25</v>
       </c>
       <c r="G54" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H54" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I54" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J54" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K54" s="36" t="inlineStr">
@@ -3011,23 +3011,23 @@
     <row r="55">
       <c r="A55" s="32" t="inlineStr">
         <is>
-          <t>易方达安心回报债券A</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B55" s="33" t="n">
-        <v>110027</v>
+        <v>340001</v>
       </c>
       <c r="C55" s="34" t="n">
-        <v>1.5931</v>
+        <v>0.9886</v>
       </c>
       <c r="D55" s="35" t="n">
-        <v>20086.63</v>
+        <v>32370.29</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>34287.88</v>
+        <v>37844.11</v>
       </c>
       <c r="F55" s="35" t="n">
-        <v>1805.79</v>
+        <v>5167.56</v>
       </c>
       <c r="G55" s="36" t="inlineStr">
         <is>
@@ -3058,42 +3058,42 @@
     <row r="56">
       <c r="A56" s="32" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>易方达安心回报债券A</t>
         </is>
       </c>
       <c r="B56" s="33" t="n">
-        <v>1180</v>
+        <v>110027</v>
       </c>
       <c r="C56" s="34" t="n">
-        <v>0.7451</v>
+        <v>1.5931</v>
       </c>
       <c r="D56" s="35" t="n">
-        <v>41014.88</v>
+        <v>20086.63</v>
       </c>
       <c r="E56" s="35" t="n">
-        <v>34140.79</v>
+        <v>34328.05</v>
       </c>
       <c r="F56" s="35" t="n">
-        <v>3203.44</v>
+        <v>1805.79</v>
       </c>
       <c r="G56" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H56" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I56" s="36" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J56" s="36" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K56" s="36" t="inlineStr">
@@ -3105,42 +3105,42 @@
     <row r="57">
       <c r="A57" s="32" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B57" s="33" t="n">
-        <v>614</v>
+        <v>1180</v>
       </c>
       <c r="C57" s="34" t="n">
-        <v>1.091</v>
+        <v>0.7451</v>
       </c>
       <c r="D57" s="35" t="n">
-        <v>20716.63</v>
+        <v>41014.88</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>24777.09</v>
+        <v>34140.79</v>
       </c>
       <c r="F57" s="35" t="n">
-        <v>1866.34</v>
+        <v>3203.44</v>
       </c>
       <c r="G57" s="36" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H57" s="36" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I57" s="36" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J57" s="36" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K57" s="36" t="inlineStr">
@@ -3152,42 +3152,42 @@
     <row r="58">
       <c r="A58" s="32" t="inlineStr">
         <is>
-          <t>富国沪深300指数增强</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B58" s="33" t="n">
-        <v>100038</v>
+        <v>614</v>
       </c>
       <c r="C58" s="34" t="n">
-        <v>1.3129</v>
+        <v>1.091</v>
       </c>
       <c r="D58" s="35" t="n">
-        <v>14624.61</v>
+        <v>20716.63</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>23838.11</v>
+        <v>24777.09</v>
       </c>
       <c r="F58" s="35" t="n">
-        <v>4287.12</v>
+        <v>1866.34</v>
       </c>
       <c r="G58" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H58" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="I58" s="36" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="J58" s="36" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>321</t>
         </is>
       </c>
       <c r="K58" s="36" t="inlineStr">
@@ -3199,23 +3199,23 @@
     <row r="59">
       <c r="A59" s="32" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>富国沪深300指数增强</t>
         </is>
       </c>
       <c r="B59" s="33" t="n">
-        <v>1469</v>
+        <v>100038</v>
       </c>
       <c r="C59" s="34" t="n">
-        <v>0.9073</v>
+        <v>1.3129</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>21163.93</v>
+        <v>14624.61</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>23185.09</v>
+        <v>23764.99</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3756.51</v>
+        <v>4287.12</v>
       </c>
       <c r="G59" s="36" t="inlineStr">
         <is>
@@ -3224,17 +3224,17 @@
       </c>
       <c r="H59" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I59" s="36" t="inlineStr">
         <is>
-          <t>金融地产</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="J59" s="36" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K59" s="36" t="inlineStr">
@@ -3246,42 +3246,42 @@
     <row r="60">
       <c r="A60" s="32" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B60" s="33" t="n">
-        <v>164906</v>
+        <v>1469</v>
       </c>
       <c r="C60" s="34" t="n">
-        <v>1.1444</v>
+        <v>0.9073</v>
       </c>
       <c r="D60" s="35" t="n">
-        <v>16778.47</v>
+        <v>21163.93</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>21895.9</v>
+        <v>23185.09</v>
       </c>
       <c r="F60" s="35" t="n">
-        <v>2662.34</v>
+        <v>3756.51</v>
       </c>
       <c r="G60" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H60" s="36" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I60" s="36" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>金融地产</t>
         </is>
       </c>
       <c r="J60" s="36" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>147</t>
         </is>
       </c>
       <c r="K60" s="36" t="inlineStr">
@@ -3293,42 +3293,42 @@
     <row r="61">
       <c r="A61" s="32" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B61" s="33" t="n">
-        <v>161017</v>
+        <v>164906</v>
       </c>
       <c r="C61" s="34" t="n">
-        <v>1.3432</v>
+        <v>1.1444</v>
       </c>
       <c r="D61" s="35" t="n">
-        <v>9529.809999999999</v>
+        <v>16778.47</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>15562.18</v>
+        <v>21895.9</v>
       </c>
       <c r="F61" s="35" t="n">
-        <v>2457.22</v>
+        <v>2662.34</v>
       </c>
       <c r="G61" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H61" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I61" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J61" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K61" s="36" t="inlineStr">
@@ -3340,42 +3340,42 @@
     <row r="62">
       <c r="A62" s="32" t="inlineStr">
         <is>
-          <t>华宝标普油气上游股票</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B62" s="33" t="n">
-        <v>162411</v>
+        <v>161017</v>
       </c>
       <c r="C62" s="34" t="n">
-        <v>0.5152</v>
+        <v>1.3432</v>
       </c>
       <c r="D62" s="35" t="n">
-        <v>37267.45</v>
+        <v>9529.809999999999</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>14273.43</v>
+        <v>15524.06</v>
       </c>
       <c r="F62" s="35" t="n">
-        <v>-5597.39</v>
+        <v>2457.22</v>
       </c>
       <c r="G62" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H62" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I62" s="36" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J62" s="36" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K62" s="36" t="inlineStr">
@@ -3387,42 +3387,42 @@
     <row r="63">
       <c r="A63" s="32" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>华宝标普油气上游股票</t>
         </is>
       </c>
       <c r="B63" s="33" t="n">
-        <v>71</v>
+        <v>162411</v>
       </c>
       <c r="C63" s="34" t="n">
-        <v>1.4562</v>
+        <v>0.5152</v>
       </c>
       <c r="D63" s="35" t="n">
-        <v>6798.52</v>
+        <v>37267.45</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>10154.27</v>
+        <v>14198.9</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>144.13</v>
+        <v>-5597.39</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H63" s="36" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I63" s="36" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J63" s="36" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K63" s="36" t="inlineStr">
@@ -3434,42 +3434,42 @@
     <row r="64">
       <c r="A64" s="32" t="inlineStr">
         <is>
-          <t>华夏收益债券(QDII)A</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B64" s="33" t="n">
-        <v>1061</v>
+        <v>71</v>
       </c>
       <c r="C64" s="34" t="n">
-        <v>0.9172</v>
+        <v>1.4562</v>
       </c>
       <c r="D64" s="35" t="n">
-        <v>5609.79</v>
+        <v>6798.52</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>7550.78</v>
+        <v>10154.27</v>
       </c>
       <c r="F64" s="35" t="n">
-        <v>2411.26</v>
+        <v>144.13</v>
       </c>
       <c r="G64" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H64" s="36" t="inlineStr">
         <is>
-          <t>海外债券</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I64" s="36" t="inlineStr">
         <is>
-          <t>美元债</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J64" s="36" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K64" s="36" t="inlineStr">
@@ -3481,42 +3481,42 @@
     <row r="65">
       <c r="A65" s="32" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>华夏收益债券(QDII)A</t>
         </is>
       </c>
       <c r="B65" s="33" t="n">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C65" s="34" t="n">
-        <v>0.4775</v>
+        <v>0.9172</v>
       </c>
       <c r="D65" s="35" t="n">
-        <v>13403.92</v>
+        <v>5609.79</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>7449.9</v>
+        <v>7550.78</v>
       </c>
       <c r="F65" s="35" t="n">
-        <v>937.3</v>
+        <v>2411.26</v>
       </c>
       <c r="G65" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H65" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>海外债券</t>
         </is>
       </c>
       <c r="I65" s="36" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>美元债</t>
         </is>
       </c>
       <c r="J65" s="36" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>521</t>
         </is>
       </c>
       <c r="K65" s="36" t="inlineStr">
@@ -3528,42 +3528,42 @@
     <row r="66">
       <c r="A66" s="32" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B66" s="33" t="n">
-        <v>519977</v>
+        <v>1064</v>
       </c>
       <c r="C66" s="34" t="n">
-        <v>1.2011</v>
+        <v>0.4775</v>
       </c>
       <c r="D66" s="35" t="n">
-        <v>5328.62</v>
+        <v>13403.92</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>7314.06</v>
+        <v>7449.9</v>
       </c>
       <c r="F66" s="35" t="n">
-        <v>836.79</v>
+        <v>937.3</v>
       </c>
       <c r="G66" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H66" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I66" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J66" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K66" s="36" t="inlineStr">
@@ -3575,42 +3575,42 @@
     <row r="67">
       <c r="A67" s="32" t="inlineStr">
         <is>
-          <t>广发中证500ETF联接C</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B67" s="33" t="n">
-        <v>2903</v>
+        <v>519977</v>
       </c>
       <c r="C67" s="34" t="n">
-        <v>0.9</v>
+        <v>1.2011</v>
       </c>
       <c r="D67" s="35" t="n">
-        <v>7778.64</v>
+        <v>5328.62</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>6851.43</v>
+        <v>7314.06</v>
       </c>
       <c r="F67" s="35" t="n">
-        <v>-276.93</v>
+        <v>836.79</v>
       </c>
       <c r="G67" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H67" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I67" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J67" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K67" s="36" t="inlineStr">
@@ -3622,23 +3622,23 @@
     <row r="68">
       <c r="A68" s="32" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>广发中证500ETF联接C</t>
         </is>
       </c>
       <c r="B68" s="33" t="n">
-        <v>478</v>
+        <v>2903</v>
       </c>
       <c r="C68" s="34" t="n">
-        <v>1.9397</v>
+        <v>0.9</v>
       </c>
       <c r="D68" s="35" t="n">
-        <v>3299.64</v>
+        <v>7778.64</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>6543.52</v>
+        <v>6851.43</v>
       </c>
       <c r="F68" s="35" t="n">
-        <v>21.09</v>
+        <v>-276.93</v>
       </c>
       <c r="G68" s="36" t="inlineStr">
         <is>
@@ -3669,23 +3669,23 @@
     <row r="69">
       <c r="A69" s="32" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B69" s="33" t="n">
-        <v>4752</v>
+        <v>478</v>
       </c>
       <c r="C69" s="34" t="n">
-        <v>0.8149999999999999</v>
+        <v>1.9397</v>
       </c>
       <c r="D69" s="35" t="n">
-        <v>7852.99</v>
+        <v>3299.64</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>6137.11</v>
+        <v>6543.52</v>
       </c>
       <c r="F69" s="35" t="n">
-        <v>-444.3</v>
+        <v>21.09</v>
       </c>
       <c r="G69" s="36" t="inlineStr">
         <is>
@@ -3694,17 +3694,17 @@
       </c>
       <c r="H69" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I69" s="36" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J69" s="36" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K69" s="36" t="inlineStr">
@@ -3716,136 +3716,136 @@
     <row r="70">
       <c r="A70" s="32" t="inlineStr">
         <is>
+          <t>广发中证传媒ETF联接A</t>
+        </is>
+      </c>
+      <c r="B70" s="33" t="n">
+        <v>4752</v>
+      </c>
+      <c r="C70" s="34" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="D70" s="35" t="n">
+        <v>7852.99</v>
+      </c>
+      <c r="E70" s="35" t="n">
+        <v>6137.11</v>
+      </c>
+      <c r="F70" s="35" t="n">
+        <v>-444.3</v>
+      </c>
+      <c r="G70" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H70" s="36" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="I70" s="36" t="inlineStr">
+        <is>
+          <t>中证传媒</t>
+        </is>
+      </c>
+      <c r="J70" s="36" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="K70" s="36" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="32" t="inlineStr">
+        <is>
           <t>创金合信中证1000指数增强C</t>
         </is>
       </c>
-      <c r="B70" s="33" t="n">
+      <c r="B71" s="33" t="n">
         <v>3647</v>
       </c>
-      <c r="C70" s="34" t="n">
+      <c r="C71" s="34" t="n">
         <v>0.9776</v>
       </c>
-      <c r="D70" s="35" t="n">
+      <c r="D71" s="35" t="n">
         <v>3580.2</v>
       </c>
-      <c r="E70" s="35" t="n">
-        <v>3415.15</v>
-      </c>
-      <c r="F70" s="35" t="n">
+      <c r="E71" s="35" t="n">
+        <v>3409.42</v>
+      </c>
+      <c r="F71" s="35" t="n">
         <v>-162.18</v>
       </c>
-      <c r="G70" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H70" s="36" t="inlineStr">
+      <c r="G71" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H71" s="36" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="I70" s="36" t="inlineStr">
+      <c r="I71" s="36" t="inlineStr">
         <is>
           <t>中证1000</t>
         </is>
       </c>
-      <c r="J70" s="36" t="inlineStr">
+      <c r="J71" s="36" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="K70" s="36" t="inlineStr">
+      <c r="K71" s="36" t="inlineStr">
         <is>
           <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="27" t="inlineStr">
-        <is>
-          <t>交银稳鑫短债债券A</t>
-        </is>
-      </c>
-      <c r="B71" s="28" t="n">
-        <v>6793</v>
-      </c>
-      <c r="C71" s="29" t="n">
-        <v>1.0286</v>
-      </c>
-      <c r="D71" s="30" t="n">
-        <v>171152.16</v>
-      </c>
-      <c r="E71" s="30" t="n">
-        <v>176218.26</v>
-      </c>
-      <c r="F71" s="30" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="G71" s="31" t="inlineStr">
-        <is>
-          <t>债券</t>
-        </is>
-      </c>
-      <c r="H71" s="31" t="inlineStr">
-        <is>
-          <t>国内债券</t>
-        </is>
-      </c>
-      <c r="I71" s="31" t="inlineStr">
-        <is>
-          <t>可转债</t>
-        </is>
-      </c>
-      <c r="J71" s="31" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="K71" s="31" t="inlineStr">
-        <is>
-          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="27" t="inlineStr">
         <is>
-          <t>交银主题优选</t>
+          <t>交银稳鑫短债债券A</t>
         </is>
       </c>
       <c r="B72" s="28" t="n">
-        <v>519700</v>
+        <v>6793</v>
       </c>
       <c r="C72" s="29" t="n">
-        <v>1.4657</v>
+        <v>1.0286</v>
       </c>
       <c r="D72" s="30" t="n">
-        <v>11598.58</v>
+        <v>171152.16</v>
       </c>
       <c r="E72" s="30" t="n">
-        <v>17363.07</v>
+        <v>176218.26</v>
       </c>
       <c r="F72" s="30" t="n">
-        <v>-8.08</v>
+        <v>41.34</v>
       </c>
       <c r="G72" s="31" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H72" s="31" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I72" s="31" t="inlineStr">
         <is>
-          <t>偏股</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J72" s="31" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K72" s="31" t="inlineStr">
@@ -3857,42 +3857,42 @@
     <row r="73">
       <c r="A73" s="27" t="inlineStr">
         <is>
-          <t>交银纯债A/B</t>
+          <t>交银主题优选</t>
         </is>
       </c>
       <c r="B73" s="28" t="n">
-        <v>519718</v>
+        <v>519700</v>
       </c>
       <c r="C73" s="29" t="n">
-        <v>1.0759</v>
+        <v>1.4657</v>
       </c>
       <c r="D73" s="30" t="n">
-        <v>128864.36</v>
+        <v>11598.58</v>
       </c>
       <c r="E73" s="30" t="n">
-        <v>138786.92</v>
+        <v>17351.48</v>
       </c>
       <c r="F73" s="30" t="n">
-        <v>18.05</v>
+        <v>-8.08</v>
       </c>
       <c r="G73" s="31" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="H73" s="31" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>股债混合</t>
         </is>
       </c>
       <c r="I73" s="31" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>偏股</t>
         </is>
       </c>
       <c r="J73" s="31" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>411</t>
         </is>
       </c>
       <c r="K73" s="31" t="inlineStr">
@@ -3904,23 +3904,23 @@
     <row r="74">
       <c r="A74" s="27" t="inlineStr">
         <is>
-          <t>交银双轮动A/B</t>
+          <t>交银纯债A/B</t>
         </is>
       </c>
       <c r="B74" s="28" t="n">
-        <v>519723</v>
+        <v>519718</v>
       </c>
       <c r="C74" s="29" t="n">
-        <v>1.0784</v>
+        <v>1.0759</v>
       </c>
       <c r="D74" s="30" t="n">
-        <v>132719.84</v>
+        <v>128864.36</v>
       </c>
       <c r="E74" s="30" t="n">
-        <v>143204.71</v>
+        <v>138915.78</v>
       </c>
       <c r="F74" s="30" t="n">
-        <v>-48.01</v>
+        <v>18.05</v>
       </c>
       <c r="G74" s="31" t="inlineStr">
         <is>
@@ -3951,42 +3951,42 @@
     <row r="75">
       <c r="A75" s="27" t="inlineStr">
         <is>
-          <t>交银新回报灵活配置混合A</t>
+          <t>交银双轮动A/B</t>
         </is>
       </c>
       <c r="B75" s="28" t="n">
-        <v>519752</v>
+        <v>519723</v>
       </c>
       <c r="C75" s="29" t="n">
-        <v>1.2439</v>
+        <v>1.0784</v>
       </c>
       <c r="D75" s="30" t="n">
-        <v>59685.02</v>
+        <v>132719.84</v>
       </c>
       <c r="E75" s="30" t="n">
-        <v>74307.85000000001</v>
+        <v>143204.71</v>
       </c>
       <c r="F75" s="30" t="n">
-        <v>-230.58</v>
+        <v>-48.01</v>
       </c>
       <c r="G75" s="31" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H75" s="31" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I75" s="31" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J75" s="31" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K75" s="31" t="inlineStr">
@@ -3998,23 +3998,23 @@
     <row r="76">
       <c r="A76" s="27" t="inlineStr">
         <is>
-          <t>交银多策略回报灵活配置混合A</t>
+          <t>交银新回报灵活配置混合A</t>
         </is>
       </c>
       <c r="B76" s="28" t="n">
-        <v>519755</v>
+        <v>519752</v>
       </c>
       <c r="C76" s="29" t="n">
-        <v>1.2894</v>
+        <v>1.2439</v>
       </c>
       <c r="D76" s="30" t="n">
-        <v>76964.17</v>
+        <v>59685.02</v>
       </c>
       <c r="E76" s="30" t="n">
-        <v>99514.67</v>
+        <v>74248.16</v>
       </c>
       <c r="F76" s="30" t="n">
-        <v>-110.15</v>
+        <v>-230.58</v>
       </c>
       <c r="G76" s="31" t="inlineStr">
         <is>
@@ -4045,117 +4045,117 @@
     <row r="77">
       <c r="A77" s="27" t="inlineStr">
         <is>
+          <t>交银多策略回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="B77" s="28" t="n">
+        <v>519755</v>
+      </c>
+      <c r="C77" s="29" t="n">
+        <v>1.2894</v>
+      </c>
+      <c r="D77" s="30" t="n">
+        <v>76964.17</v>
+      </c>
+      <c r="E77" s="30" t="n">
+        <v>99437.71000000001</v>
+      </c>
+      <c r="F77" s="30" t="n">
+        <v>-110.15</v>
+      </c>
+      <c r="G77" s="31" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="H77" s="31" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="I77" s="31" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="J77" s="31" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="K77" s="31" t="inlineStr">
+        <is>
+          <t>父稳稳的幸福</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="27" t="inlineStr">
+        <is>
           <t>交银裕盈纯债债券A</t>
         </is>
       </c>
-      <c r="B77" s="28" t="n">
+      <c r="B78" s="28" t="n">
         <v>519776</v>
       </c>
-      <c r="C77" s="29" t="n">
+      <c r="C78" s="29" t="n">
         <v>1.0793</v>
       </c>
-      <c r="D77" s="30" t="n">
+      <c r="D78" s="30" t="n">
         <v>140577.44</v>
       </c>
-      <c r="E77" s="30" t="n">
-        <v>151781.46</v>
-      </c>
-      <c r="F77" s="30" t="n">
+      <c r="E78" s="30" t="n">
+        <v>151823.64</v>
+      </c>
+      <c r="F78" s="30" t="n">
         <v>-51</v>
       </c>
-      <c r="G77" s="31" t="inlineStr">
+      <c r="G78" s="31" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="H77" s="31" t="inlineStr">
+      <c r="H78" s="31" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="I77" s="31" t="inlineStr">
+      <c r="I78" s="31" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="J77" s="31" t="inlineStr">
+      <c r="J78" s="31" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="K77" s="31" t="inlineStr">
+      <c r="K78" s="31" t="inlineStr">
         <is>
           <t>父稳稳的幸福</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="7" t="inlineStr">
-        <is>
-          <t>银河沪深300价值指数</t>
-        </is>
-      </c>
-      <c r="B78" s="8" t="n">
-        <v>519671</v>
-      </c>
-      <c r="C78" s="9" t="n">
-        <v>1.4263</v>
-      </c>
-      <c r="D78" s="10" t="n">
-        <v>1029.32</v>
-      </c>
-      <c r="E78" s="10" t="n">
-        <v>1484.28</v>
-      </c>
-      <c r="F78" s="10" t="n">
-        <v>-2.36</v>
-      </c>
-      <c r="G78" s="11" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H78" s="11" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="I78" s="11" t="inlineStr">
-        <is>
-          <t>300价值</t>
-        </is>
-      </c>
-      <c r="J78" s="11" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="K78" s="11" t="inlineStr">
-        <is>
-          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="7" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B79" s="8" t="n">
-        <v>90010</v>
+        <v>519671</v>
       </c>
       <c r="C79" s="9" t="n">
-        <v>1.6522</v>
+        <v>1.4264</v>
       </c>
       <c r="D79" s="10" t="n">
-        <v>874.15</v>
+        <v>1045.13</v>
       </c>
       <c r="E79" s="10" t="n">
-        <v>1428.36</v>
+        <v>1504.99</v>
       </c>
       <c r="F79" s="10" t="n">
-        <v>-37.8</v>
+        <v>6.87</v>
       </c>
       <c r="G79" s="11" t="inlineStr">
         <is>
@@ -4164,17 +4164,17 @@
       </c>
       <c r="H79" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I79" s="11" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J79" s="11" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K79" s="11" t="inlineStr">
@@ -4186,42 +4186,42 @@
     <row r="80">
       <c r="A80" s="7" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B80" s="8" t="n">
-        <v>501021</v>
+        <v>90010</v>
       </c>
       <c r="C80" s="9" t="n">
-        <v>1.3485</v>
+        <v>1.6518</v>
       </c>
       <c r="D80" s="10" t="n">
-        <v>898.04</v>
+        <v>888.12</v>
       </c>
       <c r="E80" s="10" t="n">
-        <v>1321.47</v>
+        <v>1452.96</v>
       </c>
       <c r="F80" s="10" t="n">
-        <v>78.26000000000001</v>
+        <v>-24.71</v>
       </c>
       <c r="G80" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H80" s="11" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I80" s="11" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J80" s="11" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K80" s="11" t="inlineStr">
@@ -4233,42 +4233,42 @@
     <row r="81">
       <c r="A81" s="7" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B81" s="8" t="n">
-        <v>3318</v>
+        <v>501021</v>
       </c>
       <c r="C81" s="9" t="n">
-        <v>0.9328</v>
+        <v>1.3485</v>
       </c>
       <c r="D81" s="10" t="n">
-        <v>1336.21</v>
+        <v>898.04</v>
       </c>
       <c r="E81" s="10" t="n">
-        <v>1245.75</v>
+        <v>1330.36</v>
       </c>
       <c r="F81" s="10" t="n">
-        <v>-23.26</v>
+        <v>99.09</v>
       </c>
       <c r="G81" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H81" s="11" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I81" s="11" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="J81" s="11" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K81" s="11" t="inlineStr">
@@ -4280,23 +4280,23 @@
     <row r="82">
       <c r="A82" s="7" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B82" s="8" t="n">
-        <v>70023</v>
+        <v>3318</v>
       </c>
       <c r="C82" s="9" t="n">
-        <v>1.7966</v>
+        <v>0.9329</v>
       </c>
       <c r="D82" s="10" t="n">
-        <v>492.58</v>
+        <v>1358.53</v>
       </c>
       <c r="E82" s="10" t="n">
-        <v>924.67</v>
+        <v>1266.56</v>
       </c>
       <c r="F82" s="10" t="n">
-        <v>29.64</v>
+        <v>2.49</v>
       </c>
       <c r="G82" s="11" t="inlineStr">
         <is>
@@ -4305,17 +4305,17 @@
       </c>
       <c r="H82" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I82" s="11" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="J82" s="11" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K82" s="11" t="inlineStr">
@@ -4327,23 +4327,23 @@
     <row r="83">
       <c r="A83" s="7" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B83" s="8" t="n">
-        <v>530015</v>
+        <v>70023</v>
       </c>
       <c r="C83" s="9" t="n">
-        <v>2.1207</v>
+        <v>1.7966</v>
       </c>
       <c r="D83" s="10" t="n">
-        <v>398.66</v>
+        <v>492.58</v>
       </c>
       <c r="E83" s="10" t="n">
-        <v>869.4400000000001</v>
+        <v>922.41</v>
       </c>
       <c r="F83" s="10" t="n">
-        <v>15.23</v>
+        <v>41.56</v>
       </c>
       <c r="G83" s="11" t="inlineStr">
         <is>
@@ -4357,12 +4357,12 @@
       </c>
       <c r="I83" s="11" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="J83" s="11" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>116</t>
         </is>
       </c>
       <c r="K83" s="11" t="inlineStr">
@@ -4374,23 +4374,23 @@
     <row r="84">
       <c r="A84" s="7" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B84" s="8" t="n">
-        <v>968</v>
+        <v>530015</v>
       </c>
       <c r="C84" s="9" t="n">
-        <v>0.9599</v>
+        <v>2.122</v>
       </c>
       <c r="D84" s="10" t="n">
-        <v>373.42</v>
+        <v>406.95</v>
       </c>
       <c r="E84" s="10" t="n">
-        <v>356.65</v>
+        <v>886.09</v>
       </c>
       <c r="F84" s="10" t="n">
-        <v>-6.93</v>
+        <v>23.93</v>
       </c>
       <c r="G84" s="11" t="inlineStr">
         <is>
@@ -4399,17 +4399,17 @@
       </c>
       <c r="H84" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I84" s="11" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="J84" s="11" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K84" s="11" t="inlineStr">
@@ -4421,23 +4421,23 @@
     <row r="85">
       <c r="A85" s="7" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B85" s="8" t="n">
-        <v>501029</v>
+        <v>968</v>
       </c>
       <c r="C85" s="9" t="n">
-        <v>0.9829</v>
+        <v>0.9599</v>
       </c>
       <c r="D85" s="10" t="n">
-        <v>214.89</v>
+        <v>390.82</v>
       </c>
       <c r="E85" s="10" t="n">
-        <v>205.18</v>
+        <v>373.27</v>
       </c>
       <c r="F85" s="10" t="n">
-        <v>-10.68</v>
+        <v>0.04</v>
       </c>
       <c r="G85" s="11" t="inlineStr">
         <is>
@@ -4446,17 +4446,17 @@
       </c>
       <c r="H85" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I85" s="11" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J85" s="11" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K85" s="11" t="inlineStr">
@@ -4468,23 +4468,23 @@
     <row r="86">
       <c r="A86" s="7" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B86" s="8" t="n">
-        <v>1550</v>
+        <v>501029</v>
       </c>
       <c r="C86" s="9" t="n">
-        <v>0.6708</v>
+        <v>0.9829</v>
       </c>
       <c r="D86" s="10" t="n">
-        <v>212.74</v>
+        <v>214.89</v>
       </c>
       <c r="E86" s="10" t="n">
-        <v>162.55</v>
+        <v>205.18</v>
       </c>
       <c r="F86" s="10" t="n">
-        <v>18.11</v>
+        <v>-6.77</v>
       </c>
       <c r="G86" s="11" t="inlineStr">
         <is>
@@ -4493,17 +4493,17 @@
       </c>
       <c r="H86" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I86" s="11" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="J86" s="11" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>132</t>
         </is>
       </c>
       <c r="K86" s="11" t="inlineStr">
@@ -4515,23 +4515,23 @@
     <row r="87">
       <c r="A87" s="7" t="inlineStr">
         <is>
-          <t>华夏上证50AH优选指数</t>
+          <t>天弘中证医药100A</t>
         </is>
       </c>
       <c r="B87" s="8" t="n">
-        <v>501050</v>
+        <v>1550</v>
       </c>
       <c r="C87" s="9" t="n">
-        <v>1.2891</v>
+        <v>0.6708</v>
       </c>
       <c r="D87" s="10" t="n">
-        <v>62.09</v>
+        <v>212.74</v>
       </c>
       <c r="E87" s="10" t="n">
-        <v>82.27</v>
+        <v>162.41</v>
       </c>
       <c r="F87" s="10" t="n">
-        <v>0.18</v>
+        <v>20.54</v>
       </c>
       <c r="G87" s="11" t="inlineStr">
         <is>
@@ -4540,17 +4540,17 @@
       </c>
       <c r="H87" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I87" s="11" t="inlineStr">
         <is>
-          <t>50AH</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J87" s="11" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K87" s="11" t="inlineStr">
@@ -4562,23 +4562,23 @@
     <row r="88">
       <c r="A88" s="7" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>华夏上证50AH优选指数</t>
         </is>
       </c>
       <c r="B88" s="8" t="n">
-        <v>310398</v>
+        <v>501050</v>
       </c>
       <c r="C88" s="9" t="n">
-        <v>1.5297</v>
+        <v>1.2891</v>
       </c>
       <c r="D88" s="10" t="n">
-        <v>24.24</v>
+        <v>62.09</v>
       </c>
       <c r="E88" s="10" t="n">
-        <v>33.04</v>
+        <v>82.27</v>
       </c>
       <c r="F88" s="10" t="n">
-        <v>-2.32</v>
+        <v>1.61</v>
       </c>
       <c r="G88" s="11" t="inlineStr">
         <is>
@@ -4592,12 +4592,12 @@
       </c>
       <c r="I88" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>50AH</t>
         </is>
       </c>
       <c r="J88" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K88" s="11" t="inlineStr">
@@ -4609,42 +4609,42 @@
     <row r="89">
       <c r="A89" s="7" t="inlineStr">
         <is>
-          <t>大成景安短融债券E</t>
+          <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
       <c r="B89" s="8" t="n">
-        <v>2086</v>
+        <v>310398</v>
       </c>
       <c r="C89" s="9" t="n">
-        <v>1.2258</v>
+        <v>1.4372</v>
       </c>
       <c r="D89" s="10" t="n">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="E89" s="10" t="n">
-        <v>0</v>
+        <v>35.1</v>
       </c>
       <c r="F89" s="10" t="n">
-        <v>0.27</v>
+        <v>-2.14</v>
       </c>
       <c r="G89" s="11" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H89" s="11" t="inlineStr">
         <is>
-          <t>低风险理财</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I89" s="11" t="inlineStr">
         <is>
-          <t>货币基金</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J89" s="11" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K89" s="11" t="inlineStr">
@@ -4656,23 +4656,23 @@
     <row r="90">
       <c r="A90" s="7" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B90" s="8" t="n">
-        <v>90010</v>
+        <v>1594</v>
       </c>
       <c r="C90" s="9" t="n">
-        <v>1.6569</v>
+        <v>1.2144</v>
       </c>
       <c r="D90" s="10" t="n">
-        <v>946.4299999999999</v>
+        <v>17.12</v>
       </c>
       <c r="E90" s="10" t="n">
-        <v>1546.47</v>
+        <v>20.93</v>
       </c>
       <c r="F90" s="10" t="n">
-        <v>-45.37</v>
+        <v>-0.03</v>
       </c>
       <c r="G90" s="11" t="inlineStr">
         <is>
@@ -4681,111 +4681,111 @@
       </c>
       <c r="H90" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I90" s="11" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="J90" s="11" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K90" s="11" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="7" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>大成景安短融债券E</t>
         </is>
       </c>
       <c r="B91" s="8" t="n">
-        <v>519671</v>
+        <v>2086</v>
       </c>
       <c r="C91" s="9" t="n">
-        <v>1.4248</v>
+        <v>1.2258</v>
       </c>
       <c r="D91" s="10" t="n">
-        <v>1025.65</v>
+        <v>0</v>
       </c>
       <c r="E91" s="10" t="n">
-        <v>1478.99</v>
+        <v>0</v>
       </c>
       <c r="F91" s="10" t="n">
-        <v>-0.8100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="G91" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="H91" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>低风险理财</t>
         </is>
       </c>
       <c r="I91" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>货币基金</t>
         </is>
       </c>
       <c r="J91" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>999</t>
         </is>
       </c>
       <c r="K91" s="11" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="7" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B92" s="8" t="n">
-        <v>501021</v>
+        <v>90010</v>
       </c>
       <c r="C92" s="9" t="n">
-        <v>1.3514</v>
+        <v>1.6561</v>
       </c>
       <c r="D92" s="10" t="n">
-        <v>915.97</v>
+        <v>974.37</v>
       </c>
       <c r="E92" s="10" t="n">
-        <v>1347.85</v>
+        <v>1594.07</v>
       </c>
       <c r="F92" s="10" t="n">
-        <v>77.13</v>
+        <v>-31.23</v>
       </c>
       <c r="G92" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H92" s="11" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I92" s="11" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J92" s="11" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K92" s="11" t="inlineStr">
@@ -4797,23 +4797,23 @@
     <row r="93">
       <c r="A93" s="7" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B93" s="8" t="n">
-        <v>3318</v>
+        <v>519671</v>
       </c>
       <c r="C93" s="9" t="n">
-        <v>0.9334</v>
+        <v>1.4251</v>
       </c>
       <c r="D93" s="10" t="n">
-        <v>1367.69</v>
+        <v>1057.28</v>
       </c>
       <c r="E93" s="10" t="n">
-        <v>1275.1</v>
+        <v>1522.48</v>
       </c>
       <c r="F93" s="10" t="n">
-        <v>-24.57</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="G93" s="11" t="inlineStr">
         <is>
@@ -4822,17 +4822,17 @@
       </c>
       <c r="H93" s="11" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I93" s="11" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J93" s="11" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K93" s="11" t="inlineStr">
@@ -4844,42 +4844,42 @@
     <row r="94">
       <c r="A94" s="7" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B94" s="8" t="n">
-        <v>70023</v>
+        <v>501021</v>
       </c>
       <c r="C94" s="9" t="n">
-        <v>1.7992</v>
+        <v>1.3514</v>
       </c>
       <c r="D94" s="10" t="n">
-        <v>528.99</v>
+        <v>915.97</v>
       </c>
       <c r="E94" s="10" t="n">
-        <v>993.02</v>
+        <v>1356.92</v>
       </c>
       <c r="F94" s="10" t="n">
-        <v>30.49</v>
+        <v>98.38</v>
       </c>
       <c r="G94" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H94" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I94" s="11" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="J94" s="11" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K94" s="11" t="inlineStr">
@@ -4891,23 +4891,23 @@
     <row r="95">
       <c r="A95" s="7" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B95" s="8" t="n">
-        <v>530015</v>
+        <v>3318</v>
       </c>
       <c r="C95" s="9" t="n">
-        <v>2.1224</v>
+        <v>0.9334</v>
       </c>
       <c r="D95" s="10" t="n">
-        <v>390.29</v>
+        <v>1412.34</v>
       </c>
       <c r="E95" s="10" t="n">
-        <v>851.1799999999999</v>
+        <v>1316.72</v>
       </c>
       <c r="F95" s="10" t="n">
-        <v>14.23</v>
+        <v>1.77</v>
       </c>
       <c r="G95" s="11" t="inlineStr">
         <is>
@@ -4916,17 +4916,17 @@
       </c>
       <c r="H95" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I95" s="11" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="J95" s="11" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K95" s="11" t="inlineStr">
@@ -4938,23 +4938,23 @@
     <row r="96">
       <c r="A96" s="7" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B96" s="8" t="n">
-        <v>968</v>
+        <v>70023</v>
       </c>
       <c r="C96" s="9" t="n">
-        <v>0.9586</v>
+        <v>1.7992</v>
       </c>
       <c r="D96" s="10" t="n">
-        <v>392.19</v>
+        <v>528.99</v>
       </c>
       <c r="E96" s="10" t="n">
-        <v>374.58</v>
+        <v>990.59</v>
       </c>
       <c r="F96" s="10" t="n">
-        <v>-6.79</v>
+        <v>43.29</v>
       </c>
       <c r="G96" s="11" t="inlineStr">
         <is>
@@ -4963,17 +4963,17 @@
       </c>
       <c r="H96" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I96" s="11" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="J96" s="11" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>116</t>
         </is>
       </c>
       <c r="K96" s="11" t="inlineStr">
@@ -4985,23 +4985,23 @@
     <row r="97">
       <c r="A97" s="7" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B97" s="8" t="n">
-        <v>501029</v>
+        <v>530015</v>
       </c>
       <c r="C97" s="9" t="n">
-        <v>0.9824000000000001</v>
+        <v>2.125</v>
       </c>
       <c r="D97" s="10" t="n">
-        <v>227.52</v>
+        <v>406.87</v>
       </c>
       <c r="E97" s="10" t="n">
-        <v>217.24</v>
+        <v>885.92</v>
       </c>
       <c r="F97" s="10" t="n">
-        <v>-11.19</v>
+        <v>22.72</v>
       </c>
       <c r="G97" s="11" t="inlineStr">
         <is>
@@ -5010,17 +5010,17 @@
       </c>
       <c r="H97" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I97" s="11" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="J97" s="11" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K97" s="11" t="inlineStr">
@@ -5032,23 +5032,23 @@
     <row r="98">
       <c r="A98" s="7" t="inlineStr">
         <is>
-          <t>华夏上证50AH优选指数</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B98" s="8" t="n">
-        <v>501050</v>
+        <v>968</v>
       </c>
       <c r="C98" s="9" t="n">
-        <v>1.284</v>
+        <v>0.9588</v>
       </c>
       <c r="D98" s="10" t="n">
-        <v>142.1</v>
+        <v>426.97</v>
       </c>
       <c r="E98" s="10" t="n">
-        <v>188.28</v>
+        <v>407.8</v>
       </c>
       <c r="F98" s="10" t="n">
-        <v>1.14</v>
+        <v>0.5</v>
       </c>
       <c r="G98" s="11" t="inlineStr">
         <is>
@@ -5057,17 +5057,17 @@
       </c>
       <c r="H98" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I98" s="11" t="inlineStr">
         <is>
-          <t>50AH</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J98" s="11" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K98" s="11" t="inlineStr">
@@ -5079,23 +5079,23 @@
     <row r="99">
       <c r="A99" s="7" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B99" s="8" t="n">
-        <v>1550</v>
+        <v>501029</v>
       </c>
       <c r="C99" s="9" t="n">
-        <v>0.6708</v>
+        <v>0.9824000000000001</v>
       </c>
       <c r="D99" s="10" t="n">
-        <v>212.74</v>
+        <v>227.52</v>
       </c>
       <c r="E99" s="10" t="n">
-        <v>162.55</v>
+        <v>217.24</v>
       </c>
       <c r="F99" s="10" t="n">
-        <v>18.11</v>
+        <v>-7.05</v>
       </c>
       <c r="G99" s="11" t="inlineStr">
         <is>
@@ -5104,17 +5104,17 @@
       </c>
       <c r="H99" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I99" s="11" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="J99" s="11" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>132</t>
         </is>
       </c>
       <c r="K99" s="11" t="inlineStr">
@@ -5126,23 +5126,23 @@
     <row r="100">
       <c r="A100" s="7" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>华夏上证50AH优选指数</t>
         </is>
       </c>
       <c r="B100" s="8" t="n">
-        <v>310398</v>
+        <v>501050</v>
       </c>
       <c r="C100" s="9" t="n">
-        <v>1.5297</v>
+        <v>1.284</v>
       </c>
       <c r="D100" s="10" t="n">
-        <v>24.24</v>
+        <v>142.1</v>
       </c>
       <c r="E100" s="10" t="n">
-        <v>33.04</v>
+        <v>188.28</v>
       </c>
       <c r="F100" s="10" t="n">
-        <v>-2.32</v>
+        <v>4.41</v>
       </c>
       <c r="G100" s="11" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="I100" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>50AH</t>
         </is>
       </c>
       <c r="J100" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K100" s="11" t="inlineStr">
@@ -5173,211 +5173,211 @@
     <row r="101">
       <c r="A101" s="7" t="inlineStr">
         <is>
+          <t>天弘中证医药100A</t>
+        </is>
+      </c>
+      <c r="B101" s="8" t="n">
+        <v>1550</v>
+      </c>
+      <c r="C101" s="9" t="n">
+        <v>0.6708</v>
+      </c>
+      <c r="D101" s="10" t="n">
+        <v>212.74</v>
+      </c>
+      <c r="E101" s="10" t="n">
+        <v>162.41</v>
+      </c>
+      <c r="F101" s="10" t="n">
+        <v>20.54</v>
+      </c>
+      <c r="G101" s="11" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H101" s="11" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="I101" s="11" t="inlineStr">
+        <is>
+          <t>全指医药</t>
+        </is>
+      </c>
+      <c r="J101" s="11" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="K101" s="11" t="inlineStr">
+        <is>
+          <t>母螺丝钉</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="7" t="inlineStr">
+        <is>
+          <t>天弘中证银行指数A</t>
+        </is>
+      </c>
+      <c r="B102" s="8" t="n">
+        <v>1594</v>
+      </c>
+      <c r="C102" s="9" t="n">
+        <v>1.2142</v>
+      </c>
+      <c r="D102" s="10" t="n">
+        <v>34.26</v>
+      </c>
+      <c r="E102" s="10" t="n">
+        <v>41.88</v>
+      </c>
+      <c r="F102" s="10" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="G102" s="11" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H102" s="11" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="I102" s="11" t="inlineStr">
+        <is>
+          <t>中证银行</t>
+        </is>
+      </c>
+      <c r="J102" s="11" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="K102" s="11" t="inlineStr">
+        <is>
+          <t>母螺丝钉</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="7" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300价值指数</t>
+        </is>
+      </c>
+      <c r="B103" s="8" t="n">
+        <v>310398</v>
+      </c>
+      <c r="C103" s="9" t="n">
+        <v>1.4372</v>
+      </c>
+      <c r="D103" s="10" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E103" s="10" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="F103" s="10" t="n">
+        <v>-2.14</v>
+      </c>
+      <c r="G103" s="11" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H103" s="11" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="I103" s="11" t="inlineStr">
+        <is>
+          <t>300价值</t>
+        </is>
+      </c>
+      <c r="J103" s="11" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="K103" s="11" t="inlineStr">
+        <is>
+          <t>母螺丝钉</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="7" t="inlineStr">
+        <is>
           <t>大成景安短融债券E</t>
         </is>
       </c>
-      <c r="B101" s="8" t="n">
+      <c r="B104" s="8" t="n">
         <v>2086</v>
       </c>
-      <c r="C101" s="9" t="n">
+      <c r="C104" s="9" t="n">
         <v>1.2257</v>
       </c>
-      <c r="D101" s="10" t="n">
+      <c r="D104" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E101" s="10" t="n">
+      <c r="E104" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F101" s="10" t="n">
+      <c r="F104" s="10" t="n">
         <v>0.44</v>
       </c>
-      <c r="G101" s="11" t="inlineStr">
+      <c r="G104" s="11" t="inlineStr">
         <is>
           <t>现金</t>
         </is>
       </c>
-      <c r="H101" s="11" t="inlineStr">
+      <c r="H104" s="11" t="inlineStr">
         <is>
           <t>低风险理财</t>
         </is>
       </c>
-      <c r="I101" s="11" t="inlineStr">
+      <c r="I104" s="11" t="inlineStr">
         <is>
           <t>货币基金</t>
         </is>
       </c>
-      <c r="J101" s="11" t="inlineStr">
+      <c r="J104" s="11" t="inlineStr">
         <is>
           <t>999</t>
         </is>
       </c>
-      <c r="K101" s="11" t="inlineStr">
+      <c r="K104" s="11" t="inlineStr">
         <is>
           <t>母螺丝钉</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="32" t="inlineStr">
-        <is>
-          <t>广发中证500ETF联接A</t>
-        </is>
-      </c>
-      <c r="B102" s="33" t="n">
-        <v>162711</v>
-      </c>
-      <c r="C102" s="34" t="n">
-        <v>1.0519</v>
-      </c>
-      <c r="D102" s="35" t="n">
-        <v>9697.57</v>
-      </c>
-      <c r="E102" s="35" t="n">
-        <v>10692.54</v>
-      </c>
-      <c r="F102" s="35" t="n">
-        <v>290.83</v>
-      </c>
-      <c r="G102" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H102" s="36" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="I102" s="36" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="J102" s="36" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="K102" s="36" t="inlineStr">
-        <is>
-          <t>母天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="32" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强</t>
-        </is>
-      </c>
-      <c r="B103" s="33" t="n">
-        <v>100032</v>
-      </c>
-      <c r="C103" s="34" t="n">
-        <v>1.0142</v>
-      </c>
-      <c r="D103" s="35" t="n">
-        <v>8677.6</v>
-      </c>
-      <c r="E103" s="35" t="n">
-        <v>9632.139999999999</v>
-      </c>
-      <c r="F103" s="35" t="n">
-        <v>710.64</v>
-      </c>
-      <c r="G103" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H103" s="36" t="inlineStr">
-        <is>
-          <t>红利价值</t>
-        </is>
-      </c>
-      <c r="I103" s="36" t="inlineStr">
-        <is>
-          <t>中证红利</t>
-        </is>
-      </c>
-      <c r="J103" s="36" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="K103" s="36" t="inlineStr">
-        <is>
-          <t>母天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="32" t="inlineStr">
-        <is>
-          <t>广发养老指数A</t>
-        </is>
-      </c>
-      <c r="B104" s="33" t="n">
-        <v>968</v>
-      </c>
-      <c r="C104" s="34" t="n">
-        <v>0.853</v>
-      </c>
-      <c r="D104" s="35" t="n">
-        <v>6096.21</v>
-      </c>
-      <c r="E104" s="35" t="n">
-        <v>5822.49</v>
-      </c>
-      <c r="F104" s="35" t="n">
-        <v>529.8200000000001</v>
-      </c>
-      <c r="G104" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H104" s="36" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="I104" s="36" t="inlineStr">
-        <is>
-          <t>养老产业</t>
-        </is>
-      </c>
-      <c r="J104" s="36" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="K104" s="36" t="inlineStr">
-        <is>
-          <t>母天天基金</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="32" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>广发中证500ETF联接A</t>
         </is>
       </c>
       <c r="B105" s="33" t="n">
-        <v>1180</v>
+        <v>162711</v>
       </c>
       <c r="C105" s="34" t="n">
-        <v>0.7111</v>
+        <v>1.0519</v>
       </c>
       <c r="D105" s="35" t="n">
-        <v>6750.28</v>
+        <v>9697.57</v>
       </c>
       <c r="E105" s="35" t="n">
-        <v>5618.93</v>
+        <v>10663.45</v>
       </c>
       <c r="F105" s="35" t="n">
-        <v>756.83</v>
+        <v>290.83</v>
       </c>
       <c r="G105" s="36" t="inlineStr">
         <is>
@@ -5386,17 +5386,17 @@
       </c>
       <c r="H105" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I105" s="36" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J105" s="36" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K105" s="36" t="inlineStr">
@@ -5408,23 +5408,23 @@
     <row r="106">
       <c r="A106" s="32" t="inlineStr">
         <is>
-          <t>富国沪深300指数增强</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B106" s="33" t="n">
-        <v>100038</v>
+        <v>100032</v>
       </c>
       <c r="C106" s="34" t="n">
-        <v>1.3043</v>
+        <v>1.0142</v>
       </c>
       <c r="D106" s="35" t="n">
-        <v>2760.12</v>
+        <v>8677.6</v>
       </c>
       <c r="E106" s="35" t="n">
-        <v>4499</v>
+        <v>9640.809999999999</v>
       </c>
       <c r="F106" s="35" t="n">
-        <v>832.75</v>
+        <v>710.64</v>
       </c>
       <c r="G106" s="36" t="inlineStr">
         <is>
@@ -5433,17 +5433,17 @@
       </c>
       <c r="H106" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I106" s="36" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J106" s="36" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K106" s="36" t="inlineStr">
@@ -5455,23 +5455,23 @@
     <row r="107">
       <c r="A107" s="32" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B107" s="33" t="n">
-        <v>4752</v>
+        <v>968</v>
       </c>
       <c r="C107" s="34" t="n">
-        <v>0.7235</v>
+        <v>0.853</v>
       </c>
       <c r="D107" s="35" t="n">
-        <v>4423.48</v>
+        <v>6096.21</v>
       </c>
       <c r="E107" s="35" t="n">
-        <v>3456.95</v>
+        <v>5822.49</v>
       </c>
       <c r="F107" s="35" t="n">
-        <v>154.76</v>
+        <v>529.8200000000001</v>
       </c>
       <c r="G107" s="36" t="inlineStr">
         <is>
@@ -5485,12 +5485,12 @@
       </c>
       <c r="I107" s="36" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J107" s="36" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K107" s="36" t="inlineStr">
@@ -5502,42 +5502,42 @@
     <row r="108">
       <c r="A108" s="32" t="inlineStr">
         <is>
-          <t>易方达安心回报债券A</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B108" s="33" t="n">
-        <v>110027</v>
+        <v>1180</v>
       </c>
       <c r="C108" s="34" t="n">
-        <v>1.6102</v>
+        <v>0.7111</v>
       </c>
       <c r="D108" s="35" t="n">
-        <v>1981.84</v>
+        <v>6750.28</v>
       </c>
       <c r="E108" s="35" t="n">
-        <v>3383</v>
+        <v>5618.93</v>
       </c>
       <c r="F108" s="35" t="n">
-        <v>144.43</v>
+        <v>756.83</v>
       </c>
       <c r="G108" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H108" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I108" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J108" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K108" s="36" t="inlineStr">
@@ -5549,23 +5549,23 @@
     <row r="109">
       <c r="A109" s="32" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>富国沪深300指数增强</t>
         </is>
       </c>
       <c r="B109" s="33" t="n">
-        <v>161017</v>
+        <v>100038</v>
       </c>
       <c r="C109" s="34" t="n">
-        <v>1.325</v>
+        <v>1.3043</v>
       </c>
       <c r="D109" s="35" t="n">
-        <v>2046.97</v>
+        <v>2760.12</v>
       </c>
       <c r="E109" s="35" t="n">
-        <v>3342.7</v>
+        <v>4485.19</v>
       </c>
       <c r="F109" s="35" t="n">
-        <v>565.08</v>
+        <v>832.75</v>
       </c>
       <c r="G109" s="36" t="inlineStr">
         <is>
@@ -5574,17 +5574,17 @@
       </c>
       <c r="H109" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I109" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="J109" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K109" s="36" t="inlineStr">
@@ -5596,23 +5596,23 @@
     <row r="110">
       <c r="A110" s="32" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B110" s="33" t="n">
-        <v>1064</v>
+        <v>4752</v>
       </c>
       <c r="C110" s="34" t="n">
-        <v>0.5379</v>
+        <v>0.7235</v>
       </c>
       <c r="D110" s="35" t="n">
-        <v>5949.77</v>
+        <v>4423.48</v>
       </c>
       <c r="E110" s="35" t="n">
-        <v>3306.88</v>
+        <v>3456.95</v>
       </c>
       <c r="F110" s="35" t="n">
-        <v>56.9</v>
+        <v>154.76</v>
       </c>
       <c r="G110" s="36" t="inlineStr">
         <is>
@@ -5626,12 +5626,12 @@
       </c>
       <c r="I110" s="36" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J110" s="36" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K110" s="36" t="inlineStr">
@@ -5643,42 +5643,42 @@
     <row r="111">
       <c r="A111" s="32" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>易方达安心回报债券A</t>
         </is>
       </c>
       <c r="B111" s="33" t="n">
-        <v>614</v>
+        <v>110027</v>
       </c>
       <c r="C111" s="34" t="n">
-        <v>1.0612</v>
+        <v>1.6102</v>
       </c>
       <c r="D111" s="35" t="n">
-        <v>1884.74</v>
+        <v>1981.84</v>
       </c>
       <c r="E111" s="35" t="n">
-        <v>2254.15</v>
+        <v>3386.96</v>
       </c>
       <c r="F111" s="35" t="n">
-        <v>225.87</v>
+        <v>144.43</v>
       </c>
       <c r="G111" s="36" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H111" s="36" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I111" s="36" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J111" s="36" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K111" s="36" t="inlineStr">
@@ -5690,23 +5690,23 @@
     <row r="112">
       <c r="A112" s="32" t="inlineStr">
         <is>
-          <t>易方达创业板ETF联接A</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B112" s="33" t="n">
-        <v>110026</v>
+        <v>161017</v>
       </c>
       <c r="C112" s="34" t="n">
-        <v>1.319</v>
+        <v>1.325</v>
       </c>
       <c r="D112" s="35" t="n">
-        <v>1213.09</v>
+        <v>2046.97</v>
       </c>
       <c r="E112" s="35" t="n">
-        <v>2155.42</v>
+        <v>3334.51</v>
       </c>
       <c r="F112" s="35" t="n">
-        <v>504.95</v>
+        <v>565.08</v>
       </c>
       <c r="G112" s="36" t="inlineStr">
         <is>
@@ -5720,12 +5720,12 @@
       </c>
       <c r="I112" s="36" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J112" s="36" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K112" s="36" t="inlineStr">
@@ -5737,42 +5737,42 @@
     <row r="113">
       <c r="A113" s="32" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B113" s="33" t="n">
-        <v>340001</v>
+        <v>1064</v>
       </c>
       <c r="C113" s="34" t="n">
-        <v>0.9816</v>
+        <v>0.5379</v>
       </c>
       <c r="D113" s="35" t="n">
-        <v>1630.08</v>
+        <v>5949.77</v>
       </c>
       <c r="E113" s="35" t="n">
-        <v>1905.73</v>
+        <v>3306.88</v>
       </c>
       <c r="F113" s="35" t="n">
-        <v>271.65</v>
+        <v>56.9</v>
       </c>
       <c r="G113" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H113" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I113" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J113" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K113" s="36" t="inlineStr">
@@ -5784,42 +5784,42 @@
     <row r="114">
       <c r="A114" s="32" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B114" s="33" t="n">
-        <v>164906</v>
+        <v>614</v>
       </c>
       <c r="C114" s="34" t="n">
-        <v>1.137</v>
+        <v>1.0612</v>
       </c>
       <c r="D114" s="35" t="n">
-        <v>1407.29</v>
+        <v>1884.74</v>
       </c>
       <c r="E114" s="35" t="n">
-        <v>1836.51</v>
+        <v>2254.15</v>
       </c>
       <c r="F114" s="35" t="n">
-        <v>233.69</v>
+        <v>225.87</v>
       </c>
       <c r="G114" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H114" s="36" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="I114" s="36" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="J114" s="36" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>321</t>
         </is>
       </c>
       <c r="K114" s="36" t="inlineStr">
@@ -5831,23 +5831,23 @@
     <row r="115">
       <c r="A115" s="32" t="inlineStr">
         <is>
-          <t>华夏上证50ETF联接A</t>
+          <t>易方达创业板ETF联接A</t>
         </is>
       </c>
       <c r="B115" s="33" t="n">
-        <v>1051</v>
+        <v>110026</v>
       </c>
       <c r="C115" s="34" t="n">
-        <v>0.8966</v>
+        <v>1.319</v>
       </c>
       <c r="D115" s="35" t="n">
-        <v>1338.46</v>
+        <v>1213.09</v>
       </c>
       <c r="E115" s="35" t="n">
-        <v>1350.51</v>
+        <v>2158.81</v>
       </c>
       <c r="F115" s="35" t="n">
-        <v>134.44</v>
+        <v>504.95</v>
       </c>
       <c r="G115" s="36" t="inlineStr">
         <is>
@@ -5856,17 +5856,17 @@
       </c>
       <c r="H115" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I115" s="36" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="J115" s="36" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K115" s="36" t="inlineStr">
@@ -5878,42 +5878,42 @@
     <row r="116">
       <c r="A116" s="32" t="inlineStr">
         <is>
-          <t>华宝标普油气上游股票</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B116" s="33" t="n">
-        <v>162411</v>
+        <v>340001</v>
       </c>
       <c r="C116" s="34" t="n">
-        <v>0.4776</v>
+        <v>0.9816</v>
       </c>
       <c r="D116" s="35" t="n">
-        <v>3350.7</v>
+        <v>1630.08</v>
       </c>
       <c r="E116" s="35" t="n">
-        <v>1283.32</v>
+        <v>1905.73</v>
       </c>
       <c r="F116" s="35" t="n">
-        <v>-377</v>
+        <v>271.65</v>
       </c>
       <c r="G116" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H116" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I116" s="36" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J116" s="36" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K116" s="36" t="inlineStr">
@@ -5925,42 +5925,42 @@
     <row r="117">
       <c r="A117" s="32" t="inlineStr">
         <is>
-          <t>华宝中证1000指数分级</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B117" s="33" t="n">
-        <v>162413</v>
+        <v>164906</v>
       </c>
       <c r="C117" s="34" t="n">
-        <v>0.8027</v>
+        <v>1.137</v>
       </c>
       <c r="D117" s="35" t="n">
-        <v>1495.03</v>
+        <v>1407.29</v>
       </c>
       <c r="E117" s="35" t="n">
-        <v>1218.9</v>
+        <v>1836.51</v>
       </c>
       <c r="F117" s="35" t="n">
-        <v>-11.01</v>
+        <v>233.69</v>
       </c>
       <c r="G117" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H117" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I117" s="36" t="inlineStr">
         <is>
-          <t>中证1000</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J117" s="36" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K117" s="36" t="inlineStr">
@@ -5972,23 +5972,23 @@
     <row r="118">
       <c r="A118" s="32" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>华夏上证50ETF联接A</t>
         </is>
       </c>
       <c r="B118" s="33" t="n">
-        <v>1469</v>
+        <v>1051</v>
       </c>
       <c r="C118" s="34" t="n">
-        <v>0.8885999999999999</v>
+        <v>0.8966</v>
       </c>
       <c r="D118" s="35" t="n">
-        <v>900.35</v>
+        <v>1338.46</v>
       </c>
       <c r="E118" s="35" t="n">
-        <v>986.33</v>
+        <v>1350.51</v>
       </c>
       <c r="F118" s="35" t="n">
-        <v>176.6</v>
+        <v>134.44</v>
       </c>
       <c r="G118" s="36" t="inlineStr">
         <is>
@@ -5997,17 +5997,17 @@
       </c>
       <c r="H118" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I118" s="36" t="inlineStr">
         <is>
-          <t>金融地产</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="J118" s="36" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K118" s="36" t="inlineStr">
@@ -6019,23 +6019,23 @@
     <row r="119">
       <c r="A119" s="32" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>华宝标普油气上游股票</t>
         </is>
       </c>
       <c r="B119" s="33" t="n">
-        <v>216</v>
+        <v>162411</v>
       </c>
       <c r="C119" s="34" t="n">
-        <v>1.0903</v>
+        <v>0.4776</v>
       </c>
       <c r="D119" s="35" t="n">
-        <v>733.79</v>
+        <v>3350.7</v>
       </c>
       <c r="E119" s="35" t="n">
-        <v>892.88</v>
+        <v>1276.62</v>
       </c>
       <c r="F119" s="35" t="n">
-        <v>93.68000000000001</v>
+        <v>-377</v>
       </c>
       <c r="G119" s="36" t="inlineStr">
         <is>
@@ -6049,12 +6049,12 @@
       </c>
       <c r="I119" s="36" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J119" s="36" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K119" s="36" t="inlineStr">
@@ -6066,23 +6066,23 @@
     <row r="120">
       <c r="A120" s="32" t="inlineStr">
         <is>
-          <t>易方达证券公司分级</t>
+          <t>华宝中证1000指数分级</t>
         </is>
       </c>
       <c r="B120" s="33" t="n">
-        <v>502010</v>
+        <v>162413</v>
       </c>
       <c r="C120" s="34" t="n">
-        <v>0.8063</v>
+        <v>0.8027</v>
       </c>
       <c r="D120" s="35" t="n">
-        <v>496.13</v>
+        <v>1495.03</v>
       </c>
       <c r="E120" s="35" t="n">
-        <v>491.81</v>
+        <v>1218.9</v>
       </c>
       <c r="F120" s="35" t="n">
-        <v>84.91</v>
+        <v>-11.01</v>
       </c>
       <c r="G120" s="36" t="inlineStr">
         <is>
@@ -6091,17 +6091,17 @@
       </c>
       <c r="H120" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I120" s="36" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>中证1000</t>
         </is>
       </c>
       <c r="J120" s="36" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>123</t>
         </is>
       </c>
       <c r="K120" s="36" t="inlineStr">
@@ -6113,42 +6113,42 @@
     <row r="121">
       <c r="A121" s="32" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B121" s="33" t="n">
-        <v>519977</v>
+        <v>1469</v>
       </c>
       <c r="C121" s="34" t="n">
-        <v>1.2011</v>
+        <v>0.8885999999999999</v>
       </c>
       <c r="D121" s="35" t="n">
-        <v>333.04</v>
+        <v>900.35</v>
       </c>
       <c r="E121" s="35" t="n">
-        <v>457.13</v>
+        <v>986.33</v>
       </c>
       <c r="F121" s="35" t="n">
-        <v>52.3</v>
+        <v>176.6</v>
       </c>
       <c r="G121" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H121" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I121" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>金融地产</t>
         </is>
       </c>
       <c r="J121" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>147</t>
         </is>
       </c>
       <c r="K121" s="36" t="inlineStr">
@@ -6160,42 +6160,42 @@
     <row r="122">
       <c r="A122" s="32" t="inlineStr">
         <is>
-          <t>华夏沪深300ETF联接A</t>
+          <t>华安黄金易ETF联接A</t>
         </is>
       </c>
       <c r="B122" s="33" t="n">
-        <v>51</v>
+        <v>216</v>
       </c>
       <c r="C122" s="34" t="n">
-        <v>1.2285</v>
+        <v>1.0903</v>
       </c>
       <c r="D122" s="35" t="n">
-        <v>325.61</v>
+        <v>733.79</v>
       </c>
       <c r="E122" s="35" t="n">
-        <v>425.25</v>
+        <v>892.88</v>
       </c>
       <c r="F122" s="35" t="n">
-        <v>20.03</v>
+        <v>93.68000000000001</v>
       </c>
       <c r="G122" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H122" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I122" s="36" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="J122" s="36" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>611</t>
         </is>
       </c>
       <c r="K122" s="36" t="inlineStr">
@@ -6207,42 +6207,42 @@
     <row r="123">
       <c r="A123" s="32" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>易方达证券公司分级</t>
         </is>
       </c>
       <c r="B123" s="33" t="n">
-        <v>71</v>
+        <v>502010</v>
       </c>
       <c r="C123" s="34" t="n">
-        <v>1.452</v>
+        <v>0.8063</v>
       </c>
       <c r="D123" s="35" t="n">
-        <v>275.49</v>
+        <v>496.13</v>
       </c>
       <c r="E123" s="35" t="n">
-        <v>411.47</v>
+        <v>489.23</v>
       </c>
       <c r="F123" s="35" t="n">
-        <v>7</v>
+        <v>84.91</v>
       </c>
       <c r="G123" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H123" s="36" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I123" s="36" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>证券公司</t>
         </is>
       </c>
       <c r="J123" s="36" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>145</t>
         </is>
       </c>
       <c r="K123" s="36" t="inlineStr">
@@ -6254,42 +6254,42 @@
     <row r="124">
       <c r="A124" s="32" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B124" s="33" t="n">
-        <v>478</v>
+        <v>519977</v>
       </c>
       <c r="C124" s="34" t="n">
-        <v>1.9396</v>
+        <v>1.2011</v>
       </c>
       <c r="D124" s="35" t="n">
-        <v>206.23</v>
+        <v>333.04</v>
       </c>
       <c r="E124" s="35" t="n">
-        <v>408.97</v>
+        <v>457.13</v>
       </c>
       <c r="F124" s="35" t="n">
-        <v>1.32</v>
+        <v>52.3</v>
       </c>
       <c r="G124" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H124" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I124" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J124" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K124" s="36" t="inlineStr">
@@ -6301,51 +6301,192 @@
     <row r="125">
       <c r="A125" s="32" t="inlineStr">
         <is>
+          <t>华夏沪深300ETF联接A</t>
+        </is>
+      </c>
+      <c r="B125" s="33" t="n">
+        <v>51</v>
+      </c>
+      <c r="C125" s="34" t="n">
+        <v>1.2285</v>
+      </c>
+      <c r="D125" s="35" t="n">
+        <v>325.61</v>
+      </c>
+      <c r="E125" s="35" t="n">
+        <v>425.25</v>
+      </c>
+      <c r="F125" s="35" t="n">
+        <v>20.03</v>
+      </c>
+      <c r="G125" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H125" s="36" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="I125" s="36" t="inlineStr">
+        <is>
+          <t>沪深300</t>
+        </is>
+      </c>
+      <c r="J125" s="36" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="K125" s="36" t="inlineStr">
+        <is>
+          <t>母天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="32" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF联接A</t>
+        </is>
+      </c>
+      <c r="B126" s="33" t="n">
+        <v>71</v>
+      </c>
+      <c r="C126" s="34" t="n">
+        <v>1.452</v>
+      </c>
+      <c r="D126" s="35" t="n">
+        <v>275.49</v>
+      </c>
+      <c r="E126" s="35" t="n">
+        <v>411.47</v>
+      </c>
+      <c r="F126" s="35" t="n">
+        <v>7</v>
+      </c>
+      <c r="G126" s="36" t="inlineStr">
+        <is>
+          <t>海外新兴</t>
+        </is>
+      </c>
+      <c r="H126" s="36" t="inlineStr">
+        <is>
+          <t>香港</t>
+        </is>
+      </c>
+      <c r="I126" s="36" t="inlineStr">
+        <is>
+          <t>恒生</t>
+        </is>
+      </c>
+      <c r="J126" s="36" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="K126" s="36" t="inlineStr">
+        <is>
+          <t>母天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="32" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="B127" s="33" t="n">
+        <v>478</v>
+      </c>
+      <c r="C127" s="34" t="n">
+        <v>1.9396</v>
+      </c>
+      <c r="D127" s="35" t="n">
+        <v>206.23</v>
+      </c>
+      <c r="E127" s="35" t="n">
+        <v>408.97</v>
+      </c>
+      <c r="F127" s="35" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G127" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H127" s="36" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="I127" s="36" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="J127" s="36" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="K127" s="36" t="inlineStr">
+        <is>
+          <t>母天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="32" t="inlineStr">
+        <is>
           <t>广发中证500ETF联接C</t>
         </is>
       </c>
-      <c r="B125" s="33" t="n">
+      <c r="B128" s="33" t="n">
         <v>2903</v>
       </c>
-      <c r="C125" s="34" t="n">
+      <c r="C128" s="34" t="n">
         <v>0.829</v>
       </c>
-      <c r="D125" s="35" t="n">
+      <c r="D128" s="35" t="n">
         <v>275.96</v>
       </c>
-      <c r="E125" s="35" t="n">
+      <c r="E128" s="35" t="n">
         <v>243.07</v>
       </c>
-      <c r="F125" s="35" t="n">
+      <c r="F128" s="35" t="n">
         <v>9.75</v>
       </c>
-      <c r="G125" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H125" s="36" t="inlineStr">
+      <c r="G128" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H128" s="36" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="I125" s="36" t="inlineStr">
+      <c r="I128" s="36" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="J125" s="36" t="inlineStr">
+      <c r="J128" s="36" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="K125" s="36" t="inlineStr">
+      <c r="K128" s="36" t="inlineStr">
         <is>
           <t>母天天基金</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/scripts/output/201912/全家/全家整体资产配置.xlsx
+++ b/scripts/output/201912/全家/全家整体资产配置.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="资产配置情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="000000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt formatCode="000000" numFmtId="164"/>
+    <numFmt formatCode="0.0000" numFmtId="165"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -87,67 +87,67 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -448,16 +448,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="11.25" customWidth="1" min="8" max="8"/>
-    <col width="11.25" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
+    <col customWidth="1" max="1" min="1" width="30"/>
+    <col customWidth="1" max="2" min="2" width="9"/>
+    <col customWidth="1" max="3" min="3" width="9"/>
+    <col customWidth="1" max="4" min="4" width="9"/>
+    <col customWidth="1" max="5" min="5" width="9"/>
+    <col customWidth="1" max="6" min="6" width="9"/>
+    <col customWidth="1" max="7" min="7" width="9"/>
+    <col customWidth="1" max="8" min="8" width="11.25"/>
+    <col customWidth="1" max="9" min="9" width="11.25"/>
+    <col customWidth="1" max="11" min="11" width="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -721,7 +721,7 @@
         <v>3620.67</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3375.55</v>
+        <v>3370.48</v>
       </c>
       <c r="F6" s="10" t="n">
         <v>5.75</v>
@@ -909,7 +909,7 @@
         <v>1067.42</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>1019.49</v>
+        <v>1018.85</v>
       </c>
       <c r="F10" s="10" t="n">
         <v>1.21</v>
@@ -956,7 +956,7 @@
         <v>550.4</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>525.52</v>
+        <v>525.85</v>
       </c>
       <c r="F11" s="10" t="n">
         <v>-17.24</v>
@@ -1050,7 +1050,7 @@
         <v>247.91</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>328.48</v>
+        <v>328.73</v>
       </c>
       <c r="F13" s="10" t="n">
         <v>12.74</v>
@@ -1332,7 +1332,7 @@
         <v>16731.88</v>
       </c>
       <c r="E19" s="20" t="n">
-        <v>9299.58</v>
+        <v>9276.15</v>
       </c>
       <c r="F19" s="20" t="n">
         <v>-2840.97</v>
@@ -1379,7 +1379,7 @@
         <v>2700</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>7959.6</v>
+        <v>7927.2</v>
       </c>
       <c r="F20" s="25" t="n">
         <v>1539</v>
@@ -1473,7 +1473,7 @@
         <v>38800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>211110.8</v>
+        <v>210629.68</v>
       </c>
       <c r="F22" s="25" t="n">
         <v>-10514.8</v>
@@ -1802,7 +1802,7 @@
         <v>4157.52</v>
       </c>
       <c r="E29" s="30" t="n">
-        <v>8244.780000000001</v>
+        <v>8221.5</v>
       </c>
       <c r="F29" s="30" t="n">
         <v>86.53</v>
@@ -1849,7 +1849,7 @@
         <v>9722</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>5403.49</v>
+        <v>5389.88</v>
       </c>
       <c r="F30" s="30" t="n">
         <v>-14.18</v>
@@ -1896,7 +1896,7 @@
         <v>4943.96</v>
       </c>
       <c r="E31" s="30" t="n">
-        <v>4721.98</v>
+        <v>4719.01</v>
       </c>
       <c r="F31" s="30" t="n">
         <v>-22.17</v>
@@ -1943,7 +1943,7 @@
         <v>7379.54</v>
       </c>
       <c r="E32" s="30" t="n">
-        <v>4125.16</v>
+        <v>4117.78</v>
       </c>
       <c r="F32" s="30" t="n">
         <v>41.99</v>
@@ -2037,7 +2037,7 @@
         <v>4550.55</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>3556.25</v>
+        <v>3535.32</v>
       </c>
       <c r="F34" s="30" t="n">
         <v>116.14</v>
@@ -2131,7 +2131,7 @@
         <v>736.3</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>710.09</v>
+        <v>711.1900000000001</v>
       </c>
       <c r="F36" s="30" t="n">
         <v>27.48</v>
@@ -2272,7 +2272,7 @@
         <v>576.8</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>752.72</v>
+        <v>757.92</v>
       </c>
       <c r="F39" s="30" t="n">
         <v>84.56999999999999</v>
@@ -2319,7 +2319,7 @@
         <v>459.67</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>686.5599999999999</v>
+        <v>695.2</v>
       </c>
       <c r="F40" s="30" t="n">
         <v>12.12</v>
@@ -2366,7 +2366,7 @@
         <v>611.75</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>731.65</v>
+        <v>737.16</v>
       </c>
       <c r="F41" s="30" t="n">
         <v>55.48</v>
@@ -2413,7 +2413,7 @@
         <v>1046.73</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>2075.77</v>
+        <v>2069.91</v>
       </c>
       <c r="F42" s="30" t="n">
         <v>36.94</v>
@@ -2507,7 +2507,7 @@
         <v>1059.17</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>1068.7</v>
+        <v>1065.53</v>
       </c>
       <c r="F44" s="30" t="n">
         <v>55.99</v>
@@ -2554,7 +2554,7 @@
         <v>1812.7</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>1013.3</v>
+        <v>1011.49</v>
       </c>
       <c r="F45" s="30" t="n">
         <v>-6.64</v>
@@ -2601,7 +2601,7 @@
         <v>1227.03</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>958.92</v>
+        <v>953.28</v>
       </c>
       <c r="F46" s="30" t="n">
         <v>-69.42</v>
@@ -2648,7 +2648,7 @@
         <v>1834.47</v>
       </c>
       <c r="E47" s="30" t="n">
-        <v>2232.18</v>
+        <v>2245.02</v>
       </c>
       <c r="F47" s="30" t="n">
         <v>234.2</v>
@@ -2695,7 +2695,7 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>1174.27</v>
+        <v>1182.36</v>
       </c>
       <c r="F48" s="30" t="n">
         <v>172.47</v>
@@ -2742,7 +2742,7 @@
         <v>689.02</v>
       </c>
       <c r="E49" s="30" t="n">
-        <v>1029.12</v>
+        <v>1042.07</v>
       </c>
       <c r="F49" s="30" t="n">
         <v>17.96</v>
@@ -2836,7 +2836,7 @@
         <v>953.96</v>
       </c>
       <c r="E51" s="30" t="n">
-        <v>1140.94</v>
+        <v>1149.52</v>
       </c>
       <c r="F51" s="30" t="n">
         <v>126.63</v>
@@ -2977,7 +2977,7 @@
         <v>63490</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>60639.3</v>
+        <v>60601.21</v>
       </c>
       <c r="F54" s="35" t="n">
         <v>1474.25</v>
@@ -3024,7 +3024,7 @@
         <v>32370.29</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>37844.11</v>
+        <v>37827.92</v>
       </c>
       <c r="F55" s="35" t="n">
         <v>5167.56</v>
@@ -3118,7 +3118,7 @@
         <v>41014.88</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>34140.79</v>
+        <v>34091.57</v>
       </c>
       <c r="F57" s="35" t="n">
         <v>3203.44</v>
@@ -3165,7 +3165,7 @@
         <v>20716.63</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>24777.09</v>
+        <v>24963.54</v>
       </c>
       <c r="F58" s="35" t="n">
         <v>1866.34</v>
@@ -3259,7 +3259,7 @@
         <v>21163.93</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>23185.09</v>
+        <v>23108.9</v>
       </c>
       <c r="F60" s="35" t="n">
         <v>3756.51</v>
@@ -3306,7 +3306,7 @@
         <v>16778.47</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>21895.9</v>
+        <v>22046.91</v>
       </c>
       <c r="F61" s="35" t="n">
         <v>2662.34</v>
@@ -3447,7 +3447,7 @@
         <v>6798.52</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>10154.27</v>
+        <v>10282.08</v>
       </c>
       <c r="F64" s="35" t="n">
         <v>144.13</v>
@@ -3541,7 +3541,7 @@
         <v>13403.92</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>7449.9</v>
+        <v>7431.13</v>
       </c>
       <c r="F66" s="35" t="n">
         <v>937.3</v>
@@ -3588,7 +3588,7 @@
         <v>5328.62</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>7314.06</v>
+        <v>7331.12</v>
       </c>
       <c r="F67" s="35" t="n">
         <v>836.79</v>
@@ -3635,7 +3635,7 @@
         <v>7778.64</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>6851.43</v>
+        <v>6832.76</v>
       </c>
       <c r="F68" s="35" t="n">
         <v>-276.93</v>
@@ -3682,7 +3682,7 @@
         <v>3299.64</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>6543.52</v>
+        <v>6525.04</v>
       </c>
       <c r="F69" s="35" t="n">
         <v>21.09</v>
@@ -3729,7 +3729,7 @@
         <v>7852.99</v>
       </c>
       <c r="E70" s="35" t="n">
-        <v>6137.11</v>
+        <v>6100.99</v>
       </c>
       <c r="F70" s="35" t="n">
         <v>-444.3</v>
@@ -3823,7 +3823,7 @@
         <v>171152.16</v>
       </c>
       <c r="E72" s="30" t="n">
-        <v>176218.26</v>
+        <v>176235.38</v>
       </c>
       <c r="F72" s="30" t="n">
         <v>41.34</v>
@@ -4293,7 +4293,7 @@
         <v>1358.53</v>
       </c>
       <c r="E82" s="10" t="n">
-        <v>1266.56</v>
+        <v>1264.66</v>
       </c>
       <c r="F82" s="10" t="n">
         <v>2.49</v>
@@ -4434,7 +4434,7 @@
         <v>390.82</v>
       </c>
       <c r="E85" s="10" t="n">
-        <v>373.27</v>
+        <v>373.04</v>
       </c>
       <c r="F85" s="10" t="n">
         <v>0.04</v>
@@ -4481,7 +4481,7 @@
         <v>214.89</v>
       </c>
       <c r="E86" s="10" t="n">
-        <v>205.18</v>
+        <v>205.31</v>
       </c>
       <c r="F86" s="10" t="n">
         <v>-6.77</v>
@@ -4575,7 +4575,7 @@
         <v>62.09</v>
       </c>
       <c r="E88" s="10" t="n">
-        <v>82.27</v>
+        <v>82.33</v>
       </c>
       <c r="F88" s="10" t="n">
         <v>1.61</v>
@@ -4904,7 +4904,7 @@
         <v>1412.34</v>
       </c>
       <c r="E95" s="10" t="n">
-        <v>1316.72</v>
+        <v>1314.75</v>
       </c>
       <c r="F95" s="10" t="n">
         <v>1.77</v>
@@ -5045,7 +5045,7 @@
         <v>426.97</v>
       </c>
       <c r="E98" s="10" t="n">
-        <v>407.8</v>
+        <v>407.54</v>
       </c>
       <c r="F98" s="10" t="n">
         <v>0.5</v>
@@ -5092,7 +5092,7 @@
         <v>227.52</v>
       </c>
       <c r="E99" s="10" t="n">
-        <v>217.24</v>
+        <v>217.37</v>
       </c>
       <c r="F99" s="10" t="n">
         <v>-7.05</v>
@@ -5139,7 +5139,7 @@
         <v>142.1</v>
       </c>
       <c r="E100" s="10" t="n">
-        <v>188.28</v>
+        <v>188.42</v>
       </c>
       <c r="F100" s="10" t="n">
         <v>4.41</v>
@@ -5468,7 +5468,7 @@
         <v>6096.21</v>
       </c>
       <c r="E107" s="35" t="n">
-        <v>5822.49</v>
+        <v>5818.83</v>
       </c>
       <c r="F107" s="35" t="n">
         <v>529.8200000000001</v>
@@ -5515,7 +5515,7 @@
         <v>6750.28</v>
       </c>
       <c r="E108" s="35" t="n">
-        <v>5618.93</v>
+        <v>5610.83</v>
       </c>
       <c r="F108" s="35" t="n">
         <v>756.83</v>
@@ -5609,7 +5609,7 @@
         <v>4423.48</v>
       </c>
       <c r="E110" s="35" t="n">
-        <v>3456.95</v>
+        <v>3436.6</v>
       </c>
       <c r="F110" s="35" t="n">
         <v>154.76</v>
@@ -5750,7 +5750,7 @@
         <v>5949.77</v>
       </c>
       <c r="E113" s="35" t="n">
-        <v>3306.88</v>
+        <v>3298.55</v>
       </c>
       <c r="F113" s="35" t="n">
         <v>56.9</v>
@@ -5797,7 +5797,7 @@
         <v>1884.74</v>
       </c>
       <c r="E114" s="35" t="n">
-        <v>2254.15</v>
+        <v>2271.11</v>
       </c>
       <c r="F114" s="35" t="n">
         <v>225.87</v>
@@ -5891,7 +5891,7 @@
         <v>1630.08</v>
       </c>
       <c r="E116" s="35" t="n">
-        <v>1905.73</v>
+        <v>1904.91</v>
       </c>
       <c r="F116" s="35" t="n">
         <v>271.65</v>
@@ -5938,7 +5938,7 @@
         <v>1407.29</v>
       </c>
       <c r="E117" s="35" t="n">
-        <v>1836.51</v>
+        <v>1849.18</v>
       </c>
       <c r="F117" s="35" t="n">
         <v>233.69</v>
@@ -5985,7 +5985,7 @@
         <v>1338.46</v>
       </c>
       <c r="E118" s="35" t="n">
-        <v>1350.51</v>
+        <v>1346.49</v>
       </c>
       <c r="F118" s="35" t="n">
         <v>134.44</v>
@@ -6126,7 +6126,7 @@
         <v>900.35</v>
       </c>
       <c r="E121" s="35" t="n">
-        <v>986.33</v>
+        <v>983.09</v>
       </c>
       <c r="F121" s="35" t="n">
         <v>176.6</v>
@@ -6173,7 +6173,7 @@
         <v>733.79</v>
       </c>
       <c r="E122" s="35" t="n">
-        <v>892.88</v>
+        <v>898.01</v>
       </c>
       <c r="F122" s="35" t="n">
         <v>93.68000000000001</v>
@@ -6267,7 +6267,7 @@
         <v>333.04</v>
       </c>
       <c r="E124" s="35" t="n">
-        <v>457.13</v>
+        <v>458.2</v>
       </c>
       <c r="F124" s="35" t="n">
         <v>52.3</v>
@@ -6314,7 +6314,7 @@
         <v>325.61</v>
       </c>
       <c r="E125" s="35" t="n">
-        <v>425.25</v>
+        <v>424.27</v>
       </c>
       <c r="F125" s="35" t="n">
         <v>20.03</v>
@@ -6361,7 +6361,7 @@
         <v>275.49</v>
       </c>
       <c r="E126" s="35" t="n">
-        <v>411.47</v>
+        <v>416.65</v>
       </c>
       <c r="F126" s="35" t="n">
         <v>7</v>
@@ -6408,7 +6408,7 @@
         <v>206.23</v>
       </c>
       <c r="E127" s="35" t="n">
-        <v>408.97</v>
+        <v>407.82</v>
       </c>
       <c r="F127" s="35" t="n">
         <v>1.32</v>
@@ -6455,7 +6455,7 @@
         <v>275.96</v>
       </c>
       <c r="E128" s="35" t="n">
-        <v>243.07</v>
+        <v>242.4</v>
       </c>
       <c r="F128" s="35" t="n">
         <v>9.75</v>
@@ -6487,6 +6487,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/scripts/output/201912/全家/全家整体资产配置.xlsx
+++ b/scripts/output/201912/全家/全家整体资产配置.xlsx
@@ -627,10 +627,10 @@
         <v>2422.08</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>3962.52</v>
+        <v>3991.59</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>-64.81999999999999</v>
+        <v>-6.78</v>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
@@ -674,10 +674,10 @@
         <v>2699.6</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>3887.42</v>
+        <v>3960.31</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>16.63</v>
+        <v>108.52</v>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
@@ -721,10 +721,10 @@
         <v>3620.67</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3370.48</v>
+        <v>3389.67</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>5.75</v>
+        <v>11.22</v>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
@@ -768,10 +768,10 @@
         <v>2260.14</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>3348.17</v>
+        <v>3385.46</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>250.15</v>
+        <v>338.57</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
@@ -815,10 +815,10 @@
         <v>1363.37</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2553.05</v>
+        <v>2592.45</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>112.22</v>
+        <v>140.15</v>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         <v>1059.44</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>2306.82</v>
+        <v>2345.07</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>58.37</v>
+        <v>93.02</v>
       </c>
       <c r="G9" s="11" t="inlineStr">
         <is>
@@ -909,10 +909,10 @@
         <v>1067.42</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>1018.85</v>
+        <v>1036.04</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>1.21</v>
+        <v>12.49</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
@@ -956,10 +956,10 @@
         <v>550.4</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>525.85</v>
+        <v>533.28</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>-17.24</v>
+        <v>-7.6</v>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
@@ -1003,10 +1003,10 @@
         <v>531.87</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>406.03</v>
+        <v>411.4</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>51.32</v>
+        <v>54.62</v>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
         <v>247.91</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>328.73</v>
+        <v>335.92</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>12.74</v>
+        <v>22.66</v>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         <v>85.65000000000001</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>104.7</v>
+        <v>106.6</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>-0.1</v>
+        <v>2.62</v>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
@@ -1144,10 +1144,10 @@
         <v>64.5</v>
       </c>
       <c r="E15" s="10" t="n">
-        <v>87.76000000000001</v>
+        <v>89.33</v>
       </c>
       <c r="F15" s="10" t="n">
-        <v>-5.35</v>
+        <v>-3.39</v>
       </c>
       <c r="G15" s="11" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="10" t="n">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="G16" s="11" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         <v>16731.88</v>
       </c>
       <c r="E19" s="20" t="n">
-        <v>9276.15</v>
+        <v>9425.07</v>
       </c>
       <c r="F19" s="20" t="n">
-        <v>-2840.97</v>
+        <v>-2575.04</v>
       </c>
       <c r="G19" s="21" t="inlineStr">
         <is>
@@ -1379,10 +1379,10 @@
         <v>2700</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>7927.2</v>
+        <v>8105.4</v>
       </c>
       <c r="F20" s="25" t="n">
-        <v>1539</v>
+        <v>1795.5</v>
       </c>
       <c r="G20" s="26" t="inlineStr">
         <is>
@@ -1426,10 +1426,10 @@
         <v>9100</v>
       </c>
       <c r="E21" s="25" t="n">
-        <v>35388.08</v>
+        <v>36093.33</v>
       </c>
       <c r="F21" s="25" t="n">
-        <v>4222.4</v>
+        <v>4725.63</v>
       </c>
       <c r="G21" s="26" t="inlineStr">
         <is>
@@ -1473,10 +1473,10 @@
         <v>38800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>210629.68</v>
+        <v>213287.48</v>
       </c>
       <c r="F22" s="25" t="n">
-        <v>-10514.8</v>
+        <v>-4031.32</v>
       </c>
       <c r="G22" s="26" t="inlineStr">
         <is>
@@ -1520,10 +1520,10 @@
         <v>33800</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>24961.3</v>
+        <v>25383.8</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>-5002.4</v>
+        <v>-4258.8</v>
       </c>
       <c r="G23" s="26" t="inlineStr">
         <is>
@@ -1567,10 +1567,10 @@
         <v>32700</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>30034.95</v>
+        <v>31182.72</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>4152.9</v>
+        <v>5578.62</v>
       </c>
       <c r="G24" s="26" t="inlineStr">
         <is>
@@ -1614,10 +1614,10 @@
         <v>34100</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>26403.63</v>
+        <v>26853.75</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>-3853.3</v>
+        <v>-2779.15</v>
       </c>
       <c r="G25" s="26" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
         <v>4500</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>14874.75</v>
+        <v>14742.9</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>1894.5</v>
+        <v>1890.9</v>
       </c>
       <c r="G26" s="26" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>9200</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>15242.56</v>
+        <v>15550.76</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>1968.8</v>
+        <v>2679.96</v>
       </c>
       <c r="G27" s="26" t="inlineStr">
         <is>
@@ -1755,10 +1755,10 @@
         <v>14400</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>19190.88</v>
+        <v>19478.88</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>705.6</v>
+        <v>1176.48</v>
       </c>
       <c r="G28" s="26" t="inlineStr">
         <is>
@@ -1802,10 +1802,10 @@
         <v>4157.52</v>
       </c>
       <c r="E29" s="30" t="n">
-        <v>8221.5</v>
+        <v>8320.860000000001</v>
       </c>
       <c r="F29" s="30" t="n">
-        <v>86.53</v>
+        <v>316.8</v>
       </c>
       <c r="G29" s="31" t="inlineStr">
         <is>
@@ -1849,10 +1849,10 @@
         <v>9722</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>5389.88</v>
+        <v>5476.4</v>
       </c>
       <c r="F30" s="30" t="n">
-        <v>-14.18</v>
+        <v>140</v>
       </c>
       <c r="G30" s="31" t="inlineStr">
         <is>
@@ -1896,10 +1896,10 @@
         <v>4943.96</v>
       </c>
       <c r="E31" s="30" t="n">
-        <v>4719.01</v>
+        <v>4798.61</v>
       </c>
       <c r="F31" s="30" t="n">
-        <v>-22.17</v>
+        <v>129.53</v>
       </c>
       <c r="G31" s="31" t="inlineStr">
         <is>
@@ -1943,10 +1943,10 @@
         <v>7379.54</v>
       </c>
       <c r="E32" s="30" t="n">
-        <v>4117.78</v>
+        <v>4162.06</v>
       </c>
       <c r="F32" s="30" t="n">
-        <v>41.99</v>
+        <v>160.14</v>
       </c>
       <c r="G32" s="31" t="inlineStr">
         <is>
@@ -1990,10 +1990,10 @@
         <v>3665.01</v>
       </c>
       <c r="E33" s="30" t="n">
-        <v>4071.83</v>
+        <v>4126.8</v>
       </c>
       <c r="F33" s="30" t="n">
-        <v>14.85</v>
+        <v>124.98</v>
       </c>
       <c r="G33" s="31" t="inlineStr">
         <is>
@@ -2037,10 +2037,10 @@
         <v>4550.55</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>3535.32</v>
+        <v>3592.66</v>
       </c>
       <c r="F34" s="30" t="n">
-        <v>116.14</v>
+        <v>257.56</v>
       </c>
       <c r="G34" s="31" t="inlineStr">
         <is>
@@ -2084,10 +2084,10 @@
         <v>400.63</v>
       </c>
       <c r="E35" s="30" t="n">
-        <v>712.96</v>
+        <v>726.62</v>
       </c>
       <c r="F35" s="30" t="n">
-        <v>28.17</v>
+        <v>59.61</v>
       </c>
       <c r="G35" s="31" t="inlineStr">
         <is>
@@ -2131,10 +2131,10 @@
         <v>736.3</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>711.1900000000001</v>
+        <v>724.08</v>
       </c>
       <c r="F36" s="30" t="n">
-        <v>27.48</v>
+        <v>57.06</v>
       </c>
       <c r="G36" s="31" t="inlineStr">
         <is>
@@ -2178,10 +2178,10 @@
         <v>473.85</v>
       </c>
       <c r="E37" s="30" t="n">
-        <v>467.26</v>
+        <v>484.13</v>
       </c>
       <c r="F37" s="30" t="n">
-        <v>-3.76</v>
+        <v>17.25</v>
       </c>
       <c r="G37" s="31" t="inlineStr">
         <is>
@@ -2225,10 +2225,10 @@
         <v>5299.96</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>2019.28</v>
+        <v>2082.88</v>
       </c>
       <c r="F38" s="30" t="n">
-        <v>-66.51000000000001</v>
+        <v>82.15000000000001</v>
       </c>
       <c r="G38" s="31" t="inlineStr">
         <is>
@@ -2272,10 +2272,10 @@
         <v>576.8</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>757.92</v>
+        <v>763.11</v>
       </c>
       <c r="F39" s="30" t="n">
-        <v>84.56999999999999</v>
+        <v>96.09</v>
       </c>
       <c r="G39" s="31" t="inlineStr">
         <is>
@@ -2319,10 +2319,10 @@
         <v>459.67</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>695.2</v>
+        <v>711.62</v>
       </c>
       <c r="F40" s="30" t="n">
-        <v>12.12</v>
+        <v>44.63</v>
       </c>
       <c r="G40" s="31" t="inlineStr">
         <is>
@@ -2366,10 +2366,10 @@
         <v>611.75</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>737.16</v>
+        <v>742.05</v>
       </c>
       <c r="F41" s="30" t="n">
-        <v>55.48</v>
+        <v>75.06</v>
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
@@ -2413,10 +2413,10 @@
         <v>1046.73</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>2069.91</v>
+        <v>2094.93</v>
       </c>
       <c r="F42" s="30" t="n">
-        <v>36.94</v>
+        <v>94.94</v>
       </c>
       <c r="G42" s="31" t="inlineStr">
         <is>
@@ -2460,10 +2460,10 @@
         <v>1825.9</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>2028.57</v>
+        <v>2055.96</v>
       </c>
       <c r="F43" s="30" t="n">
-        <v>1.19</v>
+        <v>55.87</v>
       </c>
       <c r="G43" s="31" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>1059.17</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>1065.53</v>
+        <v>1087.77</v>
       </c>
       <c r="F44" s="30" t="n">
-        <v>55.99</v>
+        <v>87.81</v>
       </c>
       <c r="G44" s="31" t="inlineStr">
         <is>
@@ -2554,10 +2554,10 @@
         <v>1812.7</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>1011.49</v>
+        <v>1022.36</v>
       </c>
       <c r="F45" s="30" t="n">
-        <v>-6.64</v>
+        <v>22.3</v>
       </c>
       <c r="G45" s="31" t="inlineStr">
         <is>
@@ -2601,10 +2601,10 @@
         <v>1227.03</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>953.28</v>
+        <v>968.74</v>
       </c>
       <c r="F46" s="30" t="n">
-        <v>-69.42</v>
+        <v>-31.29</v>
       </c>
       <c r="G46" s="31" t="inlineStr">
         <is>
@@ -2648,10 +2648,10 @@
         <v>1834.47</v>
       </c>
       <c r="E47" s="30" t="n">
-        <v>2245.02</v>
+        <v>2225.4</v>
       </c>
       <c r="F47" s="30" t="n">
-        <v>234.2</v>
+        <v>225.46</v>
       </c>
       <c r="G47" s="31" t="inlineStr">
         <is>
@@ -2695,10 +2695,10 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>1182.36</v>
+        <v>1190.46</v>
       </c>
       <c r="F48" s="30" t="n">
-        <v>172.47</v>
+        <v>190.49</v>
       </c>
       <c r="G48" s="31" t="inlineStr">
         <is>
@@ -2742,10 +2742,10 @@
         <v>689.02</v>
       </c>
       <c r="E49" s="30" t="n">
-        <v>1042.07</v>
+        <v>1066.67</v>
       </c>
       <c r="F49" s="30" t="n">
-        <v>17.96</v>
+        <v>66.7</v>
       </c>
       <c r="G49" s="31" t="inlineStr">
         <is>
@@ -2789,10 +2789,10 @@
         <v>4757.9</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>1812.76</v>
+        <v>1869.85</v>
       </c>
       <c r="F50" s="30" t="n">
-        <v>-263.37</v>
+        <v>-130.37</v>
       </c>
       <c r="G50" s="31" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>953.96</v>
       </c>
       <c r="E51" s="30" t="n">
-        <v>1149.52</v>
+        <v>1157.15</v>
       </c>
       <c r="F51" s="30" t="n">
-        <v>126.63</v>
+        <v>157.12</v>
       </c>
       <c r="G51" s="31" t="inlineStr">
         <is>
@@ -2883,10 +2883,10 @@
         <v>595.47</v>
       </c>
       <c r="E52" s="30" t="n">
-        <v>1017.66</v>
+        <v>1025.4</v>
       </c>
       <c r="F52" s="30" t="n">
-        <v>2.18</v>
+        <v>25.43</v>
       </c>
       <c r="G52" s="31" t="inlineStr">
         <is>
@@ -2930,10 +2930,10 @@
         <v>65064.33</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>72286.47</v>
+        <v>73262.44</v>
       </c>
       <c r="F53" s="35" t="n">
-        <v>4990.5</v>
+        <v>6942.36</v>
       </c>
       <c r="G53" s="36" t="inlineStr">
         <is>
@@ -2977,10 +2977,10 @@
         <v>63490</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>60601.21</v>
+        <v>61623.39</v>
       </c>
       <c r="F54" s="35" t="n">
-        <v>1474.25</v>
+        <v>3422.11</v>
       </c>
       <c r="G54" s="36" t="inlineStr">
         <is>
@@ -3024,10 +3024,10 @@
         <v>32370.29</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>37827.92</v>
+        <v>38132.2</v>
       </c>
       <c r="F55" s="35" t="n">
-        <v>5167.56</v>
+        <v>6130.93</v>
       </c>
       <c r="G55" s="36" t="inlineStr">
         <is>
@@ -3071,10 +3071,10 @@
         <v>20086.63</v>
       </c>
       <c r="E56" s="35" t="n">
-        <v>34328.05</v>
+        <v>34589.18</v>
       </c>
       <c r="F56" s="35" t="n">
-        <v>1805.79</v>
+        <v>2589.17</v>
       </c>
       <c r="G56" s="36" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         <v>41014.88</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>34091.57</v>
+        <v>34575.54</v>
       </c>
       <c r="F57" s="35" t="n">
-        <v>3203.44</v>
+        <v>4015.36</v>
       </c>
       <c r="G57" s="36" t="inlineStr">
         <is>
@@ -3165,10 +3165,10 @@
         <v>20716.63</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>24963.54</v>
+        <v>25129.27</v>
       </c>
       <c r="F58" s="35" t="n">
-        <v>1866.34</v>
+        <v>2527.43</v>
       </c>
       <c r="G58" s="36" t="inlineStr">
         <is>
@@ -3212,10 +3212,10 @@
         <v>14624.61</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>23764.99</v>
+        <v>24232.98</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>4287.12</v>
+        <v>5032.33</v>
       </c>
       <c r="G59" s="36" t="inlineStr">
         <is>
@@ -3259,10 +3259,10 @@
         <v>21163.93</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>23108.9</v>
+        <v>23646.46</v>
       </c>
       <c r="F60" s="35" t="n">
-        <v>3756.51</v>
+        <v>4444.43</v>
       </c>
       <c r="G60" s="36" t="inlineStr">
         <is>
@@ -3306,10 +3306,10 @@
         <v>16778.47</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>22046.91</v>
+        <v>22197.92</v>
       </c>
       <c r="F61" s="35" t="n">
-        <v>2662.34</v>
+        <v>2996.63</v>
       </c>
       <c r="G61" s="36" t="inlineStr">
         <is>
@@ -3353,10 +3353,10 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>15524.06</v>
+        <v>15724.19</v>
       </c>
       <c r="F62" s="35" t="n">
-        <v>2457.22</v>
+        <v>2923.75</v>
       </c>
       <c r="G62" s="36" t="inlineStr">
         <is>
@@ -3400,10 +3400,10 @@
         <v>37267.45</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>14198.9</v>
+        <v>14646.11</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>-5597.39</v>
+        <v>-4554.08</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
@@ -3447,10 +3447,10 @@
         <v>6798.52</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>10282.08</v>
+        <v>10524.79</v>
       </c>
       <c r="F64" s="35" t="n">
-        <v>144.13</v>
+        <v>624.78</v>
       </c>
       <c r="G64" s="36" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>7550.78</v>
       </c>
       <c r="F65" s="35" t="n">
-        <v>2411.26</v>
+        <v>2405.48</v>
       </c>
       <c r="G65" s="36" t="inlineStr">
         <is>
@@ -3541,10 +3541,10 @@
         <v>13403.92</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>7431.13</v>
+        <v>7550.43</v>
       </c>
       <c r="F66" s="35" t="n">
-        <v>937.3</v>
+        <v>1150.06</v>
       </c>
       <c r="G66" s="36" t="inlineStr">
         <is>
@@ -3588,10 +3588,10 @@
         <v>5328.62</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>7331.12</v>
+        <v>7383.87</v>
       </c>
       <c r="F67" s="35" t="n">
-        <v>836.79</v>
+        <v>983.66</v>
       </c>
       <c r="G67" s="36" t="inlineStr">
         <is>
@@ -3635,10 +3635,10 @@
         <v>7778.64</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>6832.76</v>
+        <v>6907.43</v>
       </c>
       <c r="F68" s="35" t="n">
-        <v>-276.93</v>
+        <v>-93.34</v>
       </c>
       <c r="G68" s="36" t="inlineStr">
         <is>
@@ -3682,10 +3682,10 @@
         <v>3299.64</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>6525.04</v>
+        <v>6603.9</v>
       </c>
       <c r="F69" s="35" t="n">
-        <v>21.09</v>
+        <v>203.59</v>
       </c>
       <c r="G69" s="36" t="inlineStr">
         <is>
@@ -3729,10 +3729,10 @@
         <v>7852.99</v>
       </c>
       <c r="E70" s="35" t="n">
-        <v>6100.99</v>
+        <v>6199.94</v>
       </c>
       <c r="F70" s="35" t="n">
-        <v>-444.3</v>
+        <v>-200.25</v>
       </c>
       <c r="G70" s="36" t="inlineStr">
         <is>
@@ -3776,10 +3776,10 @@
         <v>3580.2</v>
       </c>
       <c r="E71" s="35" t="n">
-        <v>3409.42</v>
+        <v>3456.68</v>
       </c>
       <c r="F71" s="35" t="n">
-        <v>-162.18</v>
+        <v>-43.32</v>
       </c>
       <c r="G71" s="36" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>176235.38</v>
       </c>
       <c r="F72" s="30" t="n">
-        <v>41.34</v>
+        <v>188.27</v>
       </c>
       <c r="G72" s="31" t="inlineStr">
         <is>
@@ -3870,10 +3870,10 @@
         <v>11598.58</v>
       </c>
       <c r="E73" s="30" t="n">
-        <v>17351.48</v>
+        <v>17513.86</v>
       </c>
       <c r="F73" s="30" t="n">
-        <v>-8.08</v>
+        <v>513.8200000000001</v>
       </c>
       <c r="G73" s="31" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>138915.78</v>
       </c>
       <c r="F74" s="30" t="n">
-        <v>18.05</v>
+        <v>270.62</v>
       </c>
       <c r="G74" s="31" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>143204.71</v>
       </c>
       <c r="F75" s="30" t="n">
-        <v>-48.01</v>
+        <v>79.63</v>
       </c>
       <c r="G75" s="31" t="inlineStr">
         <is>
@@ -4011,10 +4011,10 @@
         <v>59685.02</v>
       </c>
       <c r="E76" s="30" t="n">
-        <v>74248.16</v>
+        <v>74546.59</v>
       </c>
       <c r="F76" s="30" t="n">
-        <v>-230.58</v>
+        <v>304.39</v>
       </c>
       <c r="G76" s="31" t="inlineStr">
         <is>
@@ -4058,10 +4058,10 @@
         <v>76964.17</v>
       </c>
       <c r="E77" s="30" t="n">
-        <v>99437.71000000001</v>
+        <v>99899.49000000001</v>
       </c>
       <c r="F77" s="30" t="n">
-        <v>-110.15</v>
+        <v>661.89</v>
       </c>
       <c r="G77" s="31" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         <v>151823.64</v>
       </c>
       <c r="F78" s="30" t="n">
-        <v>-51</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="G78" s="31" t="inlineStr">
         <is>
@@ -4152,10 +4152,10 @@
         <v>1045.13</v>
       </c>
       <c r="E79" s="10" t="n">
-        <v>1504.99</v>
+        <v>1533.21</v>
       </c>
       <c r="F79" s="10" t="n">
-        <v>6.87</v>
+        <v>42.43</v>
       </c>
       <c r="G79" s="11" t="inlineStr">
         <is>
@@ -4199,10 +4199,10 @@
         <v>888.12</v>
       </c>
       <c r="E80" s="10" t="n">
-        <v>1452.96</v>
+        <v>1463.62</v>
       </c>
       <c r="F80" s="10" t="n">
-        <v>-24.71</v>
+        <v>-3.37</v>
       </c>
       <c r="G80" s="11" t="inlineStr">
         <is>
@@ -4246,10 +4246,10 @@
         <v>898.04</v>
       </c>
       <c r="E81" s="10" t="n">
-        <v>1330.36</v>
+        <v>1345.17</v>
       </c>
       <c r="F81" s="10" t="n">
-        <v>99.09</v>
+        <v>134.17</v>
       </c>
       <c r="G81" s="11" t="inlineStr">
         <is>
@@ -4293,10 +4293,10 @@
         <v>1358.53</v>
       </c>
       <c r="E82" s="10" t="n">
-        <v>1264.66</v>
+        <v>1271.86</v>
       </c>
       <c r="F82" s="10" t="n">
-        <v>2.49</v>
+        <v>4.48</v>
       </c>
       <c r="G82" s="11" t="inlineStr">
         <is>
@@ -4340,10 +4340,10 @@
         <v>492.58</v>
       </c>
       <c r="E83" s="10" t="n">
-        <v>922.41</v>
+        <v>936.64</v>
       </c>
       <c r="F83" s="10" t="n">
-        <v>41.56</v>
+        <v>51.67</v>
       </c>
       <c r="G83" s="11" t="inlineStr">
         <is>
@@ -4387,10 +4387,10 @@
         <v>406.95</v>
       </c>
       <c r="E84" s="10" t="n">
-        <v>886.09</v>
+        <v>900.78</v>
       </c>
       <c r="F84" s="10" t="n">
-        <v>23.93</v>
+        <v>37.24</v>
       </c>
       <c r="G84" s="11" t="inlineStr">
         <is>
@@ -4434,10 +4434,10 @@
         <v>390.82</v>
       </c>
       <c r="E85" s="10" t="n">
-        <v>373.04</v>
+        <v>379.33</v>
       </c>
       <c r="F85" s="10" t="n">
-        <v>0.04</v>
+        <v>4.18</v>
       </c>
       <c r="G85" s="11" t="inlineStr">
         <is>
@@ -4481,10 +4481,10 @@
         <v>214.89</v>
       </c>
       <c r="E86" s="10" t="n">
-        <v>205.31</v>
+        <v>208.21</v>
       </c>
       <c r="F86" s="10" t="n">
-        <v>-6.77</v>
+        <v>-3.01</v>
       </c>
       <c r="G86" s="11" t="inlineStr">
         <is>
@@ -4528,10 +4528,10 @@
         <v>212.74</v>
       </c>
       <c r="E87" s="10" t="n">
-        <v>162.41</v>
+        <v>164.55</v>
       </c>
       <c r="F87" s="10" t="n">
-        <v>20.54</v>
+        <v>21.85</v>
       </c>
       <c r="G87" s="11" t="inlineStr">
         <is>
@@ -4575,10 +4575,10 @@
         <v>62.09</v>
       </c>
       <c r="E88" s="10" t="n">
-        <v>82.33</v>
+        <v>84.13</v>
       </c>
       <c r="F88" s="10" t="n">
-        <v>1.61</v>
+        <v>4.09</v>
       </c>
       <c r="G88" s="11" t="inlineStr">
         <is>
@@ -4622,10 +4622,10 @@
         <v>25.8</v>
       </c>
       <c r="E89" s="10" t="n">
-        <v>35.1</v>
+        <v>35.73</v>
       </c>
       <c r="F89" s="10" t="n">
-        <v>-2.14</v>
+        <v>-1.35</v>
       </c>
       <c r="G89" s="11" t="inlineStr">
         <is>
@@ -4669,10 +4669,10 @@
         <v>17.12</v>
       </c>
       <c r="E90" s="10" t="n">
-        <v>20.93</v>
+        <v>21.31</v>
       </c>
       <c r="F90" s="10" t="n">
-        <v>-0.03</v>
+        <v>0.52</v>
       </c>
       <c r="G90" s="11" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="10" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="G91" s="11" t="inlineStr">
         <is>
@@ -4763,10 +4763,10 @@
         <v>974.37</v>
       </c>
       <c r="E92" s="10" t="n">
-        <v>1594.07</v>
+        <v>1605.76</v>
       </c>
       <c r="F92" s="10" t="n">
-        <v>-31.23</v>
+        <v>-7.89</v>
       </c>
       <c r="G92" s="11" t="inlineStr">
         <is>
@@ -4810,10 +4810,10 @@
         <v>1057.28</v>
       </c>
       <c r="E93" s="10" t="n">
-        <v>1522.48</v>
+        <v>1551.03</v>
       </c>
       <c r="F93" s="10" t="n">
-        <v>8.359999999999999</v>
+        <v>44.3</v>
       </c>
       <c r="G93" s="11" t="inlineStr">
         <is>
@@ -4857,10 +4857,10 @@
         <v>915.97</v>
       </c>
       <c r="E94" s="10" t="n">
-        <v>1356.92</v>
+        <v>1372.03</v>
       </c>
       <c r="F94" s="10" t="n">
-        <v>98.38</v>
+        <v>134.19</v>
       </c>
       <c r="G94" s="11" t="inlineStr">
         <is>
@@ -4904,10 +4904,10 @@
         <v>1412.34</v>
       </c>
       <c r="E95" s="10" t="n">
-        <v>1314.75</v>
+        <v>1322.23</v>
       </c>
       <c r="F95" s="10" t="n">
-        <v>1.77</v>
+        <v>3.95</v>
       </c>
       <c r="G95" s="11" t="inlineStr">
         <is>
@@ -4951,10 +4951,10 @@
         <v>528.99</v>
       </c>
       <c r="E96" s="10" t="n">
-        <v>990.59</v>
+        <v>1005.87</v>
       </c>
       <c r="F96" s="10" t="n">
-        <v>43.29</v>
+        <v>54.12</v>
       </c>
       <c r="G96" s="11" t="inlineStr">
         <is>
@@ -4998,10 +4998,10 @@
         <v>406.87</v>
       </c>
       <c r="E97" s="10" t="n">
-        <v>885.92</v>
+        <v>900.61</v>
       </c>
       <c r="F97" s="10" t="n">
-        <v>22.72</v>
+        <v>36.01</v>
       </c>
       <c r="G97" s="11" t="inlineStr">
         <is>
@@ -5045,10 +5045,10 @@
         <v>426.97</v>
       </c>
       <c r="E98" s="10" t="n">
-        <v>407.54</v>
+        <v>414.42</v>
       </c>
       <c r="F98" s="10" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="G98" s="11" t="inlineStr">
         <is>
@@ -5092,10 +5092,10 @@
         <v>227.52</v>
       </c>
       <c r="E99" s="10" t="n">
-        <v>217.37</v>
+        <v>220.44</v>
       </c>
       <c r="F99" s="10" t="n">
-        <v>-7.05</v>
+        <v>-3.07</v>
       </c>
       <c r="G99" s="11" t="inlineStr">
         <is>
@@ -5139,10 +5139,10 @@
         <v>142.1</v>
       </c>
       <c r="E100" s="10" t="n">
-        <v>188.42</v>
+        <v>192.55</v>
       </c>
       <c r="F100" s="10" t="n">
-        <v>4.41</v>
+        <v>10.09</v>
       </c>
       <c r="G100" s="11" t="inlineStr">
         <is>
@@ -5186,10 +5186,10 @@
         <v>212.74</v>
       </c>
       <c r="E101" s="10" t="n">
-        <v>162.41</v>
+        <v>164.55</v>
       </c>
       <c r="F101" s="10" t="n">
-        <v>20.54</v>
+        <v>21.85</v>
       </c>
       <c r="G101" s="11" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>34.26</v>
       </c>
       <c r="E102" s="10" t="n">
-        <v>41.88</v>
+        <v>42.64</v>
       </c>
       <c r="F102" s="10" t="n">
-        <v>-0.05</v>
+        <v>1.04</v>
       </c>
       <c r="G102" s="11" t="inlineStr">
         <is>
@@ -5280,10 +5280,10 @@
         <v>25.8</v>
       </c>
       <c r="E103" s="10" t="n">
-        <v>35.1</v>
+        <v>35.73</v>
       </c>
       <c r="F103" s="10" t="n">
-        <v>-2.14</v>
+        <v>-1.35</v>
       </c>
       <c r="G103" s="11" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="F104" s="10" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="G104" s="11" t="inlineStr">
         <is>
@@ -5374,10 +5374,10 @@
         <v>9697.57</v>
       </c>
       <c r="E105" s="35" t="n">
-        <v>10663.45</v>
+        <v>10778.85</v>
       </c>
       <c r="F105" s="35" t="n">
-        <v>290.83</v>
+        <v>577.98</v>
       </c>
       <c r="G105" s="36" t="inlineStr">
         <is>
@@ -5421,10 +5421,10 @@
         <v>8677.6</v>
       </c>
       <c r="E106" s="35" t="n">
-        <v>9640.809999999999</v>
+        <v>9770.98</v>
       </c>
       <c r="F106" s="35" t="n">
-        <v>710.64</v>
+        <v>970.16</v>
       </c>
       <c r="G106" s="36" t="inlineStr">
         <is>
@@ -5468,10 +5468,10 @@
         <v>6096.21</v>
       </c>
       <c r="E107" s="35" t="n">
-        <v>5818.83</v>
+        <v>5916.98</v>
       </c>
       <c r="F107" s="35" t="n">
-        <v>529.8200000000001</v>
+        <v>716.91</v>
       </c>
       <c r="G107" s="36" t="inlineStr">
         <is>
@@ -5515,10 +5515,10 @@
         <v>6750.28</v>
       </c>
       <c r="E108" s="35" t="n">
-        <v>5610.83</v>
+        <v>5690.49</v>
       </c>
       <c r="F108" s="35" t="n">
-        <v>756.83</v>
+        <v>890.36</v>
       </c>
       <c r="G108" s="36" t="inlineStr">
         <is>
@@ -5562,10 +5562,10 @@
         <v>2760.12</v>
       </c>
       <c r="E109" s="35" t="n">
-        <v>4485.19</v>
+        <v>4573.52</v>
       </c>
       <c r="F109" s="35" t="n">
-        <v>832.75</v>
+        <v>973.49</v>
       </c>
       <c r="G109" s="36" t="inlineStr">
         <is>
@@ -5609,10 +5609,10 @@
         <v>4423.48</v>
       </c>
       <c r="E110" s="35" t="n">
-        <v>3436.6</v>
+        <v>3492.34</v>
       </c>
       <c r="F110" s="35" t="n">
-        <v>154.76</v>
+        <v>291.95</v>
       </c>
       <c r="G110" s="36" t="inlineStr">
         <is>
@@ -5656,10 +5656,10 @@
         <v>1981.84</v>
       </c>
       <c r="E111" s="35" t="n">
-        <v>3386.96</v>
+        <v>3412.73</v>
       </c>
       <c r="F111" s="35" t="n">
-        <v>144.43</v>
+        <v>221.57</v>
       </c>
       <c r="G111" s="36" t="inlineStr">
         <is>
@@ -5703,10 +5703,10 @@
         <v>2046.97</v>
       </c>
       <c r="E112" s="35" t="n">
-        <v>3334.51</v>
+        <v>3377.5</v>
       </c>
       <c r="F112" s="35" t="n">
-        <v>565.08</v>
+        <v>665.27</v>
       </c>
       <c r="G112" s="36" t="inlineStr">
         <is>
@@ -5750,10 +5750,10 @@
         <v>5949.77</v>
       </c>
       <c r="E113" s="35" t="n">
-        <v>3298.55</v>
+        <v>3351.51</v>
       </c>
       <c r="F113" s="35" t="n">
-        <v>56.9</v>
+        <v>151.12</v>
       </c>
       <c r="G113" s="36" t="inlineStr">
         <is>
@@ -5797,10 +5797,10 @@
         <v>1884.74</v>
       </c>
       <c r="E114" s="35" t="n">
-        <v>2271.11</v>
+        <v>2286.19</v>
       </c>
       <c r="F114" s="35" t="n">
-        <v>225.87</v>
+        <v>286.1</v>
       </c>
       <c r="G114" s="36" t="inlineStr">
         <is>
@@ -5844,10 +5844,10 @@
         <v>1213.09</v>
       </c>
       <c r="E115" s="35" t="n">
-        <v>2158.81</v>
+        <v>2200.18</v>
       </c>
       <c r="F115" s="35" t="n">
-        <v>504.95</v>
+        <v>600.12</v>
       </c>
       <c r="G115" s="36" t="inlineStr">
         <is>
@@ -5891,10 +5891,10 @@
         <v>1630.08</v>
       </c>
       <c r="E116" s="35" t="n">
-        <v>1904.91</v>
+        <v>1920.23</v>
       </c>
       <c r="F116" s="35" t="n">
-        <v>271.65</v>
+        <v>320.15</v>
       </c>
       <c r="G116" s="36" t="inlineStr">
         <is>
@@ -5938,10 +5938,10 @@
         <v>1407.29</v>
       </c>
       <c r="E117" s="35" t="n">
-        <v>1849.18</v>
+        <v>1861.84</v>
       </c>
       <c r="F117" s="35" t="n">
-        <v>233.69</v>
+        <v>261.76</v>
       </c>
       <c r="G117" s="36" t="inlineStr">
         <is>
@@ -5985,10 +5985,10 @@
         <v>1338.46</v>
       </c>
       <c r="E118" s="35" t="n">
-        <v>1346.49</v>
+        <v>1374.6</v>
       </c>
       <c r="F118" s="35" t="n">
-        <v>134.44</v>
+        <v>174.54</v>
       </c>
       <c r="G118" s="36" t="inlineStr">
         <is>
@@ -6032,10 +6032,10 @@
         <v>3350.7</v>
       </c>
       <c r="E119" s="35" t="n">
-        <v>1276.62</v>
+        <v>1316.83</v>
       </c>
       <c r="F119" s="35" t="n">
-        <v>-377</v>
+        <v>-283.47</v>
       </c>
       <c r="G119" s="36" t="inlineStr">
         <is>
@@ -6079,10 +6079,10 @@
         <v>1495.03</v>
       </c>
       <c r="E120" s="35" t="n">
-        <v>1218.9</v>
+        <v>1192.88</v>
       </c>
       <c r="F120" s="35" t="n">
-        <v>-11.01</v>
+        <v>-7.18</v>
       </c>
       <c r="G120" s="36" t="inlineStr">
         <is>
@@ -6126,10 +6126,10 @@
         <v>900.35</v>
       </c>
       <c r="E121" s="35" t="n">
-        <v>983.09</v>
+        <v>1005.96</v>
       </c>
       <c r="F121" s="35" t="n">
-        <v>176.6</v>
+        <v>205.91</v>
       </c>
       <c r="G121" s="36" t="inlineStr">
         <is>
@@ -6173,10 +6173,10 @@
         <v>733.79</v>
       </c>
       <c r="E122" s="35" t="n">
-        <v>898.01</v>
+        <v>890.16</v>
       </c>
       <c r="F122" s="35" t="n">
-        <v>93.68000000000001</v>
+        <v>90.11</v>
       </c>
       <c r="G122" s="36" t="inlineStr">
         <is>
@@ -6220,10 +6220,10 @@
         <v>496.13</v>
       </c>
       <c r="E123" s="35" t="n">
-        <v>489.23</v>
+        <v>506.9</v>
       </c>
       <c r="F123" s="35" t="n">
-        <v>84.91</v>
+        <v>106.87</v>
       </c>
       <c r="G123" s="36" t="inlineStr">
         <is>
@@ -6267,10 +6267,10 @@
         <v>333.04</v>
       </c>
       <c r="E124" s="35" t="n">
-        <v>458.2</v>
+        <v>461.49</v>
       </c>
       <c r="F124" s="35" t="n">
-        <v>52.3</v>
+        <v>61.48</v>
       </c>
       <c r="G124" s="36" t="inlineStr">
         <is>
@@ -6314,10 +6314,10 @@
         <v>325.61</v>
       </c>
       <c r="E125" s="35" t="n">
-        <v>424.27</v>
+        <v>432.41</v>
       </c>
       <c r="F125" s="35" t="n">
-        <v>20.03</v>
+        <v>32.4</v>
       </c>
       <c r="G125" s="36" t="inlineStr">
         <is>
@@ -6361,10 +6361,10 @@
         <v>275.49</v>
       </c>
       <c r="E126" s="35" t="n">
-        <v>416.65</v>
+        <v>426.49</v>
       </c>
       <c r="F126" s="35" t="n">
-        <v>7</v>
+        <v>26.47</v>
       </c>
       <c r="G126" s="36" t="inlineStr">
         <is>
@@ -6408,10 +6408,10 @@
         <v>206.23</v>
       </c>
       <c r="E127" s="35" t="n">
-        <v>407.82</v>
+        <v>412.75</v>
       </c>
       <c r="F127" s="35" t="n">
-        <v>1.32</v>
+        <v>12.75</v>
       </c>
       <c r="G127" s="36" t="inlineStr">
         <is>
@@ -6455,10 +6455,10 @@
         <v>275.96</v>
       </c>
       <c r="E128" s="35" t="n">
-        <v>242.4</v>
+        <v>245.05</v>
       </c>
       <c r="F128" s="35" t="n">
-        <v>9.75</v>
+        <v>16.28</v>
       </c>
       <c r="G128" s="36" t="inlineStr">
         <is>

--- a/scripts/output/201912/全家/全家整体资产配置.xlsx
+++ b/scripts/output/201912/全家/全家整体资产配置.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="资产配置情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="000000" numFmtId="164"/>
-    <numFmt formatCode="0.0000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -87,67 +87,67 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -448,16 +448,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="30"/>
-    <col customWidth="1" max="2" min="2" width="9"/>
-    <col customWidth="1" max="3" min="3" width="9"/>
-    <col customWidth="1" max="4" min="4" width="9"/>
-    <col customWidth="1" max="5" min="5" width="9"/>
-    <col customWidth="1" max="6" min="6" width="9"/>
-    <col customWidth="1" max="7" min="7" width="9"/>
-    <col customWidth="1" max="8" min="8" width="11.25"/>
-    <col customWidth="1" max="9" min="9" width="11.25"/>
-    <col customWidth="1" max="11" min="11" width="15"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="7" max="7"/>
+    <col width="11.25" customWidth="1" min="8" max="8"/>
+    <col width="11.25" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6487,6 +6487,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/scripts/output/201912/全家/全家整体资产配置.xlsx
+++ b/scripts/output/201912/全家/全家整体资产配置.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="资产配置情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="000000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt formatCode="000000" numFmtId="164"/>
+    <numFmt formatCode="0.0000" numFmtId="165"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -87,67 +87,67 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -448,16 +448,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="11.25" customWidth="1" min="8" max="8"/>
-    <col width="11.25" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
+    <col customWidth="1" max="1" min="1" width="30"/>
+    <col customWidth="1" max="2" min="2" width="9"/>
+    <col customWidth="1" max="3" min="3" width="9"/>
+    <col customWidth="1" max="4" min="4" width="9"/>
+    <col customWidth="1" max="5" min="5" width="9"/>
+    <col customWidth="1" max="6" min="6" width="9"/>
+    <col customWidth="1" max="7" min="7" width="9"/>
+    <col customWidth="1" max="8" min="8" width="11.25"/>
+    <col customWidth="1" max="9" min="9" width="11.25"/>
+    <col customWidth="1" max="11" min="11" width="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6487,6 +6487,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/scripts/output/201912/全家/全家整体资产配置.xlsx
+++ b/scripts/output/201912/全家/全家整体资产配置.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K128"/>
+  <dimension ref="A1:K129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,13 +530,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>127723.57</v>
+        <v>126766.55</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>127723.57</v>
+        <v>126766.55</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>5863.27</v>
+        <v>5976.93</v>
       </c>
       <c r="G2" s="6" t="inlineStr">
         <is>
@@ -627,10 +627,10 @@
         <v>2422.08</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>3991.59</v>
+        <v>4035.19</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>-6.78</v>
+        <v>36.82</v>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
@@ -674,10 +674,10 @@
         <v>2699.6</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>3960.31</v>
+        <v>4006.21</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>108.52</v>
+        <v>154.42</v>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
@@ -721,10 +721,10 @@
         <v>3620.67</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3389.67</v>
+        <v>3466.79</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>11.22</v>
+        <v>88.34</v>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
@@ -768,10 +768,10 @@
         <v>2260.14</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>3385.46</v>
+        <v>3431.57</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>338.57</v>
+        <v>384.68</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
@@ -815,10 +815,10 @@
         <v>1363.37</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2592.45</v>
+        <v>2670.84</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>140.15</v>
+        <v>218.55</v>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         <v>1059.44</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>2345.07</v>
+        <v>2415.63</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>93.02</v>
+        <v>163.58</v>
       </c>
       <c r="G9" s="11" t="inlineStr">
         <is>
@@ -909,10 +909,10 @@
         <v>1067.42</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>1036.04</v>
+        <v>1056</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>12.49</v>
+        <v>32.45</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
@@ -956,10 +956,10 @@
         <v>550.4</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>533.28</v>
+        <v>542.36</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>-7.6</v>
+        <v>1.49</v>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
@@ -1003,10 +1003,10 @@
         <v>531.87</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>411.4</v>
+        <v>418.58</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>54.62</v>
+        <v>61.8</v>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
         <v>247.91</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>335.92</v>
+        <v>339.14</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>22.66</v>
+        <v>25.88</v>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         <v>85.65000000000001</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>106.6</v>
+        <v>107.71</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>2.62</v>
+        <v>3.73</v>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
@@ -1144,10 +1144,10 @@
         <v>64.5</v>
       </c>
       <c r="E15" s="10" t="n">
-        <v>89.33</v>
+        <v>90.48999999999999</v>
       </c>
       <c r="F15" s="10" t="n">
-        <v>-3.39</v>
+        <v>-2.22</v>
       </c>
       <c r="G15" s="11" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         <v>16731.88</v>
       </c>
       <c r="E19" s="20" t="n">
-        <v>9425.07</v>
+        <v>9712.860000000001</v>
       </c>
       <c r="F19" s="20" t="n">
-        <v>-2575.04</v>
+        <v>-2287.25</v>
       </c>
       <c r="G19" s="21" t="inlineStr">
         <is>
@@ -1379,10 +1379,10 @@
         <v>2700</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>8105.4</v>
+        <v>8175.6</v>
       </c>
       <c r="F20" s="25" t="n">
-        <v>1795.5</v>
+        <v>1865.7</v>
       </c>
       <c r="G20" s="26" t="inlineStr">
         <is>
@@ -1426,10 +1426,10 @@
         <v>9100</v>
       </c>
       <c r="E21" s="25" t="n">
-        <v>36093.33</v>
+        <v>36756.72</v>
       </c>
       <c r="F21" s="25" t="n">
-        <v>4725.63</v>
+        <v>5389.02</v>
       </c>
       <c r="G21" s="26" t="inlineStr">
         <is>
@@ -1473,10 +1473,10 @@
         <v>38800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>213287.48</v>
+        <v>220151.2</v>
       </c>
       <c r="F22" s="25" t="n">
-        <v>-4031.32</v>
+        <v>2832.4</v>
       </c>
       <c r="G22" s="26" t="inlineStr">
         <is>
@@ -1520,10 +1520,10 @@
         <v>33800</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>25383.8</v>
+        <v>26201.76</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>-4258.8</v>
+        <v>-3440.84</v>
       </c>
       <c r="G23" s="26" t="inlineStr">
         <is>
@@ -1567,10 +1567,10 @@
         <v>32700</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>31182.72</v>
+        <v>32579.01</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>5578.62</v>
+        <v>6974.91</v>
       </c>
       <c r="G24" s="26" t="inlineStr">
         <is>
@@ -1614,10 +1614,10 @@
         <v>34100</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>26853.75</v>
+        <v>27842.65</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>-2779.15</v>
+        <v>-1790.25</v>
       </c>
       <c r="G25" s="26" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
         <v>4500</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>14742.9</v>
+        <v>14831.1</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>1890.9</v>
+        <v>1979.1</v>
       </c>
       <c r="G26" s="26" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>9200</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>15550.76</v>
+        <v>15959.24</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>2679.96</v>
+        <v>3088.44</v>
       </c>
       <c r="G27" s="26" t="inlineStr">
         <is>
@@ -1755,10 +1755,10 @@
         <v>14400</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>19478.88</v>
+        <v>19795.68</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>1176.48</v>
+        <v>1493.28</v>
       </c>
       <c r="G28" s="26" t="inlineStr">
         <is>
@@ -1802,10 +1802,10 @@
         <v>4157.52</v>
       </c>
       <c r="E29" s="30" t="n">
-        <v>8320.860000000001</v>
+        <v>8534.559999999999</v>
       </c>
       <c r="F29" s="30" t="n">
-        <v>316.8</v>
+        <v>530.5</v>
       </c>
       <c r="G29" s="31" t="inlineStr">
         <is>
@@ -1849,10 +1849,10 @@
         <v>9722</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>5476.4</v>
+        <v>5643.62</v>
       </c>
       <c r="F30" s="30" t="n">
-        <v>140</v>
+        <v>307.22</v>
       </c>
       <c r="G30" s="31" t="inlineStr">
         <is>
@@ -1896,10 +1896,10 @@
         <v>4943.96</v>
       </c>
       <c r="E31" s="30" t="n">
-        <v>4798.61</v>
+        <v>4891.06</v>
       </c>
       <c r="F31" s="30" t="n">
-        <v>129.53</v>
+        <v>221.98</v>
       </c>
       <c r="G31" s="31" t="inlineStr">
         <is>
@@ -1943,10 +1943,10 @@
         <v>7379.54</v>
       </c>
       <c r="E32" s="30" t="n">
-        <v>4162.06</v>
+        <v>4287.51</v>
       </c>
       <c r="F32" s="30" t="n">
-        <v>160.14</v>
+        <v>285.59</v>
       </c>
       <c r="G32" s="31" t="inlineStr">
         <is>
@@ -1990,10 +1990,10 @@
         <v>3665.01</v>
       </c>
       <c r="E33" s="30" t="n">
-        <v>4126.8</v>
+        <v>4185.44</v>
       </c>
       <c r="F33" s="30" t="n">
-        <v>124.98</v>
+        <v>183.62</v>
       </c>
       <c r="G33" s="31" t="inlineStr">
         <is>
@@ -2037,10 +2037,10 @@
         <v>4550.55</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>3592.66</v>
+        <v>3718.71</v>
       </c>
       <c r="F34" s="30" t="n">
-        <v>257.56</v>
+        <v>383.61</v>
       </c>
       <c r="G34" s="31" t="inlineStr">
         <is>
@@ -2084,10 +2084,10 @@
         <v>400.63</v>
       </c>
       <c r="E35" s="30" t="n">
-        <v>726.62</v>
+        <v>744.6900000000001</v>
       </c>
       <c r="F35" s="30" t="n">
-        <v>59.61</v>
+        <v>77.68000000000001</v>
       </c>
       <c r="G35" s="31" t="inlineStr">
         <is>
@@ -2131,10 +2131,10 @@
         <v>736.3</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>724.08</v>
+        <v>742.9299999999999</v>
       </c>
       <c r="F36" s="30" t="n">
-        <v>57.06</v>
+        <v>75.91</v>
       </c>
       <c r="G36" s="31" t="inlineStr">
         <is>
@@ -2178,10 +2178,10 @@
         <v>473.85</v>
       </c>
       <c r="E37" s="30" t="n">
-        <v>484.13</v>
+        <v>504.7</v>
       </c>
       <c r="F37" s="30" t="n">
-        <v>17.25</v>
+        <v>37.81</v>
       </c>
       <c r="G37" s="31" t="inlineStr">
         <is>
@@ -2225,10 +2225,10 @@
         <v>5299.96</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>2082.88</v>
+        <v>2088.18</v>
       </c>
       <c r="F38" s="30" t="n">
-        <v>82.15000000000001</v>
+        <v>87.45</v>
       </c>
       <c r="G38" s="31" t="inlineStr">
         <is>
@@ -2272,10 +2272,10 @@
         <v>576.8</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>763.11</v>
+        <v>770.03</v>
       </c>
       <c r="F39" s="30" t="n">
-        <v>96.09</v>
+        <v>103.02</v>
       </c>
       <c r="G39" s="31" t="inlineStr">
         <is>
@@ -2319,10 +2319,10 @@
         <v>459.67</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>711.62</v>
+        <v>714.92</v>
       </c>
       <c r="F40" s="30" t="n">
-        <v>44.63</v>
+        <v>47.94</v>
       </c>
       <c r="G40" s="31" t="inlineStr">
         <is>
@@ -2366,10 +2366,10 @@
         <v>611.75</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>742.05</v>
+        <v>748.17</v>
       </c>
       <c r="F41" s="30" t="n">
-        <v>75.06</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
@@ -2413,10 +2413,10 @@
         <v>1046.73</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>2094.93</v>
+        <v>2148.73</v>
       </c>
       <c r="F42" s="30" t="n">
-        <v>94.94</v>
+        <v>148.74</v>
       </c>
       <c r="G42" s="31" t="inlineStr">
         <is>
@@ -2460,10 +2460,10 @@
         <v>1825.9</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>2055.96</v>
+        <v>2085.18</v>
       </c>
       <c r="F43" s="30" t="n">
-        <v>55.87</v>
+        <v>85.09</v>
       </c>
       <c r="G43" s="31" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>1059.17</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>1087.77</v>
+        <v>1097.3</v>
       </c>
       <c r="F44" s="30" t="n">
-        <v>87.81</v>
+        <v>97.34</v>
       </c>
       <c r="G44" s="31" t="inlineStr">
         <is>
@@ -2554,10 +2554,10 @@
         <v>1812.7</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>1022.36</v>
+        <v>1053.18</v>
       </c>
       <c r="F45" s="30" t="n">
-        <v>22.3</v>
+        <v>53.11</v>
       </c>
       <c r="G45" s="31" t="inlineStr">
         <is>
@@ -2601,10 +2601,10 @@
         <v>1227.03</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>968.74</v>
+        <v>1002.73</v>
       </c>
       <c r="F46" s="30" t="n">
-        <v>-31.29</v>
+        <v>2.7</v>
       </c>
       <c r="G46" s="31" t="inlineStr">
         <is>
@@ -2648,10 +2648,10 @@
         <v>1834.47</v>
       </c>
       <c r="E47" s="30" t="n">
-        <v>2225.4</v>
+        <v>2238.42</v>
       </c>
       <c r="F47" s="30" t="n">
-        <v>225.46</v>
+        <v>238.48</v>
       </c>
       <c r="G47" s="31" t="inlineStr">
         <is>
@@ -2695,10 +2695,10 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>1190.46</v>
+        <v>1201.26</v>
       </c>
       <c r="F48" s="30" t="n">
-        <v>190.49</v>
+        <v>201.29</v>
       </c>
       <c r="G48" s="31" t="inlineStr">
         <is>
@@ -2742,10 +2742,10 @@
         <v>689.02</v>
       </c>
       <c r="E49" s="30" t="n">
-        <v>1066.67</v>
+        <v>1071.63</v>
       </c>
       <c r="F49" s="30" t="n">
-        <v>66.7</v>
+        <v>71.66</v>
       </c>
       <c r="G49" s="31" t="inlineStr">
         <is>
@@ -2789,10 +2789,10 @@
         <v>4757.9</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>1869.85</v>
+        <v>1874.61</v>
       </c>
       <c r="F50" s="30" t="n">
-        <v>-130.37</v>
+        <v>-125.61</v>
       </c>
       <c r="G50" s="31" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>953.96</v>
       </c>
       <c r="E51" s="30" t="n">
-        <v>1157.15</v>
+        <v>1166.69</v>
       </c>
       <c r="F51" s="30" t="n">
-        <v>157.12</v>
+        <v>166.66</v>
       </c>
       <c r="G51" s="31" t="inlineStr">
         <is>
@@ -2883,10 +2883,10 @@
         <v>595.47</v>
       </c>
       <c r="E52" s="30" t="n">
-        <v>1025.4</v>
+        <v>1036.71</v>
       </c>
       <c r="F52" s="30" t="n">
-        <v>25.43</v>
+        <v>36.74</v>
       </c>
       <c r="G52" s="31" t="inlineStr">
         <is>
@@ -2930,10 +2930,10 @@
         <v>65064.33</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>73262.44</v>
+        <v>74303.46000000001</v>
       </c>
       <c r="F53" s="35" t="n">
-        <v>6942.36</v>
+        <v>7983.39</v>
       </c>
       <c r="G53" s="36" t="inlineStr">
         <is>
@@ -2977,10 +2977,10 @@
         <v>63490</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>61623.39</v>
+        <v>62810.66</v>
       </c>
       <c r="F54" s="35" t="n">
-        <v>3422.11</v>
+        <v>4609.37</v>
       </c>
       <c r="G54" s="36" t="inlineStr">
         <is>
@@ -3024,10 +3024,10 @@
         <v>32370.29</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>38132.2</v>
+        <v>38808.74</v>
       </c>
       <c r="F55" s="35" t="n">
-        <v>6130.93</v>
+        <v>6807.47</v>
       </c>
       <c r="G55" s="36" t="inlineStr">
         <is>
@@ -3071,10 +3071,10 @@
         <v>20086.63</v>
       </c>
       <c r="E56" s="35" t="n">
-        <v>34589.18</v>
+        <v>34970.82</v>
       </c>
       <c r="F56" s="35" t="n">
-        <v>2589.17</v>
+        <v>2970.81</v>
       </c>
       <c r="G56" s="36" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         <v>41014.88</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>34575.54</v>
+        <v>35108.74</v>
       </c>
       <c r="F57" s="35" t="n">
-        <v>4015.36</v>
+        <v>4548.55</v>
       </c>
       <c r="G57" s="36" t="inlineStr">
         <is>
@@ -3165,10 +3165,10 @@
         <v>20716.63</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>25129.27</v>
+        <v>25336.44</v>
       </c>
       <c r="F58" s="35" t="n">
-        <v>2527.43</v>
+        <v>2734.6</v>
       </c>
       <c r="G58" s="36" t="inlineStr">
         <is>
@@ -3212,10 +3212,10 @@
         <v>14624.61</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>24232.98</v>
+        <v>24569.34</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>5032.33</v>
+        <v>5368.69</v>
       </c>
       <c r="G59" s="36" t="inlineStr">
         <is>
@@ -3259,10 +3259,10 @@
         <v>21163.93</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>23646.46</v>
+        <v>24118.41</v>
       </c>
       <c r="F60" s="35" t="n">
-        <v>4444.43</v>
+        <v>4916.38</v>
       </c>
       <c r="G60" s="36" t="inlineStr">
         <is>
@@ -3306,10 +3306,10 @@
         <v>16778.47</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>22197.92</v>
+        <v>22399.26</v>
       </c>
       <c r="F61" s="35" t="n">
-        <v>2996.63</v>
+        <v>3197.98</v>
       </c>
       <c r="G61" s="36" t="inlineStr">
         <is>
@@ -3353,10 +3353,10 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>15724.19</v>
+        <v>16172.09</v>
       </c>
       <c r="F62" s="35" t="n">
-        <v>2923.75</v>
+        <v>3371.65</v>
       </c>
       <c r="G62" s="36" t="inlineStr">
         <is>
@@ -3400,10 +3400,10 @@
         <v>37267.45</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>14646.11</v>
+        <v>14683.38</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>-4554.08</v>
+        <v>-4516.81</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
@@ -3447,10 +3447,10 @@
         <v>6798.52</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>10524.79</v>
+        <v>10573.74</v>
       </c>
       <c r="F64" s="35" t="n">
-        <v>624.78</v>
+        <v>673.73</v>
       </c>
       <c r="G64" s="36" t="inlineStr">
         <is>
@@ -3494,10 +3494,10 @@
         <v>5609.79</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>7550.78</v>
+        <v>7556.39</v>
       </c>
       <c r="F65" s="35" t="n">
-        <v>2405.48</v>
+        <v>2411.09</v>
       </c>
       <c r="G65" s="36" t="inlineStr">
         <is>
@@ -3541,10 +3541,10 @@
         <v>13403.92</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>7550.43</v>
+        <v>7780.98</v>
       </c>
       <c r="F66" s="35" t="n">
-        <v>1150.06</v>
+        <v>1380.6</v>
       </c>
       <c r="G66" s="36" t="inlineStr">
         <is>
@@ -3588,10 +3588,10 @@
         <v>5328.62</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>7383.87</v>
+        <v>7503.23</v>
       </c>
       <c r="F67" s="35" t="n">
-        <v>983.66</v>
+        <v>1103.02</v>
       </c>
       <c r="G67" s="36" t="inlineStr">
         <is>
@@ -3635,10 +3635,10 @@
         <v>7778.64</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>6907.43</v>
+        <v>7099.56</v>
       </c>
       <c r="F68" s="35" t="n">
-        <v>-93.34</v>
+        <v>98.79000000000001</v>
       </c>
       <c r="G68" s="36" t="inlineStr">
         <is>
@@ -3682,10 +3682,10 @@
         <v>3299.64</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>6603.9</v>
+        <v>6773.5</v>
       </c>
       <c r="F69" s="35" t="n">
-        <v>203.59</v>
+        <v>373.19</v>
       </c>
       <c r="G69" s="36" t="inlineStr">
         <is>
@@ -3729,10 +3729,10 @@
         <v>7852.99</v>
       </c>
       <c r="E70" s="35" t="n">
-        <v>6199.94</v>
+        <v>6417.46</v>
       </c>
       <c r="F70" s="35" t="n">
-        <v>-200.25</v>
+        <v>17.28</v>
       </c>
       <c r="G70" s="36" t="inlineStr">
         <is>
@@ -3776,10 +3776,10 @@
         <v>3580.2</v>
       </c>
       <c r="E71" s="35" t="n">
-        <v>3456.68</v>
+        <v>3564.81</v>
       </c>
       <c r="F71" s="35" t="n">
-        <v>-43.32</v>
+        <v>64.8</v>
       </c>
       <c r="G71" s="36" t="inlineStr">
         <is>
@@ -3808,354 +3808,354 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="27" t="inlineStr">
-        <is>
-          <t>交银稳鑫短债债券A</t>
-        </is>
-      </c>
-      <c r="B72" s="28" t="n">
-        <v>6793</v>
-      </c>
-      <c r="C72" s="29" t="n">
-        <v>1.0286</v>
-      </c>
-      <c r="D72" s="30" t="n">
-        <v>171152.16</v>
-      </c>
-      <c r="E72" s="30" t="n">
-        <v>176235.38</v>
-      </c>
-      <c r="F72" s="30" t="n">
-        <v>188.27</v>
-      </c>
-      <c r="G72" s="31" t="inlineStr">
-        <is>
-          <t>债券</t>
-        </is>
-      </c>
-      <c r="H72" s="31" t="inlineStr">
-        <is>
-          <t>国内债券</t>
-        </is>
-      </c>
-      <c r="I72" s="31" t="inlineStr">
-        <is>
-          <t>可转债</t>
-        </is>
-      </c>
-      <c r="J72" s="31" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="K72" s="31" t="inlineStr">
-        <is>
-          <t>父稳稳的幸福</t>
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>货币基金综合</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>999999</v>
+      </c>
+      <c r="C72" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" s="5" t="n">
+        <v>10200.3</v>
+      </c>
+      <c r="E72" s="5" t="n">
+        <v>10200.3</v>
+      </c>
+      <c r="F72" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G72" s="6" t="inlineStr">
+        <is>
+          <t>现金</t>
+        </is>
+      </c>
+      <c r="H72" s="6" t="inlineStr">
+        <is>
+          <t>低风险理财</t>
+        </is>
+      </c>
+      <c r="I72" s="6" t="inlineStr">
+        <is>
+          <t>货币基金</t>
+        </is>
+      </c>
+      <c r="J72" s="6" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="K72" s="6" t="inlineStr">
+        <is>
+          <t>父母现金账户</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="27" t="inlineStr">
-        <is>
-          <t>交银主题优选</t>
-        </is>
-      </c>
-      <c r="B73" s="28" t="n">
-        <v>519700</v>
-      </c>
-      <c r="C73" s="29" t="n">
-        <v>1.4657</v>
-      </c>
-      <c r="D73" s="30" t="n">
-        <v>11598.58</v>
-      </c>
-      <c r="E73" s="30" t="n">
-        <v>17513.86</v>
-      </c>
-      <c r="F73" s="30" t="n">
-        <v>513.8200000000001</v>
-      </c>
-      <c r="G73" s="31" t="inlineStr">
-        <is>
-          <t>混合型</t>
-        </is>
-      </c>
-      <c r="H73" s="31" t="inlineStr">
-        <is>
-          <t>股债混合</t>
-        </is>
-      </c>
-      <c r="I73" s="31" t="inlineStr">
-        <is>
-          <t>偏股</t>
-        </is>
-      </c>
-      <c r="J73" s="31" t="inlineStr">
-        <is>
-          <t>411</t>
-        </is>
-      </c>
-      <c r="K73" s="31" t="inlineStr">
-        <is>
-          <t>父稳稳的幸福</t>
+      <c r="A73" s="7" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数</t>
+        </is>
+      </c>
+      <c r="B73" s="8" t="n">
+        <v>519671</v>
+      </c>
+      <c r="C73" s="9" t="n">
+        <v>1.4264</v>
+      </c>
+      <c r="D73" s="10" t="n">
+        <v>1045.13</v>
+      </c>
+      <c r="E73" s="10" t="n">
+        <v>1550.97</v>
+      </c>
+      <c r="F73" s="10" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="G73" s="11" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H73" s="11" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="I73" s="11" t="inlineStr">
+        <is>
+          <t>300价值</t>
+        </is>
+      </c>
+      <c r="J73" s="11" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="K73" s="11" t="inlineStr">
+        <is>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="27" t="inlineStr">
-        <is>
-          <t>交银纯债A/B</t>
-        </is>
-      </c>
-      <c r="B74" s="28" t="n">
-        <v>519718</v>
-      </c>
-      <c r="C74" s="29" t="n">
-        <v>1.0759</v>
-      </c>
-      <c r="D74" s="30" t="n">
-        <v>128864.36</v>
-      </c>
-      <c r="E74" s="30" t="n">
-        <v>138915.78</v>
-      </c>
-      <c r="F74" s="30" t="n">
-        <v>270.62</v>
-      </c>
-      <c r="G74" s="31" t="inlineStr">
-        <is>
-          <t>债券</t>
-        </is>
-      </c>
-      <c r="H74" s="31" t="inlineStr">
-        <is>
-          <t>国内债券</t>
-        </is>
-      </c>
-      <c r="I74" s="31" t="inlineStr">
-        <is>
-          <t>可转债</t>
-        </is>
-      </c>
-      <c r="J74" s="31" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="K74" s="31" t="inlineStr">
-        <is>
-          <t>父稳稳的幸福</t>
+      <c r="A74" s="7" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="B74" s="8" t="n">
+        <v>90010</v>
+      </c>
+      <c r="C74" s="9" t="n">
+        <v>1.6518</v>
+      </c>
+      <c r="D74" s="10" t="n">
+        <v>888.12</v>
+      </c>
+      <c r="E74" s="10" t="n">
+        <v>1479.61</v>
+      </c>
+      <c r="F74" s="10" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="G74" s="11" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H74" s="11" t="inlineStr">
+        <is>
+          <t>红利价值</t>
+        </is>
+      </c>
+      <c r="I74" s="11" t="inlineStr">
+        <is>
+          <t>中证红利</t>
+        </is>
+      </c>
+      <c r="J74" s="11" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="K74" s="11" t="inlineStr">
+        <is>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="27" t="inlineStr">
-        <is>
-          <t>交银双轮动A/B</t>
-        </is>
-      </c>
-      <c r="B75" s="28" t="n">
-        <v>519723</v>
-      </c>
-      <c r="C75" s="29" t="n">
-        <v>1.0784</v>
-      </c>
-      <c r="D75" s="30" t="n">
-        <v>132719.84</v>
-      </c>
-      <c r="E75" s="30" t="n">
-        <v>143204.71</v>
-      </c>
-      <c r="F75" s="30" t="n">
-        <v>79.63</v>
-      </c>
-      <c r="G75" s="31" t="inlineStr">
-        <is>
-          <t>债券</t>
-        </is>
-      </c>
-      <c r="H75" s="31" t="inlineStr">
-        <is>
-          <t>国内债券</t>
-        </is>
-      </c>
-      <c r="I75" s="31" t="inlineStr">
-        <is>
-          <t>可转债</t>
-        </is>
-      </c>
-      <c r="J75" s="31" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="K75" s="31" t="inlineStr">
-        <is>
-          <t>父稳稳的幸福</t>
+      <c r="A75" s="7" t="inlineStr">
+        <is>
+          <t>华宝香港中小</t>
+        </is>
+      </c>
+      <c r="B75" s="8" t="n">
+        <v>501021</v>
+      </c>
+      <c r="C75" s="9" t="n">
+        <v>1.3485</v>
+      </c>
+      <c r="D75" s="10" t="n">
+        <v>898.04</v>
+      </c>
+      <c r="E75" s="10" t="n">
+        <v>1363.49</v>
+      </c>
+      <c r="F75" s="10" t="n">
+        <v>152.49</v>
+      </c>
+      <c r="G75" s="11" t="inlineStr">
+        <is>
+          <t>海外新兴</t>
+        </is>
+      </c>
+      <c r="H75" s="11" t="inlineStr">
+        <is>
+          <t>香港</t>
+        </is>
+      </c>
+      <c r="I75" s="11" t="inlineStr">
+        <is>
+          <t>香港中小</t>
+        </is>
+      </c>
+      <c r="J75" s="11" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="K75" s="11" t="inlineStr">
+        <is>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="27" t="inlineStr">
-        <is>
-          <t>交银新回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="B76" s="28" t="n">
-        <v>519752</v>
-      </c>
-      <c r="C76" s="29" t="n">
-        <v>1.2439</v>
-      </c>
-      <c r="D76" s="30" t="n">
-        <v>59685.02</v>
-      </c>
-      <c r="E76" s="30" t="n">
-        <v>74546.59</v>
-      </c>
-      <c r="F76" s="30" t="n">
-        <v>304.39</v>
-      </c>
-      <c r="G76" s="31" t="inlineStr">
-        <is>
-          <t>混合型</t>
-        </is>
-      </c>
-      <c r="H76" s="31" t="inlineStr">
-        <is>
-          <t>股债混合</t>
-        </is>
-      </c>
-      <c r="I76" s="31" t="inlineStr">
-        <is>
-          <t>偏债</t>
-        </is>
-      </c>
-      <c r="J76" s="31" t="inlineStr">
-        <is>
-          <t>412</t>
-        </is>
-      </c>
-      <c r="K76" s="31" t="inlineStr">
-        <is>
-          <t>父稳稳的幸福</t>
+      <c r="A76" s="7" t="inlineStr">
+        <is>
+          <t>景顺长城中证500低波动</t>
+        </is>
+      </c>
+      <c r="B76" s="8" t="n">
+        <v>3318</v>
+      </c>
+      <c r="C76" s="9" t="n">
+        <v>0.9329</v>
+      </c>
+      <c r="D76" s="10" t="n">
+        <v>1358.53</v>
+      </c>
+      <c r="E76" s="10" t="n">
+        <v>1300.79</v>
+      </c>
+      <c r="F76" s="10" t="n">
+        <v>33.42</v>
+      </c>
+      <c r="G76" s="11" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H76" s="11" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="I76" s="11" t="inlineStr">
+        <is>
+          <t>500低波动</t>
+        </is>
+      </c>
+      <c r="J76" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="K76" s="11" t="inlineStr">
+        <is>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="27" t="inlineStr">
-        <is>
-          <t>交银多策略回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="B77" s="28" t="n">
-        <v>519755</v>
-      </c>
-      <c r="C77" s="29" t="n">
-        <v>1.2894</v>
-      </c>
-      <c r="D77" s="30" t="n">
-        <v>76964.17</v>
-      </c>
-      <c r="E77" s="30" t="n">
-        <v>99899.49000000001</v>
-      </c>
-      <c r="F77" s="30" t="n">
-        <v>661.89</v>
-      </c>
-      <c r="G77" s="31" t="inlineStr">
-        <is>
-          <t>混合型</t>
-        </is>
-      </c>
-      <c r="H77" s="31" t="inlineStr">
-        <is>
-          <t>股债混合</t>
-        </is>
-      </c>
-      <c r="I77" s="31" t="inlineStr">
-        <is>
-          <t>偏债</t>
-        </is>
-      </c>
-      <c r="J77" s="31" t="inlineStr">
-        <is>
-          <t>412</t>
-        </is>
-      </c>
-      <c r="K77" s="31" t="inlineStr">
-        <is>
-          <t>父稳稳的幸福</t>
+      <c r="A77" s="7" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120联接</t>
+        </is>
+      </c>
+      <c r="B77" s="8" t="n">
+        <v>70023</v>
+      </c>
+      <c r="C77" s="9" t="n">
+        <v>1.7966</v>
+      </c>
+      <c r="D77" s="10" t="n">
+        <v>492.58</v>
+      </c>
+      <c r="E77" s="10" t="n">
+        <v>964.96</v>
+      </c>
+      <c r="F77" s="10" t="n">
+        <v>79.98999999999999</v>
+      </c>
+      <c r="G77" s="11" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H77" s="11" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="I77" s="11" t="inlineStr">
+        <is>
+          <t>基本面120</t>
+        </is>
+      </c>
+      <c r="J77" s="11" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="K77" s="11" t="inlineStr">
+        <is>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="27" t="inlineStr">
-        <is>
-          <t>交银裕盈纯债债券A</t>
-        </is>
-      </c>
-      <c r="B78" s="28" t="n">
-        <v>519776</v>
-      </c>
-      <c r="C78" s="29" t="n">
-        <v>1.0793</v>
-      </c>
-      <c r="D78" s="30" t="n">
-        <v>140577.44</v>
-      </c>
-      <c r="E78" s="30" t="n">
-        <v>151823.64</v>
-      </c>
-      <c r="F78" s="30" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="G78" s="31" t="inlineStr">
-        <is>
-          <t>债券</t>
-        </is>
-      </c>
-      <c r="H78" s="31" t="inlineStr">
-        <is>
-          <t>国内债券</t>
-        </is>
-      </c>
-      <c r="I78" s="31" t="inlineStr">
-        <is>
-          <t>可转债</t>
-        </is>
-      </c>
-      <c r="J78" s="31" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="K78" s="31" t="inlineStr">
-        <is>
-          <t>父稳稳的幸福</t>
+      <c r="A78" s="7" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF联接A</t>
+        </is>
+      </c>
+      <c r="B78" s="8" t="n">
+        <v>530015</v>
+      </c>
+      <c r="C78" s="9" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="D78" s="10" t="n">
+        <v>406.95</v>
+      </c>
+      <c r="E78" s="10" t="n">
+        <v>927.89</v>
+      </c>
+      <c r="F78" s="10" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="G78" s="11" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H78" s="11" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="I78" s="11" t="inlineStr">
+        <is>
+          <t>基本面60</t>
+        </is>
+      </c>
+      <c r="J78" s="11" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="K78" s="11" t="inlineStr">
+        <is>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="7" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B79" s="8" t="n">
-        <v>519671</v>
+        <v>968</v>
       </c>
       <c r="C79" s="9" t="n">
-        <v>1.4264</v>
+        <v>0.9599</v>
       </c>
       <c r="D79" s="10" t="n">
-        <v>1045.13</v>
+        <v>390.82</v>
       </c>
       <c r="E79" s="10" t="n">
-        <v>1533.21</v>
+        <v>386.64</v>
       </c>
       <c r="F79" s="10" t="n">
-        <v>42.43</v>
+        <v>11.49</v>
       </c>
       <c r="G79" s="11" t="inlineStr">
         <is>
@@ -4164,17 +4164,17 @@
       </c>
       <c r="H79" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I79" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J79" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K79" s="11" t="inlineStr">
@@ -4186,23 +4186,23 @@
     <row r="80">
       <c r="A80" s="7" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B80" s="8" t="n">
-        <v>90010</v>
+        <v>501029</v>
       </c>
       <c r="C80" s="9" t="n">
-        <v>1.6518</v>
+        <v>0.9829</v>
       </c>
       <c r="D80" s="10" t="n">
-        <v>888.12</v>
+        <v>214.89</v>
       </c>
       <c r="E80" s="10" t="n">
-        <v>1463.62</v>
+        <v>211.75</v>
       </c>
       <c r="F80" s="10" t="n">
-        <v>-3.37</v>
+        <v>0.54</v>
       </c>
       <c r="G80" s="11" t="inlineStr">
         <is>
@@ -4216,12 +4216,12 @@
       </c>
       <c r="I80" s="11" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="J80" s="11" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>132</t>
         </is>
       </c>
       <c r="K80" s="11" t="inlineStr">
@@ -4233,42 +4233,42 @@
     <row r="81">
       <c r="A81" s="7" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>天弘中证医药100A</t>
         </is>
       </c>
       <c r="B81" s="8" t="n">
-        <v>501021</v>
+        <v>1550</v>
       </c>
       <c r="C81" s="9" t="n">
-        <v>1.3485</v>
+        <v>0.6708</v>
       </c>
       <c r="D81" s="10" t="n">
-        <v>898.04</v>
+        <v>212.74</v>
       </c>
       <c r="E81" s="10" t="n">
-        <v>1345.17</v>
+        <v>167.43</v>
       </c>
       <c r="F81" s="10" t="n">
-        <v>134.17</v>
+        <v>24.72</v>
       </c>
       <c r="G81" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H81" s="11" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I81" s="11" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J81" s="11" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K81" s="11" t="inlineStr">
@@ -4280,23 +4280,23 @@
     <row r="82">
       <c r="A82" s="7" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>华夏上证50AH优选指数</t>
         </is>
       </c>
       <c r="B82" s="8" t="n">
-        <v>3318</v>
+        <v>501050</v>
       </c>
       <c r="C82" s="9" t="n">
-        <v>0.9329</v>
+        <v>1.2891</v>
       </c>
       <c r="D82" s="10" t="n">
-        <v>1358.53</v>
+        <v>62.09</v>
       </c>
       <c r="E82" s="10" t="n">
-        <v>1271.86</v>
+        <v>84.94</v>
       </c>
       <c r="F82" s="10" t="n">
-        <v>4.48</v>
+        <v>4.9</v>
       </c>
       <c r="G82" s="11" t="inlineStr">
         <is>
@@ -4305,17 +4305,17 @@
       </c>
       <c r="H82" s="11" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I82" s="11" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>50AH</t>
         </is>
       </c>
       <c r="J82" s="11" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K82" s="11" t="inlineStr">
@@ -4327,23 +4327,23 @@
     <row r="83">
       <c r="A83" s="7" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
       <c r="B83" s="8" t="n">
-        <v>70023</v>
+        <v>310398</v>
       </c>
       <c r="C83" s="9" t="n">
-        <v>1.7966</v>
+        <v>1.4372</v>
       </c>
       <c r="D83" s="10" t="n">
-        <v>492.58</v>
+        <v>25.8</v>
       </c>
       <c r="E83" s="10" t="n">
-        <v>936.64</v>
+        <v>36.2</v>
       </c>
       <c r="F83" s="10" t="n">
-        <v>51.67</v>
+        <v>-0.88</v>
       </c>
       <c r="G83" s="11" t="inlineStr">
         <is>
@@ -4357,12 +4357,12 @@
       </c>
       <c r="I83" s="11" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J83" s="11" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K83" s="11" t="inlineStr">
@@ -4374,23 +4374,23 @@
     <row r="84">
       <c r="A84" s="7" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B84" s="8" t="n">
-        <v>530015</v>
+        <v>1594</v>
       </c>
       <c r="C84" s="9" t="n">
-        <v>2.122</v>
+        <v>1.2144</v>
       </c>
       <c r="D84" s="10" t="n">
-        <v>406.95</v>
+        <v>17.12</v>
       </c>
       <c r="E84" s="10" t="n">
-        <v>900.78</v>
+        <v>21.53</v>
       </c>
       <c r="F84" s="10" t="n">
-        <v>37.24</v>
+        <v>0.74</v>
       </c>
       <c r="G84" s="11" t="inlineStr">
         <is>
@@ -4399,17 +4399,17 @@
       </c>
       <c r="H84" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I84" s="11" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="J84" s="11" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K84" s="11" t="inlineStr">
@@ -4421,42 +4421,42 @@
     <row r="85">
       <c r="A85" s="7" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>大成景安短融债券E</t>
         </is>
       </c>
       <c r="B85" s="8" t="n">
-        <v>968</v>
+        <v>2086</v>
       </c>
       <c r="C85" s="9" t="n">
-        <v>0.9599</v>
+        <v>1.2258</v>
       </c>
       <c r="D85" s="10" t="n">
-        <v>390.82</v>
+        <v>0</v>
       </c>
       <c r="E85" s="10" t="n">
-        <v>379.33</v>
+        <v>0</v>
       </c>
       <c r="F85" s="10" t="n">
-        <v>4.18</v>
+        <v>0</v>
       </c>
       <c r="G85" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="H85" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>低风险理财</t>
         </is>
       </c>
       <c r="I85" s="11" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>货币基金</t>
         </is>
       </c>
       <c r="J85" s="11" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>999</t>
         </is>
       </c>
       <c r="K85" s="11" t="inlineStr">
@@ -4468,23 +4468,23 @@
     <row r="86">
       <c r="A86" s="7" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B86" s="8" t="n">
-        <v>501029</v>
+        <v>90010</v>
       </c>
       <c r="C86" s="9" t="n">
-        <v>0.9829</v>
+        <v>1.6561</v>
       </c>
       <c r="D86" s="10" t="n">
-        <v>214.89</v>
+        <v>974.37</v>
       </c>
       <c r="E86" s="10" t="n">
-        <v>208.21</v>
+        <v>1623.3</v>
       </c>
       <c r="F86" s="10" t="n">
-        <v>-3.01</v>
+        <v>9.65</v>
       </c>
       <c r="G86" s="11" t="inlineStr">
         <is>
@@ -4498,40 +4498,40 @@
       </c>
       <c r="I86" s="11" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J86" s="11" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K86" s="11" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>母螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="7" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B87" s="8" t="n">
-        <v>1550</v>
+        <v>519671</v>
       </c>
       <c r="C87" s="9" t="n">
-        <v>0.6708</v>
+        <v>1.4251</v>
       </c>
       <c r="D87" s="10" t="n">
-        <v>212.74</v>
+        <v>1057.28</v>
       </c>
       <c r="E87" s="10" t="n">
-        <v>164.55</v>
+        <v>1569</v>
       </c>
       <c r="F87" s="10" t="n">
-        <v>21.85</v>
+        <v>62.27</v>
       </c>
       <c r="G87" s="11" t="inlineStr">
         <is>
@@ -4540,92 +4540,92 @@
       </c>
       <c r="H87" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I87" s="11" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J87" s="11" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K87" s="11" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>母螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="7" t="inlineStr">
         <is>
-          <t>华夏上证50AH优选指数</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B88" s="8" t="n">
-        <v>501050</v>
+        <v>501021</v>
       </c>
       <c r="C88" s="9" t="n">
-        <v>1.2891</v>
+        <v>1.3514</v>
       </c>
       <c r="D88" s="10" t="n">
-        <v>62.09</v>
+        <v>915.97</v>
       </c>
       <c r="E88" s="10" t="n">
-        <v>84.13</v>
+        <v>1390.72</v>
       </c>
       <c r="F88" s="10" t="n">
-        <v>4.09</v>
+        <v>152.88</v>
       </c>
       <c r="G88" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H88" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I88" s="11" t="inlineStr">
         <is>
-          <t>50AH</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="J88" s="11" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K88" s="11" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>母螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="7" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B89" s="8" t="n">
-        <v>310398</v>
+        <v>3318</v>
       </c>
       <c r="C89" s="9" t="n">
-        <v>1.4372</v>
+        <v>0.9334</v>
       </c>
       <c r="D89" s="10" t="n">
-        <v>25.8</v>
+        <v>1412.34</v>
       </c>
       <c r="E89" s="10" t="n">
-        <v>35.73</v>
+        <v>1352.32</v>
       </c>
       <c r="F89" s="10" t="n">
-        <v>-1.35</v>
+        <v>34.04</v>
       </c>
       <c r="G89" s="11" t="inlineStr">
         <is>
@@ -4634,45 +4634,45 @@
       </c>
       <c r="H89" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I89" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="J89" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K89" s="11" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>母螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="7" t="inlineStr">
         <is>
-          <t>天弘中证银行指数A</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B90" s="8" t="n">
-        <v>1594</v>
+        <v>70023</v>
       </c>
       <c r="C90" s="9" t="n">
-        <v>1.2144</v>
+        <v>1.7992</v>
       </c>
       <c r="D90" s="10" t="n">
-        <v>17.12</v>
+        <v>528.99</v>
       </c>
       <c r="E90" s="10" t="n">
-        <v>21.31</v>
+        <v>1036.29</v>
       </c>
       <c r="F90" s="10" t="n">
-        <v>0.52</v>
+        <v>84.53</v>
       </c>
       <c r="G90" s="11" t="inlineStr">
         <is>
@@ -4681,92 +4681,92 @@
       </c>
       <c r="H90" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I90" s="11" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="J90" s="11" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>116</t>
         </is>
       </c>
       <c r="K90" s="11" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>母螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="7" t="inlineStr">
         <is>
-          <t>大成景安短融债券E</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B91" s="8" t="n">
-        <v>2086</v>
+        <v>530015</v>
       </c>
       <c r="C91" s="9" t="n">
-        <v>1.2258</v>
+        <v>2.125</v>
       </c>
       <c r="D91" s="10" t="n">
-        <v>0</v>
+        <v>406.87</v>
       </c>
       <c r="E91" s="10" t="n">
-        <v>0</v>
+        <v>927.7</v>
       </c>
       <c r="F91" s="10" t="n">
-        <v>0</v>
+        <v>63.11</v>
       </c>
       <c r="G91" s="11" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H91" s="11" t="inlineStr">
         <is>
-          <t>低风险理财</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I91" s="11" t="inlineStr">
         <is>
-          <t>货币基金</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="J91" s="11" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K91" s="11" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>母螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="7" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B92" s="8" t="n">
-        <v>90010</v>
+        <v>968</v>
       </c>
       <c r="C92" s="9" t="n">
-        <v>1.6561</v>
+        <v>0.9588</v>
       </c>
       <c r="D92" s="10" t="n">
-        <v>974.37</v>
+        <v>426.97</v>
       </c>
       <c r="E92" s="10" t="n">
-        <v>1605.76</v>
+        <v>422.4</v>
       </c>
       <c r="F92" s="10" t="n">
-        <v>-7.89</v>
+        <v>13.02</v>
       </c>
       <c r="G92" s="11" t="inlineStr">
         <is>
@@ -4775,17 +4775,17 @@
       </c>
       <c r="H92" s="11" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I92" s="11" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J92" s="11" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K92" s="11" t="inlineStr">
@@ -4797,23 +4797,23 @@
     <row r="93">
       <c r="A93" s="7" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B93" s="8" t="n">
-        <v>519671</v>
+        <v>501029</v>
       </c>
       <c r="C93" s="9" t="n">
-        <v>1.4251</v>
+        <v>0.9824000000000001</v>
       </c>
       <c r="D93" s="10" t="n">
-        <v>1057.28</v>
+        <v>227.52</v>
       </c>
       <c r="E93" s="10" t="n">
-        <v>1551.03</v>
+        <v>224.2</v>
       </c>
       <c r="F93" s="10" t="n">
-        <v>44.3</v>
+        <v>0.68</v>
       </c>
       <c r="G93" s="11" t="inlineStr">
         <is>
@@ -4822,17 +4822,17 @@
       </c>
       <c r="H93" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I93" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="J93" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>132</t>
         </is>
       </c>
       <c r="K93" s="11" t="inlineStr">
@@ -4844,42 +4844,42 @@
     <row r="94">
       <c r="A94" s="7" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>华夏上证50AH优选指数</t>
         </is>
       </c>
       <c r="B94" s="8" t="n">
-        <v>501021</v>
+        <v>501050</v>
       </c>
       <c r="C94" s="9" t="n">
-        <v>1.3514</v>
+        <v>1.284</v>
       </c>
       <c r="D94" s="10" t="n">
-        <v>915.97</v>
+        <v>142.1</v>
       </c>
       <c r="E94" s="10" t="n">
-        <v>1372.03</v>
+        <v>194.39</v>
       </c>
       <c r="F94" s="10" t="n">
-        <v>134.19</v>
+        <v>11.94</v>
       </c>
       <c r="G94" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H94" s="11" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I94" s="11" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>50AH</t>
         </is>
       </c>
       <c r="J94" s="11" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K94" s="11" t="inlineStr">
@@ -4891,23 +4891,23 @@
     <row r="95">
       <c r="A95" s="7" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>天弘中证医药100A</t>
         </is>
       </c>
       <c r="B95" s="8" t="n">
-        <v>3318</v>
+        <v>1550</v>
       </c>
       <c r="C95" s="9" t="n">
-        <v>0.9334</v>
+        <v>0.6708</v>
       </c>
       <c r="D95" s="10" t="n">
-        <v>1412.34</v>
+        <v>212.74</v>
       </c>
       <c r="E95" s="10" t="n">
-        <v>1322.23</v>
+        <v>167.43</v>
       </c>
       <c r="F95" s="10" t="n">
-        <v>3.95</v>
+        <v>24.72</v>
       </c>
       <c r="G95" s="11" t="inlineStr">
         <is>
@@ -4916,17 +4916,17 @@
       </c>
       <c r="H95" s="11" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I95" s="11" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J95" s="11" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K95" s="11" t="inlineStr">
@@ -4938,23 +4938,23 @@
     <row r="96">
       <c r="A96" s="7" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B96" s="8" t="n">
-        <v>70023</v>
+        <v>1594</v>
       </c>
       <c r="C96" s="9" t="n">
-        <v>1.7992</v>
+        <v>1.2142</v>
       </c>
       <c r="D96" s="10" t="n">
-        <v>528.99</v>
+        <v>34.26</v>
       </c>
       <c r="E96" s="10" t="n">
-        <v>1005.87</v>
+        <v>43.09</v>
       </c>
       <c r="F96" s="10" t="n">
-        <v>54.12</v>
+        <v>1.49</v>
       </c>
       <c r="G96" s="11" t="inlineStr">
         <is>
@@ -4963,17 +4963,17 @@
       </c>
       <c r="H96" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I96" s="11" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="J96" s="11" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K96" s="11" t="inlineStr">
@@ -4985,23 +4985,23 @@
     <row r="97">
       <c r="A97" s="7" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
       <c r="B97" s="8" t="n">
-        <v>530015</v>
+        <v>310398</v>
       </c>
       <c r="C97" s="9" t="n">
-        <v>2.125</v>
+        <v>1.4372</v>
       </c>
       <c r="D97" s="10" t="n">
-        <v>406.87</v>
+        <v>25.8</v>
       </c>
       <c r="E97" s="10" t="n">
-        <v>900.61</v>
+        <v>36.2</v>
       </c>
       <c r="F97" s="10" t="n">
-        <v>36.01</v>
+        <v>-0.88</v>
       </c>
       <c r="G97" s="11" t="inlineStr">
         <is>
@@ -5015,12 +5015,12 @@
       </c>
       <c r="I97" s="11" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J97" s="11" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K97" s="11" t="inlineStr">
@@ -5032,42 +5032,42 @@
     <row r="98">
       <c r="A98" s="7" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>大成景安短融债券E</t>
         </is>
       </c>
       <c r="B98" s="8" t="n">
-        <v>968</v>
+        <v>2086</v>
       </c>
       <c r="C98" s="9" t="n">
-        <v>0.9588</v>
+        <v>1.2257</v>
       </c>
       <c r="D98" s="10" t="n">
-        <v>426.97</v>
+        <v>0</v>
       </c>
       <c r="E98" s="10" t="n">
-        <v>414.42</v>
+        <v>0</v>
       </c>
       <c r="F98" s="10" t="n">
-        <v>5.04</v>
+        <v>0</v>
       </c>
       <c r="G98" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="H98" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>低风险理财</t>
         </is>
       </c>
       <c r="I98" s="11" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>货币基金</t>
         </is>
       </c>
       <c r="J98" s="11" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>999</t>
         </is>
       </c>
       <c r="K98" s="11" t="inlineStr">
@@ -5077,354 +5077,354 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="7" t="inlineStr">
-        <is>
-          <t>华宝红利基金</t>
-        </is>
-      </c>
-      <c r="B99" s="8" t="n">
-        <v>501029</v>
-      </c>
-      <c r="C99" s="9" t="n">
-        <v>0.9824000000000001</v>
-      </c>
-      <c r="D99" s="10" t="n">
-        <v>227.52</v>
-      </c>
-      <c r="E99" s="10" t="n">
-        <v>220.44</v>
-      </c>
-      <c r="F99" s="10" t="n">
-        <v>-3.07</v>
-      </c>
-      <c r="G99" s="11" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H99" s="11" t="inlineStr">
-        <is>
-          <t>红利价值</t>
-        </is>
-      </c>
-      <c r="I99" s="11" t="inlineStr">
-        <is>
-          <t>标普红利</t>
-        </is>
-      </c>
-      <c r="J99" s="11" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="K99" s="11" t="inlineStr">
-        <is>
-          <t>母螺丝钉</t>
+      <c r="A99" s="27" t="inlineStr">
+        <is>
+          <t>交银稳鑫短债债券A</t>
+        </is>
+      </c>
+      <c r="B99" s="28" t="n">
+        <v>6793</v>
+      </c>
+      <c r="C99" s="29" t="n">
+        <v>1.0286</v>
+      </c>
+      <c r="D99" s="30" t="n">
+        <v>171152.16</v>
+      </c>
+      <c r="E99" s="30" t="n">
+        <v>176303.84</v>
+      </c>
+      <c r="F99" s="30" t="n">
+        <v>256.73</v>
+      </c>
+      <c r="G99" s="31" t="inlineStr">
+        <is>
+          <t>债券</t>
+        </is>
+      </c>
+      <c r="H99" s="31" t="inlineStr">
+        <is>
+          <t>国内债券</t>
+        </is>
+      </c>
+      <c r="I99" s="31" t="inlineStr">
+        <is>
+          <t>可转债</t>
+        </is>
+      </c>
+      <c r="J99" s="31" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="K99" s="31" t="inlineStr">
+        <is>
+          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="7" t="inlineStr">
-        <is>
-          <t>华夏上证50AH优选指数</t>
-        </is>
-      </c>
-      <c r="B100" s="8" t="n">
-        <v>501050</v>
-      </c>
-      <c r="C100" s="9" t="n">
-        <v>1.284</v>
-      </c>
-      <c r="D100" s="10" t="n">
-        <v>142.1</v>
-      </c>
-      <c r="E100" s="10" t="n">
-        <v>192.55</v>
-      </c>
-      <c r="F100" s="10" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="G100" s="11" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H100" s="11" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="I100" s="11" t="inlineStr">
-        <is>
-          <t>50AH</t>
-        </is>
-      </c>
-      <c r="J100" s="11" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="K100" s="11" t="inlineStr">
-        <is>
-          <t>母螺丝钉</t>
+      <c r="A100" s="27" t="inlineStr">
+        <is>
+          <t>交银主题优选</t>
+        </is>
+      </c>
+      <c r="B100" s="28" t="n">
+        <v>519700</v>
+      </c>
+      <c r="C100" s="29" t="n">
+        <v>1.4657</v>
+      </c>
+      <c r="D100" s="30" t="n">
+        <v>11598.58</v>
+      </c>
+      <c r="E100" s="30" t="n">
+        <v>17908.21</v>
+      </c>
+      <c r="F100" s="30" t="n">
+        <v>908.17</v>
+      </c>
+      <c r="G100" s="31" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="H100" s="31" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="I100" s="31" t="inlineStr">
+        <is>
+          <t>偏股</t>
+        </is>
+      </c>
+      <c r="J100" s="31" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="K100" s="31" t="inlineStr">
+        <is>
+          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="7" t="inlineStr">
-        <is>
-          <t>天弘中证医药100A</t>
-        </is>
-      </c>
-      <c r="B101" s="8" t="n">
-        <v>1550</v>
-      </c>
-      <c r="C101" s="9" t="n">
-        <v>0.6708</v>
-      </c>
-      <c r="D101" s="10" t="n">
-        <v>212.74</v>
-      </c>
-      <c r="E101" s="10" t="n">
-        <v>164.55</v>
-      </c>
-      <c r="F101" s="10" t="n">
-        <v>21.85</v>
-      </c>
-      <c r="G101" s="11" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H101" s="11" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="I101" s="11" t="inlineStr">
-        <is>
-          <t>全指医药</t>
-        </is>
-      </c>
-      <c r="J101" s="11" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="K101" s="11" t="inlineStr">
-        <is>
-          <t>母螺丝钉</t>
+      <c r="A101" s="27" t="inlineStr">
+        <is>
+          <t>交银纯债A/B</t>
+        </is>
+      </c>
+      <c r="B101" s="28" t="n">
+        <v>519718</v>
+      </c>
+      <c r="C101" s="29" t="n">
+        <v>1.0759</v>
+      </c>
+      <c r="D101" s="30" t="n">
+        <v>128864.36</v>
+      </c>
+      <c r="E101" s="30" t="n">
+        <v>138915.78</v>
+      </c>
+      <c r="F101" s="30" t="n">
+        <v>270.62</v>
+      </c>
+      <c r="G101" s="31" t="inlineStr">
+        <is>
+          <t>债券</t>
+        </is>
+      </c>
+      <c r="H101" s="31" t="inlineStr">
+        <is>
+          <t>国内债券</t>
+        </is>
+      </c>
+      <c r="I101" s="31" t="inlineStr">
+        <is>
+          <t>可转债</t>
+        </is>
+      </c>
+      <c r="J101" s="31" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="K101" s="31" t="inlineStr">
+        <is>
+          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="7" t="inlineStr">
-        <is>
-          <t>天弘中证银行指数A</t>
-        </is>
-      </c>
-      <c r="B102" s="8" t="n">
-        <v>1594</v>
-      </c>
-      <c r="C102" s="9" t="n">
-        <v>1.2142</v>
-      </c>
-      <c r="D102" s="10" t="n">
-        <v>34.26</v>
-      </c>
-      <c r="E102" s="10" t="n">
-        <v>42.64</v>
-      </c>
-      <c r="F102" s="10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G102" s="11" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H102" s="11" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="I102" s="11" t="inlineStr">
-        <is>
-          <t>中证银行</t>
-        </is>
-      </c>
-      <c r="J102" s="11" t="inlineStr">
-        <is>
-          <t>146</t>
-        </is>
-      </c>
-      <c r="K102" s="11" t="inlineStr">
-        <is>
-          <t>母螺丝钉</t>
+      <c r="A102" s="27" t="inlineStr">
+        <is>
+          <t>交银双轮动A/B</t>
+        </is>
+      </c>
+      <c r="B102" s="28" t="n">
+        <v>519723</v>
+      </c>
+      <c r="C102" s="29" t="n">
+        <v>1.0784</v>
+      </c>
+      <c r="D102" s="30" t="n">
+        <v>132719.84</v>
+      </c>
+      <c r="E102" s="30" t="n">
+        <v>143204.71</v>
+      </c>
+      <c r="F102" s="30" t="n">
+        <v>79.63</v>
+      </c>
+      <c r="G102" s="31" t="inlineStr">
+        <is>
+          <t>债券</t>
+        </is>
+      </c>
+      <c r="H102" s="31" t="inlineStr">
+        <is>
+          <t>国内债券</t>
+        </is>
+      </c>
+      <c r="I102" s="31" t="inlineStr">
+        <is>
+          <t>可转债</t>
+        </is>
+      </c>
+      <c r="J102" s="31" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="K102" s="31" t="inlineStr">
+        <is>
+          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="7" t="inlineStr">
-        <is>
-          <t>申万菱信沪深300价值指数</t>
-        </is>
-      </c>
-      <c r="B103" s="8" t="n">
-        <v>310398</v>
-      </c>
-      <c r="C103" s="9" t="n">
-        <v>1.4372</v>
-      </c>
-      <c r="D103" s="10" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="E103" s="10" t="n">
-        <v>35.73</v>
-      </c>
-      <c r="F103" s="10" t="n">
-        <v>-1.35</v>
-      </c>
-      <c r="G103" s="11" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H103" s="11" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="I103" s="11" t="inlineStr">
-        <is>
-          <t>300价值</t>
-        </is>
-      </c>
-      <c r="J103" s="11" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="K103" s="11" t="inlineStr">
-        <is>
-          <t>母螺丝钉</t>
+      <c r="A103" s="27" t="inlineStr">
+        <is>
+          <t>交银新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="B103" s="28" t="n">
+        <v>519752</v>
+      </c>
+      <c r="C103" s="29" t="n">
+        <v>1.2439</v>
+      </c>
+      <c r="D103" s="30" t="n">
+        <v>59685.02</v>
+      </c>
+      <c r="E103" s="30" t="n">
+        <v>74725.64999999999</v>
+      </c>
+      <c r="F103" s="30" t="n">
+        <v>483.45</v>
+      </c>
+      <c r="G103" s="31" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="H103" s="31" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="I103" s="31" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="J103" s="31" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="K103" s="31" t="inlineStr">
+        <is>
+          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="7" t="inlineStr">
-        <is>
-          <t>大成景安短融债券E</t>
-        </is>
-      </c>
-      <c r="B104" s="8" t="n">
-        <v>2086</v>
-      </c>
-      <c r="C104" s="9" t="n">
-        <v>1.2257</v>
-      </c>
-      <c r="D104" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F104" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G104" s="11" t="inlineStr">
-        <is>
-          <t>现金</t>
-        </is>
-      </c>
-      <c r="H104" s="11" t="inlineStr">
-        <is>
-          <t>低风险理财</t>
-        </is>
-      </c>
-      <c r="I104" s="11" t="inlineStr">
-        <is>
-          <t>货币基金</t>
-        </is>
-      </c>
-      <c r="J104" s="11" t="inlineStr">
-        <is>
-          <t>999</t>
-        </is>
-      </c>
-      <c r="K104" s="11" t="inlineStr">
-        <is>
-          <t>母螺丝钉</t>
+      <c r="A104" s="27" t="inlineStr">
+        <is>
+          <t>交银多策略回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="B104" s="28" t="n">
+        <v>519755</v>
+      </c>
+      <c r="C104" s="29" t="n">
+        <v>1.2894</v>
+      </c>
+      <c r="D104" s="30" t="n">
+        <v>76964.17</v>
+      </c>
+      <c r="E104" s="30" t="n">
+        <v>100207.35</v>
+      </c>
+      <c r="F104" s="30" t="n">
+        <v>969.75</v>
+      </c>
+      <c r="G104" s="31" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="H104" s="31" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="I104" s="31" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="J104" s="31" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="K104" s="31" t="inlineStr">
+        <is>
+          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="32" t="inlineStr">
-        <is>
-          <t>广发中证500ETF联接A</t>
-        </is>
-      </c>
-      <c r="B105" s="33" t="n">
-        <v>162711</v>
-      </c>
-      <c r="C105" s="34" t="n">
-        <v>1.0519</v>
-      </c>
-      <c r="D105" s="35" t="n">
-        <v>9697.57</v>
-      </c>
-      <c r="E105" s="35" t="n">
-        <v>10778.85</v>
-      </c>
-      <c r="F105" s="35" t="n">
-        <v>577.98</v>
-      </c>
-      <c r="G105" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H105" s="36" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="I105" s="36" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="J105" s="36" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="K105" s="36" t="inlineStr">
-        <is>
-          <t>母天天基金</t>
+      <c r="A105" s="27" t="inlineStr">
+        <is>
+          <t>交银裕盈纯债债券A</t>
+        </is>
+      </c>
+      <c r="B105" s="28" t="n">
+        <v>519776</v>
+      </c>
+      <c r="C105" s="29" t="n">
+        <v>1.0793</v>
+      </c>
+      <c r="D105" s="30" t="n">
+        <v>140577.44</v>
+      </c>
+      <c r="E105" s="30" t="n">
+        <v>151837.69</v>
+      </c>
+      <c r="F105" s="30" t="n">
+        <v>112.46</v>
+      </c>
+      <c r="G105" s="31" t="inlineStr">
+        <is>
+          <t>债券</t>
+        </is>
+      </c>
+      <c r="H105" s="31" t="inlineStr">
+        <is>
+          <t>国内债券</t>
+        </is>
+      </c>
+      <c r="I105" s="31" t="inlineStr">
+        <is>
+          <t>可转债</t>
+        </is>
+      </c>
+      <c r="J105" s="31" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="K105" s="31" t="inlineStr">
+        <is>
+          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="32" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>广发中证500ETF联接A</t>
         </is>
       </c>
       <c r="B106" s="33" t="n">
-        <v>100032</v>
+        <v>162711</v>
       </c>
       <c r="C106" s="34" t="n">
-        <v>1.0142</v>
+        <v>1.0519</v>
       </c>
       <c r="D106" s="35" t="n">
-        <v>8677.6</v>
+        <v>9697.57</v>
       </c>
       <c r="E106" s="35" t="n">
-        <v>9770.98</v>
+        <v>11079.47</v>
       </c>
       <c r="F106" s="35" t="n">
-        <v>970.16</v>
+        <v>878.6</v>
       </c>
       <c r="G106" s="36" t="inlineStr">
         <is>
@@ -5433,17 +5433,17 @@
       </c>
       <c r="H106" s="36" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I106" s="36" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J106" s="36" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K106" s="36" t="inlineStr">
@@ -5455,23 +5455,23 @@
     <row r="107">
       <c r="A107" s="32" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B107" s="33" t="n">
-        <v>968</v>
+        <v>100032</v>
       </c>
       <c r="C107" s="34" t="n">
-        <v>0.853</v>
+        <v>1.0142</v>
       </c>
       <c r="D107" s="35" t="n">
-        <v>6096.21</v>
+        <v>8677.6</v>
       </c>
       <c r="E107" s="35" t="n">
-        <v>5916.98</v>
+        <v>9909.82</v>
       </c>
       <c r="F107" s="35" t="n">
-        <v>716.91</v>
+        <v>1109</v>
       </c>
       <c r="G107" s="36" t="inlineStr">
         <is>
@@ -5480,17 +5480,17 @@
       </c>
       <c r="H107" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="I107" s="36" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="J107" s="36" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K107" s="36" t="inlineStr">
@@ -5502,23 +5502,23 @@
     <row r="108">
       <c r="A108" s="32" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B108" s="33" t="n">
-        <v>1180</v>
+        <v>968</v>
       </c>
       <c r="C108" s="34" t="n">
-        <v>0.7111</v>
+        <v>0.853</v>
       </c>
       <c r="D108" s="35" t="n">
-        <v>6750.28</v>
+        <v>6096.21</v>
       </c>
       <c r="E108" s="35" t="n">
-        <v>5690.49</v>
+        <v>6030.98</v>
       </c>
       <c r="F108" s="35" t="n">
-        <v>890.36</v>
+        <v>830.91</v>
       </c>
       <c r="G108" s="36" t="inlineStr">
         <is>
@@ -5532,12 +5532,12 @@
       </c>
       <c r="I108" s="36" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="J108" s="36" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K108" s="36" t="inlineStr">
@@ -5549,23 +5549,23 @@
     <row r="109">
       <c r="A109" s="32" t="inlineStr">
         <is>
-          <t>富国沪深300指数增强</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B109" s="33" t="n">
-        <v>100038</v>
+        <v>1180</v>
       </c>
       <c r="C109" s="34" t="n">
-        <v>1.3043</v>
+        <v>0.7111</v>
       </c>
       <c r="D109" s="35" t="n">
-        <v>2760.12</v>
+        <v>6750.28</v>
       </c>
       <c r="E109" s="35" t="n">
-        <v>4573.52</v>
+        <v>5778.24</v>
       </c>
       <c r="F109" s="35" t="n">
-        <v>973.49</v>
+        <v>978.12</v>
       </c>
       <c r="G109" s="36" t="inlineStr">
         <is>
@@ -5574,17 +5574,17 @@
       </c>
       <c r="H109" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I109" s="36" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="J109" s="36" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K109" s="36" t="inlineStr">
@@ -5596,23 +5596,23 @@
     <row r="110">
       <c r="A110" s="32" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>富国沪深300指数增强</t>
         </is>
       </c>
       <c r="B110" s="33" t="n">
-        <v>4752</v>
+        <v>100038</v>
       </c>
       <c r="C110" s="34" t="n">
-        <v>0.7235</v>
+        <v>1.3043</v>
       </c>
       <c r="D110" s="35" t="n">
-        <v>4423.48</v>
+        <v>2760.12</v>
       </c>
       <c r="E110" s="35" t="n">
-        <v>3492.34</v>
+        <v>4637</v>
       </c>
       <c r="F110" s="35" t="n">
-        <v>291.95</v>
+        <v>1036.98</v>
       </c>
       <c r="G110" s="36" t="inlineStr">
         <is>
@@ -5621,17 +5621,17 @@
       </c>
       <c r="H110" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I110" s="36" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="J110" s="36" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K110" s="36" t="inlineStr">
@@ -5643,42 +5643,42 @@
     <row r="111">
       <c r="A111" s="32" t="inlineStr">
         <is>
-          <t>易方达安心回报债券A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B111" s="33" t="n">
-        <v>110027</v>
+        <v>4752</v>
       </c>
       <c r="C111" s="34" t="n">
-        <v>1.6102</v>
+        <v>0.7235</v>
       </c>
       <c r="D111" s="35" t="n">
-        <v>1981.84</v>
+        <v>4423.48</v>
       </c>
       <c r="E111" s="35" t="n">
-        <v>3412.73</v>
+        <v>3614.87</v>
       </c>
       <c r="F111" s="35" t="n">
-        <v>221.57</v>
+        <v>414.48</v>
       </c>
       <c r="G111" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H111" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I111" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="J111" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>144</t>
         </is>
       </c>
       <c r="K111" s="36" t="inlineStr">
@@ -5690,42 +5690,42 @@
     <row r="112">
       <c r="A112" s="32" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>易方达安心回报债券A</t>
         </is>
       </c>
       <c r="B112" s="33" t="n">
-        <v>161017</v>
+        <v>110027</v>
       </c>
       <c r="C112" s="34" t="n">
-        <v>1.325</v>
+        <v>1.6102</v>
       </c>
       <c r="D112" s="35" t="n">
-        <v>2046.97</v>
+        <v>1981.84</v>
       </c>
       <c r="E112" s="35" t="n">
-        <v>3377.5</v>
+        <v>3450.38</v>
       </c>
       <c r="F112" s="35" t="n">
-        <v>665.27</v>
+        <v>259.22</v>
       </c>
       <c r="G112" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H112" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I112" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J112" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K112" s="36" t="inlineStr">
@@ -5737,23 +5737,23 @@
     <row r="113">
       <c r="A113" s="32" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B113" s="33" t="n">
-        <v>1064</v>
+        <v>161017</v>
       </c>
       <c r="C113" s="34" t="n">
-        <v>0.5379</v>
+        <v>1.325</v>
       </c>
       <c r="D113" s="35" t="n">
-        <v>5949.77</v>
+        <v>2046.97</v>
       </c>
       <c r="E113" s="35" t="n">
-        <v>3351.51</v>
+        <v>3473.71</v>
       </c>
       <c r="F113" s="35" t="n">
-        <v>151.12</v>
+        <v>761.47</v>
       </c>
       <c r="G113" s="36" t="inlineStr">
         <is>
@@ -5762,17 +5762,17 @@
       </c>
       <c r="H113" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I113" s="36" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="J113" s="36" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K113" s="36" t="inlineStr">
@@ -5784,42 +5784,42 @@
     <row r="114">
       <c r="A114" s="32" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B114" s="33" t="n">
-        <v>614</v>
+        <v>1064</v>
       </c>
       <c r="C114" s="34" t="n">
-        <v>1.0612</v>
+        <v>0.5379</v>
       </c>
       <c r="D114" s="35" t="n">
-        <v>1884.74</v>
+        <v>5949.77</v>
       </c>
       <c r="E114" s="35" t="n">
-        <v>2286.19</v>
+        <v>3453.84</v>
       </c>
       <c r="F114" s="35" t="n">
-        <v>286.1</v>
+        <v>253.46</v>
       </c>
       <c r="G114" s="36" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H114" s="36" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I114" s="36" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="J114" s="36" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K114" s="36" t="inlineStr">
@@ -5831,42 +5831,42 @@
     <row r="115">
       <c r="A115" s="32" t="inlineStr">
         <is>
-          <t>易方达创业板ETF联接A</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B115" s="33" t="n">
-        <v>110026</v>
+        <v>614</v>
       </c>
       <c r="C115" s="34" t="n">
-        <v>1.319</v>
+        <v>1.0612</v>
       </c>
       <c r="D115" s="35" t="n">
-        <v>1213.09</v>
+        <v>1884.74</v>
       </c>
       <c r="E115" s="35" t="n">
-        <v>2200.18</v>
+        <v>2305.04</v>
       </c>
       <c r="F115" s="35" t="n">
-        <v>600.12</v>
+        <v>304.95</v>
       </c>
       <c r="G115" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="H115" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="I115" s="36" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="J115" s="36" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>321</t>
         </is>
       </c>
       <c r="K115" s="36" t="inlineStr">
@@ -5878,42 +5878,42 @@
     <row r="116">
       <c r="A116" s="32" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>易方达创业板ETF联接A</t>
         </is>
       </c>
       <c r="B116" s="33" t="n">
-        <v>340001</v>
+        <v>110026</v>
       </c>
       <c r="C116" s="34" t="n">
-        <v>0.9816</v>
+        <v>1.319</v>
       </c>
       <c r="D116" s="35" t="n">
-        <v>1630.08</v>
+        <v>1213.09</v>
       </c>
       <c r="E116" s="35" t="n">
-        <v>1920.23</v>
+        <v>2254.89</v>
       </c>
       <c r="F116" s="35" t="n">
-        <v>320.15</v>
+        <v>654.83</v>
       </c>
       <c r="G116" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H116" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I116" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="J116" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K116" s="36" t="inlineStr">
@@ -5925,42 +5925,42 @@
     <row r="117">
       <c r="A117" s="32" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B117" s="33" t="n">
-        <v>164906</v>
+        <v>340001</v>
       </c>
       <c r="C117" s="34" t="n">
-        <v>1.137</v>
+        <v>0.9816</v>
       </c>
       <c r="D117" s="35" t="n">
-        <v>1407.29</v>
+        <v>1630.08</v>
       </c>
       <c r="E117" s="35" t="n">
-        <v>1861.84</v>
+        <v>1954.3</v>
       </c>
       <c r="F117" s="35" t="n">
-        <v>261.76</v>
+        <v>354.22</v>
       </c>
       <c r="G117" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H117" s="36" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I117" s="36" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J117" s="36" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K117" s="36" t="inlineStr">
@@ -5972,42 +5972,42 @@
     <row r="118">
       <c r="A118" s="32" t="inlineStr">
         <is>
-          <t>华夏上证50ETF联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B118" s="33" t="n">
-        <v>1051</v>
+        <v>164906</v>
       </c>
       <c r="C118" s="34" t="n">
-        <v>0.8966</v>
+        <v>1.137</v>
       </c>
       <c r="D118" s="35" t="n">
-        <v>1338.46</v>
+        <v>1407.29</v>
       </c>
       <c r="E118" s="35" t="n">
-        <v>1374.6</v>
+        <v>1878.73</v>
       </c>
       <c r="F118" s="35" t="n">
-        <v>174.54</v>
+        <v>278.64</v>
       </c>
       <c r="G118" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H118" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="I118" s="36" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="J118" s="36" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>221</t>
         </is>
       </c>
       <c r="K118" s="36" t="inlineStr">
@@ -6019,42 +6019,42 @@
     <row r="119">
       <c r="A119" s="32" t="inlineStr">
         <is>
-          <t>华宝标普油气上游股票</t>
+          <t>华夏上证50ETF联接A</t>
         </is>
       </c>
       <c r="B119" s="33" t="n">
-        <v>162411</v>
+        <v>1051</v>
       </c>
       <c r="C119" s="34" t="n">
-        <v>0.4776</v>
+        <v>0.8966</v>
       </c>
       <c r="D119" s="35" t="n">
-        <v>3350.7</v>
+        <v>1338.46</v>
       </c>
       <c r="E119" s="35" t="n">
-        <v>1316.83</v>
+        <v>1386.64</v>
       </c>
       <c r="F119" s="35" t="n">
-        <v>-283.47</v>
+        <v>186.58</v>
       </c>
       <c r="G119" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H119" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I119" s="36" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="J119" s="36" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K119" s="36" t="inlineStr">
@@ -6066,42 +6066,42 @@
     <row r="120">
       <c r="A120" s="32" t="inlineStr">
         <is>
-          <t>华宝中证1000指数分级</t>
+          <t>华宝标普油气上游股票</t>
         </is>
       </c>
       <c r="B120" s="33" t="n">
-        <v>162413</v>
+        <v>162411</v>
       </c>
       <c r="C120" s="34" t="n">
-        <v>0.8027</v>
+        <v>0.4776</v>
       </c>
       <c r="D120" s="35" t="n">
-        <v>1495.03</v>
+        <v>3350.7</v>
       </c>
       <c r="E120" s="35" t="n">
-        <v>1192.88</v>
+        <v>1320.18</v>
       </c>
       <c r="F120" s="35" t="n">
-        <v>-7.18</v>
+        <v>-280.12</v>
       </c>
       <c r="G120" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H120" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I120" s="36" t="inlineStr">
         <is>
-          <t>中证1000</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="J120" s="36" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>613</t>
         </is>
       </c>
       <c r="K120" s="36" t="inlineStr">
@@ -6113,23 +6113,23 @@
     <row r="121">
       <c r="A121" s="32" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>华宝中证1000指数分级</t>
         </is>
       </c>
       <c r="B121" s="33" t="n">
-        <v>1469</v>
+        <v>162413</v>
       </c>
       <c r="C121" s="34" t="n">
-        <v>0.8885999999999999</v>
+        <v>0.8027</v>
       </c>
       <c r="D121" s="35" t="n">
-        <v>900.35</v>
+        <v>1495.03</v>
       </c>
       <c r="E121" s="35" t="n">
-        <v>1005.96</v>
+        <v>1227.42</v>
       </c>
       <c r="F121" s="35" t="n">
-        <v>205.91</v>
+        <v>27.36</v>
       </c>
       <c r="G121" s="36" t="inlineStr">
         <is>
@@ -6138,17 +6138,17 @@
       </c>
       <c r="H121" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I121" s="36" t="inlineStr">
         <is>
-          <t>金融地产</t>
+          <t>中证1000</t>
         </is>
       </c>
       <c r="J121" s="36" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>123</t>
         </is>
       </c>
       <c r="K121" s="36" t="inlineStr">
@@ -6160,42 +6160,42 @@
     <row r="122">
       <c r="A122" s="32" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B122" s="33" t="n">
-        <v>216</v>
+        <v>1469</v>
       </c>
       <c r="C122" s="34" t="n">
-        <v>1.0903</v>
+        <v>0.8885999999999999</v>
       </c>
       <c r="D122" s="35" t="n">
-        <v>733.79</v>
+        <v>900.35</v>
       </c>
       <c r="E122" s="35" t="n">
-        <v>890.16</v>
+        <v>1026.04</v>
       </c>
       <c r="F122" s="35" t="n">
-        <v>90.11</v>
+        <v>225.99</v>
       </c>
       <c r="G122" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H122" s="36" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I122" s="36" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>金融地产</t>
         </is>
       </c>
       <c r="J122" s="36" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>147</t>
         </is>
       </c>
       <c r="K122" s="36" t="inlineStr">
@@ -6207,42 +6207,42 @@
     <row r="123">
       <c r="A123" s="32" t="inlineStr">
         <is>
-          <t>易方达证券公司分级</t>
+          <t>华安黄金易ETF联接A</t>
         </is>
       </c>
       <c r="B123" s="33" t="n">
-        <v>502010</v>
+        <v>216</v>
       </c>
       <c r="C123" s="34" t="n">
-        <v>0.8063</v>
+        <v>1.0903</v>
       </c>
       <c r="D123" s="35" t="n">
-        <v>496.13</v>
+        <v>733.79</v>
       </c>
       <c r="E123" s="35" t="n">
-        <v>506.9</v>
+        <v>895.37</v>
       </c>
       <c r="F123" s="35" t="n">
-        <v>106.87</v>
+        <v>95.31999999999999</v>
       </c>
       <c r="G123" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="H123" s="36" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="I123" s="36" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="J123" s="36" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>611</t>
         </is>
       </c>
       <c r="K123" s="36" t="inlineStr">
@@ -6254,42 +6254,42 @@
     <row r="124">
       <c r="A124" s="32" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>易方达证券公司分级</t>
         </is>
       </c>
       <c r="B124" s="33" t="n">
-        <v>519977</v>
+        <v>502010</v>
       </c>
       <c r="C124" s="34" t="n">
-        <v>1.2011</v>
+        <v>0.8063</v>
       </c>
       <c r="D124" s="35" t="n">
-        <v>333.04</v>
+        <v>496.13</v>
       </c>
       <c r="E124" s="35" t="n">
-        <v>461.49</v>
+        <v>528.4299999999999</v>
       </c>
       <c r="F124" s="35" t="n">
-        <v>61.48</v>
+        <v>128.4</v>
       </c>
       <c r="G124" s="36" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H124" s="36" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I124" s="36" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>证券公司</t>
         </is>
       </c>
       <c r="J124" s="36" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>145</t>
         </is>
       </c>
       <c r="K124" s="36" t="inlineStr">
@@ -6301,42 +6301,42 @@
     <row r="125">
       <c r="A125" s="32" t="inlineStr">
         <is>
-          <t>华夏沪深300ETF联接A</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B125" s="33" t="n">
-        <v>51</v>
+        <v>519977</v>
       </c>
       <c r="C125" s="34" t="n">
-        <v>1.2285</v>
+        <v>1.2011</v>
       </c>
       <c r="D125" s="35" t="n">
-        <v>325.61</v>
+        <v>333.04</v>
       </c>
       <c r="E125" s="35" t="n">
-        <v>432.41</v>
+        <v>468.95</v>
       </c>
       <c r="F125" s="35" t="n">
-        <v>32.4</v>
+        <v>68.94</v>
       </c>
       <c r="G125" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="H125" s="36" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="I125" s="36" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="J125" s="36" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>512</t>
         </is>
       </c>
       <c r="K125" s="36" t="inlineStr">
@@ -6348,42 +6348,42 @@
     <row r="126">
       <c r="A126" s="32" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>华夏沪深300ETF联接A</t>
         </is>
       </c>
       <c r="B126" s="33" t="n">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C126" s="34" t="n">
-        <v>1.452</v>
+        <v>1.2285</v>
       </c>
       <c r="D126" s="35" t="n">
-        <v>275.49</v>
+        <v>325.61</v>
       </c>
       <c r="E126" s="35" t="n">
-        <v>426.49</v>
+        <v>439.9</v>
       </c>
       <c r="F126" s="35" t="n">
-        <v>26.47</v>
+        <v>39.89</v>
       </c>
       <c r="G126" s="36" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H126" s="36" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I126" s="36" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="J126" s="36" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K126" s="36" t="inlineStr">
@@ -6395,42 +6395,42 @@
     <row r="127">
       <c r="A127" s="32" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B127" s="33" t="n">
-        <v>478</v>
+        <v>71</v>
       </c>
       <c r="C127" s="34" t="n">
-        <v>1.9396</v>
+        <v>1.452</v>
       </c>
       <c r="D127" s="35" t="n">
-        <v>206.23</v>
+        <v>275.49</v>
       </c>
       <c r="E127" s="35" t="n">
-        <v>412.75</v>
+        <v>428.47</v>
       </c>
       <c r="F127" s="35" t="n">
-        <v>12.75</v>
+        <v>28.46</v>
       </c>
       <c r="G127" s="36" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H127" s="36" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I127" s="36" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="J127" s="36" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K127" s="36" t="inlineStr">
@@ -6442,45 +6442,92 @@
     <row r="128">
       <c r="A128" s="32" t="inlineStr">
         <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="B128" s="33" t="n">
+        <v>478</v>
+      </c>
+      <c r="C128" s="34" t="n">
+        <v>1.9396</v>
+      </c>
+      <c r="D128" s="35" t="n">
+        <v>206.23</v>
+      </c>
+      <c r="E128" s="35" t="n">
+        <v>423.35</v>
+      </c>
+      <c r="F128" s="35" t="n">
+        <v>23.35</v>
+      </c>
+      <c r="G128" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H128" s="36" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="I128" s="36" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="J128" s="36" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="K128" s="36" t="inlineStr">
+        <is>
+          <t>母天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="32" t="inlineStr">
+        <is>
           <t>广发中证500ETF联接C</t>
         </is>
       </c>
-      <c r="B128" s="33" t="n">
+      <c r="B129" s="33" t="n">
         <v>2903</v>
       </c>
-      <c r="C128" s="34" t="n">
+      <c r="C129" s="34" t="n">
         <v>0.829</v>
       </c>
-      <c r="D128" s="35" t="n">
+      <c r="D129" s="35" t="n">
         <v>275.96</v>
       </c>
-      <c r="E128" s="35" t="n">
-        <v>245.05</v>
-      </c>
-      <c r="F128" s="35" t="n">
-        <v>16.28</v>
-      </c>
-      <c r="G128" s="36" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="H128" s="36" t="inlineStr">
+      <c r="E129" s="35" t="n">
+        <v>251.87</v>
+      </c>
+      <c r="F129" s="35" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="G129" s="36" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="H129" s="36" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="I128" s="36" t="inlineStr">
+      <c r="I129" s="36" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="J128" s="36" t="inlineStr">
+      <c r="J129" s="36" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="K128" s="36" t="inlineStr">
+      <c r="K129" s="36" t="inlineStr">
         <is>
           <t>母天天基金</t>
         </is>

--- a/scripts/output/201912/全家/全家整体资产配置.xlsx
+++ b/scripts/output/201912/全家/全家整体资产配置.xlsx
@@ -768,10 +768,10 @@
         <v>2260.14</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>3431.57</v>
+        <v>3422.53</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>384.68</v>
+        <v>375.64</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         <v>85.65000000000001</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>107.71</v>
+        <v>107.82</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>3.73</v>
+        <v>3.85</v>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
@@ -1426,10 +1426,10 @@
         <v>9100</v>
       </c>
       <c r="E21" s="25" t="n">
-        <v>36756.72</v>
+        <v>36675.73</v>
       </c>
       <c r="F21" s="25" t="n">
-        <v>5389.02</v>
+        <v>5308.03</v>
       </c>
       <c r="G21" s="26" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
         <v>4500</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>14831.1</v>
+        <v>14854.95</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>1979.1</v>
+        <v>2002.95</v>
       </c>
       <c r="G26" s="26" t="inlineStr">
         <is>
@@ -2225,10 +2225,10 @@
         <v>5299.96</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>2088.18</v>
+        <v>2135.88</v>
       </c>
       <c r="F38" s="30" t="n">
-        <v>87.45</v>
+        <v>135.15</v>
       </c>
       <c r="G38" s="31" t="inlineStr">
         <is>
@@ -2648,10 +2648,10 @@
         <v>1834.47</v>
       </c>
       <c r="E47" s="30" t="n">
-        <v>2238.42</v>
+        <v>2241.72</v>
       </c>
       <c r="F47" s="30" t="n">
-        <v>238.48</v>
+        <v>241.78</v>
       </c>
       <c r="G47" s="31" t="inlineStr">
         <is>
@@ -2789,10 +2789,10 @@
         <v>4757.9</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>1874.61</v>
+        <v>1917.43</v>
       </c>
       <c r="F50" s="30" t="n">
-        <v>-125.61</v>
+        <v>-82.79000000000001</v>
       </c>
       <c r="G50" s="31" t="inlineStr">
         <is>
@@ -2883,10 +2883,10 @@
         <v>595.47</v>
       </c>
       <c r="E52" s="30" t="n">
-        <v>1036.71</v>
+        <v>1035.52</v>
       </c>
       <c r="F52" s="30" t="n">
-        <v>36.74</v>
+        <v>35.55</v>
       </c>
       <c r="G52" s="31" t="inlineStr">
         <is>
@@ -3071,10 +3071,10 @@
         <v>20086.63</v>
       </c>
       <c r="E56" s="35" t="n">
-        <v>34970.82</v>
+        <v>34930.65</v>
       </c>
       <c r="F56" s="35" t="n">
-        <v>2970.81</v>
+        <v>2930.64</v>
       </c>
       <c r="G56" s="36" t="inlineStr">
         <is>
@@ -3400,10 +3400,10 @@
         <v>37267.45</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>14683.38</v>
+        <v>15018.78</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>-4516.81</v>
+        <v>-4181.41</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
@@ -3964,10 +3964,10 @@
         <v>898.04</v>
       </c>
       <c r="E75" s="10" t="n">
-        <v>1363.49</v>
+        <v>1359.9</v>
       </c>
       <c r="F75" s="10" t="n">
-        <v>152.49</v>
+        <v>148.9</v>
       </c>
       <c r="G75" s="11" t="inlineStr">
         <is>
@@ -4387,10 +4387,10 @@
         <v>17.12</v>
       </c>
       <c r="E84" s="10" t="n">
-        <v>21.53</v>
+        <v>21.55</v>
       </c>
       <c r="F84" s="10" t="n">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="G84" s="11" t="inlineStr">
         <is>
@@ -4575,10 +4575,10 @@
         <v>915.97</v>
       </c>
       <c r="E88" s="10" t="n">
-        <v>1390.72</v>
+        <v>1387.05</v>
       </c>
       <c r="F88" s="10" t="n">
-        <v>152.88</v>
+        <v>149.21</v>
       </c>
       <c r="G88" s="11" t="inlineStr">
         <is>
@@ -4951,10 +4951,10 @@
         <v>34.26</v>
       </c>
       <c r="E96" s="10" t="n">
-        <v>43.09</v>
+        <v>43.13</v>
       </c>
       <c r="F96" s="10" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="G96" s="11" t="inlineStr">
         <is>
@@ -5703,10 +5703,10 @@
         <v>1981.84</v>
       </c>
       <c r="E112" s="35" t="n">
-        <v>3450.38</v>
+        <v>3446.42</v>
       </c>
       <c r="F112" s="35" t="n">
-        <v>259.22</v>
+        <v>255.26</v>
       </c>
       <c r="G112" s="36" t="inlineStr">
         <is>
@@ -6079,10 +6079,10 @@
         <v>3350.7</v>
       </c>
       <c r="E120" s="35" t="n">
-        <v>1320.18</v>
+        <v>1350.33</v>
       </c>
       <c r="F120" s="35" t="n">
-        <v>-280.12</v>
+        <v>-249.96</v>
       </c>
       <c r="G120" s="36" t="inlineStr">
         <is>
@@ -6220,10 +6220,10 @@
         <v>733.79</v>
       </c>
       <c r="E123" s="35" t="n">
-        <v>895.37</v>
+        <v>896.6900000000001</v>
       </c>
       <c r="F123" s="35" t="n">
-        <v>95.31999999999999</v>
+        <v>96.64</v>
       </c>
       <c r="G123" s="36" t="inlineStr">
         <is>

--- a/scripts/output/201912/全家/全家整体资产配置.xlsx
+++ b/scripts/output/201912/全家/全家整体资产配置.xlsx
@@ -621,16 +621,16 @@
         <v>90010</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>1.6508</v>
+        <v>1.6512</v>
       </c>
       <c r="D4" s="10" t="n">
-        <v>2422.08</v>
+        <v>2489.76</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>4035.19</v>
+        <v>4135.49</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>36.82</v>
+        <v>24.4</v>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
@@ -668,16 +668,16 @@
         <v>519671</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>1.4268</v>
+        <v>1.4284</v>
       </c>
       <c r="D5" s="10" t="n">
-        <v>2699.6</v>
+        <v>2772.32</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>4006.21</v>
+        <v>4105.81</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>154.42</v>
+        <v>145.82</v>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
@@ -715,16 +715,16 @@
         <v>3318</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>0.9331</v>
+        <v>0.9338</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>3620.67</v>
+        <v>3726.73</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3466.79</v>
+        <v>3570.58</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>88.34</v>
+        <v>90.56</v>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
@@ -815,10 +815,10 @@
         <v>1363.37</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2670.84</v>
+        <v>2668.93</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>218.55</v>
+        <v>216.64</v>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
@@ -856,16 +856,16 @@
         <v>530015</v>
       </c>
       <c r="C9" s="9" t="n">
-        <v>2.1257</v>
+        <v>2.1311</v>
       </c>
       <c r="D9" s="10" t="n">
-        <v>1059.44</v>
+        <v>1097.22</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>2415.63</v>
+        <v>2501.44</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>163.58</v>
+        <v>163.16</v>
       </c>
       <c r="G9" s="11" t="inlineStr">
         <is>
@@ -909,10 +909,10 @@
         <v>1067.42</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>1056</v>
+        <v>1054.82</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>32.45</v>
+        <v>31.28</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
@@ -956,10 +956,10 @@
         <v>550.4</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>542.36</v>
+        <v>541.76</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>1.49</v>
+        <v>0.88</v>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
@@ -1003,10 +1003,10 @@
         <v>531.87</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>418.58</v>
+        <v>415.28</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>61.8</v>
+        <v>58.51</v>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
@@ -1091,16 +1091,16 @@
         <v>1594</v>
       </c>
       <c r="C14" s="9" t="n">
-        <v>1.214</v>
+        <v>1.2357</v>
       </c>
       <c r="D14" s="10" t="n">
-        <v>85.65000000000001</v>
+        <v>165.68</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>107.82</v>
+        <v>208.57</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>3.85</v>
+        <v>3.84</v>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
@@ -1144,10 +1144,10 @@
         <v>64.5</v>
       </c>
       <c r="E15" s="10" t="n">
-        <v>90.48999999999999</v>
+        <v>90.33</v>
       </c>
       <c r="F15" s="10" t="n">
-        <v>-2.22</v>
+        <v>-2.39</v>
       </c>
       <c r="G15" s="11" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         <v>16731.88</v>
       </c>
       <c r="E19" s="20" t="n">
-        <v>9712.860000000001</v>
+        <v>9671.030000000001</v>
       </c>
       <c r="F19" s="20" t="n">
-        <v>-2287.25</v>
+        <v>-2329.08</v>
       </c>
       <c r="G19" s="21" t="inlineStr">
         <is>
@@ -1379,10 +1379,10 @@
         <v>2700</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>8175.6</v>
+        <v>8154</v>
       </c>
       <c r="F20" s="25" t="n">
-        <v>1865.7</v>
+        <v>1844.1</v>
       </c>
       <c r="G20" s="26" t="inlineStr">
         <is>
@@ -1473,10 +1473,10 @@
         <v>38800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>220151.2</v>
+        <v>220100.76</v>
       </c>
       <c r="F22" s="25" t="n">
-        <v>2832.4</v>
+        <v>2781.96</v>
       </c>
       <c r="G22" s="26" t="inlineStr">
         <is>
@@ -1520,10 +1520,10 @@
         <v>33800</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>26201.76</v>
+        <v>26083.46</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>-3440.84</v>
+        <v>-3559.14</v>
       </c>
       <c r="G23" s="26" t="inlineStr">
         <is>
@@ -1567,10 +1567,10 @@
         <v>32700</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>32579.01</v>
+        <v>32677.11</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>6974.91</v>
+        <v>7073.01</v>
       </c>
       <c r="G24" s="26" t="inlineStr">
         <is>
@@ -1614,10 +1614,10 @@
         <v>34100</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>27842.65</v>
+        <v>28442.81</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>-1790.25</v>
+        <v>-1190.09</v>
       </c>
       <c r="G25" s="26" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>9200</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>15959.24</v>
+        <v>15877.36</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>3088.44</v>
+        <v>3006.56</v>
       </c>
       <c r="G27" s="26" t="inlineStr">
         <is>
@@ -1755,10 +1755,10 @@
         <v>14400</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>19795.68</v>
+        <v>19594.08</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>1493.28</v>
+        <v>1291.68</v>
       </c>
       <c r="G28" s="26" t="inlineStr">
         <is>
@@ -1802,10 +1802,10 @@
         <v>4157.52</v>
       </c>
       <c r="E29" s="30" t="n">
-        <v>8534.559999999999</v>
+        <v>8524.16</v>
       </c>
       <c r="F29" s="30" t="n">
-        <v>530.5</v>
+        <v>520.11</v>
       </c>
       <c r="G29" s="31" t="inlineStr">
         <is>
@@ -1849,10 +1849,10 @@
         <v>9722</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>5643.62</v>
+        <v>5619.32</v>
       </c>
       <c r="F30" s="30" t="n">
-        <v>307.22</v>
+        <v>282.91</v>
       </c>
       <c r="G30" s="31" t="inlineStr">
         <is>
@@ -1896,10 +1896,10 @@
         <v>4943.96</v>
       </c>
       <c r="E31" s="30" t="n">
-        <v>4891.06</v>
+        <v>4885.62</v>
       </c>
       <c r="F31" s="30" t="n">
-        <v>221.98</v>
+        <v>216.55</v>
       </c>
       <c r="G31" s="31" t="inlineStr">
         <is>
@@ -1990,10 +1990,10 @@
         <v>3665.01</v>
       </c>
       <c r="E33" s="30" t="n">
-        <v>4185.44</v>
+        <v>4174.45</v>
       </c>
       <c r="F33" s="30" t="n">
-        <v>183.62</v>
+        <v>172.62</v>
       </c>
       <c r="G33" s="31" t="inlineStr">
         <is>
@@ -2037,10 +2037,10 @@
         <v>4550.55</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>3718.71</v>
+        <v>3792.88</v>
       </c>
       <c r="F34" s="30" t="n">
-        <v>383.61</v>
+        <v>457.79</v>
       </c>
       <c r="G34" s="31" t="inlineStr">
         <is>
@@ -2084,10 +2084,10 @@
         <v>400.63</v>
       </c>
       <c r="E35" s="30" t="n">
-        <v>744.6900000000001</v>
+        <v>741.09</v>
       </c>
       <c r="F35" s="30" t="n">
-        <v>77.68000000000001</v>
+        <v>74.08</v>
       </c>
       <c r="G35" s="31" t="inlineStr">
         <is>
@@ -2131,10 +2131,10 @@
         <v>736.3</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>742.9299999999999</v>
+        <v>739.76</v>
       </c>
       <c r="F36" s="30" t="n">
-        <v>75.91</v>
+        <v>72.75</v>
       </c>
       <c r="G36" s="31" t="inlineStr">
         <is>
@@ -2178,10 +2178,10 @@
         <v>473.85</v>
       </c>
       <c r="E37" s="30" t="n">
-        <v>504.7</v>
+        <v>506.02</v>
       </c>
       <c r="F37" s="30" t="n">
-        <v>37.81</v>
+        <v>39.14</v>
       </c>
       <c r="G37" s="31" t="inlineStr">
         <is>
@@ -2272,10 +2272,10 @@
         <v>576.8</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>770.03</v>
+        <v>780.41</v>
       </c>
       <c r="F39" s="30" t="n">
-        <v>103.02</v>
+        <v>113.4</v>
       </c>
       <c r="G39" s="31" t="inlineStr">
         <is>
@@ -2319,10 +2319,10 @@
         <v>459.67</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>714.92</v>
+        <v>716.4</v>
       </c>
       <c r="F40" s="30" t="n">
-        <v>47.94</v>
+        <v>49.41</v>
       </c>
       <c r="G40" s="31" t="inlineStr">
         <is>
@@ -2366,10 +2366,10 @@
         <v>611.75</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>748.17</v>
+        <v>742.66</v>
       </c>
       <c r="F41" s="30" t="n">
-        <v>81.18000000000001</v>
+        <v>75.67</v>
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
@@ -2413,10 +2413,10 @@
         <v>1046.73</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>2148.73</v>
+        <v>2146.11</v>
       </c>
       <c r="F42" s="30" t="n">
-        <v>148.74</v>
+        <v>146.12</v>
       </c>
       <c r="G42" s="31" t="inlineStr">
         <is>
@@ -2460,10 +2460,10 @@
         <v>1825.9</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>2085.18</v>
+        <v>2079.7</v>
       </c>
       <c r="F43" s="30" t="n">
-        <v>85.09</v>
+        <v>79.61</v>
       </c>
       <c r="G43" s="31" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>1059.17</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>1097.3</v>
+        <v>1094.12</v>
       </c>
       <c r="F44" s="30" t="n">
-        <v>97.34</v>
+        <v>94.16</v>
       </c>
       <c r="G44" s="31" t="inlineStr">
         <is>
@@ -2601,10 +2601,10 @@
         <v>1227.03</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>1002.73</v>
+        <v>1022.73</v>
       </c>
       <c r="F46" s="30" t="n">
-        <v>2.7</v>
+        <v>22.7</v>
       </c>
       <c r="G46" s="31" t="inlineStr">
         <is>
@@ -2695,10 +2695,10 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>1201.26</v>
+        <v>1217.46</v>
       </c>
       <c r="F48" s="30" t="n">
-        <v>201.29</v>
+        <v>217.49</v>
       </c>
       <c r="G48" s="31" t="inlineStr">
         <is>
@@ -2742,10 +2742,10 @@
         <v>689.02</v>
       </c>
       <c r="E49" s="30" t="n">
-        <v>1071.63</v>
+        <v>1073.84</v>
       </c>
       <c r="F49" s="30" t="n">
-        <v>71.66</v>
+        <v>73.86</v>
       </c>
       <c r="G49" s="31" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>953.96</v>
       </c>
       <c r="E51" s="30" t="n">
-        <v>1166.69</v>
+        <v>1158.11</v>
       </c>
       <c r="F51" s="30" t="n">
-        <v>166.66</v>
+        <v>158.07</v>
       </c>
       <c r="G51" s="31" t="inlineStr">
         <is>
@@ -2930,10 +2930,10 @@
         <v>65064.33</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>74303.46000000001</v>
+        <v>74108.27</v>
       </c>
       <c r="F53" s="35" t="n">
-        <v>7983.39</v>
+        <v>7788.2</v>
       </c>
       <c r="G53" s="36" t="inlineStr">
         <is>
@@ -2977,10 +2977,10 @@
         <v>63490</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>62810.66</v>
+        <v>62740.82</v>
       </c>
       <c r="F54" s="35" t="n">
-        <v>4609.37</v>
+        <v>4539.54</v>
       </c>
       <c r="G54" s="36" t="inlineStr">
         <is>
@@ -3024,10 +3024,10 @@
         <v>32370.29</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>38808.74</v>
+        <v>38818.45</v>
       </c>
       <c r="F55" s="35" t="n">
-        <v>6807.47</v>
+        <v>6817.18</v>
       </c>
       <c r="G55" s="36" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         <v>41014.88</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>35108.74</v>
+        <v>34772.42</v>
       </c>
       <c r="F57" s="35" t="n">
-        <v>4548.55</v>
+        <v>4212.23</v>
       </c>
       <c r="G57" s="36" t="inlineStr">
         <is>
@@ -3165,10 +3165,10 @@
         <v>20716.63</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>25336.44</v>
+        <v>25149.99</v>
       </c>
       <c r="F58" s="35" t="n">
-        <v>2734.6</v>
+        <v>2548.15</v>
       </c>
       <c r="G58" s="36" t="inlineStr">
         <is>
@@ -3212,10 +3212,10 @@
         <v>14624.61</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>24569.34</v>
+        <v>24496.22</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>5368.69</v>
+        <v>5295.57</v>
       </c>
       <c r="G59" s="36" t="inlineStr">
         <is>
@@ -3259,10 +3259,10 @@
         <v>21163.93</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>24118.41</v>
+        <v>24129</v>
       </c>
       <c r="F60" s="35" t="n">
-        <v>4916.38</v>
+        <v>4926.96</v>
       </c>
       <c r="G60" s="36" t="inlineStr">
         <is>
@@ -3306,10 +3306,10 @@
         <v>16778.47</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>22399.26</v>
+        <v>22701.27</v>
       </c>
       <c r="F61" s="35" t="n">
-        <v>3197.98</v>
+        <v>3499.99</v>
       </c>
       <c r="G61" s="36" t="inlineStr">
         <is>
@@ -3353,10 +3353,10 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>16172.09</v>
+        <v>16143.5</v>
       </c>
       <c r="F62" s="35" t="n">
-        <v>3371.65</v>
+        <v>3343.06</v>
       </c>
       <c r="G62" s="36" t="inlineStr">
         <is>
@@ -3447,10 +3447,10 @@
         <v>6798.52</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>10573.74</v>
+        <v>10595.49</v>
       </c>
       <c r="F64" s="35" t="n">
-        <v>673.73</v>
+        <v>695.49</v>
       </c>
       <c r="G64" s="36" t="inlineStr">
         <is>
@@ -3494,10 +3494,10 @@
         <v>5609.79</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>7556.39</v>
+        <v>7573.22</v>
       </c>
       <c r="F65" s="35" t="n">
-        <v>2411.09</v>
+        <v>2427.92</v>
       </c>
       <c r="G65" s="36" t="inlineStr">
         <is>
@@ -3541,10 +3541,10 @@
         <v>13403.92</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>7780.98</v>
+        <v>7747.47</v>
       </c>
       <c r="F66" s="35" t="n">
-        <v>1380.6</v>
+        <v>1347.09</v>
       </c>
       <c r="G66" s="36" t="inlineStr">
         <is>
@@ -3588,10 +3588,10 @@
         <v>5328.62</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>7503.23</v>
+        <v>7510.16</v>
       </c>
       <c r="F67" s="35" t="n">
-        <v>1103.02</v>
+        <v>1109.95</v>
       </c>
       <c r="G67" s="36" t="inlineStr">
         <is>
@@ -3682,10 +3682,10 @@
         <v>3299.64</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>6773.5</v>
+        <v>6765.25</v>
       </c>
       <c r="F69" s="35" t="n">
-        <v>373.19</v>
+        <v>364.94</v>
       </c>
       <c r="G69" s="36" t="inlineStr">
         <is>
@@ -3729,10 +3729,10 @@
         <v>7852.99</v>
       </c>
       <c r="E70" s="35" t="n">
-        <v>6417.46</v>
+        <v>6545.47</v>
       </c>
       <c r="F70" s="35" t="n">
-        <v>17.28</v>
+        <v>145.28</v>
       </c>
       <c r="G70" s="36" t="inlineStr">
         <is>
@@ -3776,10 +3776,10 @@
         <v>3580.2</v>
       </c>
       <c r="E71" s="35" t="n">
-        <v>3564.81</v>
+        <v>3563.02</v>
       </c>
       <c r="F71" s="35" t="n">
-        <v>64.8</v>
+        <v>63.01</v>
       </c>
       <c r="G71" s="36" t="inlineStr">
         <is>
@@ -3864,16 +3864,16 @@
         <v>519671</v>
       </c>
       <c r="C73" s="9" t="n">
-        <v>1.4264</v>
+        <v>1.4272</v>
       </c>
       <c r="D73" s="10" t="n">
-        <v>1045.13</v>
+        <v>1059.67</v>
       </c>
       <c r="E73" s="10" t="n">
-        <v>1550.97</v>
+        <v>1569.37</v>
       </c>
       <c r="F73" s="10" t="n">
-        <v>60.2</v>
+        <v>57.01</v>
       </c>
       <c r="G73" s="11" t="inlineStr">
         <is>
@@ -3911,16 +3911,16 @@
         <v>90010</v>
       </c>
       <c r="C74" s="9" t="n">
-        <v>1.6518</v>
+        <v>1.6521</v>
       </c>
       <c r="D74" s="10" t="n">
-        <v>888.12</v>
+        <v>901.66</v>
       </c>
       <c r="E74" s="10" t="n">
-        <v>1479.61</v>
+        <v>1497.66</v>
       </c>
       <c r="F74" s="10" t="n">
-        <v>12.61</v>
+        <v>8.02</v>
       </c>
       <c r="G74" s="11" t="inlineStr">
         <is>
@@ -4005,16 +4005,16 @@
         <v>3318</v>
       </c>
       <c r="C76" s="9" t="n">
-        <v>0.9329</v>
+        <v>0.9333</v>
       </c>
       <c r="D76" s="10" t="n">
-        <v>1358.53</v>
+        <v>1379.75</v>
       </c>
       <c r="E76" s="10" t="n">
-        <v>1300.79</v>
+        <v>1321.94</v>
       </c>
       <c r="F76" s="10" t="n">
-        <v>33.42</v>
+        <v>34.22</v>
       </c>
       <c r="G76" s="11" t="inlineStr">
         <is>
@@ -4058,10 +4058,10 @@
         <v>492.58</v>
       </c>
       <c r="E77" s="10" t="n">
-        <v>964.96</v>
+        <v>964.27</v>
       </c>
       <c r="F77" s="10" t="n">
-        <v>79.98999999999999</v>
+        <v>79.31</v>
       </c>
       <c r="G77" s="11" t="inlineStr">
         <is>
@@ -4099,16 +4099,16 @@
         <v>530015</v>
       </c>
       <c r="C78" s="9" t="n">
-        <v>2.122</v>
+        <v>2.1249</v>
       </c>
       <c r="D78" s="10" t="n">
-        <v>406.95</v>
+        <v>414.51</v>
       </c>
       <c r="E78" s="10" t="n">
-        <v>927.89</v>
+        <v>945</v>
       </c>
       <c r="F78" s="10" t="n">
-        <v>64.34</v>
+        <v>64.20999999999999</v>
       </c>
       <c r="G78" s="11" t="inlineStr">
         <is>
@@ -4152,10 +4152,10 @@
         <v>390.82</v>
       </c>
       <c r="E79" s="10" t="n">
-        <v>386.64</v>
+        <v>386.21</v>
       </c>
       <c r="F79" s="10" t="n">
-        <v>11.49</v>
+        <v>11.06</v>
       </c>
       <c r="G79" s="11" t="inlineStr">
         <is>
@@ -4199,10 +4199,10 @@
         <v>214.89</v>
       </c>
       <c r="E80" s="10" t="n">
-        <v>211.75</v>
+        <v>211.52</v>
       </c>
       <c r="F80" s="10" t="n">
-        <v>0.54</v>
+        <v>0.3</v>
       </c>
       <c r="G80" s="11" t="inlineStr">
         <is>
@@ -4246,10 +4246,10 @@
         <v>212.74</v>
       </c>
       <c r="E81" s="10" t="n">
-        <v>167.43</v>
+        <v>166.11</v>
       </c>
       <c r="F81" s="10" t="n">
-        <v>24.72</v>
+        <v>23.4</v>
       </c>
       <c r="G81" s="11" t="inlineStr">
         <is>
@@ -4327,23 +4327,23 @@
     <row r="83">
       <c r="A83" s="7" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B83" s="8" t="n">
-        <v>310398</v>
+        <v>1594</v>
       </c>
       <c r="C83" s="9" t="n">
-        <v>1.4372</v>
+        <v>1.2358</v>
       </c>
       <c r="D83" s="10" t="n">
-        <v>25.8</v>
+        <v>33.12</v>
       </c>
       <c r="E83" s="10" t="n">
-        <v>36.2</v>
+        <v>41.69</v>
       </c>
       <c r="F83" s="10" t="n">
-        <v>-0.88</v>
+        <v>0.77</v>
       </c>
       <c r="G83" s="11" t="inlineStr">
         <is>
@@ -4352,17 +4352,17 @@
       </c>
       <c r="H83" s="11" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="I83" s="11" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="J83" s="11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K83" s="11" t="inlineStr">
@@ -4374,23 +4374,23 @@
     <row r="84">
       <c r="A84" s="7" t="inlineStr">
         <is>
-          <t>天弘中证银行指数A</t>
+          <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
       <c r="B84" s="8" t="n">
-        <v>1594</v>
+        <v>310398</v>
       </c>
       <c r="C84" s="9" t="n">
-        <v>1.2144</v>
+        <v>1.4372</v>
       </c>
       <c r="D84" s="10" t="n">
-        <v>17.12</v>
+        <v>25.8</v>
       </c>
       <c r="E84" s="10" t="n">
-        <v>21.55</v>
+        <v>36.13</v>
       </c>
       <c r="F84" s="10" t="n">
-        <v>0.76</v>
+        <v>-0.95</v>
       </c>
       <c r="G84" s="11" t="inlineStr">
         <is>
@@ -4399,17 +4399,17 @@
       </c>
       <c r="H84" s="11" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="I84" s="11" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="J84" s="11" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K84" s="11" t="inlineStr">
@@ -4475,16 +4475,16 @@
         <v>90010</v>
       </c>
       <c r="C86" s="9" t="n">
-        <v>1.6561</v>
+        <v>1.6564</v>
       </c>
       <c r="D86" s="10" t="n">
-        <v>974.37</v>
+        <v>1001.44</v>
       </c>
       <c r="E86" s="10" t="n">
-        <v>1623.3</v>
+        <v>1663.39</v>
       </c>
       <c r="F86" s="10" t="n">
-        <v>9.65</v>
+        <v>4.61</v>
       </c>
       <c r="G86" s="11" t="inlineStr">
         <is>
@@ -4522,16 +4522,16 @@
         <v>519671</v>
       </c>
       <c r="C87" s="9" t="n">
-        <v>1.4251</v>
+        <v>1.4267</v>
       </c>
       <c r="D87" s="10" t="n">
-        <v>1057.28</v>
+        <v>1086.37</v>
       </c>
       <c r="E87" s="10" t="n">
-        <v>1569</v>
+        <v>1608.91</v>
       </c>
       <c r="F87" s="10" t="n">
-        <v>62.27</v>
+        <v>58.99</v>
       </c>
       <c r="G87" s="11" t="inlineStr">
         <is>
@@ -4562,42 +4562,42 @@
     <row r="88">
       <c r="A88" s="7" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B88" s="8" t="n">
-        <v>501021</v>
+        <v>3318</v>
       </c>
       <c r="C88" s="9" t="n">
-        <v>1.3514</v>
+        <v>0.9342</v>
       </c>
       <c r="D88" s="10" t="n">
-        <v>915.97</v>
+        <v>1454.76</v>
       </c>
       <c r="E88" s="10" t="n">
-        <v>1387.05</v>
+        <v>1393.81</v>
       </c>
       <c r="F88" s="10" t="n">
-        <v>149.21</v>
+        <v>34.77</v>
       </c>
       <c r="G88" s="11" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="H88" s="11" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="I88" s="11" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="J88" s="11" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K88" s="11" t="inlineStr">
@@ -4609,42 +4609,42 @@
     <row r="89">
       <c r="A89" s="7" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B89" s="8" t="n">
-        <v>3318</v>
+        <v>501021</v>
       </c>
       <c r="C89" s="9" t="n">
-        <v>0.9334</v>
+        <v>1.3514</v>
       </c>
       <c r="D89" s="10" t="n">
-        <v>1412.34</v>
+        <v>915.97</v>
       </c>
       <c r="E89" s="10" t="n">
-        <v>1352.32</v>
+        <v>1387.05</v>
       </c>
       <c r="F89" s="10" t="n">
-        <v>34.04</v>
+        <v>149.21</v>
       </c>
       <c r="G89" s="11" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="H89" s="11" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="I89" s="11" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="J89" s="11" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K89" s="11" t="inlineStr">
@@ -4669,10 +4669,10 @@
         <v>528.99</v>
       </c>
       <c r="E90" s="10" t="n">
-        <v>1036.29</v>
+        <v>1035.55</v>
       </c>
       <c r="F90" s="10" t="n">
-        <v>84.53</v>
+        <v>83.79000000000001</v>
       </c>
       <c r="G90" s="11" t="inlineStr">
         <is>
@@ -4710,16 +4710,16 @@
         <v>530015</v>
       </c>
       <c r="C91" s="9" t="n">
-        <v>2.125</v>
+        <v>2.1306</v>
       </c>
       <c r="D91" s="10" t="n">
-        <v>406.87</v>
+        <v>421.98</v>
       </c>
       <c r="E91" s="10" t="n">
-        <v>927.7</v>
+        <v>962.03</v>
       </c>
       <c r="F91" s="10" t="n">
-        <v>63.11</v>
+        <v>62.96</v>
       </c>
       <c r="G91" s="11" t="inlineStr">
         <is>
@@ -4763,10 +4763,10 @@
         <v>426.97</v>
       </c>
       <c r="E92" s="10" t="n">
-        <v>422.4</v>
+        <v>421.93</v>
       </c>
       <c r="F92" s="10" t="n">
-        <v>13.02</v>
+        <v>12.55</v>
       </c>
       <c r="G92" s="11" t="inlineStr">
         <is>
@@ -4810,10 +4810,10 @@
         <v>227.52</v>
       </c>
       <c r="E93" s="10" t="n">
-        <v>224.2</v>
+        <v>223.95</v>
       </c>
       <c r="F93" s="10" t="n">
-        <v>0.68</v>
+        <v>0.43</v>
       </c>
       <c r="G93" s="11" t="inlineStr">
         <is>
@@ -4904,10 +4904,10 @@
         <v>212.74</v>
       </c>
       <c r="E95" s="10" t="n">
-        <v>167.43</v>
+        <v>166.11</v>
       </c>
       <c r="F95" s="10" t="n">
-        <v>24.72</v>
+        <v>23.4</v>
       </c>
       <c r="G95" s="11" t="inlineStr">
         <is>
@@ -4945,13 +4945,13 @@
         <v>1594</v>
       </c>
       <c r="C96" s="9" t="n">
-        <v>1.2142</v>
+        <v>1.2358</v>
       </c>
       <c r="D96" s="10" t="n">
-        <v>34.26</v>
+        <v>66.28</v>
       </c>
       <c r="E96" s="10" t="n">
-        <v>43.13</v>
+        <v>83.44</v>
       </c>
       <c r="F96" s="10" t="n">
         <v>1.53</v>
@@ -4998,10 +4998,10 @@
         <v>25.8</v>
       </c>
       <c r="E97" s="10" t="n">
-        <v>36.2</v>
+        <v>36.13</v>
       </c>
       <c r="F97" s="10" t="n">
-        <v>-0.88</v>
+        <v>-0.95</v>
       </c>
       <c r="G97" s="11" t="inlineStr">
         <is>
@@ -5092,10 +5092,10 @@
         <v>171152.16</v>
       </c>
       <c r="E99" s="30" t="n">
-        <v>176303.84</v>
+        <v>176320.96</v>
       </c>
       <c r="F99" s="30" t="n">
-        <v>256.73</v>
+        <v>273.84</v>
       </c>
       <c r="G99" s="31" t="inlineStr">
         <is>
@@ -5139,10 +5139,10 @@
         <v>11598.58</v>
       </c>
       <c r="E100" s="30" t="n">
-        <v>17908.21</v>
+        <v>17977.8</v>
       </c>
       <c r="F100" s="30" t="n">
-        <v>908.17</v>
+        <v>977.76</v>
       </c>
       <c r="G100" s="31" t="inlineStr">
         <is>
@@ -5280,10 +5280,10 @@
         <v>59685.02</v>
       </c>
       <c r="E103" s="30" t="n">
-        <v>74725.64999999999</v>
+        <v>74665.96000000001</v>
       </c>
       <c r="F103" s="30" t="n">
-        <v>483.45</v>
+        <v>423.76</v>
       </c>
       <c r="G103" s="31" t="inlineStr">
         <is>
@@ -5327,10 +5327,10 @@
         <v>76964.17</v>
       </c>
       <c r="E104" s="30" t="n">
-        <v>100207.35</v>
+        <v>100130.39</v>
       </c>
       <c r="F104" s="30" t="n">
-        <v>969.75</v>
+        <v>892.78</v>
       </c>
       <c r="G104" s="31" t="inlineStr">
         <is>
@@ -5374,10 +5374,10 @@
         <v>140577.44</v>
       </c>
       <c r="E105" s="30" t="n">
-        <v>151837.69</v>
+        <v>151865.81</v>
       </c>
       <c r="F105" s="30" t="n">
-        <v>112.46</v>
+        <v>140.58</v>
       </c>
       <c r="G105" s="31" t="inlineStr">
         <is>
@@ -5468,10 +5468,10 @@
         <v>8677.6</v>
       </c>
       <c r="E107" s="35" t="n">
-        <v>9909.82</v>
+        <v>9883.790000000001</v>
       </c>
       <c r="F107" s="35" t="n">
-        <v>1109</v>
+        <v>1082.96</v>
       </c>
       <c r="G107" s="36" t="inlineStr">
         <is>
@@ -5515,10 +5515,10 @@
         <v>6096.21</v>
       </c>
       <c r="E108" s="35" t="n">
-        <v>6030.98</v>
+        <v>6024.27</v>
       </c>
       <c r="F108" s="35" t="n">
-        <v>830.91</v>
+        <v>824.21</v>
       </c>
       <c r="G108" s="36" t="inlineStr">
         <is>
@@ -5562,10 +5562,10 @@
         <v>6750.28</v>
       </c>
       <c r="E109" s="35" t="n">
-        <v>5778.24</v>
+        <v>5722.89</v>
       </c>
       <c r="F109" s="35" t="n">
-        <v>978.12</v>
+        <v>922.76</v>
       </c>
       <c r="G109" s="36" t="inlineStr">
         <is>
@@ -5609,10 +5609,10 @@
         <v>2760.12</v>
       </c>
       <c r="E110" s="35" t="n">
-        <v>4637</v>
+        <v>4623.2</v>
       </c>
       <c r="F110" s="35" t="n">
-        <v>1036.98</v>
+        <v>1023.18</v>
       </c>
       <c r="G110" s="36" t="inlineStr">
         <is>
@@ -5656,10 +5656,10 @@
         <v>4423.48</v>
       </c>
       <c r="E111" s="35" t="n">
-        <v>3614.87</v>
+        <v>3686.97</v>
       </c>
       <c r="F111" s="35" t="n">
-        <v>414.48</v>
+        <v>486.58</v>
       </c>
       <c r="G111" s="36" t="inlineStr">
         <is>
@@ -5750,10 +5750,10 @@
         <v>2046.97</v>
       </c>
       <c r="E113" s="35" t="n">
-        <v>3473.71</v>
+        <v>3467.57</v>
       </c>
       <c r="F113" s="35" t="n">
-        <v>761.47</v>
+        <v>755.33</v>
       </c>
       <c r="G113" s="36" t="inlineStr">
         <is>
@@ -5797,10 +5797,10 @@
         <v>5949.77</v>
       </c>
       <c r="E114" s="35" t="n">
-        <v>3453.84</v>
+        <v>3438.97</v>
       </c>
       <c r="F114" s="35" t="n">
-        <v>253.46</v>
+        <v>238.59</v>
       </c>
       <c r="G114" s="36" t="inlineStr">
         <is>
@@ -5844,10 +5844,10 @@
         <v>1884.74</v>
       </c>
       <c r="E115" s="35" t="n">
-        <v>2305.04</v>
+        <v>2288.07</v>
       </c>
       <c r="F115" s="35" t="n">
-        <v>304.95</v>
+        <v>287.99</v>
       </c>
       <c r="G115" s="36" t="inlineStr">
         <is>
@@ -5891,10 +5891,10 @@
         <v>1213.09</v>
       </c>
       <c r="E116" s="35" t="n">
-        <v>2254.89</v>
+        <v>2243.97</v>
       </c>
       <c r="F116" s="35" t="n">
-        <v>654.83</v>
+        <v>643.91</v>
       </c>
       <c r="G116" s="36" t="inlineStr">
         <is>
@@ -5938,10 +5938,10 @@
         <v>1630.08</v>
       </c>
       <c r="E117" s="35" t="n">
-        <v>1954.3</v>
+        <v>1954.79</v>
       </c>
       <c r="F117" s="35" t="n">
-        <v>354.22</v>
+        <v>354.71</v>
       </c>
       <c r="G117" s="36" t="inlineStr">
         <is>
@@ -5985,10 +5985,10 @@
         <v>1407.29</v>
       </c>
       <c r="E118" s="35" t="n">
-        <v>1878.73</v>
+        <v>1904.06</v>
       </c>
       <c r="F118" s="35" t="n">
-        <v>278.64</v>
+        <v>303.97</v>
       </c>
       <c r="G118" s="36" t="inlineStr">
         <is>
@@ -6032,10 +6032,10 @@
         <v>1338.46</v>
       </c>
       <c r="E119" s="35" t="n">
-        <v>1386.64</v>
+        <v>1382.63</v>
       </c>
       <c r="F119" s="35" t="n">
-        <v>186.58</v>
+        <v>182.57</v>
       </c>
       <c r="G119" s="36" t="inlineStr">
         <is>
@@ -6126,10 +6126,10 @@
         <v>1495.03</v>
       </c>
       <c r="E121" s="35" t="n">
-        <v>1227.42</v>
+        <v>1226.67</v>
       </c>
       <c r="F121" s="35" t="n">
-        <v>27.36</v>
+        <v>26.61</v>
       </c>
       <c r="G121" s="36" t="inlineStr">
         <is>
@@ -6173,10 +6173,10 @@
         <v>900.35</v>
       </c>
       <c r="E122" s="35" t="n">
-        <v>1026.04</v>
+        <v>1026.49</v>
       </c>
       <c r="F122" s="35" t="n">
-        <v>225.99</v>
+        <v>226.44</v>
       </c>
       <c r="G122" s="36" t="inlineStr">
         <is>
@@ -6267,10 +6267,10 @@
         <v>496.13</v>
       </c>
       <c r="E124" s="35" t="n">
-        <v>528.4299999999999</v>
+        <v>529.8200000000001</v>
       </c>
       <c r="F124" s="35" t="n">
-        <v>128.4</v>
+        <v>129.79</v>
       </c>
       <c r="G124" s="36" t="inlineStr">
         <is>
@@ -6314,10 +6314,10 @@
         <v>333.04</v>
       </c>
       <c r="E125" s="35" t="n">
-        <v>468.95</v>
+        <v>469.39</v>
       </c>
       <c r="F125" s="35" t="n">
-        <v>68.94</v>
+        <v>69.37</v>
       </c>
       <c r="G125" s="36" t="inlineStr">
         <is>
@@ -6361,10 +6361,10 @@
         <v>325.61</v>
       </c>
       <c r="E126" s="35" t="n">
-        <v>439.9</v>
+        <v>438.92</v>
       </c>
       <c r="F126" s="35" t="n">
-        <v>39.89</v>
+        <v>38.91</v>
       </c>
       <c r="G126" s="36" t="inlineStr">
         <is>
@@ -6408,10 +6408,10 @@
         <v>275.49</v>
       </c>
       <c r="E127" s="35" t="n">
-        <v>428.47</v>
+        <v>429.35</v>
       </c>
       <c r="F127" s="35" t="n">
-        <v>28.46</v>
+        <v>29.34</v>
       </c>
       <c r="G127" s="36" t="inlineStr">
         <is>
@@ -6455,10 +6455,10 @@
         <v>206.23</v>
       </c>
       <c r="E128" s="35" t="n">
-        <v>423.35</v>
+        <v>422.83</v>
       </c>
       <c r="F128" s="35" t="n">
-        <v>23.35</v>
+        <v>22.83</v>
       </c>
       <c r="G128" s="36" t="inlineStr">
         <is>

--- a/scripts/output/201912/全家/全家整体资产配置.xlsx
+++ b/scripts/output/201912/全家/全家整体资产配置.xlsx
@@ -457,7 +457,7 @@
     <col customWidth="1" max="7" min="7" width="9"/>
     <col customWidth="1" max="8" min="8" width="11.25"/>
     <col customWidth="1" max="9" min="9" width="11.25"/>
-    <col customWidth="1" max="11" min="11" width="15"/>
+    <col customWidth="1" max="11" min="11" width="13.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -654,7 +654,7 @@
       </c>
       <c r="K4" s="11" t="inlineStr">
         <is>
-          <t>螺丝钉定投</t>
+          <t>螺丝钉</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="K5" s="11" t="inlineStr">
         <is>
-          <t>螺丝钉定投</t>
+          <t>螺丝钉</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="K6" s="11" t="inlineStr">
         <is>
-          <t>螺丝钉定投</t>
+          <t>螺丝钉</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="K7" s="11" t="inlineStr">
         <is>
-          <t>螺丝钉定投</t>
+          <t>螺丝钉</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="K8" s="11" t="inlineStr">
         <is>
-          <t>螺丝钉定投</t>
+          <t>螺丝钉</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="K9" s="11" t="inlineStr">
         <is>
-          <t>螺丝钉定投</t>
+          <t>螺丝钉</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="K10" s="11" t="inlineStr">
         <is>
-          <t>螺丝钉定投</t>
+          <t>螺丝钉</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="K11" s="11" t="inlineStr">
         <is>
-          <t>螺丝钉定投</t>
+          <t>螺丝钉</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="K12" s="11" t="inlineStr">
         <is>
-          <t>螺丝钉定投</t>
+          <t>螺丝钉</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="K13" s="11" t="inlineStr">
         <is>
-          <t>螺丝钉定投</t>
+          <t>螺丝钉</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="K14" s="11" t="inlineStr">
         <is>
-          <t>螺丝钉定投</t>
+          <t>螺丝钉</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="K15" s="11" t="inlineStr">
         <is>
-          <t>螺丝钉定投</t>
+          <t>螺丝钉</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="K16" s="11" t="inlineStr">
         <is>
-          <t>螺丝钉定投</t>
+          <t>螺丝钉</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="K29" s="31" t="inlineStr">
         <is>
-          <t>且慢补充 150 份</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="K30" s="31" t="inlineStr">
         <is>
-          <t>且慢补充 150 份</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="K31" s="31" t="inlineStr">
         <is>
-          <t>且慢补充 150 份</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="K32" s="31" t="inlineStr">
         <is>
-          <t>且慢补充 150 份</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="K33" s="31" t="inlineStr">
         <is>
-          <t>且慢补充 150 份</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="K34" s="31" t="inlineStr">
         <is>
-          <t>且慢补充 150 份</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="K35" s="31" t="inlineStr">
         <is>
-          <t>且慢补充 150 份</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="K36" s="31" t="inlineStr">
         <is>
-          <t>且慢补充 150 份</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="K37" s="31" t="inlineStr">
         <is>
-          <t>且慢补充 150 份</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="K38" s="31" t="inlineStr">
         <is>
-          <t>且慢补充 150 份</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="K39" s="31" t="inlineStr">
         <is>
-          <t>且慢补充 150 份</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="K40" s="31" t="inlineStr">
         <is>
-          <t>且慢补充 150 份</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="K41" s="31" t="inlineStr">
         <is>
-          <t>且慢补充 150 份</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="K72" s="6" t="inlineStr">
         <is>
-          <t>父母现金账户</t>
+          <t>现金账户父母</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="K73" s="11" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="K74" s="11" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="K75" s="11" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="K76" s="11" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
@@ -4085,7 +4085,7 @@
       </c>
       <c r="K77" s="11" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="K78" s="11" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="K79" s="11" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="K80" s="11" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
@@ -4273,7 +4273,7 @@
       </c>
       <c r="K81" s="11" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="K82" s="11" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="K83" s="11" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
@@ -4414,7 +4414,7 @@
       </c>
       <c r="K84" s="11" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="K85" s="11" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
@@ -4508,7 +4508,7 @@
       </c>
       <c r="K86" s="11" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
@@ -4555,7 +4555,7 @@
       </c>
       <c r="K87" s="11" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
@@ -4602,7 +4602,7 @@
       </c>
       <c r="K88" s="11" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="K89" s="11" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="K90" s="11" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
@@ -4743,7 +4743,7 @@
       </c>
       <c r="K91" s="11" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="K92" s="11" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
@@ -4837,7 +4837,7 @@
       </c>
       <c r="K93" s="11" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="K94" s="11" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
@@ -4931,7 +4931,7 @@
       </c>
       <c r="K95" s="11" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="K96" s="11" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="K97" s="11" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
@@ -5072,7 +5072,7 @@
       </c>
       <c r="K98" s="11" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
@@ -5119,7 +5119,7 @@
       </c>
       <c r="K99" s="31" t="inlineStr">
         <is>
-          <t>父稳稳的幸福</t>
+          <t>稳稳的幸福父</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="K100" s="31" t="inlineStr">
         <is>
-          <t>父稳稳的幸福</t>
+          <t>稳稳的幸福父</t>
         </is>
       </c>
     </row>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="K101" s="31" t="inlineStr">
         <is>
-          <t>父稳稳的幸福</t>
+          <t>稳稳的幸福父</t>
         </is>
       </c>
     </row>
@@ -5260,7 +5260,7 @@
       </c>
       <c r="K102" s="31" t="inlineStr">
         <is>
-          <t>父稳稳的幸福</t>
+          <t>稳稳的幸福父</t>
         </is>
       </c>
     </row>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="K103" s="31" t="inlineStr">
         <is>
-          <t>父稳稳的幸福</t>
+          <t>稳稳的幸福父</t>
         </is>
       </c>
     </row>
@@ -5354,7 +5354,7 @@
       </c>
       <c r="K104" s="31" t="inlineStr">
         <is>
-          <t>父稳稳的幸福</t>
+          <t>稳稳的幸福父</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="K105" s="31" t="inlineStr">
         <is>
-          <t>父稳稳的幸福</t>
+          <t>稳稳的幸福父</t>
         </is>
       </c>
     </row>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="K106" s="36" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -5495,7 +5495,7 @@
       </c>
       <c r="K107" s="36" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -5542,7 +5542,7 @@
       </c>
       <c r="K108" s="36" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="K109" s="36" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -5636,7 +5636,7 @@
       </c>
       <c r="K110" s="36" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -5683,7 +5683,7 @@
       </c>
       <c r="K111" s="36" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -5730,7 +5730,7 @@
       </c>
       <c r="K112" s="36" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -5777,7 +5777,7 @@
       </c>
       <c r="K113" s="36" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -5824,7 +5824,7 @@
       </c>
       <c r="K114" s="36" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="K115" s="36" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -5918,7 +5918,7 @@
       </c>
       <c r="K116" s="36" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -5965,7 +5965,7 @@
       </c>
       <c r="K117" s="36" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -6012,7 +6012,7 @@
       </c>
       <c r="K118" s="36" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -6059,7 +6059,7 @@
       </c>
       <c r="K119" s="36" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -6106,7 +6106,7 @@
       </c>
       <c r="K120" s="36" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
       </c>
       <c r="K121" s="36" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -6200,7 +6200,7 @@
       </c>
       <c r="K122" s="36" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -6247,7 +6247,7 @@
       </c>
       <c r="K123" s="36" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="K124" s="36" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -6341,7 +6341,7 @@
       </c>
       <c r="K125" s="36" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -6388,7 +6388,7 @@
       </c>
       <c r="K126" s="36" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="K127" s="36" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -6482,7 +6482,7 @@
       </c>
       <c r="K128" s="36" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -6529,7 +6529,7 @@
       </c>
       <c r="K129" s="36" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>

--- a/scripts/output/201912/全家/全家整体资产配置.xlsx
+++ b/scripts/output/201912/全家/全家整体资产配置.xlsx
@@ -627,10 +627,10 @@
         <v>2489.76</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>4135.49</v>
+        <v>4147.94</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>24.4</v>
+        <v>36.85</v>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
@@ -674,10 +674,10 @@
         <v>2772.32</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>4105.81</v>
+        <v>4114.12</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>145.82</v>
+        <v>154.14</v>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
@@ -721,10 +721,10 @@
         <v>3726.73</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3570.58</v>
+        <v>3578.78</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>90.56</v>
+        <v>98.76000000000001</v>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
@@ -768,10 +768,10 @@
         <v>2260.14</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>3422.53</v>
+        <v>3400.61</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>375.64</v>
+        <v>353.71</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
@@ -815,10 +815,10 @@
         <v>1363.37</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2668.93</v>
+        <v>2676.3</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>216.64</v>
+        <v>224</v>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         <v>1097.22</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>2501.44</v>
+        <v>2510.77</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>163.16</v>
+        <v>172.48</v>
       </c>
       <c r="G9" s="11" t="inlineStr">
         <is>
@@ -909,10 +909,10 @@
         <v>1067.42</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>1054.82</v>
+        <v>1060.16</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>31.28</v>
+        <v>36.61</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
@@ -956,10 +956,10 @@
         <v>550.4</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>541.76</v>
+        <v>543.35</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>0.88</v>
+        <v>2.48</v>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
@@ -1003,10 +1003,10 @@
         <v>531.87</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>415.28</v>
+        <v>416.51</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>58.51</v>
+        <v>59.73</v>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
         <v>247.91</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>339.14</v>
+        <v>337.9</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>25.88</v>
+        <v>24.64</v>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         <v>165.68</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>208.57</v>
+        <v>208.89</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>3.84</v>
+        <v>4.16</v>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
@@ -1144,10 +1144,10 @@
         <v>64.5</v>
       </c>
       <c r="E15" s="10" t="n">
-        <v>90.33</v>
+        <v>90.47</v>
       </c>
       <c r="F15" s="10" t="n">
-        <v>-2.39</v>
+        <v>-2.24</v>
       </c>
       <c r="G15" s="11" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         <v>16731.88</v>
       </c>
       <c r="E19" s="20" t="n">
-        <v>9671.030000000001</v>
+        <v>9686.09</v>
       </c>
       <c r="F19" s="20" t="n">
-        <v>-2329.08</v>
+        <v>-2314.02</v>
       </c>
       <c r="G19" s="21" t="inlineStr">
         <is>
@@ -1379,10 +1379,10 @@
         <v>2700</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>8154</v>
+        <v>8132.4</v>
       </c>
       <c r="F20" s="25" t="n">
-        <v>1844.1</v>
+        <v>1822.5</v>
       </c>
       <c r="G20" s="26" t="inlineStr">
         <is>
@@ -1426,10 +1426,10 @@
         <v>9100</v>
       </c>
       <c r="E21" s="25" t="n">
-        <v>36675.73</v>
+        <v>36624.77</v>
       </c>
       <c r="F21" s="25" t="n">
-        <v>5308.03</v>
+        <v>5257.07</v>
       </c>
       <c r="G21" s="26" t="inlineStr">
         <is>
@@ -1473,10 +1473,10 @@
         <v>38800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>220100.76</v>
+        <v>220395.64</v>
       </c>
       <c r="F22" s="25" t="n">
-        <v>2781.96</v>
+        <v>3076.84</v>
       </c>
       <c r="G22" s="26" t="inlineStr">
         <is>
@@ -1520,10 +1520,10 @@
         <v>33800</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>26083.46</v>
+        <v>26127.4</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>-3559.14</v>
+        <v>-3515.2</v>
       </c>
       <c r="G23" s="26" t="inlineStr">
         <is>
@@ -1567,10 +1567,10 @@
         <v>32700</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>32677.11</v>
+        <v>32516.88</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>7073.01</v>
+        <v>6912.78</v>
       </c>
       <c r="G24" s="26" t="inlineStr">
         <is>
@@ -1614,10 +1614,10 @@
         <v>34100</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>28442.81</v>
+        <v>28701.97</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>-1190.09</v>
+        <v>-930.9299999999999</v>
       </c>
       <c r="G25" s="26" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
         <v>4500</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>14854.95</v>
+        <v>14823</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>2002.95</v>
+        <v>1971</v>
       </c>
       <c r="G26" s="26" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>9200</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>15877.36</v>
+        <v>15859.88</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>3006.56</v>
+        <v>2989.08</v>
       </c>
       <c r="G27" s="26" t="inlineStr">
         <is>
@@ -1755,10 +1755,10 @@
         <v>14400</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>19594.08</v>
+        <v>19680.48</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>1291.68</v>
+        <v>1378.08</v>
       </c>
       <c r="G28" s="26" t="inlineStr">
         <is>
@@ -1802,10 +1802,10 @@
         <v>4157.52</v>
       </c>
       <c r="E29" s="30" t="n">
-        <v>8524.16</v>
+        <v>8540.379999999999</v>
       </c>
       <c r="F29" s="30" t="n">
-        <v>520.11</v>
+        <v>536.3200000000001</v>
       </c>
       <c r="G29" s="31" t="inlineStr">
         <is>
@@ -1849,10 +1849,10 @@
         <v>9722</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>5619.32</v>
+        <v>5628.07</v>
       </c>
       <c r="F30" s="30" t="n">
-        <v>282.91</v>
+        <v>291.66</v>
       </c>
       <c r="G30" s="31" t="inlineStr">
         <is>
@@ -1896,10 +1896,10 @@
         <v>4943.96</v>
       </c>
       <c r="E31" s="30" t="n">
-        <v>4885.62</v>
+        <v>4910.34</v>
       </c>
       <c r="F31" s="30" t="n">
-        <v>216.55</v>
+        <v>241.27</v>
       </c>
       <c r="G31" s="31" t="inlineStr">
         <is>
@@ -1943,10 +1943,10 @@
         <v>7379.54</v>
       </c>
       <c r="E32" s="30" t="n">
-        <v>4287.51</v>
+        <v>4294.89</v>
       </c>
       <c r="F32" s="30" t="n">
-        <v>285.59</v>
+        <v>292.97</v>
       </c>
       <c r="G32" s="31" t="inlineStr">
         <is>
@@ -1990,10 +1990,10 @@
         <v>3665.01</v>
       </c>
       <c r="E33" s="30" t="n">
-        <v>4174.45</v>
+        <v>4181.78</v>
       </c>
       <c r="F33" s="30" t="n">
-        <v>172.62</v>
+        <v>179.95</v>
       </c>
       <c r="G33" s="31" t="inlineStr">
         <is>
@@ -2037,10 +2037,10 @@
         <v>4550.55</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>3792.88</v>
+        <v>3824.74</v>
       </c>
       <c r="F34" s="30" t="n">
-        <v>457.79</v>
+        <v>489.64</v>
       </c>
       <c r="G34" s="31" t="inlineStr">
         <is>
@@ -2084,10 +2084,10 @@
         <v>400.63</v>
       </c>
       <c r="E35" s="30" t="n">
-        <v>741.09</v>
+        <v>740.3200000000001</v>
       </c>
       <c r="F35" s="30" t="n">
-        <v>74.08</v>
+        <v>73.31999999999999</v>
       </c>
       <c r="G35" s="31" t="inlineStr">
         <is>
@@ -2131,10 +2131,10 @@
         <v>736.3</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>739.76</v>
+        <v>738.73</v>
       </c>
       <c r="F36" s="30" t="n">
-        <v>72.75</v>
+        <v>71.72</v>
       </c>
       <c r="G36" s="31" t="inlineStr">
         <is>
@@ -2178,10 +2178,10 @@
         <v>473.85</v>
       </c>
       <c r="E37" s="30" t="n">
-        <v>506.02</v>
+        <v>503.7</v>
       </c>
       <c r="F37" s="30" t="n">
-        <v>39.14</v>
+        <v>36.82</v>
       </c>
       <c r="G37" s="31" t="inlineStr">
         <is>
@@ -2225,10 +2225,10 @@
         <v>5299.96</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>2135.88</v>
+        <v>2146.48</v>
       </c>
       <c r="F38" s="30" t="n">
-        <v>135.15</v>
+        <v>145.75</v>
       </c>
       <c r="G38" s="31" t="inlineStr">
         <is>
@@ -2272,10 +2272,10 @@
         <v>576.8</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>780.41</v>
+        <v>781.5599999999999</v>
       </c>
       <c r="F39" s="30" t="n">
-        <v>113.4</v>
+        <v>114.55</v>
       </c>
       <c r="G39" s="31" t="inlineStr">
         <is>
@@ -2319,10 +2319,10 @@
         <v>459.67</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>716.4</v>
+        <v>714.5599999999999</v>
       </c>
       <c r="F40" s="30" t="n">
-        <v>49.41</v>
+        <v>47.58</v>
       </c>
       <c r="G40" s="31" t="inlineStr">
         <is>
@@ -2366,10 +2366,10 @@
         <v>611.75</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>742.66</v>
+        <v>740.22</v>
       </c>
       <c r="F41" s="30" t="n">
-        <v>75.67</v>
+        <v>73.23</v>
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
@@ -2413,10 +2413,10 @@
         <v>1046.73</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>2146.11</v>
+        <v>2150.19</v>
       </c>
       <c r="F42" s="30" t="n">
-        <v>146.12</v>
+        <v>150.21</v>
       </c>
       <c r="G42" s="31" t="inlineStr">
         <is>
@@ -2460,10 +2460,10 @@
         <v>1825.9</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>2079.7</v>
+        <v>2083.35</v>
       </c>
       <c r="F43" s="30" t="n">
-        <v>79.61</v>
+        <v>83.26000000000001</v>
       </c>
       <c r="G43" s="31" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>1059.17</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>1094.12</v>
+        <v>1090.95</v>
       </c>
       <c r="F44" s="30" t="n">
-        <v>94.16</v>
+        <v>90.98</v>
       </c>
       <c r="G44" s="31" t="inlineStr">
         <is>
@@ -2554,10 +2554,10 @@
         <v>1812.7</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>1053.18</v>
+        <v>1054.99</v>
       </c>
       <c r="F45" s="30" t="n">
-        <v>53.11</v>
+        <v>54.92</v>
       </c>
       <c r="G45" s="31" t="inlineStr">
         <is>
@@ -2601,10 +2601,10 @@
         <v>1227.03</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>1022.73</v>
+        <v>1031.32</v>
       </c>
       <c r="F46" s="30" t="n">
-        <v>22.7</v>
+        <v>31.29</v>
       </c>
       <c r="G46" s="31" t="inlineStr">
         <is>
@@ -2648,10 +2648,10 @@
         <v>1834.47</v>
       </c>
       <c r="E47" s="30" t="n">
-        <v>2241.72</v>
+        <v>2237.14</v>
       </c>
       <c r="F47" s="30" t="n">
-        <v>241.78</v>
+        <v>237.2</v>
       </c>
       <c r="G47" s="31" t="inlineStr">
         <is>
@@ -2695,10 +2695,10 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>1217.46</v>
+        <v>1219.26</v>
       </c>
       <c r="F48" s="30" t="n">
-        <v>217.49</v>
+        <v>219.29</v>
       </c>
       <c r="G48" s="31" t="inlineStr">
         <is>
@@ -2742,10 +2742,10 @@
         <v>689.02</v>
       </c>
       <c r="E49" s="30" t="n">
-        <v>1073.84</v>
+        <v>1071.08</v>
       </c>
       <c r="F49" s="30" t="n">
-        <v>73.86</v>
+        <v>71.11</v>
       </c>
       <c r="G49" s="31" t="inlineStr">
         <is>
@@ -2789,10 +2789,10 @@
         <v>4757.9</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>1917.43</v>
+        <v>1926.95</v>
       </c>
       <c r="F50" s="30" t="n">
-        <v>-82.79000000000001</v>
+        <v>-73.27</v>
       </c>
       <c r="G50" s="31" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>953.96</v>
       </c>
       <c r="E51" s="30" t="n">
-        <v>1158.11</v>
+        <v>1154.29</v>
       </c>
       <c r="F51" s="30" t="n">
-        <v>158.07</v>
+        <v>154.26</v>
       </c>
       <c r="G51" s="31" t="inlineStr">
         <is>
@@ -2883,10 +2883,10 @@
         <v>595.47</v>
       </c>
       <c r="E52" s="30" t="n">
-        <v>1035.52</v>
+        <v>1033.74</v>
       </c>
       <c r="F52" s="30" t="n">
-        <v>35.55</v>
+        <v>33.76</v>
       </c>
       <c r="G52" s="31" t="inlineStr">
         <is>
@@ -2930,10 +2930,10 @@
         <v>65064.33</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>74108.27</v>
+        <v>74238.39999999999</v>
       </c>
       <c r="F53" s="35" t="n">
-        <v>7788.2</v>
+        <v>7918.33</v>
       </c>
       <c r="G53" s="36" t="inlineStr">
         <is>
@@ -2977,10 +2977,10 @@
         <v>63490</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>62740.82</v>
+        <v>63058.27</v>
       </c>
       <c r="F54" s="35" t="n">
-        <v>4539.54</v>
+        <v>4856.99</v>
       </c>
       <c r="G54" s="36" t="inlineStr">
         <is>
@@ -3024,10 +3024,10 @@
         <v>32370.29</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>38818.45</v>
+        <v>38805.5</v>
       </c>
       <c r="F55" s="35" t="n">
-        <v>6817.18</v>
+        <v>6804.23</v>
       </c>
       <c r="G55" s="36" t="inlineStr">
         <is>
@@ -3071,10 +3071,10 @@
         <v>20086.63</v>
       </c>
       <c r="E56" s="35" t="n">
-        <v>34930.65</v>
+        <v>34870.39</v>
       </c>
       <c r="F56" s="35" t="n">
-        <v>2930.64</v>
+        <v>2870.38</v>
       </c>
       <c r="G56" s="36" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         <v>41014.88</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>34772.42</v>
+        <v>34915.97</v>
       </c>
       <c r="F57" s="35" t="n">
-        <v>4212.23</v>
+        <v>4355.78</v>
       </c>
       <c r="G57" s="36" t="inlineStr">
         <is>
@@ -3165,10 +3165,10 @@
         <v>20716.63</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>25149.99</v>
+        <v>25067.12</v>
       </c>
       <c r="F58" s="35" t="n">
-        <v>2548.15</v>
+        <v>2465.28</v>
       </c>
       <c r="G58" s="36" t="inlineStr">
         <is>
@@ -3212,10 +3212,10 @@
         <v>14624.61</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>24496.22</v>
+        <v>24437.72</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>5295.57</v>
+        <v>5237.07</v>
       </c>
       <c r="G59" s="36" t="inlineStr">
         <is>
@@ -3259,10 +3259,10 @@
         <v>21163.93</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>24129</v>
+        <v>24122.65</v>
       </c>
       <c r="F60" s="35" t="n">
-        <v>4926.96</v>
+        <v>4920.61</v>
       </c>
       <c r="G60" s="36" t="inlineStr">
         <is>
@@ -3306,10 +3306,10 @@
         <v>16778.47</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>22701.27</v>
+        <v>22734.83</v>
       </c>
       <c r="F61" s="35" t="n">
-        <v>3499.99</v>
+        <v>3533.55</v>
       </c>
       <c r="G61" s="36" t="inlineStr">
         <is>
@@ -3353,10 +3353,10 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>16143.5</v>
+        <v>16153.03</v>
       </c>
       <c r="F62" s="35" t="n">
-        <v>3343.06</v>
+        <v>3352.59</v>
       </c>
       <c r="G62" s="36" t="inlineStr">
         <is>
@@ -3400,10 +3400,10 @@
         <v>37267.45</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>15018.78</v>
+        <v>15093.32</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>-4181.41</v>
+        <v>-4106.87</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
@@ -3447,10 +3447,10 @@
         <v>6798.52</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>10595.49</v>
+        <v>10568.3</v>
       </c>
       <c r="F64" s="35" t="n">
-        <v>695.49</v>
+        <v>668.29</v>
       </c>
       <c r="G64" s="36" t="inlineStr">
         <is>
@@ -3494,10 +3494,10 @@
         <v>5609.79</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>7573.22</v>
+        <v>7578.83</v>
       </c>
       <c r="F65" s="35" t="n">
-        <v>2427.92</v>
+        <v>2433.53</v>
       </c>
       <c r="G65" s="36" t="inlineStr">
         <is>
@@ -3541,10 +3541,10 @@
         <v>13403.92</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>7747.47</v>
+        <v>7759.53</v>
       </c>
       <c r="F66" s="35" t="n">
-        <v>1347.09</v>
+        <v>1359.16</v>
       </c>
       <c r="G66" s="36" t="inlineStr">
         <is>
@@ -3588,10 +3588,10 @@
         <v>5328.62</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>7510.16</v>
+        <v>7499.5</v>
       </c>
       <c r="F67" s="35" t="n">
-        <v>1109.95</v>
+        <v>1099.29</v>
       </c>
       <c r="G67" s="36" t="inlineStr">
         <is>
@@ -3635,10 +3635,10 @@
         <v>7778.64</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>7099.56</v>
+        <v>7107.34</v>
       </c>
       <c r="F68" s="35" t="n">
-        <v>98.79000000000001</v>
+        <v>106.57</v>
       </c>
       <c r="G68" s="36" t="inlineStr">
         <is>
@@ -3682,10 +3682,10 @@
         <v>3299.64</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>6765.25</v>
+        <v>6778.12</v>
       </c>
       <c r="F69" s="35" t="n">
-        <v>364.94</v>
+        <v>377.81</v>
       </c>
       <c r="G69" s="36" t="inlineStr">
         <is>
@@ -3729,10 +3729,10 @@
         <v>7852.99</v>
       </c>
       <c r="E70" s="35" t="n">
-        <v>6545.47</v>
+        <v>6600.44</v>
       </c>
       <c r="F70" s="35" t="n">
-        <v>145.28</v>
+        <v>200.25</v>
       </c>
       <c r="G70" s="36" t="inlineStr">
         <is>
@@ -3776,10 +3776,10 @@
         <v>3580.2</v>
       </c>
       <c r="E71" s="35" t="n">
-        <v>3563.02</v>
+        <v>3579.13</v>
       </c>
       <c r="F71" s="35" t="n">
-        <v>63.01</v>
+        <v>79.12</v>
       </c>
       <c r="G71" s="36" t="inlineStr">
         <is>
@@ -3870,10 +3870,10 @@
         <v>1059.67</v>
       </c>
       <c r="E73" s="10" t="n">
-        <v>1569.37</v>
+        <v>1572.55</v>
       </c>
       <c r="F73" s="10" t="n">
-        <v>57.01</v>
+        <v>60.19</v>
       </c>
       <c r="G73" s="11" t="inlineStr">
         <is>
@@ -3917,10 +3917,10 @@
         <v>901.66</v>
       </c>
       <c r="E74" s="10" t="n">
-        <v>1497.66</v>
+        <v>1502.17</v>
       </c>
       <c r="F74" s="10" t="n">
-        <v>8.02</v>
+        <v>12.53</v>
       </c>
       <c r="G74" s="11" t="inlineStr">
         <is>
@@ -3964,10 +3964,10 @@
         <v>898.04</v>
       </c>
       <c r="E75" s="10" t="n">
-        <v>1359.9</v>
+        <v>1351.19</v>
       </c>
       <c r="F75" s="10" t="n">
-        <v>148.9</v>
+        <v>140.18</v>
       </c>
       <c r="G75" s="11" t="inlineStr">
         <is>
@@ -4011,10 +4011,10 @@
         <v>1379.75</v>
       </c>
       <c r="E76" s="10" t="n">
-        <v>1321.94</v>
+        <v>1324.97</v>
       </c>
       <c r="F76" s="10" t="n">
-        <v>34.22</v>
+        <v>37.25</v>
       </c>
       <c r="G76" s="11" t="inlineStr">
         <is>
@@ -4058,10 +4058,10 @@
         <v>492.58</v>
       </c>
       <c r="E77" s="10" t="n">
-        <v>964.27</v>
+        <v>966.9299999999999</v>
       </c>
       <c r="F77" s="10" t="n">
-        <v>79.31</v>
+        <v>81.97</v>
       </c>
       <c r="G77" s="11" t="inlineStr">
         <is>
@@ -4105,10 +4105,10 @@
         <v>414.51</v>
       </c>
       <c r="E78" s="10" t="n">
-        <v>945</v>
+        <v>948.52</v>
       </c>
       <c r="F78" s="10" t="n">
-        <v>64.20999999999999</v>
+        <v>67.73</v>
       </c>
       <c r="G78" s="11" t="inlineStr">
         <is>
@@ -4152,10 +4152,10 @@
         <v>390.82</v>
       </c>
       <c r="E79" s="10" t="n">
-        <v>386.21</v>
+        <v>388.16</v>
       </c>
       <c r="F79" s="10" t="n">
-        <v>11.06</v>
+        <v>13.01</v>
       </c>
       <c r="G79" s="11" t="inlineStr">
         <is>
@@ -4199,10 +4199,10 @@
         <v>214.89</v>
       </c>
       <c r="E80" s="10" t="n">
-        <v>211.52</v>
+        <v>212.14</v>
       </c>
       <c r="F80" s="10" t="n">
-        <v>0.3</v>
+        <v>0.92</v>
       </c>
       <c r="G80" s="11" t="inlineStr">
         <is>
@@ -4246,10 +4246,10 @@
         <v>212.74</v>
       </c>
       <c r="E81" s="10" t="n">
-        <v>166.11</v>
+        <v>166.6</v>
       </c>
       <c r="F81" s="10" t="n">
-        <v>23.4</v>
+        <v>23.89</v>
       </c>
       <c r="G81" s="11" t="inlineStr">
         <is>
@@ -4293,10 +4293,10 @@
         <v>62.09</v>
       </c>
       <c r="E82" s="10" t="n">
-        <v>84.94</v>
+        <v>84.63</v>
       </c>
       <c r="F82" s="10" t="n">
-        <v>4.9</v>
+        <v>4.59</v>
       </c>
       <c r="G82" s="11" t="inlineStr">
         <is>
@@ -4340,10 +4340,10 @@
         <v>33.12</v>
       </c>
       <c r="E83" s="10" t="n">
-        <v>41.69</v>
+        <v>41.76</v>
       </c>
       <c r="F83" s="10" t="n">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="G83" s="11" t="inlineStr">
         <is>
@@ -4387,10 +4387,10 @@
         <v>25.8</v>
       </c>
       <c r="E84" s="10" t="n">
-        <v>36.13</v>
+        <v>36.19</v>
       </c>
       <c r="F84" s="10" t="n">
-        <v>-0.95</v>
+        <v>-0.89</v>
       </c>
       <c r="G84" s="11" t="inlineStr">
         <is>
@@ -4481,10 +4481,10 @@
         <v>1001.44</v>
       </c>
       <c r="E86" s="10" t="n">
-        <v>1663.39</v>
+        <v>1668.4</v>
       </c>
       <c r="F86" s="10" t="n">
-        <v>4.61</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="G86" s="11" t="inlineStr">
         <is>
@@ -4528,10 +4528,10 @@
         <v>1086.37</v>
       </c>
       <c r="E87" s="10" t="n">
-        <v>1608.91</v>
+        <v>1612.17</v>
       </c>
       <c r="F87" s="10" t="n">
-        <v>58.99</v>
+        <v>62.25</v>
       </c>
       <c r="G87" s="11" t="inlineStr">
         <is>
@@ -4575,10 +4575,10 @@
         <v>1454.76</v>
       </c>
       <c r="E88" s="10" t="n">
-        <v>1393.81</v>
+        <v>1397.01</v>
       </c>
       <c r="F88" s="10" t="n">
-        <v>34.77</v>
+        <v>37.97</v>
       </c>
       <c r="G88" s="11" t="inlineStr">
         <is>
@@ -4622,10 +4622,10 @@
         <v>915.97</v>
       </c>
       <c r="E89" s="10" t="n">
-        <v>1387.05</v>
+        <v>1378.17</v>
       </c>
       <c r="F89" s="10" t="n">
-        <v>149.21</v>
+        <v>140.33</v>
       </c>
       <c r="G89" s="11" t="inlineStr">
         <is>
@@ -4669,10 +4669,10 @@
         <v>528.99</v>
       </c>
       <c r="E90" s="10" t="n">
-        <v>1035.55</v>
+        <v>1038.41</v>
       </c>
       <c r="F90" s="10" t="n">
-        <v>83.79000000000001</v>
+        <v>86.65000000000001</v>
       </c>
       <c r="G90" s="11" t="inlineStr">
         <is>
@@ -4716,10 +4716,10 @@
         <v>421.98</v>
       </c>
       <c r="E91" s="10" t="n">
-        <v>962.03</v>
+        <v>965.62</v>
       </c>
       <c r="F91" s="10" t="n">
-        <v>62.96</v>
+        <v>66.55</v>
       </c>
       <c r="G91" s="11" t="inlineStr">
         <is>
@@ -4763,10 +4763,10 @@
         <v>426.97</v>
       </c>
       <c r="E92" s="10" t="n">
-        <v>421.93</v>
+        <v>424.07</v>
       </c>
       <c r="F92" s="10" t="n">
-        <v>12.55</v>
+        <v>14.69</v>
       </c>
       <c r="G92" s="11" t="inlineStr">
         <is>
@@ -4810,10 +4810,10 @@
         <v>227.52</v>
       </c>
       <c r="E93" s="10" t="n">
-        <v>223.95</v>
+        <v>224.61</v>
       </c>
       <c r="F93" s="10" t="n">
-        <v>0.43</v>
+        <v>1.09</v>
       </c>
       <c r="G93" s="11" t="inlineStr">
         <is>
@@ -4857,10 +4857,10 @@
         <v>142.1</v>
       </c>
       <c r="E94" s="10" t="n">
-        <v>194.39</v>
+        <v>193.68</v>
       </c>
       <c r="F94" s="10" t="n">
-        <v>11.94</v>
+        <v>11.23</v>
       </c>
       <c r="G94" s="11" t="inlineStr">
         <is>
@@ -4904,10 +4904,10 @@
         <v>212.74</v>
       </c>
       <c r="E95" s="10" t="n">
-        <v>166.11</v>
+        <v>166.6</v>
       </c>
       <c r="F95" s="10" t="n">
-        <v>23.4</v>
+        <v>23.89</v>
       </c>
       <c r="G95" s="11" t="inlineStr">
         <is>
@@ -4951,10 +4951,10 @@
         <v>66.28</v>
       </c>
       <c r="E96" s="10" t="n">
-        <v>83.44</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="F96" s="10" t="n">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="G96" s="11" t="inlineStr">
         <is>
@@ -4998,10 +4998,10 @@
         <v>25.8</v>
       </c>
       <c r="E97" s="10" t="n">
-        <v>36.13</v>
+        <v>36.19</v>
       </c>
       <c r="F97" s="10" t="n">
-        <v>-0.95</v>
+        <v>-0.89</v>
       </c>
       <c r="G97" s="11" t="inlineStr">
         <is>
@@ -5092,10 +5092,10 @@
         <v>171152.16</v>
       </c>
       <c r="E99" s="30" t="n">
-        <v>176320.96</v>
+        <v>176338.07</v>
       </c>
       <c r="F99" s="30" t="n">
-        <v>273.84</v>
+        <v>290.96</v>
       </c>
       <c r="G99" s="31" t="inlineStr">
         <is>
@@ -5139,10 +5139,10 @@
         <v>11598.58</v>
       </c>
       <c r="E100" s="30" t="n">
-        <v>17977.8</v>
+        <v>18001</v>
       </c>
       <c r="F100" s="30" t="n">
-        <v>977.76</v>
+        <v>1000.96</v>
       </c>
       <c r="G100" s="31" t="inlineStr">
         <is>
@@ -5327,10 +5327,10 @@
         <v>76964.17</v>
       </c>
       <c r="E104" s="30" t="n">
-        <v>100130.39</v>
+        <v>100207.35</v>
       </c>
       <c r="F104" s="30" t="n">
-        <v>892.78</v>
+        <v>969.75</v>
       </c>
       <c r="G104" s="31" t="inlineStr">
         <is>
@@ -5374,10 +5374,10 @@
         <v>140577.44</v>
       </c>
       <c r="E105" s="30" t="n">
-        <v>151865.81</v>
+        <v>151907.98</v>
       </c>
       <c r="F105" s="30" t="n">
-        <v>140.58</v>
+        <v>182.75</v>
       </c>
       <c r="G105" s="31" t="inlineStr">
         <is>
@@ -5421,10 +5421,10 @@
         <v>9697.57</v>
       </c>
       <c r="E106" s="35" t="n">
-        <v>11079.47</v>
+        <v>11092.08</v>
       </c>
       <c r="F106" s="35" t="n">
-        <v>878.6</v>
+        <v>891.21</v>
       </c>
       <c r="G106" s="36" t="inlineStr">
         <is>
@@ -5468,10 +5468,10 @@
         <v>8677.6</v>
       </c>
       <c r="E107" s="35" t="n">
-        <v>9883.790000000001</v>
+        <v>9901.139999999999</v>
       </c>
       <c r="F107" s="35" t="n">
-        <v>1082.96</v>
+        <v>1100.32</v>
       </c>
       <c r="G107" s="36" t="inlineStr">
         <is>
@@ -5515,10 +5515,10 @@
         <v>6096.21</v>
       </c>
       <c r="E108" s="35" t="n">
-        <v>6024.27</v>
+        <v>6054.76</v>
       </c>
       <c r="F108" s="35" t="n">
-        <v>824.21</v>
+        <v>854.6900000000001</v>
       </c>
       <c r="G108" s="36" t="inlineStr">
         <is>
@@ -5562,10 +5562,10 @@
         <v>6750.28</v>
       </c>
       <c r="E109" s="35" t="n">
-        <v>5722.89</v>
+        <v>5746.51</v>
       </c>
       <c r="F109" s="35" t="n">
-        <v>922.76</v>
+        <v>946.39</v>
       </c>
       <c r="G109" s="36" t="inlineStr">
         <is>
@@ -5609,10 +5609,10 @@
         <v>2760.12</v>
       </c>
       <c r="E110" s="35" t="n">
-        <v>4623.2</v>
+        <v>4612.16</v>
       </c>
       <c r="F110" s="35" t="n">
-        <v>1023.18</v>
+        <v>1012.14</v>
       </c>
       <c r="G110" s="36" t="inlineStr">
         <is>
@@ -5656,10 +5656,10 @@
         <v>4423.48</v>
       </c>
       <c r="E111" s="35" t="n">
-        <v>3686.97</v>
+        <v>3717.93</v>
       </c>
       <c r="F111" s="35" t="n">
-        <v>486.58</v>
+        <v>517.55</v>
       </c>
       <c r="G111" s="36" t="inlineStr">
         <is>
@@ -5703,10 +5703,10 @@
         <v>1981.84</v>
       </c>
       <c r="E112" s="35" t="n">
-        <v>3446.42</v>
+        <v>3440.47</v>
       </c>
       <c r="F112" s="35" t="n">
-        <v>255.26</v>
+        <v>249.32</v>
       </c>
       <c r="G112" s="36" t="inlineStr">
         <is>
@@ -5750,10 +5750,10 @@
         <v>2046.97</v>
       </c>
       <c r="E113" s="35" t="n">
-        <v>3467.57</v>
+        <v>3469.61</v>
       </c>
       <c r="F113" s="35" t="n">
-        <v>755.33</v>
+        <v>757.38</v>
       </c>
       <c r="G113" s="36" t="inlineStr">
         <is>
@@ -5797,10 +5797,10 @@
         <v>5949.77</v>
       </c>
       <c r="E114" s="35" t="n">
-        <v>3438.97</v>
+        <v>3444.32</v>
       </c>
       <c r="F114" s="35" t="n">
-        <v>238.59</v>
+        <v>243.94</v>
       </c>
       <c r="G114" s="36" t="inlineStr">
         <is>
@@ -5844,10 +5844,10 @@
         <v>1884.74</v>
       </c>
       <c r="E115" s="35" t="n">
-        <v>2288.07</v>
+        <v>2280.54</v>
       </c>
       <c r="F115" s="35" t="n">
-        <v>287.99</v>
+        <v>280.45</v>
       </c>
       <c r="G115" s="36" t="inlineStr">
         <is>
@@ -5891,10 +5891,10 @@
         <v>1213.09</v>
       </c>
       <c r="E116" s="35" t="n">
-        <v>2243.97</v>
+        <v>2241.67</v>
       </c>
       <c r="F116" s="35" t="n">
-        <v>643.91</v>
+        <v>641.6</v>
       </c>
       <c r="G116" s="36" t="inlineStr">
         <is>
@@ -5938,10 +5938,10 @@
         <v>1630.08</v>
       </c>
       <c r="E117" s="35" t="n">
-        <v>1954.79</v>
+        <v>1954.14</v>
       </c>
       <c r="F117" s="35" t="n">
-        <v>354.71</v>
+        <v>354.05</v>
       </c>
       <c r="G117" s="36" t="inlineStr">
         <is>
@@ -5985,10 +5985,10 @@
         <v>1407.29</v>
       </c>
       <c r="E118" s="35" t="n">
-        <v>1904.06</v>
+        <v>1906.88</v>
       </c>
       <c r="F118" s="35" t="n">
-        <v>303.97</v>
+        <v>306.79</v>
       </c>
       <c r="G118" s="36" t="inlineStr">
         <is>
@@ -6032,10 +6032,10 @@
         <v>1338.46</v>
       </c>
       <c r="E119" s="35" t="n">
-        <v>1382.63</v>
+        <v>1378.61</v>
       </c>
       <c r="F119" s="35" t="n">
-        <v>182.57</v>
+        <v>178.55</v>
       </c>
       <c r="G119" s="36" t="inlineStr">
         <is>
@@ -6079,10 +6079,10 @@
         <v>3350.7</v>
       </c>
       <c r="E120" s="35" t="n">
-        <v>1350.33</v>
+        <v>1357.03</v>
       </c>
       <c r="F120" s="35" t="n">
-        <v>-249.96</v>
+        <v>-243.26</v>
       </c>
       <c r="G120" s="36" t="inlineStr">
         <is>
@@ -6126,10 +6126,10 @@
         <v>1495.03</v>
       </c>
       <c r="E121" s="35" t="n">
-        <v>1226.67</v>
+        <v>1231.31</v>
       </c>
       <c r="F121" s="35" t="n">
-        <v>26.61</v>
+        <v>31.25</v>
       </c>
       <c r="G121" s="36" t="inlineStr">
         <is>
@@ -6173,10 +6173,10 @@
         <v>900.35</v>
       </c>
       <c r="E122" s="35" t="n">
-        <v>1026.49</v>
+        <v>1026.22</v>
       </c>
       <c r="F122" s="35" t="n">
-        <v>226.44</v>
+        <v>226.17</v>
       </c>
       <c r="G122" s="36" t="inlineStr">
         <is>
@@ -6220,10 +6220,10 @@
         <v>733.79</v>
       </c>
       <c r="E123" s="35" t="n">
-        <v>896.6900000000001</v>
+        <v>894.86</v>
       </c>
       <c r="F123" s="35" t="n">
-        <v>96.64</v>
+        <v>94.81</v>
       </c>
       <c r="G123" s="36" t="inlineStr">
         <is>
@@ -6267,10 +6267,10 @@
         <v>496.13</v>
       </c>
       <c r="E124" s="35" t="n">
-        <v>529.8200000000001</v>
+        <v>527.39</v>
       </c>
       <c r="F124" s="35" t="n">
-        <v>129.79</v>
+        <v>127.36</v>
       </c>
       <c r="G124" s="36" t="inlineStr">
         <is>
@@ -6314,10 +6314,10 @@
         <v>333.04</v>
       </c>
       <c r="E125" s="35" t="n">
-        <v>469.39</v>
+        <v>468.72</v>
       </c>
       <c r="F125" s="35" t="n">
-        <v>69.37</v>
+        <v>68.70999999999999</v>
       </c>
       <c r="G125" s="36" t="inlineStr">
         <is>
@@ -6361,10 +6361,10 @@
         <v>325.61</v>
       </c>
       <c r="E126" s="35" t="n">
-        <v>438.92</v>
+        <v>438.27</v>
       </c>
       <c r="F126" s="35" t="n">
-        <v>38.91</v>
+        <v>38.26</v>
       </c>
       <c r="G126" s="36" t="inlineStr">
         <is>
@@ -6408,10 +6408,10 @@
         <v>275.49</v>
       </c>
       <c r="E127" s="35" t="n">
-        <v>429.35</v>
+        <v>428.25</v>
       </c>
       <c r="F127" s="35" t="n">
-        <v>29.34</v>
+        <v>28.24</v>
       </c>
       <c r="G127" s="36" t="inlineStr">
         <is>
@@ -6455,10 +6455,10 @@
         <v>206.23</v>
       </c>
       <c r="E128" s="35" t="n">
-        <v>422.83</v>
+        <v>423.64</v>
       </c>
       <c r="F128" s="35" t="n">
-        <v>22.83</v>
+        <v>23.63</v>
       </c>
       <c r="G128" s="36" t="inlineStr">
         <is>
@@ -6502,10 +6502,10 @@
         <v>275.96</v>
       </c>
       <c r="E129" s="35" t="n">
-        <v>251.87</v>
+        <v>252.14</v>
       </c>
       <c r="F129" s="35" t="n">
-        <v>23.1</v>
+        <v>23.37</v>
       </c>
       <c r="G129" s="36" t="inlineStr">
         <is>

--- a/scripts/output/201912/全家/全家整体资产配置.xlsx
+++ b/scripts/output/201912/全家/全家整体资产配置.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="资产配置情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="000000" numFmtId="164"/>
-    <numFmt formatCode="0.0000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -87,67 +87,67 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -448,16 +448,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="30"/>
-    <col customWidth="1" max="2" min="2" width="9"/>
-    <col customWidth="1" max="3" min="3" width="9"/>
-    <col customWidth="1" max="4" min="4" width="9"/>
-    <col customWidth="1" max="5" min="5" width="9"/>
-    <col customWidth="1" max="6" min="6" width="9"/>
-    <col customWidth="1" max="7" min="7" width="9"/>
-    <col customWidth="1" max="8" min="8" width="11.25"/>
-    <col customWidth="1" max="9" min="9" width="11.25"/>
-    <col customWidth="1" max="11" min="11" width="13.5"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="7" max="7"/>
+    <col width="11.25" customWidth="1" min="8" max="8"/>
+    <col width="11.25" customWidth="1" min="9" max="9"/>
+    <col width="13.5" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -530,13 +530,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>126766.55</v>
+        <v>128675.7</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>126766.55</v>
+        <v>128675.7</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>5976.93</v>
+        <v>6110.67</v>
       </c>
       <c r="G2" s="6" t="inlineStr">
         <is>
@@ -624,13 +624,13 @@
         <v>1.6512</v>
       </c>
       <c r="D4" s="10" t="n">
-        <v>2489.76</v>
+        <v>2559.09</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>4147.94</v>
+        <v>4212.26</v>
       </c>
       <c r="F4" s="10" t="n">
-        <v>36.85</v>
+        <v>-13.31</v>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
@@ -668,16 +668,16 @@
         <v>519671</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>1.4284</v>
+        <v>1.4296</v>
       </c>
       <c r="D5" s="10" t="n">
-        <v>2772.32</v>
+        <v>2845.5</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>4114.12</v>
+        <v>4217.03</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>154.14</v>
+        <v>149.1</v>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
@@ -715,16 +715,16 @@
         <v>3318</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>0.9338</v>
+        <v>0.9342</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>3726.73</v>
+        <v>3835.61</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>3578.78</v>
+        <v>3637.69</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>98.76000000000001</v>
+        <v>54.47</v>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
@@ -768,10 +768,10 @@
         <v>2260.14</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>3400.61</v>
+        <v>3390.21</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>353.71</v>
+        <v>343.32</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
@@ -815,10 +815,10 @@
         <v>1363.37</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>2676.3</v>
+        <v>2681.34</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>224</v>
+        <v>229.05</v>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
@@ -856,16 +856,16 @@
         <v>530015</v>
       </c>
       <c r="C9" s="9" t="n">
-        <v>2.1311</v>
+        <v>2.136</v>
       </c>
       <c r="D9" s="10" t="n">
-        <v>1097.22</v>
+        <v>1134.65</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>2510.77</v>
+        <v>2579.06</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>172.48</v>
+        <v>155.45</v>
       </c>
       <c r="G9" s="11" t="inlineStr">
         <is>
@@ -909,10 +909,10 @@
         <v>1067.42</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>1060.16</v>
+        <v>1057.49</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>36.61</v>
+        <v>33.94</v>
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
@@ -956,10 +956,10 @@
         <v>550.4</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>543.35</v>
+        <v>541.65</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>2.48</v>
+        <v>0.77</v>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
@@ -1003,10 +1003,10 @@
         <v>531.87</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>416.51</v>
+        <v>413</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>59.73</v>
+        <v>56.22</v>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
@@ -1050,10 +1050,10 @@
         <v>247.91</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>337.9</v>
+        <v>336.91</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>24.64</v>
+        <v>23.65</v>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
@@ -1091,16 +1091,16 @@
         <v>1594</v>
       </c>
       <c r="C14" s="9" t="n">
-        <v>1.2357</v>
+        <v>1.2422</v>
       </c>
       <c r="D14" s="10" t="n">
-        <v>165.68</v>
+        <v>244.71</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>208.89</v>
+        <v>307.89</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>4.16</v>
+        <v>3.92</v>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
@@ -1144,10 +1144,10 @@
         <v>64.5</v>
       </c>
       <c r="E15" s="10" t="n">
-        <v>90.47</v>
+        <v>90.33</v>
       </c>
       <c r="F15" s="10" t="n">
-        <v>-2.24</v>
+        <v>-2.38</v>
       </c>
       <c r="G15" s="11" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         <v>16731.88</v>
       </c>
       <c r="E19" s="20" t="n">
-        <v>9686.09</v>
+        <v>9793.17</v>
       </c>
       <c r="F19" s="20" t="n">
-        <v>-2314.02</v>
+        <v>-2206.93</v>
       </c>
       <c r="G19" s="21" t="inlineStr">
         <is>
@@ -1379,10 +1379,10 @@
         <v>2700</v>
       </c>
       <c r="E20" s="25" t="n">
-        <v>8132.4</v>
+        <v>8046</v>
       </c>
       <c r="F20" s="25" t="n">
-        <v>1822.5</v>
+        <v>1736.1</v>
       </c>
       <c r="G20" s="26" t="inlineStr">
         <is>
@@ -1426,10 +1426,10 @@
         <v>9100</v>
       </c>
       <c r="E21" s="25" t="n">
-        <v>36624.77</v>
+        <v>36609.3</v>
       </c>
       <c r="F21" s="25" t="n">
-        <v>5257.07</v>
+        <v>5241.6</v>
       </c>
       <c r="G21" s="26" t="inlineStr">
         <is>
@@ -1473,10 +1473,10 @@
         <v>38800</v>
       </c>
       <c r="E22" s="25" t="n">
-        <v>220395.64</v>
+        <v>217803.8</v>
       </c>
       <c r="F22" s="25" t="n">
-        <v>3076.84</v>
+        <v>485</v>
       </c>
       <c r="G22" s="26" t="inlineStr">
         <is>
@@ -1520,10 +1520,10 @@
         <v>33800</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>26127.4</v>
+        <v>26428.22</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>-3515.2</v>
+        <v>-3214.38</v>
       </c>
       <c r="G23" s="26" t="inlineStr">
         <is>
@@ -1567,10 +1567,10 @@
         <v>32700</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>32516.88</v>
+        <v>33020.46</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>6912.78</v>
+        <v>7416.36</v>
       </c>
       <c r="G24" s="26" t="inlineStr">
         <is>
@@ -1614,10 +1614,10 @@
         <v>34100</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>28701.97</v>
+        <v>28596.26</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>-930.9299999999999</v>
+        <v>-1036.64</v>
       </c>
       <c r="G25" s="26" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
         <v>4500</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>14823</v>
+        <v>15099.3</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>1971</v>
+        <v>2247.3</v>
       </c>
       <c r="G26" s="26" t="inlineStr">
         <is>
@@ -1708,10 +1708,10 @@
         <v>9200</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>15859.88</v>
+        <v>15881.04</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>2989.08</v>
+        <v>3010.24</v>
       </c>
       <c r="G27" s="26" t="inlineStr">
         <is>
@@ -1755,10 +1755,10 @@
         <v>14400</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>19680.48</v>
+        <v>19524.96</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>1378.08</v>
+        <v>1222.56</v>
       </c>
       <c r="G28" s="26" t="inlineStr">
         <is>
@@ -1802,10 +1802,10 @@
         <v>4157.52</v>
       </c>
       <c r="E29" s="30" t="n">
-        <v>8540.379999999999</v>
+        <v>8438.93</v>
       </c>
       <c r="F29" s="30" t="n">
-        <v>536.3200000000001</v>
+        <v>434.88</v>
       </c>
       <c r="G29" s="31" t="inlineStr">
         <is>
@@ -1849,10 +1849,10 @@
         <v>9722</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>5628.07</v>
+        <v>5690.29</v>
       </c>
       <c r="F30" s="30" t="n">
-        <v>291.66</v>
+        <v>353.88</v>
       </c>
       <c r="G30" s="31" t="inlineStr">
         <is>
@@ -1896,10 +1896,10 @@
         <v>4943.96</v>
       </c>
       <c r="E31" s="30" t="n">
-        <v>4910.34</v>
+        <v>4897.98</v>
       </c>
       <c r="F31" s="30" t="n">
-        <v>241.27</v>
+        <v>228.91</v>
       </c>
       <c r="G31" s="31" t="inlineStr">
         <is>
@@ -1943,10 +1943,10 @@
         <v>7379.54</v>
       </c>
       <c r="E32" s="30" t="n">
-        <v>4294.89</v>
+        <v>4243.24</v>
       </c>
       <c r="F32" s="30" t="n">
-        <v>292.97</v>
+        <v>241.31</v>
       </c>
       <c r="G32" s="31" t="inlineStr">
         <is>
@@ -1990,10 +1990,10 @@
         <v>3665.01</v>
       </c>
       <c r="E33" s="30" t="n">
-        <v>4181.78</v>
+        <v>4134.13</v>
       </c>
       <c r="F33" s="30" t="n">
-        <v>179.95</v>
+        <v>132.31</v>
       </c>
       <c r="G33" s="31" t="inlineStr">
         <is>
@@ -2037,10 +2037,10 @@
         <v>4550.55</v>
       </c>
       <c r="E34" s="30" t="n">
-        <v>3824.74</v>
+        <v>3813.36</v>
       </c>
       <c r="F34" s="30" t="n">
-        <v>489.64</v>
+        <v>478.26</v>
       </c>
       <c r="G34" s="31" t="inlineStr">
         <is>
@@ -2084,10 +2084,10 @@
         <v>400.63</v>
       </c>
       <c r="E35" s="30" t="n">
-        <v>740.3200000000001</v>
+        <v>741.25</v>
       </c>
       <c r="F35" s="30" t="n">
-        <v>73.31999999999999</v>
+        <v>74.23999999999999</v>
       </c>
       <c r="G35" s="31" t="inlineStr">
         <is>
@@ -2131,10 +2131,10 @@
         <v>736.3</v>
       </c>
       <c r="E36" s="30" t="n">
-        <v>738.73</v>
+        <v>738.29</v>
       </c>
       <c r="F36" s="30" t="n">
-        <v>71.72</v>
+        <v>71.27</v>
       </c>
       <c r="G36" s="31" t="inlineStr">
         <is>
@@ -2178,10 +2178,10 @@
         <v>473.85</v>
       </c>
       <c r="E37" s="30" t="n">
-        <v>503.7</v>
+        <v>511.19</v>
       </c>
       <c r="F37" s="30" t="n">
-        <v>36.82</v>
+        <v>44.3</v>
       </c>
       <c r="G37" s="31" t="inlineStr">
         <is>
@@ -2225,10 +2225,10 @@
         <v>5299.96</v>
       </c>
       <c r="E38" s="30" t="n">
-        <v>2146.48</v>
+        <v>2210.08</v>
       </c>
       <c r="F38" s="30" t="n">
-        <v>145.75</v>
+        <v>209.35</v>
       </c>
       <c r="G38" s="31" t="inlineStr">
         <is>
@@ -2272,10 +2272,10 @@
         <v>576.8</v>
       </c>
       <c r="E39" s="30" t="n">
-        <v>781.5599999999999</v>
+        <v>790.79</v>
       </c>
       <c r="F39" s="30" t="n">
-        <v>114.55</v>
+        <v>123.78</v>
       </c>
       <c r="G39" s="31" t="inlineStr">
         <is>
@@ -2319,10 +2319,10 @@
         <v>459.67</v>
       </c>
       <c r="E40" s="30" t="n">
-        <v>714.5599999999999</v>
+        <v>717.1799999999999</v>
       </c>
       <c r="F40" s="30" t="n">
-        <v>47.58</v>
+        <v>50.2</v>
       </c>
       <c r="G40" s="31" t="inlineStr">
         <is>
@@ -2366,10 +2366,10 @@
         <v>611.75</v>
       </c>
       <c r="E41" s="30" t="n">
-        <v>740.22</v>
+        <v>742.05</v>
       </c>
       <c r="F41" s="30" t="n">
-        <v>73.23</v>
+        <v>75.06</v>
       </c>
       <c r="G41" s="31" t="inlineStr">
         <is>
@@ -2413,10 +2413,10 @@
         <v>1046.73</v>
       </c>
       <c r="E42" s="30" t="n">
-        <v>2150.19</v>
+        <v>2124.65</v>
       </c>
       <c r="F42" s="30" t="n">
-        <v>150.21</v>
+        <v>124.67</v>
       </c>
       <c r="G42" s="31" t="inlineStr">
         <is>
@@ -2460,10 +2460,10 @@
         <v>1825.9</v>
       </c>
       <c r="E43" s="30" t="n">
-        <v>2083.35</v>
+        <v>2059.62</v>
       </c>
       <c r="F43" s="30" t="n">
-        <v>83.26000000000001</v>
+        <v>59.52</v>
       </c>
       <c r="G43" s="31" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>1059.17</v>
       </c>
       <c r="E44" s="30" t="n">
-        <v>1090.95</v>
+        <v>1080.35</v>
       </c>
       <c r="F44" s="30" t="n">
-        <v>90.98</v>
+        <v>80.39</v>
       </c>
       <c r="G44" s="31" t="inlineStr">
         <is>
@@ -2554,10 +2554,10 @@
         <v>1812.7</v>
       </c>
       <c r="E45" s="30" t="n">
-        <v>1054.99</v>
+        <v>1042.3</v>
       </c>
       <c r="F45" s="30" t="n">
-        <v>54.92</v>
+        <v>42.24</v>
       </c>
       <c r="G45" s="31" t="inlineStr">
         <is>
@@ -2601,10 +2601,10 @@
         <v>1227.03</v>
       </c>
       <c r="E46" s="30" t="n">
-        <v>1031.32</v>
+        <v>1028.25</v>
       </c>
       <c r="F46" s="30" t="n">
-        <v>31.29</v>
+        <v>28.22</v>
       </c>
       <c r="G46" s="31" t="inlineStr">
         <is>
@@ -2648,10 +2648,10 @@
         <v>1834.47</v>
       </c>
       <c r="E47" s="30" t="n">
-        <v>2237.14</v>
+        <v>2278.96</v>
       </c>
       <c r="F47" s="30" t="n">
-        <v>237.2</v>
+        <v>279.02</v>
       </c>
       <c r="G47" s="31" t="inlineStr">
         <is>
@@ -2695,10 +2695,10 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E48" s="30" t="n">
-        <v>1219.26</v>
+        <v>1233.65</v>
       </c>
       <c r="F48" s="30" t="n">
-        <v>219.29</v>
+        <v>233.68</v>
       </c>
       <c r="G48" s="31" t="inlineStr">
         <is>
@@ -2742,10 +2742,10 @@
         <v>689.02</v>
       </c>
       <c r="E49" s="30" t="n">
-        <v>1071.08</v>
+        <v>1075.01</v>
       </c>
       <c r="F49" s="30" t="n">
-        <v>71.11</v>
+        <v>75.03</v>
       </c>
       <c r="G49" s="31" t="inlineStr">
         <is>
@@ -2789,10 +2789,10 @@
         <v>4757.9</v>
       </c>
       <c r="E50" s="30" t="n">
-        <v>1926.95</v>
+        <v>1984.04</v>
       </c>
       <c r="F50" s="30" t="n">
-        <v>-73.27</v>
+        <v>-16.18</v>
       </c>
       <c r="G50" s="31" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>953.96</v>
       </c>
       <c r="E51" s="30" t="n">
-        <v>1154.29</v>
+        <v>1157.15</v>
       </c>
       <c r="F51" s="30" t="n">
-        <v>154.26</v>
+        <v>157.12</v>
       </c>
       <c r="G51" s="31" t="inlineStr">
         <is>
@@ -2883,10 +2883,10 @@
         <v>595.47</v>
       </c>
       <c r="E52" s="30" t="n">
-        <v>1033.74</v>
+        <v>1039.69</v>
       </c>
       <c r="F52" s="30" t="n">
-        <v>33.76</v>
+        <v>39.72</v>
       </c>
       <c r="G52" s="31" t="inlineStr">
         <is>
@@ -2930,10 +2930,10 @@
         <v>65064.33</v>
       </c>
       <c r="E53" s="35" t="n">
-        <v>74238.39999999999</v>
+        <v>73392.56</v>
       </c>
       <c r="F53" s="35" t="n">
-        <v>7918.33</v>
+        <v>7072.49</v>
       </c>
       <c r="G53" s="36" t="inlineStr">
         <is>
@@ -2977,10 +2977,10 @@
         <v>63490</v>
       </c>
       <c r="E54" s="35" t="n">
-        <v>63058.27</v>
+        <v>62899.54</v>
       </c>
       <c r="F54" s="35" t="n">
-        <v>4856.99</v>
+        <v>4698.26</v>
       </c>
       <c r="G54" s="36" t="inlineStr">
         <is>
@@ -3024,10 +3024,10 @@
         <v>32370.29</v>
       </c>
       <c r="E55" s="35" t="n">
-        <v>38805.5</v>
+        <v>38744</v>
       </c>
       <c r="F55" s="35" t="n">
-        <v>6804.23</v>
+        <v>6742.73</v>
       </c>
       <c r="G55" s="36" t="inlineStr">
         <is>
@@ -3071,10 +3071,10 @@
         <v>20086.63</v>
       </c>
       <c r="E56" s="35" t="n">
-        <v>34870.39</v>
+        <v>35071.26</v>
       </c>
       <c r="F56" s="35" t="n">
-        <v>2870.38</v>
+        <v>3071.25</v>
       </c>
       <c r="G56" s="36" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         <v>41014.88</v>
       </c>
       <c r="E57" s="35" t="n">
-        <v>34915.97</v>
+        <v>34653.47</v>
       </c>
       <c r="F57" s="35" t="n">
-        <v>4355.78</v>
+        <v>4093.29</v>
       </c>
       <c r="G57" s="36" t="inlineStr">
         <is>
@@ -3165,10 +3165,10 @@
         <v>20716.63</v>
       </c>
       <c r="E58" s="35" t="n">
-        <v>25067.12</v>
+        <v>25129.27</v>
       </c>
       <c r="F58" s="35" t="n">
-        <v>2465.28</v>
+        <v>2527.43</v>
       </c>
       <c r="G58" s="36" t="inlineStr">
         <is>
@@ -3212,10 +3212,10 @@
         <v>14624.61</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>24437.72</v>
+        <v>24232.98</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>5237.07</v>
+        <v>5032.33</v>
       </c>
       <c r="G59" s="36" t="inlineStr">
         <is>
@@ -3259,10 +3259,10 @@
         <v>21163.93</v>
       </c>
       <c r="E60" s="35" t="n">
-        <v>24122.65</v>
+        <v>24133.23</v>
       </c>
       <c r="F60" s="35" t="n">
-        <v>4920.61</v>
+        <v>4931.2</v>
       </c>
       <c r="G60" s="36" t="inlineStr">
         <is>
@@ -3306,10 +3306,10 @@
         <v>16778.47</v>
       </c>
       <c r="E61" s="35" t="n">
-        <v>22734.83</v>
+        <v>23003.28</v>
       </c>
       <c r="F61" s="35" t="n">
-        <v>3533.55</v>
+        <v>3802</v>
       </c>
       <c r="G61" s="36" t="inlineStr">
         <is>
@@ -3353,10 +3353,10 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E62" s="35" t="n">
-        <v>16153.03</v>
+        <v>15952.9</v>
       </c>
       <c r="F62" s="35" t="n">
-        <v>3352.59</v>
+        <v>3152.46</v>
       </c>
       <c r="G62" s="36" t="inlineStr">
         <is>
@@ -3400,10 +3400,10 @@
         <v>37267.45</v>
       </c>
       <c r="E63" s="35" t="n">
-        <v>15093.32</v>
+        <v>15540.53</v>
       </c>
       <c r="F63" s="35" t="n">
-        <v>-4106.87</v>
+        <v>-3659.66</v>
       </c>
       <c r="G63" s="36" t="inlineStr">
         <is>
@@ -3447,10 +3447,10 @@
         <v>6798.52</v>
       </c>
       <c r="E64" s="35" t="n">
-        <v>10568.3</v>
+        <v>10607.05</v>
       </c>
       <c r="F64" s="35" t="n">
-        <v>668.29</v>
+        <v>707.05</v>
       </c>
       <c r="G64" s="36" t="inlineStr">
         <is>
@@ -3494,10 +3494,10 @@
         <v>5609.79</v>
       </c>
       <c r="E65" s="35" t="n">
-        <v>7578.83</v>
+        <v>7606.88</v>
       </c>
       <c r="F65" s="35" t="n">
-        <v>2433.53</v>
+        <v>2461.58</v>
       </c>
       <c r="G65" s="36" t="inlineStr">
         <is>
@@ -3541,10 +3541,10 @@
         <v>13403.92</v>
       </c>
       <c r="E66" s="35" t="n">
-        <v>7759.53</v>
+        <v>7845.31</v>
       </c>
       <c r="F66" s="35" t="n">
-        <v>1359.16</v>
+        <v>1444.94</v>
       </c>
       <c r="G66" s="36" t="inlineStr">
         <is>
@@ -3588,10 +3588,10 @@
         <v>5328.62</v>
       </c>
       <c r="E67" s="35" t="n">
-        <v>7499.5</v>
+        <v>7552.25</v>
       </c>
       <c r="F67" s="35" t="n">
-        <v>1099.29</v>
+        <v>1152.05</v>
       </c>
       <c r="G67" s="36" t="inlineStr">
         <is>
@@ -3635,10 +3635,10 @@
         <v>7778.64</v>
       </c>
       <c r="E68" s="35" t="n">
-        <v>7107.34</v>
+        <v>7077.78</v>
       </c>
       <c r="F68" s="35" t="n">
-        <v>106.57</v>
+        <v>77.01000000000001</v>
       </c>
       <c r="G68" s="36" t="inlineStr">
         <is>
@@ -3682,10 +3682,10 @@
         <v>3299.64</v>
       </c>
       <c r="E69" s="35" t="n">
-        <v>6778.12</v>
+        <v>6697.61</v>
       </c>
       <c r="F69" s="35" t="n">
-        <v>377.81</v>
+        <v>297.3</v>
       </c>
       <c r="G69" s="36" t="inlineStr">
         <is>
@@ -3729,10 +3729,10 @@
         <v>7852.99</v>
       </c>
       <c r="E70" s="35" t="n">
-        <v>6600.44</v>
+        <v>6580.81</v>
       </c>
       <c r="F70" s="35" t="n">
-        <v>200.25</v>
+        <v>180.62</v>
       </c>
       <c r="G70" s="36" t="inlineStr">
         <is>
@@ -3776,10 +3776,10 @@
         <v>3580.2</v>
       </c>
       <c r="E71" s="35" t="n">
-        <v>3579.13</v>
+        <v>3572.32</v>
       </c>
       <c r="F71" s="35" t="n">
-        <v>79.12</v>
+        <v>72.31999999999999</v>
       </c>
       <c r="G71" s="36" t="inlineStr">
         <is>
@@ -3820,13 +3820,13 @@
         <v>1</v>
       </c>
       <c r="D72" s="5" t="n">
-        <v>10200.3</v>
+        <v>10212.83</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>10200.3</v>
+        <v>10212.83</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>0.3</v>
+        <v>12.83</v>
       </c>
       <c r="G72" s="6" t="inlineStr">
         <is>
@@ -3864,16 +3864,16 @@
         <v>519671</v>
       </c>
       <c r="C73" s="9" t="n">
-        <v>1.4272</v>
+        <v>1.4279</v>
       </c>
       <c r="D73" s="10" t="n">
-        <v>1059.67</v>
+        <v>1074.3</v>
       </c>
       <c r="E73" s="10" t="n">
-        <v>1572.55</v>
+        <v>1592.11</v>
       </c>
       <c r="F73" s="10" t="n">
-        <v>60.19</v>
+        <v>58.12</v>
       </c>
       <c r="G73" s="11" t="inlineStr">
         <is>
@@ -3911,16 +3911,16 @@
         <v>90010</v>
       </c>
       <c r="C74" s="9" t="n">
-        <v>1.6521</v>
+        <v>1.652</v>
       </c>
       <c r="D74" s="10" t="n">
-        <v>901.66</v>
+        <v>915.53</v>
       </c>
       <c r="E74" s="10" t="n">
-        <v>1502.17</v>
+        <v>1506.96</v>
       </c>
       <c r="F74" s="10" t="n">
-        <v>12.53</v>
+        <v>-5.49</v>
       </c>
       <c r="G74" s="11" t="inlineStr">
         <is>
@@ -3964,10 +3964,10 @@
         <v>898.04</v>
       </c>
       <c r="E75" s="10" t="n">
-        <v>1351.19</v>
+        <v>1347.06</v>
       </c>
       <c r="F75" s="10" t="n">
-        <v>140.18</v>
+        <v>136.05</v>
       </c>
       <c r="G75" s="11" t="inlineStr">
         <is>
@@ -4005,16 +4005,16 @@
         <v>3318</v>
       </c>
       <c r="C76" s="9" t="n">
-        <v>0.9333</v>
+        <v>0.9335</v>
       </c>
       <c r="D76" s="10" t="n">
-        <v>1379.75</v>
+        <v>1401.53</v>
       </c>
       <c r="E76" s="10" t="n">
-        <v>1324.97</v>
+        <v>1329.21</v>
       </c>
       <c r="F76" s="10" t="n">
-        <v>37.25</v>
+        <v>20.88</v>
       </c>
       <c r="G76" s="11" t="inlineStr">
         <is>
@@ -4058,10 +4058,10 @@
         <v>492.58</v>
       </c>
       <c r="E77" s="10" t="n">
-        <v>966.9299999999999</v>
+        <v>968.76</v>
       </c>
       <c r="F77" s="10" t="n">
-        <v>81.97</v>
+        <v>83.79000000000001</v>
       </c>
       <c r="G77" s="11" t="inlineStr">
         <is>
@@ -4099,16 +4099,16 @@
         <v>530015</v>
       </c>
       <c r="C78" s="9" t="n">
-        <v>2.1249</v>
+        <v>2.1277</v>
       </c>
       <c r="D78" s="10" t="n">
-        <v>414.51</v>
+        <v>421.99</v>
       </c>
       <c r="E78" s="10" t="n">
-        <v>948.52</v>
+        <v>959.1799999999999</v>
       </c>
       <c r="F78" s="10" t="n">
-        <v>67.73</v>
+        <v>61.32</v>
       </c>
       <c r="G78" s="11" t="inlineStr">
         <is>
@@ -4152,10 +4152,10 @@
         <v>390.82</v>
       </c>
       <c r="E79" s="10" t="n">
-        <v>388.16</v>
+        <v>387.19</v>
       </c>
       <c r="F79" s="10" t="n">
-        <v>13.01</v>
+        <v>12.04</v>
       </c>
       <c r="G79" s="11" t="inlineStr">
         <is>
@@ -4199,10 +4199,10 @@
         <v>214.89</v>
       </c>
       <c r="E80" s="10" t="n">
-        <v>212.14</v>
+        <v>211.47</v>
       </c>
       <c r="F80" s="10" t="n">
-        <v>0.92</v>
+        <v>0.26</v>
       </c>
       <c r="G80" s="11" t="inlineStr">
         <is>
@@ -4246,10 +4246,10 @@
         <v>212.74</v>
       </c>
       <c r="E81" s="10" t="n">
-        <v>166.6</v>
+        <v>165.19</v>
       </c>
       <c r="F81" s="10" t="n">
-        <v>23.89</v>
+        <v>22.49</v>
       </c>
       <c r="G81" s="11" t="inlineStr">
         <is>
@@ -4293,10 +4293,10 @@
         <v>62.09</v>
       </c>
       <c r="E82" s="10" t="n">
-        <v>84.63</v>
+        <v>84.38</v>
       </c>
       <c r="F82" s="10" t="n">
-        <v>4.59</v>
+        <v>4.34</v>
       </c>
       <c r="G82" s="11" t="inlineStr">
         <is>
@@ -4334,16 +4334,16 @@
         <v>1594</v>
       </c>
       <c r="C83" s="9" t="n">
-        <v>1.2358</v>
+        <v>1.2424</v>
       </c>
       <c r="D83" s="10" t="n">
-        <v>33.12</v>
+        <v>48.92</v>
       </c>
       <c r="E83" s="10" t="n">
-        <v>41.76</v>
+        <v>61.55</v>
       </c>
       <c r="F83" s="10" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="G83" s="11" t="inlineStr">
         <is>
@@ -4387,10 +4387,10 @@
         <v>25.8</v>
       </c>
       <c r="E84" s="10" t="n">
-        <v>36.19</v>
+        <v>36.13</v>
       </c>
       <c r="F84" s="10" t="n">
-        <v>-0.89</v>
+        <v>-0.95</v>
       </c>
       <c r="G84" s="11" t="inlineStr">
         <is>
@@ -4475,16 +4475,16 @@
         <v>90010</v>
       </c>
       <c r="C86" s="9" t="n">
-        <v>1.6564</v>
+        <v>1.6562</v>
       </c>
       <c r="D86" s="10" t="n">
-        <v>1001.44</v>
+        <v>1029.18</v>
       </c>
       <c r="E86" s="10" t="n">
-        <v>1668.4</v>
+        <v>1694.03</v>
       </c>
       <c r="F86" s="10" t="n">
-        <v>9.609999999999999</v>
+        <v>-10.5</v>
       </c>
       <c r="G86" s="11" t="inlineStr">
         <is>
@@ -4522,16 +4522,16 @@
         <v>519671</v>
       </c>
       <c r="C87" s="9" t="n">
-        <v>1.4267</v>
+        <v>1.428</v>
       </c>
       <c r="D87" s="10" t="n">
-        <v>1086.37</v>
+        <v>1115.64</v>
       </c>
       <c r="E87" s="10" t="n">
-        <v>1612.17</v>
+        <v>1653.38</v>
       </c>
       <c r="F87" s="10" t="n">
-        <v>62.25</v>
+        <v>60.24</v>
       </c>
       <c r="G87" s="11" t="inlineStr">
         <is>
@@ -4569,16 +4569,16 @@
         <v>3318</v>
       </c>
       <c r="C88" s="9" t="n">
-        <v>0.9342</v>
+        <v>0.9345</v>
       </c>
       <c r="D88" s="10" t="n">
-        <v>1454.76</v>
+        <v>1498.3</v>
       </c>
       <c r="E88" s="10" t="n">
-        <v>1397.01</v>
+        <v>1420.99</v>
       </c>
       <c r="F88" s="10" t="n">
-        <v>37.97</v>
+        <v>20.83</v>
       </c>
       <c r="G88" s="11" t="inlineStr">
         <is>
@@ -4622,10 +4622,10 @@
         <v>915.97</v>
       </c>
       <c r="E89" s="10" t="n">
-        <v>1378.17</v>
+        <v>1373.95</v>
       </c>
       <c r="F89" s="10" t="n">
-        <v>140.33</v>
+        <v>136.11</v>
       </c>
       <c r="G89" s="11" t="inlineStr">
         <is>
@@ -4669,10 +4669,10 @@
         <v>528.99</v>
       </c>
       <c r="E90" s="10" t="n">
-        <v>1038.41</v>
+        <v>1040.36</v>
       </c>
       <c r="F90" s="10" t="n">
-        <v>86.65000000000001</v>
+        <v>88.61</v>
       </c>
       <c r="G90" s="11" t="inlineStr">
         <is>
@@ -4710,16 +4710,16 @@
         <v>530015</v>
       </c>
       <c r="C91" s="9" t="n">
-        <v>2.1306</v>
+        <v>2.1357</v>
       </c>
       <c r="D91" s="10" t="n">
-        <v>421.98</v>
+        <v>436.95</v>
       </c>
       <c r="E91" s="10" t="n">
-        <v>965.62</v>
+        <v>993.1900000000001</v>
       </c>
       <c r="F91" s="10" t="n">
-        <v>66.55</v>
+        <v>59.99</v>
       </c>
       <c r="G91" s="11" t="inlineStr">
         <is>
@@ -4763,10 +4763,10 @@
         <v>426.97</v>
       </c>
       <c r="E92" s="10" t="n">
-        <v>424.07</v>
+        <v>423</v>
       </c>
       <c r="F92" s="10" t="n">
-        <v>14.69</v>
+        <v>13.62</v>
       </c>
       <c r="G92" s="11" t="inlineStr">
         <is>
@@ -4810,10 +4810,10 @@
         <v>227.52</v>
       </c>
       <c r="E93" s="10" t="n">
-        <v>224.61</v>
+        <v>223.9</v>
       </c>
       <c r="F93" s="10" t="n">
-        <v>1.09</v>
+        <v>0.39</v>
       </c>
       <c r="G93" s="11" t="inlineStr">
         <is>
@@ -4857,10 +4857,10 @@
         <v>142.1</v>
       </c>
       <c r="E94" s="10" t="n">
-        <v>193.68</v>
+        <v>193.11</v>
       </c>
       <c r="F94" s="10" t="n">
-        <v>11.23</v>
+        <v>10.66</v>
       </c>
       <c r="G94" s="11" t="inlineStr">
         <is>
@@ -4904,10 +4904,10 @@
         <v>212.74</v>
       </c>
       <c r="E95" s="10" t="n">
-        <v>166.6</v>
+        <v>165.19</v>
       </c>
       <c r="F95" s="10" t="n">
-        <v>23.89</v>
+        <v>22.49</v>
       </c>
       <c r="G95" s="11" t="inlineStr">
         <is>
@@ -4945,16 +4945,16 @@
         <v>1594</v>
       </c>
       <c r="C96" s="9" t="n">
-        <v>1.2358</v>
+        <v>1.2423</v>
       </c>
       <c r="D96" s="10" t="n">
-        <v>66.28</v>
+        <v>97.89</v>
       </c>
       <c r="E96" s="10" t="n">
-        <v>83.56999999999999</v>
+        <v>123.17</v>
       </c>
       <c r="F96" s="10" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="G96" s="11" t="inlineStr">
         <is>
@@ -4998,10 +4998,10 @@
         <v>25.8</v>
       </c>
       <c r="E97" s="10" t="n">
-        <v>36.19</v>
+        <v>36.13</v>
       </c>
       <c r="F97" s="10" t="n">
-        <v>-0.89</v>
+        <v>-0.95</v>
       </c>
       <c r="G97" s="11" t="inlineStr">
         <is>
@@ -5092,10 +5092,10 @@
         <v>171152.16</v>
       </c>
       <c r="E99" s="30" t="n">
-        <v>176338.07</v>
+        <v>176526.34</v>
       </c>
       <c r="F99" s="30" t="n">
-        <v>290.96</v>
+        <v>479.23</v>
       </c>
       <c r="G99" s="31" t="inlineStr">
         <is>
@@ -5139,10 +5139,10 @@
         <v>11598.58</v>
       </c>
       <c r="E100" s="30" t="n">
-        <v>18001</v>
+        <v>18302.56</v>
       </c>
       <c r="F100" s="30" t="n">
-        <v>1000.96</v>
+        <v>1302.52</v>
       </c>
       <c r="G100" s="31" t="inlineStr">
         <is>
@@ -5186,10 +5186,10 @@
         <v>128864.36</v>
       </c>
       <c r="E101" s="30" t="n">
-        <v>138915.78</v>
+        <v>139044.64</v>
       </c>
       <c r="F101" s="30" t="n">
-        <v>270.62</v>
+        <v>399.48</v>
       </c>
       <c r="G101" s="31" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         <v>132719.84</v>
       </c>
       <c r="E102" s="30" t="n">
-        <v>143204.71</v>
+        <v>143337.43</v>
       </c>
       <c r="F102" s="30" t="n">
-        <v>79.63</v>
+        <v>212.35</v>
       </c>
       <c r="G102" s="31" t="inlineStr">
         <is>
@@ -5280,10 +5280,10 @@
         <v>59685.02</v>
       </c>
       <c r="E103" s="30" t="n">
-        <v>74665.96000000001</v>
+        <v>74845.02</v>
       </c>
       <c r="F103" s="30" t="n">
-        <v>423.76</v>
+        <v>602.8200000000001</v>
       </c>
       <c r="G103" s="31" t="inlineStr">
         <is>
@@ -5327,10 +5327,10 @@
         <v>76964.17</v>
       </c>
       <c r="E104" s="30" t="n">
-        <v>100207.35</v>
+        <v>100438.24</v>
       </c>
       <c r="F104" s="30" t="n">
-        <v>969.75</v>
+        <v>1200.64</v>
       </c>
       <c r="G104" s="31" t="inlineStr">
         <is>
@@ -5374,10 +5374,10 @@
         <v>140577.44</v>
       </c>
       <c r="E105" s="30" t="n">
-        <v>151907.98</v>
+        <v>152245.37</v>
       </c>
       <c r="F105" s="30" t="n">
-        <v>182.75</v>
+        <v>520.14</v>
       </c>
       <c r="G105" s="31" t="inlineStr">
         <is>
@@ -5421,10 +5421,10 @@
         <v>9697.57</v>
       </c>
       <c r="E106" s="35" t="n">
-        <v>11092.08</v>
+        <v>11046.5</v>
       </c>
       <c r="F106" s="35" t="n">
-        <v>891.21</v>
+        <v>845.63</v>
       </c>
       <c r="G106" s="36" t="inlineStr">
         <is>
@@ -5468,10 +5468,10 @@
         <v>8677.6</v>
       </c>
       <c r="E107" s="35" t="n">
-        <v>9901.139999999999</v>
+        <v>9788.33</v>
       </c>
       <c r="F107" s="35" t="n">
-        <v>1100.32</v>
+        <v>987.51</v>
       </c>
       <c r="G107" s="36" t="inlineStr">
         <is>
@@ -5515,10 +5515,10 @@
         <v>6096.21</v>
       </c>
       <c r="E108" s="35" t="n">
-        <v>6054.76</v>
+        <v>6039.52</v>
       </c>
       <c r="F108" s="35" t="n">
-        <v>854.6900000000001</v>
+        <v>839.45</v>
       </c>
       <c r="G108" s="36" t="inlineStr">
         <is>
@@ -5562,10 +5562,10 @@
         <v>6750.28</v>
       </c>
       <c r="E109" s="35" t="n">
-        <v>5746.51</v>
+        <v>5703.31</v>
       </c>
       <c r="F109" s="35" t="n">
-        <v>946.39</v>
+        <v>903.1900000000001</v>
       </c>
       <c r="G109" s="36" t="inlineStr">
         <is>
@@ -5609,10 +5609,10 @@
         <v>2760.12</v>
       </c>
       <c r="E110" s="35" t="n">
-        <v>4612.16</v>
+        <v>4573.52</v>
       </c>
       <c r="F110" s="35" t="n">
-        <v>1012.14</v>
+        <v>973.49</v>
       </c>
       <c r="G110" s="36" t="inlineStr">
         <is>
@@ -5656,10 +5656,10 @@
         <v>4423.48</v>
       </c>
       <c r="E111" s="35" t="n">
-        <v>3717.93</v>
+        <v>3706.88</v>
       </c>
       <c r="F111" s="35" t="n">
-        <v>517.55</v>
+        <v>506.49</v>
       </c>
       <c r="G111" s="36" t="inlineStr">
         <is>
@@ -5703,10 +5703,10 @@
         <v>1981.84</v>
       </c>
       <c r="E112" s="35" t="n">
-        <v>3440.47</v>
+        <v>3460.29</v>
       </c>
       <c r="F112" s="35" t="n">
-        <v>249.32</v>
+        <v>269.13</v>
       </c>
       <c r="G112" s="36" t="inlineStr">
         <is>
@@ -5750,10 +5750,10 @@
         <v>2046.97</v>
       </c>
       <c r="E113" s="35" t="n">
-        <v>3469.61</v>
+        <v>3426.63</v>
       </c>
       <c r="F113" s="35" t="n">
-        <v>757.38</v>
+        <v>714.39</v>
       </c>
       <c r="G113" s="36" t="inlineStr">
         <is>
@@ -5797,10 +5797,10 @@
         <v>5949.77</v>
       </c>
       <c r="E114" s="35" t="n">
-        <v>3444.32</v>
+        <v>3482.4</v>
       </c>
       <c r="F114" s="35" t="n">
-        <v>243.94</v>
+        <v>282.02</v>
       </c>
       <c r="G114" s="36" t="inlineStr">
         <is>
@@ -5844,10 +5844,10 @@
         <v>1884.74</v>
       </c>
       <c r="E115" s="35" t="n">
-        <v>2280.54</v>
+        <v>2286.19</v>
       </c>
       <c r="F115" s="35" t="n">
-        <v>280.45</v>
+        <v>286.1</v>
       </c>
       <c r="G115" s="36" t="inlineStr">
         <is>
@@ -5891,10 +5891,10 @@
         <v>1213.09</v>
       </c>
       <c r="E116" s="35" t="n">
-        <v>2241.67</v>
+        <v>2244.46</v>
       </c>
       <c r="F116" s="35" t="n">
-        <v>641.6</v>
+        <v>644.39</v>
       </c>
       <c r="G116" s="36" t="inlineStr">
         <is>
@@ -5938,10 +5938,10 @@
         <v>1630.08</v>
       </c>
       <c r="E117" s="35" t="n">
-        <v>1954.14</v>
+        <v>1951.04</v>
       </c>
       <c r="F117" s="35" t="n">
-        <v>354.05</v>
+        <v>350.96</v>
       </c>
       <c r="G117" s="36" t="inlineStr">
         <is>
@@ -5985,10 +5985,10 @@
         <v>1407.29</v>
       </c>
       <c r="E118" s="35" t="n">
-        <v>1906.88</v>
+        <v>1929.39</v>
       </c>
       <c r="F118" s="35" t="n">
-        <v>306.79</v>
+        <v>329.31</v>
       </c>
       <c r="G118" s="36" t="inlineStr">
         <is>
@@ -6032,10 +6032,10 @@
         <v>1338.46</v>
       </c>
       <c r="E119" s="35" t="n">
-        <v>1378.61</v>
+        <v>1365.23</v>
       </c>
       <c r="F119" s="35" t="n">
-        <v>178.55</v>
+        <v>165.17</v>
       </c>
       <c r="G119" s="36" t="inlineStr">
         <is>
@@ -6079,10 +6079,10 @@
         <v>3350.7</v>
       </c>
       <c r="E120" s="35" t="n">
-        <v>1357.03</v>
+        <v>1397.24</v>
       </c>
       <c r="F120" s="35" t="n">
-        <v>-243.26</v>
+        <v>-203.05</v>
       </c>
       <c r="G120" s="36" t="inlineStr">
         <is>
@@ -6126,10 +6126,10 @@
         <v>1495.03</v>
       </c>
       <c r="E121" s="35" t="n">
-        <v>1231.31</v>
+        <v>1217.55</v>
       </c>
       <c r="F121" s="35" t="n">
-        <v>31.25</v>
+        <v>17.49</v>
       </c>
       <c r="G121" s="36" t="inlineStr">
         <is>
@@ -6173,10 +6173,10 @@
         <v>900.35</v>
       </c>
       <c r="E122" s="35" t="n">
-        <v>1026.22</v>
+        <v>1026.67</v>
       </c>
       <c r="F122" s="35" t="n">
-        <v>226.17</v>
+        <v>226.62</v>
       </c>
       <c r="G122" s="36" t="inlineStr">
         <is>
@@ -6220,10 +6220,10 @@
         <v>733.79</v>
       </c>
       <c r="E123" s="35" t="n">
-        <v>894.86</v>
+        <v>911.59</v>
       </c>
       <c r="F123" s="35" t="n">
-        <v>94.81</v>
+        <v>111.54</v>
       </c>
       <c r="G123" s="36" t="inlineStr">
         <is>
@@ -6267,10 +6267,10 @@
         <v>496.13</v>
       </c>
       <c r="E124" s="35" t="n">
-        <v>527.39</v>
+        <v>535.23</v>
       </c>
       <c r="F124" s="35" t="n">
-        <v>127.36</v>
+        <v>135.2</v>
       </c>
       <c r="G124" s="36" t="inlineStr">
         <is>
@@ -6314,10 +6314,10 @@
         <v>333.04</v>
       </c>
       <c r="E125" s="35" t="n">
-        <v>468.72</v>
+        <v>472.02</v>
       </c>
       <c r="F125" s="35" t="n">
-        <v>68.70999999999999</v>
+        <v>72</v>
       </c>
       <c r="G125" s="36" t="inlineStr">
         <is>
@@ -6361,10 +6361,10 @@
         <v>325.61</v>
       </c>
       <c r="E126" s="35" t="n">
-        <v>438.27</v>
+        <v>434.69</v>
       </c>
       <c r="F126" s="35" t="n">
-        <v>38.26</v>
+        <v>34.68</v>
       </c>
       <c r="G126" s="36" t="inlineStr">
         <is>
@@ -6408,10 +6408,10 @@
         <v>275.49</v>
       </c>
       <c r="E127" s="35" t="n">
-        <v>428.25</v>
+        <v>429.82</v>
       </c>
       <c r="F127" s="35" t="n">
-        <v>28.24</v>
+        <v>29.81</v>
       </c>
       <c r="G127" s="36" t="inlineStr">
         <is>
@@ -6455,10 +6455,10 @@
         <v>206.23</v>
       </c>
       <c r="E128" s="35" t="n">
-        <v>423.64</v>
+        <v>418.61</v>
       </c>
       <c r="F128" s="35" t="n">
-        <v>23.63</v>
+        <v>18.6</v>
       </c>
       <c r="G128" s="36" t="inlineStr">
         <is>
@@ -6502,10 +6502,10 @@
         <v>275.96</v>
       </c>
       <c r="E129" s="35" t="n">
-        <v>252.14</v>
+        <v>251.1</v>
       </c>
       <c r="F129" s="35" t="n">
-        <v>23.37</v>
+        <v>22.33</v>
       </c>
       <c r="G129" s="36" t="inlineStr">
         <is>
@@ -6534,6 +6534,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>